--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CK\Hubito\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Lang" sheetId="3" r:id="rId3"/>
     <sheet name="Thuy" sheetId="4" r:id="rId4"/>
     <sheet name="KT" sheetId="5" r:id="rId5"/>
-    <sheet name="BM" sheetId="6" r:id="rId6"/>
+    <sheet name="Cuong" sheetId="7" r:id="rId6"/>
+    <sheet name="BM" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="89">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -258,6 +259,45 @@
   <si>
     <t>30000 (21/05/2017)</t>
   </si>
+  <si>
+    <t>30000 (7/6/2017)</t>
+  </si>
+  <si>
+    <t>Vay</t>
+  </si>
+  <si>
+    <t>Tra</t>
+  </si>
+  <si>
+    <t>(21/06/2017)</t>
+  </si>
+  <si>
+    <t>Cuong</t>
+  </si>
+  <si>
+    <t>102050+30120</t>
+  </si>
+  <si>
+    <t>Thu (KT)</t>
+  </si>
+  <si>
+    <t>5000 (12/6/2017)</t>
+  </si>
+  <si>
+    <t>122050+30120</t>
+  </si>
+  <si>
+    <t>Dau tu</t>
+  </si>
+  <si>
+    <t>Thu ngoai</t>
+  </si>
+  <si>
+    <t>(12/06/2017)</t>
+  </si>
+  <si>
+    <t>(13/06/2017)</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,9 +734,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,6 +747,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145:H145"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="93"/>
+      <c r="G1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -1078,25 +1140,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93" t="s">
+      <c r="J5" s="101"/>
+      <c r="K5" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="93"/>
+      <c r="L5" s="101"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1120,43 +1182,43 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>77000</v>
+        <v>82140</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>69400</v>
+        <v>73700</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>7600</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94">
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="102">
         <v>70000</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="93" t="s">
+      <c r="J7" s="102"/>
+      <c r="K7" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10013)-SUM(J8:J10013)</f>
-        <v>9240</v>
+        <f>SUM(I8:I10019)-SUM(J8:J10019)</f>
+        <v>1000</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1169,13 +1231,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1184,7 +1246,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>56333.333333333328</v>
+        <v>59916.666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1197,13 +1259,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1212,7 +1274,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>18686.666666666668</v>
+        <v>20243.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1225,22 +1287,22 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="86">
-        <f>102050+31300</f>
-        <v>133350</v>
+      <c r="N10" s="1">
+        <f>122050+30120</f>
+        <v>152170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1253,13 +1315,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1274,13 +1336,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1295,13 +1357,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1316,13 +1378,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1337,13 +1399,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1358,11 +1420,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1377,11 +1439,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1396,13 +1458,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1417,13 +1479,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1438,20 +1500,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="93" t="s">
+      <c r="K20" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="93"/>
+      <c r="L20" s="101"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1463,13 +1525,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1484,13 +1546,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1505,13 +1567,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1526,11 +1588,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1545,13 +1607,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1566,13 +1628,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1587,13 +1649,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1608,13 +1670,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1629,11 +1691,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1645,13 +1707,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1667,13 +1729,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1689,13 +1751,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1711,13 +1773,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1733,13 +1795,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1755,11 +1817,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1775,13 +1837,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1797,13 +1859,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1819,13 +1881,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1841,13 +1903,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1863,13 +1925,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1885,13 +1947,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1907,13 +1969,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1929,13 +1991,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1951,13 +2013,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="93" t="s">
+      <c r="D44" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1973,13 +2035,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1995,11 +2057,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -2015,13 +2077,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -2037,13 +2099,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2059,11 +2121,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2079,13 +2141,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="93" t="s">
+      <c r="D50" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2101,13 +2163,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2123,13 +2185,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2145,13 +2207,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="93" t="s">
+      <c r="D53" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2167,13 +2229,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="93" t="s">
+      <c r="D54" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2186,13 +2248,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2208,20 +2270,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="93" t="s">
+      <c r="D56" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="93" t="s">
+      <c r="K56" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="93"/>
+      <c r="L56" s="101"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2231,13 +2293,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="93" t="s">
+      <c r="D57" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2250,13 +2312,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="93" t="s">
+      <c r="D58" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2272,13 +2334,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2294,13 +2356,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2316,13 +2378,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2338,13 +2400,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2360,13 +2422,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="93" t="s">
+      <c r="D63" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="93"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2382,13 +2444,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2404,13 +2466,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D65" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2426,13 +2488,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="93"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2448,13 +2510,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="93"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2467,13 +2529,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="93" t="s">
+      <c r="D68" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2489,13 +2551,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="93" t="s">
+      <c r="D69" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2511,13 +2573,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2534,13 +2596,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2556,13 +2618,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2575,13 +2637,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="D73" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2594,13 +2656,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="93" t="s">
+      <c r="D74" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2619,13 +2681,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="93" t="s">
+      <c r="D75" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="101"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2641,13 +2703,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2663,13 +2725,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="93" t="s">
+      <c r="D77" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2685,13 +2747,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="93" t="s">
+      <c r="D78" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2707,13 +2769,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="93"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2729,13 +2791,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="93" t="s">
+      <c r="D80" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2751,13 +2813,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="93" t="s">
+      <c r="D81" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2773,13 +2835,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2795,13 +2857,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="93" t="s">
+      <c r="D83" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2817,13 +2879,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="93" t="s">
+      <c r="D84" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="93"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2839,13 +2901,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="101"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2861,13 +2923,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="93" t="s">
+      <c r="D86" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="101"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2884,13 +2946,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="93" t="s">
+      <c r="D87" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="93"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="101"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2906,13 +2968,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D88" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2928,13 +2990,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="93"/>
-      <c r="H89" s="93"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -2951,13 +3013,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2973,13 +3035,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="93" t="s">
+      <c r="D91" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2995,13 +3057,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="93" t="s">
+      <c r="D92" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -3014,13 +3076,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="93" t="s">
+      <c r="D93" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -3036,13 +3098,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="93" t="s">
+      <c r="D94" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3058,13 +3120,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="93" t="s">
+      <c r="D95" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="93"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="101"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3081,13 +3143,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="93" t="s">
+      <c r="D96" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="93"/>
-      <c r="F96" s="93"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="93"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="101"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3103,13 +3165,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="93" t="s">
+      <c r="D97" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="93"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3125,13 +3187,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="93" t="s">
+      <c r="D98" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="93"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3147,13 +3209,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="93" t="s">
+      <c r="D99" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="93"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="101"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3169,13 +3231,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="93" t="s">
+      <c r="D100" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3192,13 +3254,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="93" t="s">
+      <c r="D101" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="101"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3214,13 +3276,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="93" t="s">
+      <c r="D102" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="93"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="101"/>
+      <c r="H102" s="101"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3228,7 +3290,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" ref="A103:A166" si="1">A102+1</f>
+        <f t="shared" ref="A103:A172" si="1">A102+1</f>
         <v>89</v>
       </c>
       <c r="B103" s="19">
@@ -3237,13 +3299,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="93" t="s">
+      <c r="D103" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="93"/>
-      <c r="H103" s="93"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="101"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3260,13 +3322,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="93" t="s">
+      <c r="D104" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3283,13 +3345,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="93" t="s">
+      <c r="D105" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="93"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
-      <c r="H105" s="93"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3305,11 +3367,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="93"/>
-      <c r="E106" s="93"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="93"/>
-      <c r="H106" s="93"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="101"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3325,13 +3387,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="93" t="s">
+      <c r="D107" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="93"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="93"/>
-      <c r="H107" s="93"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="101"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3347,11 +3409,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="93"/>
-      <c r="E108" s="93"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
-      <c r="H108" s="93"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="101"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3364,13 +3426,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="93" t="s">
+      <c r="D109" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="93"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="93"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="101"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3379,13 +3441,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="93" t="s">
+      <c r="D110" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="93"/>
-      <c r="H110" s="93"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="101"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3397,13 +3459,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="93" t="s">
+      <c r="D111" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="93"/>
-      <c r="H111" s="93"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="101"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3420,13 +3482,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="93" t="s">
+      <c r="D112" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="93"/>
-      <c r="H112" s="93"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3443,13 +3505,13 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="93" t="s">
+      <c r="D113" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="93"/>
-      <c r="H113" s="93"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="101"/>
       <c r="I113" s="1">
         <v>5050</v>
       </c>
@@ -3461,13 +3523,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="93" t="s">
+      <c r="D114" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
-      <c r="G114" s="93"/>
-      <c r="H114" s="93"/>
+      <c r="E114" s="101"/>
+      <c r="F114" s="101"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="101"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3476,13 +3538,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="93" t="s">
+      <c r="D115" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="93"/>
-      <c r="H115" s="93"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3499,13 +3561,13 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="93" t="s">
+      <c r="D116" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="93"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="93"/>
-      <c r="H116" s="93"/>
+      <c r="E116" s="101"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
       <c r="I116" s="1">
         <f t="shared" ref="I116:I118" si="2">220+140</f>
         <v>360</v>
@@ -3522,13 +3584,13 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="93" t="s">
+      <c r="D117" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="93"/>
-      <c r="H117" s="93"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="101"/>
       <c r="I117" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3545,13 +3607,13 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="93" t="s">
+      <c r="D118" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="93"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="93"/>
-      <c r="H118" s="93"/>
+      <c r="E118" s="101"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="101"/>
+      <c r="H118" s="101"/>
       <c r="I118" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3568,13 +3630,13 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="93" t="s">
+      <c r="D119" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="93"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="93"/>
-      <c r="H119" s="93"/>
+      <c r="E119" s="101"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="101"/>
       <c r="I119" s="1">
         <v>220</v>
       </c>
@@ -3590,13 +3652,13 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="93" t="s">
+      <c r="D120" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="93"/>
-      <c r="H120" s="93"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="101"/>
       <c r="I120" s="1">
         <v>220</v>
       </c>
@@ -3612,13 +3674,13 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="93" t="s">
+      <c r="D121" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="93"/>
-      <c r="F121" s="93"/>
-      <c r="G121" s="93"/>
-      <c r="H121" s="93"/>
+      <c r="E121" s="101"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="101"/>
       <c r="I121" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -3635,13 +3697,13 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="93" t="s">
+      <c r="D122" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="93"/>
-      <c r="F122" s="93"/>
-      <c r="G122" s="93"/>
-      <c r="H122" s="93"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="101"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="101"/>
       <c r="I122" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -3658,13 +3720,13 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="93" t="s">
+      <c r="D123" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="93"/>
-      <c r="F123" s="93"/>
-      <c r="G123" s="93"/>
-      <c r="H123" s="93"/>
+      <c r="E123" s="101"/>
+      <c r="F123" s="101"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="101"/>
       <c r="I123" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -3681,11 +3743,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="93"/>
-      <c r="E124" s="93"/>
-      <c r="F124" s="93"/>
-      <c r="G124" s="93"/>
-      <c r="H124" s="93"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="101"/>
+      <c r="G124" s="101"/>
+      <c r="H124" s="101"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3698,13 +3760,13 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="93" t="s">
+      <c r="D125" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="93"/>
-      <c r="F125" s="93"/>
-      <c r="G125" s="93"/>
-      <c r="H125" s="93"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="101"/>
       <c r="I125" s="1">
         <v>150</v>
       </c>
@@ -3720,13 +3782,13 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="93" t="s">
+      <c r="D126" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="93"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="93"/>
-      <c r="H126" s="93"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="101"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="101"/>
       <c r="I126" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -3743,13 +3805,13 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="93" t="s">
+      <c r="D127" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="93"/>
-      <c r="F127" s="93"/>
-      <c r="G127" s="93"/>
-      <c r="H127" s="93"/>
+      <c r="E127" s="101"/>
+      <c r="F127" s="101"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="101"/>
       <c r="I127" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -3766,13 +3828,13 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="93" t="s">
+      <c r="D128" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="93"/>
-      <c r="F128" s="93"/>
-      <c r="G128" s="93"/>
-      <c r="H128" s="93"/>
+      <c r="E128" s="101"/>
+      <c r="F128" s="101"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="101"/>
       <c r="I128" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3789,13 +3851,13 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="93" t="s">
+      <c r="D129" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="93"/>
-      <c r="F129" s="93"/>
-      <c r="G129" s="93"/>
-      <c r="H129" s="93"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
       <c r="I129" s="1">
         <f>220</f>
         <v>220</v>
@@ -3812,13 +3874,13 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="93" t="s">
+      <c r="D130" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="93"/>
-      <c r="F130" s="93"/>
-      <c r="G130" s="93"/>
-      <c r="H130" s="93"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
       <c r="I130" s="1">
         <f>220+150</f>
         <v>370</v>
@@ -3828,13 +3890,13 @@
       <c r="A131" s="83"/>
       <c r="B131" s="84"/>
       <c r="C131" s="84"/>
-      <c r="D131" s="93" t="s">
+      <c r="D131" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="93"/>
-      <c r="F131" s="93"/>
-      <c r="G131" s="93"/>
-      <c r="H131" s="93"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="101"/>
+      <c r="H131" s="101"/>
       <c r="I131" s="1">
         <v>30000</v>
       </c>
@@ -3846,13 +3908,13 @@
       <c r="A132" s="83"/>
       <c r="B132" s="84"/>
       <c r="C132" s="84"/>
-      <c r="D132" s="93" t="s">
+      <c r="D132" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="93"/>
-      <c r="F132" s="93"/>
-      <c r="G132" s="93"/>
-      <c r="H132" s="93"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="101"/>
       <c r="J132" s="1">
         <v>30000</v>
       </c>
@@ -3868,13 +3930,13 @@
       <c r="C133" s="29">
         <v>27.4</v>
       </c>
-      <c r="D133" s="93" t="s">
+      <c r="D133" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E133" s="93"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="93"/>
-      <c r="H133" s="93"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="101"/>
       <c r="I133" s="1">
         <f>220+170</f>
         <v>390</v>
@@ -3891,13 +3953,13 @@
       <c r="C134" s="29">
         <v>28.4</v>
       </c>
-      <c r="D134" s="93" t="s">
+      <c r="D134" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E134" s="93"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="93"/>
-      <c r="H134" s="93"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="101"/>
+      <c r="H134" s="101"/>
       <c r="I134" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3914,13 +3976,13 @@
       <c r="C135" s="29">
         <v>29.4</v>
       </c>
-      <c r="D135" s="93" t="s">
+      <c r="D135" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E135" s="93"/>
-      <c r="F135" s="93"/>
-      <c r="G135" s="93"/>
-      <c r="H135" s="93"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="101"/>
+      <c r="H135" s="101"/>
       <c r="I135" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3937,13 +3999,13 @@
       <c r="C136" s="29">
         <v>30.4</v>
       </c>
-      <c r="D136" s="93" t="s">
+      <c r="D136" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="93"/>
-      <c r="F136" s="93"/>
-      <c r="G136" s="93"/>
-      <c r="H136" s="93"/>
+      <c r="E136" s="101"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="101"/>
+      <c r="H136" s="101"/>
       <c r="I136" s="1">
         <f>220+240</f>
         <v>460</v>
@@ -3960,13 +4022,13 @@
       <c r="C137" s="5">
         <v>1.5</v>
       </c>
-      <c r="D137" s="93" t="s">
+      <c r="D137" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="93"/>
-      <c r="F137" s="93"/>
-      <c r="G137" s="93"/>
-      <c r="H137" s="93"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="101"/>
+      <c r="G137" s="101"/>
+      <c r="H137" s="101"/>
       <c r="I137" s="1">
         <v>220</v>
       </c>
@@ -3982,13 +4044,13 @@
       <c r="C138" s="5">
         <v>2.5</v>
       </c>
-      <c r="D138" s="93" t="s">
+      <c r="D138" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E138" s="93"/>
-      <c r="F138" s="93"/>
-      <c r="G138" s="93"/>
-      <c r="H138" s="93"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="101"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
       <c r="I138" s="1">
         <v>220</v>
       </c>
@@ -4001,16 +4063,16 @@
       <c r="B139" s="29">
         <v>28.5</v>
       </c>
-      <c r="C139" s="88">
+      <c r="C139" s="87">
         <v>3.5</v>
       </c>
-      <c r="D139" s="93" t="s">
+      <c r="D139" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E139" s="93"/>
-      <c r="F139" s="93"/>
-      <c r="G139" s="93"/>
-      <c r="H139" s="93"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="101"/>
+      <c r="H139" s="101"/>
       <c r="I139" s="1">
         <f>220+220</f>
         <v>440</v>
@@ -4024,16 +4086,16 @@
       <c r="B140" s="29">
         <v>29.5</v>
       </c>
-      <c r="C140" s="88">
+      <c r="C140" s="87">
         <v>4.5</v>
       </c>
-      <c r="D140" s="93" t="s">
+      <c r="D140" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="93"/>
-      <c r="F140" s="93"/>
-      <c r="G140" s="93"/>
-      <c r="H140" s="93"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="101"/>
+      <c r="G140" s="101"/>
+      <c r="H140" s="101"/>
       <c r="I140" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4047,16 +4109,16 @@
       <c r="B141" s="29">
         <v>30.5</v>
       </c>
-      <c r="C141" s="88">
+      <c r="C141" s="87">
         <v>5.5</v>
       </c>
-      <c r="D141" s="93" t="s">
+      <c r="D141" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E141" s="93"/>
-      <c r="F141" s="93"/>
-      <c r="G141" s="93"/>
-      <c r="H141" s="93"/>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="101"/>
+      <c r="H141" s="101"/>
       <c r="I141" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4070,766 +4132,936 @@
       <c r="B142" s="29">
         <v>31.5</v>
       </c>
-      <c r="C142" s="88">
+      <c r="C142" s="87">
         <v>6.5</v>
       </c>
-      <c r="D142" s="93"/>
-      <c r="E142" s="93"/>
-      <c r="F142" s="93"/>
-      <c r="G142" s="93"/>
-      <c r="H142" s="93"/>
+      <c r="D142" s="101"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="101"/>
+      <c r="G142" s="101"/>
+      <c r="H142" s="101"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="87">
+      <c r="A143" s="86">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B143" s="5">
         <v>1.6</v>
       </c>
-      <c r="C143" s="88">
+      <c r="C143" s="87">
         <v>7.5</v>
       </c>
-      <c r="D143" s="93" t="s">
+      <c r="D143" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="93"/>
-      <c r="F143" s="93"/>
-      <c r="G143" s="93"/>
-      <c r="H143" s="93"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="101"/>
+      <c r="G143" s="101"/>
+      <c r="H143" s="101"/>
       <c r="I143" s="1">
         <f>140+140</f>
         <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="87">
+      <c r="A144" s="86">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B144" s="5">
         <v>2.6</v>
       </c>
-      <c r="C144" s="88">
+      <c r="C144" s="87">
         <v>8.5</v>
       </c>
-      <c r="D144" s="93" t="s">
+      <c r="D144" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="93"/>
-      <c r="F144" s="93"/>
-      <c r="G144" s="93"/>
-      <c r="H144" s="93"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="101"/>
       <c r="I144" s="1">
         <f>140</f>
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="87">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="86">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B145" s="88">
+      <c r="B145" s="87">
         <v>3.6</v>
       </c>
-      <c r="C145" s="88">
+      <c r="C145" s="87">
         <v>9.5</v>
       </c>
-      <c r="D145" s="93"/>
-      <c r="E145" s="93"/>
-      <c r="F145" s="93"/>
-      <c r="G145" s="93"/>
-      <c r="H145" s="93"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="87">
+      <c r="D145" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145" s="101"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="101"/>
+      <c r="I145" s="1">
+        <f>220*4+140+100</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="86">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B146" s="88">
+      <c r="B146" s="87">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C146" s="88">
+      <c r="C146" s="87">
         <v>10.5</v>
       </c>
-      <c r="D146" s="93"/>
-      <c r="E146" s="93"/>
-      <c r="F146" s="93"/>
-      <c r="G146" s="93"/>
-      <c r="H146" s="93"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="87">
+      <c r="D146" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146" s="101"/>
+      <c r="F146" s="101"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="86">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B147" s="88">
+      <c r="B147" s="87">
         <v>5.6</v>
       </c>
-      <c r="C147" s="88">
+      <c r="C147" s="87">
         <v>11.5</v>
       </c>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
-      <c r="H147" s="93"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="87">
+      <c r="D147" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147" s="101"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="86">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B148" s="88">
+      <c r="B148" s="87">
         <v>6.6</v>
       </c>
-      <c r="C148" s="88">
+      <c r="C148" s="87">
         <v>12.5</v>
       </c>
-      <c r="D148" s="93"/>
-      <c r="E148" s="93"/>
-      <c r="F148" s="93"/>
-      <c r="G148" s="93"/>
-      <c r="H148" s="93"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="87">
-        <f t="shared" si="1"/>
+      <c r="D148" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="101"/>
+      <c r="F148" s="101"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="101"/>
+      <c r="I148" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="92"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149" s="101"/>
+      <c r="F149" s="101"/>
+      <c r="G149" s="101"/>
+      <c r="H149" s="101"/>
+      <c r="J149" s="1">
+        <f>980+200</f>
+        <v>1180</v>
+      </c>
+      <c r="K149" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="86">
+        <f>A148+1</f>
         <v>129</v>
       </c>
-      <c r="B149" s="88">
+      <c r="B150" s="87">
         <v>7.6</v>
       </c>
-      <c r="C149" s="88">
+      <c r="C150" s="87">
         <v>13.5</v>
       </c>
-      <c r="D149" s="93"/>
-      <c r="E149" s="93"/>
-      <c r="F149" s="93"/>
-      <c r="G149" s="93"/>
-      <c r="H149" s="93"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="87">
-        <f t="shared" si="1"/>
+      <c r="D150" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="101"/>
+      <c r="F150" s="101"/>
+      <c r="G150" s="101"/>
+      <c r="H150" s="101"/>
+      <c r="I150" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="94"/>
+      <c r="B151" s="95"/>
+      <c r="C151" s="95"/>
+      <c r="D151" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="101"/>
+      <c r="F151" s="101"/>
+      <c r="G151" s="101"/>
+      <c r="H151" s="101"/>
+      <c r="I151" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="94"/>
+      <c r="B152" s="95"/>
+      <c r="C152" s="95"/>
+      <c r="D152" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="101"/>
+      <c r="F152" s="101"/>
+      <c r="G152" s="101"/>
+      <c r="H152" s="101"/>
+      <c r="J152" s="1">
+        <f>30000</f>
+        <v>30000</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="86">
+        <f>A150+1</f>
         <v>130</v>
       </c>
-      <c r="B150" s="88">
+      <c r="B153" s="87">
         <v>8.6</v>
       </c>
-      <c r="C150" s="88">
+      <c r="C153" s="87">
         <v>14.5</v>
       </c>
-      <c r="D150" s="93"/>
-      <c r="E150" s="93"/>
-      <c r="F150" s="93"/>
-      <c r="G150" s="93"/>
-      <c r="H150" s="93"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="87">
+      <c r="D153" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="101"/>
+      <c r="F153" s="101"/>
+      <c r="G153" s="101"/>
+      <c r="H153" s="101"/>
+      <c r="I153" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="86">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="B151" s="88">
+      <c r="B154" s="87">
         <v>9.6</v>
       </c>
-      <c r="C151" s="88">
+      <c r="C154" s="87">
         <v>15.5</v>
       </c>
-      <c r="D151" s="93"/>
-      <c r="E151" s="93"/>
-      <c r="F151" s="93"/>
-      <c r="G151" s="93"/>
-      <c r="H151" s="93"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="87">
+      <c r="D154" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="101"/>
+      <c r="F154" s="101"/>
+      <c r="G154" s="101"/>
+      <c r="H154" s="101"/>
+      <c r="I154" s="1">
+        <f>220</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="86">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="B152" s="88">
+      <c r="B155" s="87">
         <v>10.6</v>
       </c>
-      <c r="C152" s="88">
+      <c r="C155" s="87">
         <v>16.5</v>
       </c>
-      <c r="D152" s="93"/>
-      <c r="E152" s="93"/>
-      <c r="F152" s="93"/>
-      <c r="G152" s="93"/>
-      <c r="H152" s="93"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="87">
+      <c r="D155" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E155" s="101"/>
+      <c r="F155" s="101"/>
+      <c r="G155" s="101"/>
+      <c r="H155" s="101"/>
+      <c r="I155" s="1">
+        <f>220+380</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="86">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="B153" s="88">
+      <c r="B156" s="87">
         <v>11.6</v>
       </c>
-      <c r="C153" s="88">
+      <c r="C156" s="87">
         <v>17.5</v>
       </c>
-      <c r="D153" s="93"/>
-      <c r="E153" s="93"/>
-      <c r="F153" s="93"/>
-      <c r="G153" s="93"/>
-      <c r="H153" s="93"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="87">
+      <c r="D156" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156" s="101"/>
+      <c r="F156" s="101"/>
+      <c r="G156" s="101"/>
+      <c r="H156" s="101"/>
+      <c r="I156" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="86">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="B154" s="88">
+      <c r="B157" s="87">
         <v>12.6</v>
       </c>
-      <c r="C154" s="88">
+      <c r="C157" s="87">
         <v>18.5</v>
       </c>
-      <c r="D154" s="93"/>
-      <c r="E154" s="93"/>
-      <c r="F154" s="93"/>
-      <c r="G154" s="93"/>
-      <c r="H154" s="93"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="87">
+      <c r="D157" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E157" s="101"/>
+      <c r="F157" s="101"/>
+      <c r="G157" s="101"/>
+      <c r="H157" s="101"/>
+      <c r="I157" s="1">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="86">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="B155" s="88">
+      <c r="B158" s="87">
         <v>13.6</v>
       </c>
-      <c r="C155" s="88">
+      <c r="C158" s="87">
         <v>19.5</v>
       </c>
-      <c r="D155" s="93"/>
-      <c r="E155" s="93"/>
-      <c r="F155" s="93"/>
-      <c r="G155" s="93"/>
-      <c r="H155" s="93"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="87">
-        <f t="shared" si="1"/>
+      <c r="D158" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" s="101"/>
+      <c r="F158" s="101"/>
+      <c r="G158" s="101"/>
+      <c r="H158" s="101"/>
+      <c r="J158" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="98"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="99"/>
+      <c r="D159" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="101"/>
+      <c r="F159" s="101"/>
+      <c r="G159" s="101"/>
+      <c r="H159" s="101"/>
+      <c r="J159" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="98"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="99"/>
+      <c r="D160" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="E160" s="101"/>
+      <c r="F160" s="101"/>
+      <c r="G160" s="101"/>
+      <c r="H160" s="101"/>
+      <c r="I160" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="98"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="99"/>
+      <c r="D161" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" s="101"/>
+      <c r="F161" s="101"/>
+      <c r="G161" s="101"/>
+      <c r="H161" s="101"/>
+      <c r="I161" s="1">
+        <f>440+140</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="86">
+        <f>A158+1</f>
         <v>136</v>
       </c>
-      <c r="B156" s="88">
+      <c r="B162" s="87">
         <v>14.6</v>
       </c>
-      <c r="C156" s="88">
+      <c r="C162" s="87">
         <v>20.5</v>
       </c>
-      <c r="D156" s="93"/>
-      <c r="E156" s="93"/>
-      <c r="F156" s="93"/>
-      <c r="G156" s="93"/>
-      <c r="H156" s="93"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="87">
+      <c r="D162" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162" s="101"/>
+      <c r="F162" s="101"/>
+      <c r="G162" s="101"/>
+      <c r="H162" s="101"/>
+      <c r="I162" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="86">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="B157" s="88">
+      <c r="B163" s="87">
         <v>15.6</v>
       </c>
-      <c r="C157" s="88">
+      <c r="C163" s="87">
         <v>21.5</v>
       </c>
-      <c r="D157" s="93"/>
-      <c r="E157" s="93"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="93"/>
-      <c r="H157" s="93"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="87">
+      <c r="D163" s="101"/>
+      <c r="E163" s="101"/>
+      <c r="F163" s="101"/>
+      <c r="G163" s="101"/>
+      <c r="H163" s="101"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="86">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B158" s="88">
+      <c r="B164" s="87">
         <v>16.600000000000001</v>
       </c>
-      <c r="C158" s="88">
+      <c r="C164" s="87">
         <v>22.5</v>
       </c>
-      <c r="D158" s="93"/>
-      <c r="E158" s="93"/>
-      <c r="F158" s="93"/>
-      <c r="G158" s="93"/>
-      <c r="H158" s="93"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="87">
+      <c r="D164" s="101"/>
+      <c r="E164" s="101"/>
+      <c r="F164" s="101"/>
+      <c r="G164" s="101"/>
+      <c r="H164" s="101"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="86">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="B159" s="88">
+      <c r="B165" s="87">
         <v>17.600000000000001</v>
       </c>
-      <c r="C159" s="88">
+      <c r="C165" s="87">
         <v>23.5</v>
       </c>
-      <c r="D159" s="93"/>
-      <c r="E159" s="93"/>
-      <c r="F159" s="93"/>
-      <c r="G159" s="93"/>
-      <c r="H159" s="93"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="87">
+      <c r="D165" s="101"/>
+      <c r="E165" s="101"/>
+      <c r="F165" s="101"/>
+      <c r="G165" s="101"/>
+      <c r="H165" s="101"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="86">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B160" s="88">
+      <c r="B166" s="87">
         <v>18.600000000000001</v>
       </c>
-      <c r="C160" s="88">
+      <c r="C166" s="87">
         <v>24.5</v>
       </c>
-      <c r="D160" s="93"/>
-      <c r="E160" s="93"/>
-      <c r="F160" s="93"/>
-      <c r="G160" s="93"/>
-      <c r="H160" s="93"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="87">
+      <c r="D166" s="101"/>
+      <c r="E166" s="101"/>
+      <c r="F166" s="101"/>
+      <c r="G166" s="101"/>
+      <c r="H166" s="101"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="86">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="B161" s="88">
+      <c r="B167" s="87">
         <v>19.600000000000001</v>
       </c>
-      <c r="C161" s="88">
+      <c r="C167" s="87">
         <v>25.5</v>
       </c>
-      <c r="D161" s="93"/>
-      <c r="E161" s="93"/>
-      <c r="F161" s="93"/>
-      <c r="G161" s="93"/>
-      <c r="H161" s="93"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="87">
+      <c r="D167" s="101"/>
+      <c r="E167" s="101"/>
+      <c r="F167" s="101"/>
+      <c r="G167" s="101"/>
+      <c r="H167" s="101"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="86">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="B162" s="88">
+      <c r="B168" s="87">
         <v>20.6</v>
       </c>
-      <c r="C162" s="88">
+      <c r="C168" s="87">
         <v>26.5</v>
       </c>
-      <c r="D162" s="93"/>
-      <c r="E162" s="93"/>
-      <c r="F162" s="93"/>
-      <c r="G162" s="93"/>
-      <c r="H162" s="93"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="87">
+      <c r="D168" s="101"/>
+      <c r="E168" s="101"/>
+      <c r="F168" s="101"/>
+      <c r="G168" s="101"/>
+      <c r="H168" s="101"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="86">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="B163" s="88">
+      <c r="B169" s="87">
         <v>21.6</v>
       </c>
-      <c r="C163" s="88">
+      <c r="C169" s="87">
         <v>27.5</v>
       </c>
-      <c r="D163" s="93"/>
-      <c r="E163" s="93"/>
-      <c r="F163" s="93"/>
-      <c r="G163" s="93"/>
-      <c r="H163" s="93"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="87">
+      <c r="D169" s="101"/>
+      <c r="E169" s="101"/>
+      <c r="F169" s="101"/>
+      <c r="G169" s="101"/>
+      <c r="H169" s="101"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="86">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B164" s="88">
+      <c r="B170" s="87">
         <v>22.6</v>
       </c>
-      <c r="C164" s="88">
+      <c r="C170" s="87">
         <v>28.5</v>
       </c>
-      <c r="D164" s="93"/>
-      <c r="E164" s="93"/>
-      <c r="F164" s="93"/>
-      <c r="G164" s="93"/>
-      <c r="H164" s="93"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="87">
+      <c r="D170" s="101"/>
+      <c r="E170" s="101"/>
+      <c r="F170" s="101"/>
+      <c r="G170" s="101"/>
+      <c r="H170" s="101"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="86">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="B165" s="88">
+      <c r="B171" s="87">
         <v>23.6</v>
       </c>
-      <c r="C165" s="88">
+      <c r="C171" s="87">
         <v>29.5</v>
       </c>
-      <c r="D165" s="93"/>
-      <c r="E165" s="93"/>
-      <c r="F165" s="93"/>
-      <c r="G165" s="93"/>
-      <c r="H165" s="93"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="87">
+      <c r="D171" s="101"/>
+      <c r="E171" s="101"/>
+      <c r="F171" s="101"/>
+      <c r="G171" s="101"/>
+      <c r="H171" s="101"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="86">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B166" s="88">
+      <c r="B172" s="87">
         <v>24.6</v>
       </c>
-      <c r="D166" s="93"/>
-      <c r="E166" s="93"/>
-      <c r="F166" s="93"/>
-      <c r="G166" s="93"/>
-      <c r="H166" s="93"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="87">
-        <f t="shared" ref="A167:A200" si="3">A166+1</f>
+      <c r="D172" s="101"/>
+      <c r="E172" s="101"/>
+      <c r="F172" s="101"/>
+      <c r="G172" s="101"/>
+      <c r="H172" s="101"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="86">
+        <f t="shared" ref="A173:A206" si="3">A172+1</f>
         <v>147</v>
       </c>
-      <c r="B167" s="88">
+      <c r="B173" s="87">
         <v>25.6</v>
       </c>
-      <c r="D167" s="93"/>
-      <c r="E167" s="93"/>
-      <c r="F167" s="93"/>
-      <c r="G167" s="93"/>
-      <c r="H167" s="93"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="87">
+      <c r="D173" s="101"/>
+      <c r="E173" s="101"/>
+      <c r="F173" s="101"/>
+      <c r="G173" s="101"/>
+      <c r="H173" s="101"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="86">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="B168" s="88">
+      <c r="B174" s="87">
         <v>26.6</v>
       </c>
-      <c r="D168" s="93"/>
-      <c r="E168" s="93"/>
-      <c r="F168" s="93"/>
-      <c r="G168" s="93"/>
-      <c r="H168" s="93"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="87">
+      <c r="D174" s="101"/>
+      <c r="E174" s="101"/>
+      <c r="F174" s="101"/>
+      <c r="G174" s="101"/>
+      <c r="H174" s="101"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="86">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="B169" s="88">
+      <c r="B175" s="87">
         <v>27.6</v>
       </c>
-      <c r="D169" s="93"/>
-      <c r="E169" s="93"/>
-      <c r="F169" s="93"/>
-      <c r="G169" s="93"/>
-      <c r="H169" s="93"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="87">
+      <c r="D175" s="101"/>
+      <c r="E175" s="101"/>
+      <c r="F175" s="101"/>
+      <c r="G175" s="101"/>
+      <c r="H175" s="101"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="86">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B170" s="88">
+      <c r="B176" s="87">
         <v>28.6</v>
       </c>
-      <c r="D170" s="93"/>
-      <c r="E170" s="93"/>
-      <c r="F170" s="93"/>
-      <c r="G170" s="93"/>
-      <c r="H170" s="93"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="87">
+      <c r="D176" s="101"/>
+      <c r="E176" s="101"/>
+      <c r="F176" s="101"/>
+      <c r="G176" s="101"/>
+      <c r="H176" s="101"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="86">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="B171" s="88">
+      <c r="B177" s="87">
         <v>29.6</v>
       </c>
-      <c r="D171" s="93"/>
-      <c r="E171" s="93"/>
-      <c r="F171" s="93"/>
-      <c r="G171" s="93"/>
-      <c r="H171" s="93"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="87">
+      <c r="D177" s="101"/>
+      <c r="E177" s="101"/>
+      <c r="F177" s="101"/>
+      <c r="G177" s="101"/>
+      <c r="H177" s="101"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="86">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="B172" s="88">
+      <c r="B178" s="87">
         <v>30.6</v>
       </c>
-      <c r="D172" s="93"/>
-      <c r="E172" s="93"/>
-      <c r="F172" s="93"/>
-      <c r="G172" s="93"/>
-      <c r="H172" s="93"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="87">
+      <c r="D178" s="101"/>
+      <c r="E178" s="101"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="101"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="86">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="D173" s="93"/>
-      <c r="E173" s="93"/>
-      <c r="F173" s="93"/>
-      <c r="G173" s="93"/>
-      <c r="H173" s="93"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="87">
+      <c r="D179" s="101"/>
+      <c r="E179" s="101"/>
+      <c r="F179" s="101"/>
+      <c r="G179" s="101"/>
+      <c r="H179" s="101"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="86">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="D174" s="93"/>
-      <c r="E174" s="93"/>
-      <c r="F174" s="93"/>
-      <c r="G174" s="93"/>
-      <c r="H174" s="93"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="87">
+      <c r="D180" s="101"/>
+      <c r="E180" s="101"/>
+      <c r="F180" s="101"/>
+      <c r="G180" s="101"/>
+      <c r="H180" s="101"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="86">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="D175" s="93"/>
-      <c r="E175" s="93"/>
-      <c r="F175" s="93"/>
-      <c r="G175" s="93"/>
-      <c r="H175" s="93"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="87">
+      <c r="D181" s="101"/>
+      <c r="E181" s="101"/>
+      <c r="F181" s="101"/>
+      <c r="G181" s="101"/>
+      <c r="H181" s="101"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="86">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="D176" s="93"/>
-      <c r="E176" s="93"/>
-      <c r="F176" s="93"/>
-      <c r="G176" s="93"/>
-      <c r="H176" s="93"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="87">
+      <c r="D182" s="101"/>
+      <c r="E182" s="101"/>
+      <c r="F182" s="101"/>
+      <c r="G182" s="101"/>
+      <c r="H182" s="101"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="86">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="D177" s="93"/>
-      <c r="E177" s="93"/>
-      <c r="F177" s="93"/>
-      <c r="G177" s="93"/>
-      <c r="H177" s="93"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="87">
+      <c r="D183" s="101"/>
+      <c r="E183" s="101"/>
+      <c r="F183" s="101"/>
+      <c r="G183" s="101"/>
+      <c r="H183" s="101"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="86">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="D178" s="93"/>
-      <c r="E178" s="93"/>
-      <c r="F178" s="93"/>
-      <c r="G178" s="93"/>
-      <c r="H178" s="93"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="87">
+      <c r="D184" s="101"/>
+      <c r="E184" s="101"/>
+      <c r="F184" s="101"/>
+      <c r="G184" s="101"/>
+      <c r="H184" s="101"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="86">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="D179" s="93"/>
-      <c r="E179" s="93"/>
-      <c r="F179" s="93"/>
-      <c r="G179" s="93"/>
-      <c r="H179" s="93"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="87">
+      <c r="D185" s="101"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="101"/>
+      <c r="G185" s="101"/>
+      <c r="H185" s="101"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="86">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="D180" s="93"/>
-      <c r="E180" s="93"/>
-      <c r="F180" s="93"/>
-      <c r="G180" s="93"/>
-      <c r="H180" s="93"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="87">
+      <c r="D186" s="101"/>
+      <c r="E186" s="101"/>
+      <c r="F186" s="101"/>
+      <c r="G186" s="101"/>
+      <c r="H186" s="101"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="86">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="D181" s="93"/>
-      <c r="E181" s="93"/>
-      <c r="F181" s="93"/>
-      <c r="G181" s="93"/>
-      <c r="H181" s="93"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="87">
+      <c r="D187" s="101"/>
+      <c r="E187" s="101"/>
+      <c r="F187" s="101"/>
+      <c r="G187" s="101"/>
+      <c r="H187" s="101"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="86">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="D182" s="93"/>
-      <c r="E182" s="93"/>
-      <c r="F182" s="93"/>
-      <c r="G182" s="93"/>
-      <c r="H182" s="93"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="87">
+      <c r="D188" s="101"/>
+      <c r="E188" s="101"/>
+      <c r="F188" s="101"/>
+      <c r="G188" s="101"/>
+      <c r="H188" s="101"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="86">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="D183" s="93"/>
-      <c r="E183" s="93"/>
-      <c r="F183" s="93"/>
-      <c r="G183" s="93"/>
-      <c r="H183" s="93"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="87">
+      <c r="D189" s="101"/>
+      <c r="E189" s="101"/>
+      <c r="F189" s="101"/>
+      <c r="G189" s="101"/>
+      <c r="H189" s="101"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="86">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="D184" s="93"/>
-      <c r="E184" s="93"/>
-      <c r="F184" s="93"/>
-      <c r="G184" s="93"/>
-      <c r="H184" s="93"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="87">
+      <c r="D190" s="101"/>
+      <c r="E190" s="101"/>
+      <c r="F190" s="101"/>
+      <c r="G190" s="101"/>
+      <c r="H190" s="101"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="86">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="D185" s="93"/>
-      <c r="E185" s="93"/>
-      <c r="F185" s="93"/>
-      <c r="G185" s="93"/>
-      <c r="H185" s="93"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="87">
+      <c r="D191" s="101"/>
+      <c r="E191" s="101"/>
+      <c r="F191" s="101"/>
+      <c r="G191" s="101"/>
+      <c r="H191" s="101"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="86">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="D186" s="93"/>
-      <c r="E186" s="93"/>
-      <c r="F186" s="93"/>
-      <c r="G186" s="93"/>
-      <c r="H186" s="93"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="87">
+      <c r="D192" s="101"/>
+      <c r="E192" s="101"/>
+      <c r="F192" s="101"/>
+      <c r="G192" s="101"/>
+      <c r="H192" s="101"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="86">
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
-      <c r="D187" s="93"/>
-      <c r="E187" s="93"/>
-      <c r="F187" s="93"/>
-      <c r="G187" s="93"/>
-      <c r="H187" s="93"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="87">
+      <c r="D193" s="101"/>
+      <c r="E193" s="101"/>
+      <c r="F193" s="101"/>
+      <c r="G193" s="101"/>
+      <c r="H193" s="101"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="86">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="D188" s="93"/>
-      <c r="E188" s="93"/>
-      <c r="F188" s="93"/>
-      <c r="G188" s="93"/>
-      <c r="H188" s="93"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="87">
+      <c r="D194" s="101"/>
+      <c r="E194" s="101"/>
+      <c r="F194" s="101"/>
+      <c r="G194" s="101"/>
+      <c r="H194" s="101"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="86">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="87">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="86">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="87">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="86">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="87">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="86">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="87">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="86">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="87">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="86">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="87">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="86">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="87">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="86">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="87">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="86">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="87">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="86">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="87">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="86">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="87">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="86">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="197">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -4957,11 +5189,6 @@
     <mergeCell ref="D121:H121"/>
     <mergeCell ref="D122:H122"/>
     <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
     <mergeCell ref="D130:H130"/>
     <mergeCell ref="D133:H133"/>
     <mergeCell ref="D134:H134"/>
@@ -4971,40 +5198,27 @@
     <mergeCell ref="D131:H131"/>
     <mergeCell ref="D132:H132"/>
     <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D144:H144"/>
     <mergeCell ref="D145:H145"/>
     <mergeCell ref="D146:H146"/>
     <mergeCell ref="D147:H147"/>
     <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D150:H150"/>
     <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="D186:H186"/>
     <mergeCell ref="D187:H187"/>
     <mergeCell ref="D188:H188"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D191:H191"/>
     <mergeCell ref="D180:H180"/>
     <mergeCell ref="D181:H181"/>
     <mergeCell ref="D182:H182"/>
@@ -5021,6 +5235,30 @@
     <mergeCell ref="D169:H169"/>
     <mergeCell ref="D170:H170"/>
     <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D144:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5112,10 +5350,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -6503,8 +6741,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="98"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="106"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -6527,8 +6765,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="98"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="106"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -6551,14 +6789,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="97"/>
-      <c r="E69" s="98"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="106"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -6574,8 +6812,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="100"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="108"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -6633,10 +6871,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="102"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -6699,8 +6937,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="101"/>
-      <c r="P75" s="101"/>
+      <c r="O75" s="109"/>
+      <c r="P75" s="109"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -7649,11 +7887,11 @@
         <v>28</v>
       </c>
       <c r="B124" s="54">
-        <f>Sheet1!B149</f>
+        <f>Sheet1!B150</f>
         <v>7.6</v>
       </c>
       <c r="C124" s="54">
-        <f>Sheet1!C149</f>
+        <f>Sheet1!C150</f>
         <v>13.5</v>
       </c>
       <c r="D124" s="54"/>
@@ -7668,11 +7906,11 @@
         <v>29</v>
       </c>
       <c r="B125" s="54">
-        <f>Sheet1!B150</f>
+        <f>Sheet1!B153</f>
         <v>8.6</v>
       </c>
       <c r="C125" s="54">
-        <f>Sheet1!C150</f>
+        <f>Sheet1!C153</f>
         <v>14.5</v>
       </c>
       <c r="D125" s="54"/>
@@ -7687,11 +7925,11 @@
         <v>30</v>
       </c>
       <c r="B126" s="54">
-        <f>Sheet1!B151</f>
+        <f>Sheet1!B154</f>
         <v>9.6</v>
       </c>
       <c r="C126" s="54">
-        <f>Sheet1!C151</f>
+        <f>Sheet1!C154</f>
         <v>15.5</v>
       </c>
       <c r="D126" s="54"/>
@@ -7706,11 +7944,11 @@
         <v>31</v>
       </c>
       <c r="B127" s="54">
-        <f>Sheet1!B152</f>
+        <f>Sheet1!B155</f>
         <v>10.6</v>
       </c>
       <c r="C127" s="54">
-        <f>Sheet1!C152</f>
+        <f>Sheet1!C155</f>
         <v>16.5</v>
       </c>
       <c r="D127" s="54"/>
@@ -7725,11 +7963,11 @@
         <v>32</v>
       </c>
       <c r="B128" s="54">
-        <f>Sheet1!B153</f>
+        <f>Sheet1!B156</f>
         <v>11.6</v>
       </c>
       <c r="C128" s="54">
-        <f>Sheet1!C153</f>
+        <f>Sheet1!C156</f>
         <v>17.5</v>
       </c>
       <c r="D128" s="54"/>
@@ -7744,11 +7982,11 @@
         <v>26</v>
       </c>
       <c r="B129" s="54">
-        <f>Sheet1!B154</f>
+        <f>Sheet1!B157</f>
         <v>12.6</v>
       </c>
       <c r="C129" s="54">
-        <f>Sheet1!C154</f>
+        <f>Sheet1!C157</f>
         <v>18.5</v>
       </c>
       <c r="D129" s="54"/>
@@ -7763,11 +8001,11 @@
         <v>27</v>
       </c>
       <c r="B130" s="54">
-        <f>Sheet1!B155</f>
+        <f>Sheet1!B158</f>
         <v>13.6</v>
       </c>
       <c r="C130" s="54">
-        <f>Sheet1!C155</f>
+        <f>Sheet1!C158</f>
         <v>19.5</v>
       </c>
       <c r="D130" s="54"/>
@@ -7782,11 +8020,11 @@
         <v>28</v>
       </c>
       <c r="B131" s="54">
-        <f>Sheet1!B156</f>
+        <f>Sheet1!B162</f>
         <v>14.6</v>
       </c>
       <c r="C131" s="54">
-        <f>Sheet1!C156</f>
+        <f>Sheet1!C162</f>
         <v>20.5</v>
       </c>
       <c r="D131" s="54"/>
@@ -7801,11 +8039,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="54">
-        <f>Sheet1!B157</f>
+        <f>Sheet1!B163</f>
         <v>15.6</v>
       </c>
       <c r="C132" s="54">
-        <f>Sheet1!C157</f>
+        <f>Sheet1!C163</f>
         <v>21.5</v>
       </c>
       <c r="D132" s="54"/>
@@ -7820,11 +8058,11 @@
         <v>30</v>
       </c>
       <c r="B133" s="54">
-        <f>Sheet1!B158</f>
+        <f>Sheet1!B164</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C133" s="54">
-        <f>Sheet1!C158</f>
+        <f>Sheet1!C164</f>
         <v>22.5</v>
       </c>
       <c r="D133" s="54"/>
@@ -7839,11 +8077,11 @@
         <v>31</v>
       </c>
       <c r="B134" s="54">
-        <f>Sheet1!B159</f>
+        <f>Sheet1!B165</f>
         <v>17.600000000000001</v>
       </c>
       <c r="C134" s="54">
-        <f>Sheet1!C159</f>
+        <f>Sheet1!C165</f>
         <v>23.5</v>
       </c>
       <c r="D134" s="54"/>
@@ -7858,11 +8096,11 @@
         <v>32</v>
       </c>
       <c r="B135" s="54">
-        <f>Sheet1!B160</f>
+        <f>Sheet1!B166</f>
         <v>18.600000000000001</v>
       </c>
       <c r="C135" s="54">
-        <f>Sheet1!C160</f>
+        <f>Sheet1!C166</f>
         <v>24.5</v>
       </c>
       <c r="D135" s="54"/>
@@ -7877,11 +8115,11 @@
         <v>26</v>
       </c>
       <c r="B136" s="54">
-        <f>Sheet1!B161</f>
+        <f>Sheet1!B167</f>
         <v>19.600000000000001</v>
       </c>
       <c r="C136" s="54">
-        <f>Sheet1!C161</f>
+        <f>Sheet1!C167</f>
         <v>25.5</v>
       </c>
       <c r="D136" s="54"/>
@@ -7896,11 +8134,11 @@
         <v>27</v>
       </c>
       <c r="B137" s="54">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B168</f>
         <v>20.6</v>
       </c>
       <c r="C137" s="54">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C168</f>
         <v>26.5</v>
       </c>
       <c r="D137" s="54"/>
@@ -7915,11 +8153,11 @@
         <v>28</v>
       </c>
       <c r="B138" s="54">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B169</f>
         <v>21.6</v>
       </c>
       <c r="C138" s="54">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C169</f>
         <v>27.5</v>
       </c>
       <c r="D138" s="54"/>
@@ -7934,11 +8172,11 @@
         <v>29</v>
       </c>
       <c r="B139" s="54">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B170</f>
         <v>22.6</v>
       </c>
       <c r="C139" s="54">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C170</f>
         <v>28.5</v>
       </c>
       <c r="D139" s="54"/>
@@ -7953,11 +8191,11 @@
         <v>30</v>
       </c>
       <c r="B140" s="54">
-        <f>Sheet1!B165</f>
+        <f>Sheet1!B171</f>
         <v>23.6</v>
       </c>
       <c r="C140" s="54">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C171</f>
         <v>29.5</v>
       </c>
       <c r="D140" s="54"/>
@@ -7972,11 +8210,11 @@
         <v>31</v>
       </c>
       <c r="B141" s="54">
-        <f>Sheet1!B166</f>
+        <f>Sheet1!B172</f>
         <v>24.6</v>
       </c>
       <c r="C141" s="54">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
       <c r="D141" s="54"/>
@@ -7991,11 +8229,11 @@
         <v>32</v>
       </c>
       <c r="B142" s="54">
-        <f>Sheet1!B167</f>
+        <f>Sheet1!B173</f>
         <v>25.6</v>
       </c>
       <c r="C142" s="54">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
       <c r="D142" s="54"/>
@@ -8010,11 +8248,11 @@
         <v>26</v>
       </c>
       <c r="B143" s="54">
-        <f>Sheet1!B168</f>
+        <f>Sheet1!B174</f>
         <v>26.6</v>
       </c>
       <c r="C143" s="54">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
       <c r="D143" s="54"/>
@@ -8029,11 +8267,11 @@
         <v>27</v>
       </c>
       <c r="B144" s="54">
-        <f>Sheet1!B169</f>
+        <f>Sheet1!B175</f>
         <v>27.6</v>
       </c>
       <c r="C144" s="54">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
       <c r="D144" s="54"/>
@@ -8048,11 +8286,11 @@
         <v>28</v>
       </c>
       <c r="B145" s="54">
-        <f>Sheet1!B170</f>
+        <f>Sheet1!B176</f>
         <v>28.6</v>
       </c>
       <c r="C145" s="54">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
       <c r="D145" s="54"/>
@@ -8067,11 +8305,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="54">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B177</f>
         <v>29.6</v>
       </c>
       <c r="C146" s="54">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
       <c r="D146" s="54"/>
@@ -8086,11 +8324,11 @@
         <v>30</v>
       </c>
       <c r="B147" s="54">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B178</f>
         <v>30.6</v>
       </c>
       <c r="C147" s="54">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C178</f>
         <v>0</v>
       </c>
       <c r="D147" s="54"/>
@@ -8105,11 +8343,11 @@
         <v>31</v>
       </c>
       <c r="B148" s="54">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B179</f>
         <v>0</v>
       </c>
       <c r="C148" s="54">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C179</f>
         <v>0</v>
       </c>
       <c r="D148" s="54"/>
@@ -8124,11 +8362,11 @@
         <v>32</v>
       </c>
       <c r="B149" s="54">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B180</f>
         <v>0</v>
       </c>
       <c r="C149" s="54">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C180</f>
         <v>0</v>
       </c>
       <c r="D149" s="54"/>
@@ -8143,11 +8381,11 @@
         <v>26</v>
       </c>
       <c r="B150" s="54">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B181</f>
         <v>0</v>
       </c>
       <c r="C150" s="54">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C181</f>
         <v>0</v>
       </c>
       <c r="D150" s="54"/>
@@ -8162,11 +8400,11 @@
         <v>27</v>
       </c>
       <c r="B151" s="54">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B182</f>
         <v>0</v>
       </c>
       <c r="C151" s="54">
-        <f>Sheet1!C176</f>
+        <f>Sheet1!C182</f>
         <v>0</v>
       </c>
       <c r="D151" s="54"/>
@@ -8181,11 +8419,11 @@
         <v>28</v>
       </c>
       <c r="B152" s="54">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B183</f>
         <v>0</v>
       </c>
       <c r="C152" s="54">
-        <f>Sheet1!C177</f>
+        <f>Sheet1!C183</f>
         <v>0</v>
       </c>
       <c r="D152" s="54"/>
@@ -8212,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8275,10 +8513,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -8291,15 +8529,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>26120</v>
+        <v>29520</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>23400</v>
+        <v>26400</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>2720</v>
+        <v>3120</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -8372,7 +8610,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>5400</v>
+        <v>8400</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -8399,7 +8637,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -8422,11 +8660,11 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>2180</v>
+        <v>2280</v>
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -8461,7 +8699,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -8492,11 +8730,11 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>5180</v>
+        <v>5280</v>
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>1440</v>
+        <v>2240</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -10802,7 +11040,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="58" t="s">
         <v>30</v>
       </c>
@@ -10815,7 +11053,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="58" t="s">
         <v>31</v>
       </c>
@@ -10827,8 +11065,14 @@
         <f>Sheet1!C145</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="54">
+        <v>800</v>
+      </c>
+      <c r="F130" s="54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="58" t="s">
         <v>32</v>
       </c>
@@ -10840,8 +11084,14 @@
         <f>Sheet1!C146</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="54">
+        <v>200</v>
+      </c>
+      <c r="F131" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="58" t="s">
         <v>26</v>
       </c>
@@ -10853,8 +11103,14 @@
         <f>Sheet1!C147</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="54">
+        <v>200</v>
+      </c>
+      <c r="F132" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="58" t="s">
         <v>27</v>
       </c>
@@ -10866,147 +11122,195 @@
         <f>Sheet1!C148</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="54">
+        <v>200</v>
+      </c>
+      <c r="F133" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B134" s="56">
-        <f>Sheet1!B149</f>
+        <f>Sheet1!B150</f>
         <v>7.6</v>
       </c>
       <c r="C134" s="56">
-        <f>Sheet1!C149</f>
+        <f>Sheet1!C150</f>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="54">
+        <v>200</v>
+      </c>
+      <c r="F134" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B135" s="56">
-        <f>Sheet1!B150</f>
+        <f>Sheet1!B153</f>
         <v>8.6</v>
       </c>
       <c r="C135" s="56">
-        <f>Sheet1!C150</f>
+        <f>Sheet1!C153</f>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="54">
+        <v>200</v>
+      </c>
+      <c r="F135" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B136" s="56">
-        <f>Sheet1!B151</f>
+        <f>Sheet1!B154</f>
         <v>9.6</v>
       </c>
       <c r="C136" s="56">
-        <f>Sheet1!C151</f>
+        <f>Sheet1!C154</f>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="54">
+        <v>200</v>
+      </c>
+      <c r="F136" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B137" s="56">
-        <f>Sheet1!B152</f>
+        <f>Sheet1!B155</f>
         <v>10.6</v>
       </c>
       <c r="C137" s="56">
-        <f>Sheet1!C152</f>
+        <f>Sheet1!C155</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="54">
+        <v>200</v>
+      </c>
+      <c r="F137" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B138" s="56">
-        <f>Sheet1!B153</f>
+        <f>Sheet1!B156</f>
         <v>11.6</v>
       </c>
       <c r="C138" s="56">
-        <f>Sheet1!C153</f>
+        <f>Sheet1!C156</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="54">
+        <v>200</v>
+      </c>
+      <c r="F138" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B139" s="56">
-        <f>Sheet1!B154</f>
+        <f>Sheet1!B157</f>
         <v>12.6</v>
       </c>
       <c r="C139" s="56">
-        <f>Sheet1!C154</f>
+        <f>Sheet1!C157</f>
         <v>18.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B140" s="56">
-        <f>Sheet1!B155</f>
+        <f>Sheet1!B158</f>
         <v>13.6</v>
       </c>
       <c r="C140" s="56">
-        <f>Sheet1!C155</f>
+        <f>Sheet1!C158</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="54">
+        <v>400</v>
+      </c>
+      <c r="F140" s="54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B156</f>
+        <f>Sheet1!B162</f>
         <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C156</f>
+        <f>Sheet1!C162</f>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="54">
+        <v>200</v>
+      </c>
+      <c r="F141" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B157</f>
+        <f>Sheet1!B163</f>
         <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C157</f>
+        <f>Sheet1!C163</f>
         <v>21.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B158</f>
+        <f>Sheet1!B164</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C158</f>
+        <f>Sheet1!C164</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B144" s="56">
-        <f>Sheet1!B159</f>
+        <f>Sheet1!B165</f>
         <v>17.600000000000001</v>
       </c>
       <c r="C144" s="56">
-        <f>Sheet1!C159</f>
+        <f>Sheet1!C165</f>
         <v>23.5</v>
       </c>
     </row>
@@ -11015,11 +11319,11 @@
         <v>32</v>
       </c>
       <c r="B145" s="56">
-        <f>Sheet1!B160</f>
+        <f>Sheet1!B166</f>
         <v>18.600000000000001</v>
       </c>
       <c r="C145" s="56">
-        <f>Sheet1!C160</f>
+        <f>Sheet1!C166</f>
         <v>24.5</v>
       </c>
     </row>
@@ -11028,11 +11332,11 @@
         <v>26</v>
       </c>
       <c r="B146" s="56">
-        <f>Sheet1!B161</f>
+        <f>Sheet1!B167</f>
         <v>19.600000000000001</v>
       </c>
       <c r="C146" s="56">
-        <f>Sheet1!C161</f>
+        <f>Sheet1!C167</f>
         <v>25.5</v>
       </c>
     </row>
@@ -11041,11 +11345,11 @@
         <v>27</v>
       </c>
       <c r="B147" s="56">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B168</f>
         <v>20.6</v>
       </c>
       <c r="C147" s="56">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C168</f>
         <v>26.5</v>
       </c>
     </row>
@@ -11054,11 +11358,11 @@
         <v>28</v>
       </c>
       <c r="B148" s="56">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B169</f>
         <v>21.6</v>
       </c>
       <c r="C148" s="56">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C169</f>
         <v>27.5</v>
       </c>
     </row>
@@ -11067,11 +11371,11 @@
         <v>29</v>
       </c>
       <c r="B149" s="56">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B170</f>
         <v>22.6</v>
       </c>
       <c r="C149" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C170</f>
         <v>28.5</v>
       </c>
     </row>
@@ -11080,11 +11384,11 @@
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B165</f>
+        <f>Sheet1!B171</f>
         <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C171</f>
         <v>29.5</v>
       </c>
     </row>
@@ -11093,11 +11397,11 @@
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B166</f>
+        <f>Sheet1!B172</f>
         <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
     </row>
@@ -11106,11 +11410,11 @@
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B167</f>
+        <f>Sheet1!B173</f>
         <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
     </row>
@@ -11119,11 +11423,11 @@
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B168</f>
+        <f>Sheet1!B174</f>
         <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
     </row>
@@ -11132,11 +11436,11 @@
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B169</f>
+        <f>Sheet1!B175</f>
         <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
     </row>
@@ -11145,11 +11449,11 @@
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B170</f>
+        <f>Sheet1!B176</f>
         <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
     </row>
@@ -11158,11 +11462,11 @@
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B177</f>
         <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
     </row>
@@ -11171,11 +11475,11 @@
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B178</f>
         <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C178</f>
         <v>0</v>
       </c>
     </row>
@@ -11184,11 +11488,11 @@
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B179</f>
         <v>0</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C179</f>
         <v>0</v>
       </c>
     </row>
@@ -11197,11 +11501,11 @@
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B180</f>
         <v>0</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C180</f>
         <v>0</v>
       </c>
     </row>
@@ -11210,11 +11514,11 @@
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B181</f>
         <v>0</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C181</f>
         <v>0</v>
       </c>
     </row>
@@ -11223,11 +11527,11 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B182</f>
         <v>0</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C176</f>
+        <f>Sheet1!C182</f>
         <v>0</v>
       </c>
     </row>
@@ -11236,11 +11540,11 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B183</f>
         <v>0</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C177</f>
+        <f>Sheet1!C183</f>
         <v>0</v>
       </c>
     </row>
@@ -11249,11 +11553,11 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B184</f>
         <v>0</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C178</f>
+        <f>Sheet1!C184</f>
         <v>0</v>
       </c>
     </row>
@@ -11262,11 +11566,11 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B179</f>
+        <f>Sheet1!B185</f>
         <v>0</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C179</f>
+        <f>Sheet1!C185</f>
         <v>0</v>
       </c>
     </row>
@@ -11275,11 +11579,11 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B180</f>
+        <f>Sheet1!B186</f>
         <v>0</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C180</f>
+        <f>Sheet1!C186</f>
         <v>0</v>
       </c>
     </row>
@@ -11288,11 +11592,11 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B181</f>
+        <f>Sheet1!B187</f>
         <v>0</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C181</f>
+        <f>Sheet1!C187</f>
         <v>0</v>
       </c>
     </row>
@@ -11301,11 +11605,11 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B182</f>
+        <f>Sheet1!B188</f>
         <v>0</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C182</f>
+        <f>Sheet1!C188</f>
         <v>0</v>
       </c>
     </row>
@@ -11314,11 +11618,11 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B183</f>
+        <f>Sheet1!B189</f>
         <v>0</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C183</f>
+        <f>Sheet1!C189</f>
         <v>0</v>
       </c>
     </row>
@@ -11327,11 +11631,11 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B184</f>
+        <f>Sheet1!B190</f>
         <v>0</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C184</f>
+        <f>Sheet1!C190</f>
         <v>0</v>
       </c>
     </row>
@@ -11340,11 +11644,11 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B185</f>
+        <f>Sheet1!B191</f>
         <v>0</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C185</f>
+        <f>Sheet1!C191</f>
         <v>0</v>
       </c>
     </row>
@@ -11353,11 +11657,11 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B186</f>
+        <f>Sheet1!B192</f>
         <v>0</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C186</f>
+        <f>Sheet1!C192</f>
         <v>0</v>
       </c>
     </row>
@@ -11366,11 +11670,11 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B187</f>
+        <f>Sheet1!B193</f>
         <v>0</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C187</f>
+        <f>Sheet1!C193</f>
         <v>0</v>
       </c>
     </row>
@@ -11379,11 +11683,11 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B188</f>
+        <f>Sheet1!B194</f>
         <v>0</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C188</f>
+        <f>Sheet1!C194</f>
         <v>0</v>
       </c>
     </row>
@@ -11392,11 +11696,11 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B189</f>
+        <f>Sheet1!B195</f>
         <v>0</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C189</f>
+        <f>Sheet1!C195</f>
         <v>0</v>
       </c>
     </row>
@@ -11405,11 +11709,11 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B190</f>
+        <f>Sheet1!B196</f>
         <v>0</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C190</f>
+        <f>Sheet1!C196</f>
         <v>0</v>
       </c>
     </row>
@@ -11418,11 +11722,11 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B191</f>
+        <f>Sheet1!B197</f>
         <v>0</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C191</f>
+        <f>Sheet1!C197</f>
         <v>0</v>
       </c>
     </row>
@@ -11431,11 +11735,11 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B192</f>
+        <f>Sheet1!B198</f>
         <v>0</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C192</f>
+        <f>Sheet1!C198</f>
         <v>0</v>
       </c>
     </row>
@@ -11444,11 +11748,11 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B193</f>
+        <f>Sheet1!B199</f>
         <v>0</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C193</f>
+        <f>Sheet1!C199</f>
         <v>0</v>
       </c>
     </row>
@@ -11457,11 +11761,11 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B194</f>
+        <f>Sheet1!B200</f>
         <v>0</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C194</f>
+        <f>Sheet1!C200</f>
         <v>0</v>
       </c>
     </row>
@@ -11470,11 +11774,11 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B195</f>
+        <f>Sheet1!B201</f>
         <v>0</v>
       </c>
       <c r="C180" s="56">
-        <f>Sheet1!C195</f>
+        <f>Sheet1!C201</f>
         <v>0</v>
       </c>
     </row>
@@ -11483,11 +11787,11 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B196</f>
+        <f>Sheet1!B202</f>
         <v>0</v>
       </c>
       <c r="C181" s="56">
-        <f>Sheet1!C196</f>
+        <f>Sheet1!C202</f>
         <v>0</v>
       </c>
     </row>
@@ -11496,11 +11800,11 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B197</f>
+        <f>Sheet1!B203</f>
         <v>0</v>
       </c>
       <c r="C182" s="56">
-        <f>Sheet1!C197</f>
+        <f>Sheet1!C203</f>
         <v>0</v>
       </c>
     </row>
@@ -11509,11 +11813,11 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B198</f>
+        <f>Sheet1!B204</f>
         <v>0</v>
       </c>
       <c r="C183" s="56">
-        <f>Sheet1!C198</f>
+        <f>Sheet1!C204</f>
         <v>0</v>
       </c>
     </row>
@@ -11522,11 +11826,11 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B199</f>
+        <f>Sheet1!B205</f>
         <v>0</v>
       </c>
       <c r="C184" s="56">
-        <f>Sheet1!C199</f>
+        <f>Sheet1!C205</f>
         <v>0</v>
       </c>
     </row>
@@ -11535,11 +11839,11 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B200</f>
+        <f>Sheet1!B206</f>
         <v>0</v>
       </c>
       <c r="C185" s="56">
-        <f>Sheet1!C200</f>
+        <f>Sheet1!C206</f>
         <v>0</v>
       </c>
     </row>
@@ -11548,11 +11852,11 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B201</f>
+        <f>Sheet1!B207</f>
         <v>0</v>
       </c>
       <c r="C186" s="56">
-        <f>Sheet1!C201</f>
+        <f>Sheet1!C207</f>
         <v>0</v>
       </c>
     </row>
@@ -11561,11 +11865,11 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B202</f>
+        <f>Sheet1!B208</f>
         <v>0</v>
       </c>
       <c r="C187" s="56">
-        <f>Sheet1!C202</f>
+        <f>Sheet1!C208</f>
         <v>0</v>
       </c>
     </row>
@@ -11574,11 +11878,11 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B203</f>
+        <f>Sheet1!B209</f>
         <v>0</v>
       </c>
       <c r="C188" s="56">
-        <f>Sheet1!C203</f>
+        <f>Sheet1!C209</f>
         <v>0</v>
       </c>
     </row>
@@ -11587,11 +11891,11 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B204</f>
+        <f>Sheet1!B210</f>
         <v>0</v>
       </c>
       <c r="C189" s="56">
-        <f>Sheet1!C204</f>
+        <f>Sheet1!C210</f>
         <v>0</v>
       </c>
     </row>
@@ -11600,11 +11904,11 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B205</f>
+        <f>Sheet1!B211</f>
         <v>0</v>
       </c>
       <c r="C190" s="56">
-        <f>Sheet1!C205</f>
+        <f>Sheet1!C211</f>
         <v>0</v>
       </c>
     </row>
@@ -11613,11 +11917,11 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B206</f>
+        <f>Sheet1!B212</f>
         <v>0</v>
       </c>
       <c r="C191" s="56">
-        <f>Sheet1!C206</f>
+        <f>Sheet1!C212</f>
         <v>0</v>
       </c>
     </row>
@@ -11626,11 +11930,11 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B207</f>
+        <f>Sheet1!B213</f>
         <v>0</v>
       </c>
       <c r="C192" s="56">
-        <f>Sheet1!C207</f>
+        <f>Sheet1!C213</f>
         <v>0</v>
       </c>
     </row>
@@ -11639,11 +11943,11 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B208</f>
+        <f>Sheet1!B214</f>
         <v>0</v>
       </c>
       <c r="C193" s="56">
-        <f>Sheet1!C208</f>
+        <f>Sheet1!C214</f>
         <v>0</v>
       </c>
     </row>
@@ -11652,11 +11956,11 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B209</f>
+        <f>Sheet1!B215</f>
         <v>0</v>
       </c>
       <c r="C194" s="56">
-        <f>Sheet1!C209</f>
+        <f>Sheet1!C215</f>
         <v>0</v>
       </c>
     </row>
@@ -11672,8 +11976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11699,7 +12003,7 @@
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="91"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="43" t="s">
         <v>23</v>
       </c>
@@ -11718,26 +12022,26 @@
       <c r="B3" s="47">
         <v>10000</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="89">
         <v>3.2</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="89">
         <v>7.1</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="91"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>15180</v>
+        <v>16920</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>11700</v>
+        <v>13000</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>3480</v>
+        <v>3920</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -11745,48 +12049,48 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
       <c r="K4" s="54"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="89">
         <v>10000</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="89">
         <v>5000</v>
       </c>
       <c r="F5" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="55"/>
       <c r="I5" s="44" t="s">
         <v>61</v>
@@ -11795,11 +12099,11 @@
         <v>62</v>
       </c>
       <c r="K5" s="71"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
@@ -11820,7 +12124,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -11843,7 +12147,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -11866,7 +12170,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>1200</v>
+        <v>1640</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -11889,7 +12193,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>2333.333333333333</v>
+        <v>3416.6666666666665</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -11920,7 +12224,7 @@
       </c>
       <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>1666.666666666667</v>
+        <v>2323.3333333333335</v>
       </c>
       <c r="K10" s="70"/>
     </row>
@@ -11944,7 +12248,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="92"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -14719,6 +15023,15 @@
         <f>Sheet1!C145</f>
         <v>9.5</v>
       </c>
+      <c r="D130" s="1">
+        <v>200</v>
+      </c>
+      <c r="E130" s="1">
+        <v>10</v>
+      </c>
+      <c r="F130" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="58" t="s">
@@ -14732,6 +15045,15 @@
         <f>Sheet1!C146</f>
         <v>10.5</v>
       </c>
+      <c r="D131" s="1">
+        <v>100</v>
+      </c>
+      <c r="E131" s="1">
+        <v>10</v>
+      </c>
+      <c r="F131" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="58" t="s">
@@ -14745,6 +15067,15 @@
         <f>Sheet1!C147</f>
         <v>11.5</v>
       </c>
+      <c r="D132" s="1">
+        <v>100</v>
+      </c>
+      <c r="E132" s="1">
+        <v>10</v>
+      </c>
+      <c r="F132" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="58" t="s">
@@ -14758,18 +15089,36 @@
         <f>Sheet1!C148</f>
         <v>12.5</v>
       </c>
+      <c r="D133" s="1">
+        <v>100</v>
+      </c>
+      <c r="E133" s="1">
+        <v>10</v>
+      </c>
+      <c r="F133" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B134" s="56">
-        <f>Sheet1!B149</f>
+        <f>Sheet1!B150</f>
         <v>7.6</v>
       </c>
       <c r="C134" s="56">
-        <f>Sheet1!C149</f>
+        <f>Sheet1!C150</f>
         <v>13.5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>100</v>
+      </c>
+      <c r="E134" s="1">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14777,12 +15126,21 @@
         <v>29</v>
       </c>
       <c r="B135" s="56">
-        <f>Sheet1!B150</f>
+        <f>Sheet1!B153</f>
         <v>8.6</v>
       </c>
       <c r="C135" s="56">
-        <f>Sheet1!C150</f>
+        <f>Sheet1!C153</f>
         <v>14.5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>100</v>
+      </c>
+      <c r="E135" s="1">
+        <v>10</v>
+      </c>
+      <c r="F135" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14790,12 +15148,21 @@
         <v>30</v>
       </c>
       <c r="B136" s="56">
-        <f>Sheet1!B151</f>
+        <f>Sheet1!B154</f>
         <v>9.6</v>
       </c>
       <c r="C136" s="56">
-        <f>Sheet1!C151</f>
+        <f>Sheet1!C154</f>
         <v>15.5</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14803,12 +15170,21 @@
         <v>31</v>
       </c>
       <c r="B137" s="56">
-        <f>Sheet1!B152</f>
+        <f>Sheet1!B155</f>
         <v>10.6</v>
       </c>
       <c r="C137" s="56">
-        <f>Sheet1!C152</f>
+        <f>Sheet1!C155</f>
         <v>16.5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>300</v>
+      </c>
+      <c r="E137" s="1">
+        <v>20</v>
+      </c>
+      <c r="F137" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14816,12 +15192,21 @@
         <v>32</v>
       </c>
       <c r="B138" s="56">
-        <f>Sheet1!B153</f>
+        <f>Sheet1!B156</f>
         <v>11.6</v>
       </c>
       <c r="C138" s="56">
-        <f>Sheet1!C153</f>
+        <f>Sheet1!C156</f>
         <v>17.5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>100</v>
+      </c>
+      <c r="E138" s="1">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14829,11 +15214,11 @@
         <v>26</v>
       </c>
       <c r="B139" s="56">
-        <f>Sheet1!B154</f>
+        <f>Sheet1!B157</f>
         <v>12.6</v>
       </c>
       <c r="C139" s="56">
-        <f>Sheet1!C154</f>
+        <f>Sheet1!C157</f>
         <v>18.5</v>
       </c>
     </row>
@@ -14842,12 +15227,21 @@
         <v>27</v>
       </c>
       <c r="B140" s="56">
-        <f>Sheet1!B155</f>
+        <f>Sheet1!B158</f>
         <v>13.6</v>
       </c>
       <c r="C140" s="56">
-        <f>Sheet1!C155</f>
+        <f>Sheet1!C158</f>
         <v>19.5</v>
+      </c>
+      <c r="D140" s="1">
+        <v>100</v>
+      </c>
+      <c r="E140" s="1">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14855,12 +15249,21 @@
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B156</f>
+        <f>Sheet1!B162</f>
         <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C156</f>
+        <f>Sheet1!C162</f>
         <v>20.5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>100</v>
+      </c>
+      <c r="E141" s="1">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14868,11 +15271,11 @@
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B157</f>
+        <f>Sheet1!B163</f>
         <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C157</f>
+        <f>Sheet1!C163</f>
         <v>21.5</v>
       </c>
     </row>
@@ -14881,11 +15284,11 @@
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B158</f>
+        <f>Sheet1!B164</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C158</f>
+        <f>Sheet1!C164</f>
         <v>22.5</v>
       </c>
     </row>
@@ -14894,11 +15297,11 @@
         <v>31</v>
       </c>
       <c r="B144" s="56">
-        <f>Sheet1!B159</f>
+        <f>Sheet1!B165</f>
         <v>17.600000000000001</v>
       </c>
       <c r="C144" s="56">
-        <f>Sheet1!C159</f>
+        <f>Sheet1!C165</f>
         <v>23.5</v>
       </c>
     </row>
@@ -14907,11 +15310,11 @@
         <v>32</v>
       </c>
       <c r="B145" s="56">
-        <f>Sheet1!B160</f>
+        <f>Sheet1!B166</f>
         <v>18.600000000000001</v>
       </c>
       <c r="C145" s="56">
-        <f>Sheet1!C160</f>
+        <f>Sheet1!C166</f>
         <v>24.5</v>
       </c>
     </row>
@@ -14920,11 +15323,11 @@
         <v>26</v>
       </c>
       <c r="B146" s="56">
-        <f>Sheet1!B161</f>
+        <f>Sheet1!B167</f>
         <v>19.600000000000001</v>
       </c>
       <c r="C146" s="56">
-        <f>Sheet1!C161</f>
+        <f>Sheet1!C167</f>
         <v>25.5</v>
       </c>
     </row>
@@ -14933,11 +15336,11 @@
         <v>27</v>
       </c>
       <c r="B147" s="56">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B168</f>
         <v>20.6</v>
       </c>
       <c r="C147" s="56">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C168</f>
         <v>26.5</v>
       </c>
     </row>
@@ -14946,11 +15349,11 @@
         <v>28</v>
       </c>
       <c r="B148" s="56">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B169</f>
         <v>21.6</v>
       </c>
       <c r="C148" s="56">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C169</f>
         <v>27.5</v>
       </c>
     </row>
@@ -14959,11 +15362,11 @@
         <v>29</v>
       </c>
       <c r="B149" s="56">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B170</f>
         <v>22.6</v>
       </c>
       <c r="C149" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C170</f>
         <v>28.5</v>
       </c>
     </row>
@@ -14972,11 +15375,11 @@
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B165</f>
+        <f>Sheet1!B171</f>
         <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C171</f>
         <v>29.5</v>
       </c>
     </row>
@@ -14985,11 +15388,11 @@
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B166</f>
+        <f>Sheet1!B172</f>
         <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +15401,11 @@
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B167</f>
+        <f>Sheet1!B173</f>
         <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
     </row>
@@ -15011,11 +15414,11 @@
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B168</f>
+        <f>Sheet1!B174</f>
         <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
     </row>
@@ -15024,11 +15427,11 @@
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B169</f>
+        <f>Sheet1!B175</f>
         <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
     </row>
@@ -15037,11 +15440,11 @@
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B170</f>
+        <f>Sheet1!B176</f>
         <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
     </row>
@@ -15050,11 +15453,11 @@
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B177</f>
         <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
     </row>
@@ -15063,11 +15466,11 @@
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B178</f>
         <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C178</f>
         <v>0</v>
       </c>
     </row>
@@ -15076,11 +15479,11 @@
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B179</f>
         <v>0</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C179</f>
         <v>0</v>
       </c>
     </row>
@@ -15089,11 +15492,11 @@
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B180</f>
         <v>0</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C180</f>
         <v>0</v>
       </c>
     </row>
@@ -15102,11 +15505,11 @@
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B181</f>
         <v>0</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C181</f>
         <v>0</v>
       </c>
     </row>
@@ -15115,11 +15518,11 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B182</f>
         <v>0</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C176</f>
+        <f>Sheet1!C182</f>
         <v>0</v>
       </c>
     </row>
@@ -15128,11 +15531,11 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B183</f>
         <v>0</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C177</f>
+        <f>Sheet1!C183</f>
         <v>0</v>
       </c>
     </row>
@@ -15141,11 +15544,11 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B184</f>
         <v>0</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C178</f>
+        <f>Sheet1!C184</f>
         <v>0</v>
       </c>
     </row>
@@ -15154,11 +15557,11 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B179</f>
+        <f>Sheet1!B185</f>
         <v>0</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C179</f>
+        <f>Sheet1!C185</f>
         <v>0</v>
       </c>
     </row>
@@ -15167,11 +15570,11 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B180</f>
+        <f>Sheet1!B186</f>
         <v>0</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C180</f>
+        <f>Sheet1!C186</f>
         <v>0</v>
       </c>
     </row>
@@ -15180,11 +15583,11 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B181</f>
+        <f>Sheet1!B187</f>
         <v>0</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C181</f>
+        <f>Sheet1!C187</f>
         <v>0</v>
       </c>
     </row>
@@ -15193,11 +15596,11 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B182</f>
+        <f>Sheet1!B188</f>
         <v>0</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C182</f>
+        <f>Sheet1!C188</f>
         <v>0</v>
       </c>
     </row>
@@ -15206,11 +15609,11 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B183</f>
+        <f>Sheet1!B189</f>
         <v>0</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C183</f>
+        <f>Sheet1!C189</f>
         <v>0</v>
       </c>
     </row>
@@ -15219,11 +15622,11 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B184</f>
+        <f>Sheet1!B190</f>
         <v>0</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C184</f>
+        <f>Sheet1!C190</f>
         <v>0</v>
       </c>
     </row>
@@ -15232,11 +15635,11 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B185</f>
+        <f>Sheet1!B191</f>
         <v>0</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C185</f>
+        <f>Sheet1!C191</f>
         <v>0</v>
       </c>
     </row>
@@ -15245,11 +15648,11 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B186</f>
+        <f>Sheet1!B192</f>
         <v>0</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C186</f>
+        <f>Sheet1!C192</f>
         <v>0</v>
       </c>
     </row>
@@ -15258,11 +15661,11 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B187</f>
+        <f>Sheet1!B193</f>
         <v>0</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C187</f>
+        <f>Sheet1!C193</f>
         <v>0</v>
       </c>
     </row>
@@ -15271,11 +15674,11 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B188</f>
+        <f>Sheet1!B194</f>
         <v>0</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C188</f>
+        <f>Sheet1!C194</f>
         <v>0</v>
       </c>
     </row>
@@ -15284,11 +15687,11 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B189</f>
+        <f>Sheet1!B195</f>
         <v>0</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C189</f>
+        <f>Sheet1!C195</f>
         <v>0</v>
       </c>
     </row>
@@ -15297,11 +15700,11 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B190</f>
+        <f>Sheet1!B196</f>
         <v>0</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C190</f>
+        <f>Sheet1!C196</f>
         <v>0</v>
       </c>
     </row>
@@ -15310,11 +15713,11 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B191</f>
+        <f>Sheet1!B197</f>
         <v>0</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C191</f>
+        <f>Sheet1!C197</f>
         <v>0</v>
       </c>
     </row>
@@ -15323,11 +15726,11 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B192</f>
+        <f>Sheet1!B198</f>
         <v>0</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C192</f>
+        <f>Sheet1!C198</f>
         <v>0</v>
       </c>
     </row>
@@ -15336,11 +15739,11 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B193</f>
+        <f>Sheet1!B199</f>
         <v>0</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C193</f>
+        <f>Sheet1!C199</f>
         <v>0</v>
       </c>
     </row>
@@ -15349,11 +15752,11 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B194</f>
+        <f>Sheet1!B200</f>
         <v>0</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C194</f>
+        <f>Sheet1!C200</f>
         <v>0</v>
       </c>
     </row>
@@ -15362,11 +15765,11 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B195</f>
+        <f>Sheet1!B201</f>
         <v>0</v>
       </c>
       <c r="C180" s="56">
-        <f>Sheet1!C195</f>
+        <f>Sheet1!C201</f>
         <v>0</v>
       </c>
     </row>
@@ -15375,11 +15778,11 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B196</f>
+        <f>Sheet1!B202</f>
         <v>0</v>
       </c>
       <c r="C181" s="56">
-        <f>Sheet1!C196</f>
+        <f>Sheet1!C202</f>
         <v>0</v>
       </c>
     </row>
@@ -15388,11 +15791,11 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B197</f>
+        <f>Sheet1!B203</f>
         <v>0</v>
       </c>
       <c r="C182" s="56">
-        <f>Sheet1!C197</f>
+        <f>Sheet1!C203</f>
         <v>0</v>
       </c>
     </row>
@@ -15401,11 +15804,11 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B198</f>
+        <f>Sheet1!B204</f>
         <v>0</v>
       </c>
       <c r="C183" s="56">
-        <f>Sheet1!C198</f>
+        <f>Sheet1!C204</f>
         <v>0</v>
       </c>
     </row>
@@ -15414,11 +15817,11 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B199</f>
+        <f>Sheet1!B205</f>
         <v>0</v>
       </c>
       <c r="C184" s="56">
-        <f>Sheet1!C199</f>
+        <f>Sheet1!C205</f>
         <v>0</v>
       </c>
     </row>
@@ -15427,11 +15830,11 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B200</f>
+        <f>Sheet1!B206</f>
         <v>0</v>
       </c>
       <c r="C185" s="56">
-        <f>Sheet1!C200</f>
+        <f>Sheet1!C206</f>
         <v>0</v>
       </c>
     </row>
@@ -15440,11 +15843,11 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B201</f>
+        <f>Sheet1!B207</f>
         <v>0</v>
       </c>
       <c r="C186" s="56">
-        <f>Sheet1!C201</f>
+        <f>Sheet1!C207</f>
         <v>0</v>
       </c>
     </row>
@@ -15453,11 +15856,11 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B202</f>
+        <f>Sheet1!B208</f>
         <v>0</v>
       </c>
       <c r="C187" s="56">
-        <f>Sheet1!C202</f>
+        <f>Sheet1!C208</f>
         <v>0</v>
       </c>
     </row>
@@ -15466,11 +15869,11 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B203</f>
+        <f>Sheet1!B209</f>
         <v>0</v>
       </c>
       <c r="C188" s="56">
-        <f>Sheet1!C203</f>
+        <f>Sheet1!C209</f>
         <v>0</v>
       </c>
     </row>
@@ -15479,11 +15882,11 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B204</f>
+        <f>Sheet1!B210</f>
         <v>0</v>
       </c>
       <c r="C189" s="56">
-        <f>Sheet1!C204</f>
+        <f>Sheet1!C210</f>
         <v>0</v>
       </c>
     </row>
@@ -15492,11 +15895,11 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B205</f>
+        <f>Sheet1!B211</f>
         <v>0</v>
       </c>
       <c r="C190" s="56">
-        <f>Sheet1!C205</f>
+        <f>Sheet1!C211</f>
         <v>0</v>
       </c>
     </row>
@@ -15505,11 +15908,11 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B206</f>
+        <f>Sheet1!B212</f>
         <v>0</v>
       </c>
       <c r="C191" s="56">
-        <f>Sheet1!C206</f>
+        <f>Sheet1!C212</f>
         <v>0</v>
       </c>
     </row>
@@ -15518,11 +15921,11 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B207</f>
+        <f>Sheet1!B213</f>
         <v>0</v>
       </c>
       <c r="C192" s="56">
-        <f>Sheet1!C207</f>
+        <f>Sheet1!C213</f>
         <v>0</v>
       </c>
     </row>
@@ -15531,11 +15934,11 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B208</f>
+        <f>Sheet1!B214</f>
         <v>0</v>
       </c>
       <c r="C193" s="56">
-        <f>Sheet1!C208</f>
+        <f>Sheet1!C214</f>
         <v>0</v>
       </c>
     </row>
@@ -15544,11 +15947,11 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B209</f>
+        <f>Sheet1!B215</f>
         <v>0</v>
       </c>
       <c r="C194" s="56">
-        <f>Sheet1!C209</f>
+        <f>Sheet1!C215</f>
         <v>0</v>
       </c>
     </row>
@@ -15563,371 +15966,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="12">
-        <v>50000</v>
-      </c>
-      <c r="C2" s="25">
-        <v>31.3</v>
-      </c>
-      <c r="D2" s="25">
-        <v>4.3</v>
-      </c>
+      <c r="B2" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>34</v>
-      </c>
+      <c r="A3" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="31">
-        <f>SUM(D5:D100)</f>
-        <v>51500</v>
-      </c>
+      <c r="G3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>78</v>
+      </c>
       <c r="B4" s="25" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="25">
-        <v>50000</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>75</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>1.4</v>
-      </c>
-      <c r="C5">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <f>Sheet1!B76</f>
-        <v>2.4</v>
-      </c>
-      <c r="C6">
-        <f>Sheet1!C76</f>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <f>Sheet1!B77</f>
-        <v>3.4</v>
-      </c>
-      <c r="C7">
-        <f>Sheet1!C77</f>
-        <v>7.3</v>
-      </c>
-      <c r="D7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <f>Sheet1!B78</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C8">
-        <f>Sheet1!C78</f>
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <f>Sheet1!B79</f>
-        <v>5.4</v>
-      </c>
-      <c r="C9">
-        <f>Sheet1!C79</f>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <f>Sheet1!B80</f>
-        <v>6.4</v>
-      </c>
-      <c r="C10">
-        <f>Sheet1!C80</f>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <f>Sheet1!B81</f>
-        <v>7.4</v>
-      </c>
-      <c r="C11">
-        <f>Sheet1!C81</f>
-        <v>11.3</v>
-      </c>
-      <c r="D11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <f>Sheet1!B82</f>
-        <v>8.4</v>
-      </c>
-      <c r="C12">
-        <f>Sheet1!C82</f>
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <f>Sheet1!B83</f>
-        <v>9.4</v>
-      </c>
-      <c r="C13">
-        <f>Sheet1!C83</f>
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <f>Sheet1!B84</f>
-        <v>10.4</v>
-      </c>
-      <c r="C14">
-        <f>Sheet1!C84</f>
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <f>Sheet1!B85</f>
-        <v>11.4</v>
-      </c>
-      <c r="C15">
-        <f>Sheet1!C85</f>
-        <v>15.3</v>
-      </c>
-      <c r="D15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <f>Sheet1!B86</f>
-        <v>12.4</v>
-      </c>
-      <c r="C16">
-        <f>Sheet1!C86</f>
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <f>Sheet1!B87</f>
-        <v>13.4</v>
-      </c>
-      <c r="C17">
-        <f>Sheet1!C87</f>
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <f>Sheet1!B88</f>
-        <v>14.4</v>
-      </c>
-      <c r="C18">
-        <f>Sheet1!C88</f>
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <f>Sheet1!B89</f>
-        <v>15.4</v>
-      </c>
-      <c r="C19">
-        <f>Sheet1!C89</f>
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <f>Sheet1!B90</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C20">
-        <f>Sheet1!C90</f>
-        <v>20.3</v>
-      </c>
-      <c r="D20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <f>Sheet1!B91</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C21">
-        <f>Sheet1!C91</f>
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <f>Sheet1!B92</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C22">
-        <f>Sheet1!C92</f>
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <f>Sheet1!B94</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C23">
-        <f>Sheet1!C94</f>
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <f>Sheet1!B95</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C24">
-        <f>Sheet1!C95</f>
-        <v>24.3</v>
-      </c>
-      <c r="D24">
-        <v>35500</v>
-      </c>
+      <c r="A5" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="96">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="100">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="100">
+        <f>(DATE(2017,6,14)-DATE(2017,6,12))*1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="100">
+        <f>(DATE(2017,6,14)-DATE(2017,6,12))*2.7</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="96"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15960,6 +16143,14 @@
         <v>600</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
+        <v>42899</v>
+      </c>
+      <c r="B4" s="79">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="121">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Tra</t>
   </si>
   <si>
-    <t>(21/06/2017)</t>
-  </si>
-  <si>
     <t>Cuong</t>
   </si>
   <si>
@@ -287,16 +284,115 @@
     <t>122050+30120</t>
   </si>
   <si>
-    <t>Dau tu</t>
-  </si>
-  <si>
     <t>Thu ngoai</t>
   </si>
   <si>
     <t>(12/06/2017)</t>
   </si>
   <si>
-    <t>(13/06/2017)</t>
+    <t>Thu (Láng+KT)</t>
+  </si>
+  <si>
+    <t>1000(22/06/2017)</t>
+  </si>
+  <si>
+    <t>5000 (22/6/2017)</t>
+  </si>
+  <si>
+    <t>1.6 (N)</t>
+  </si>
+  <si>
+    <t>2.6 (N)</t>
+  </si>
+  <si>
+    <t>3.6 (N)</t>
+  </si>
+  <si>
+    <t>4.6 (N)</t>
+  </si>
+  <si>
+    <t>5.6 (N)</t>
+  </si>
+  <si>
+    <t>6.6 (N)</t>
+  </si>
+  <si>
+    <t>7.6 (N)</t>
+  </si>
+  <si>
+    <t>8.6 (N)</t>
+  </si>
+  <si>
+    <t>9.6 (N)</t>
+  </si>
+  <si>
+    <t>10.6 (N)</t>
+  </si>
+  <si>
+    <t>11.6 (N)</t>
+  </si>
+  <si>
+    <t>12.6 (N)</t>
+  </si>
+  <si>
+    <t>13.6 (N)</t>
+  </si>
+  <si>
+    <t>14.6 (N)</t>
+  </si>
+  <si>
+    <t>15.6 (N)</t>
+  </si>
+  <si>
+    <t>16.6 (N)</t>
+  </si>
+  <si>
+    <t>17.6 (N)</t>
+  </si>
+  <si>
+    <t>18.6 (N)</t>
+  </si>
+  <si>
+    <t>19.6 (N)</t>
+  </si>
+  <si>
+    <t>20.6 (N)</t>
+  </si>
+  <si>
+    <t>21.6 (N)</t>
+  </si>
+  <si>
+    <t>22.6 (N)</t>
+  </si>
+  <si>
+    <t>23.6 (N)</t>
+  </si>
+  <si>
+    <t>24.6 (N)</t>
+  </si>
+  <si>
+    <t>25.6 (N)</t>
+  </si>
+  <si>
+    <t>26.6 (N)</t>
+  </si>
+  <si>
+    <t>27.6 (N)</t>
+  </si>
+  <si>
+    <t>28.6 (N)</t>
+  </si>
+  <si>
+    <t>29.6 (N)</t>
+  </si>
+  <si>
+    <t>30.6 (N)</t>
+  </si>
+  <si>
+    <t>(22/06/2017)</t>
+  </si>
+  <si>
+    <t>900 (21/06/2017)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,6 +859,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1083,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,10 +1227,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="101"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -1140,25 +1263,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101" t="s">
+      <c r="J5" s="110"/>
+      <c r="K5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="101"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1182,39 +1305,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>82140</v>
+        <v>85040</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>73700</v>
+        <v>76200</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>8440</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="102">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111">
         <v>70000</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="101" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="101"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10019)-SUM(J8:J10019)</f>
-        <v>1000</v>
+        <f>SUM(I8:I10020)-SUM(J8:J10020)</f>
+        <v>3600</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)</f>
@@ -1231,13 +1354,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1246,7 +1369,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>59916.666666666657</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1259,13 +1382,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1274,7 +1397,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>20243.333333333336</v>
+        <v>21060</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1287,13 +1410,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1315,13 +1438,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1336,13 +1459,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1357,13 +1480,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1378,13 +1501,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1399,13 +1522,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1420,11 +1543,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1439,11 +1562,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1458,13 +1581,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1479,13 +1602,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1500,20 +1623,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="101" t="s">
+      <c r="K20" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="101"/>
+      <c r="L20" s="110"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1525,13 +1648,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1546,13 +1669,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1567,13 +1690,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1588,11 +1711,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1607,13 +1730,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1628,13 +1751,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1649,13 +1772,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1670,13 +1793,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1691,11 +1814,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1707,13 +1830,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1729,13 +1852,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1751,13 +1874,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1773,13 +1896,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1795,13 +1918,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1817,11 +1940,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1837,13 +1960,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1859,13 +1982,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1881,13 +2004,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1903,13 +2026,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1925,13 +2048,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1947,13 +2070,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1969,13 +2092,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1991,13 +2114,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -2013,13 +2136,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -2035,13 +2158,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -2057,11 +2180,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -2077,13 +2200,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -2099,13 +2222,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2121,11 +2244,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2141,13 +2264,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2163,13 +2286,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2185,13 +2308,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2207,13 +2330,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2229,13 +2352,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2248,13 +2371,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2270,20 +2393,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="101" t="s">
+      <c r="D56" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="101" t="s">
+      <c r="K56" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="101"/>
+      <c r="L56" s="110"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2293,13 +2416,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2312,13 +2435,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="101" t="s">
+      <c r="D58" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2334,13 +2457,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="101" t="s">
+      <c r="D59" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2356,13 +2479,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2378,13 +2501,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2400,13 +2523,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="101" t="s">
+      <c r="D62" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2422,13 +2545,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="101" t="s">
+      <c r="D63" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2444,13 +2567,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="101" t="s">
+      <c r="D64" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2466,13 +2589,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="101" t="s">
+      <c r="D65" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2488,13 +2611,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2510,13 +2633,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="101" t="s">
+      <c r="D67" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2529,13 +2652,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="101" t="s">
+      <c r="D68" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2551,13 +2674,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="101" t="s">
+      <c r="D69" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2573,13 +2696,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="101" t="s">
+      <c r="D70" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="101"/>
-      <c r="H70" s="101"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2596,13 +2719,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="101" t="s">
+      <c r="D71" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="110"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2618,13 +2741,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="101" t="s">
+      <c r="D72" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="101"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="101"/>
-      <c r="H72" s="101"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2637,13 +2760,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="101" t="s">
+      <c r="D73" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="101"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2656,13 +2779,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="101" t="s">
+      <c r="D74" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2681,13 +2804,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="101" t="s">
+      <c r="D75" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2703,13 +2826,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="101" t="s">
+      <c r="D76" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2725,13 +2848,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="101" t="s">
+      <c r="D77" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="101"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2747,13 +2870,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="101" t="s">
+      <c r="D78" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2769,13 +2892,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="101" t="s">
+      <c r="D79" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="101"/>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="101"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2791,13 +2914,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="101" t="s">
+      <c r="D80" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2813,13 +2936,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="101" t="s">
+      <c r="D81" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="101"/>
-      <c r="H81" s="101"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2835,13 +2958,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="101" t="s">
+      <c r="D82" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2857,13 +2980,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="101" t="s">
+      <c r="D83" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="101"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="110"/>
+      <c r="G83" s="110"/>
+      <c r="H83" s="110"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2879,13 +3002,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="101" t="s">
+      <c r="D84" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
-      <c r="H84" s="101"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2901,13 +3024,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="101" t="s">
+      <c r="D85" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="101"/>
-      <c r="H85" s="101"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2923,13 +3046,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="101" t="s">
+      <c r="D86" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="101"/>
-      <c r="H86" s="101"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2946,13 +3069,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="101" t="s">
+      <c r="D87" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101"/>
-      <c r="H87" s="101"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2968,13 +3091,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="101" t="s">
+      <c r="D88" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="101"/>
-      <c r="H88" s="101"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2990,13 +3113,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="101" t="s">
+      <c r="D89" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
-      <c r="H89" s="101"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -3013,13 +3136,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="101" t="s">
+      <c r="D90" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
-      <c r="H90" s="101"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -3035,13 +3158,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="101" t="s">
+      <c r="D91" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -3057,13 +3180,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="101" t="s">
+      <c r="D92" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
-      <c r="H92" s="101"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="110"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -3076,13 +3199,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="101" t="s">
+      <c r="D93" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="101"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -3098,13 +3221,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="101" t="s">
+      <c r="D94" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
-      <c r="H94" s="101"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3120,13 +3243,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="101" t="s">
+      <c r="D95" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
-      <c r="H95" s="101"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="110"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3143,13 +3266,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="101" t="s">
+      <c r="D96" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="101"/>
-      <c r="H96" s="101"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110"/>
+      <c r="H96" s="110"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3165,13 +3288,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="101" t="s">
+      <c r="D97" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="101"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3187,13 +3310,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
-      <c r="H98" s="101"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="110"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3209,13 +3332,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="101" t="s">
+      <c r="D99" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
-      <c r="H99" s="101"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3231,13 +3354,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="101" t="s">
+      <c r="D100" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
-      <c r="H100" s="101"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="110"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3254,13 +3377,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="101" t="s">
+      <c r="D101" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="101"/>
-      <c r="H101" s="101"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3276,13 +3399,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="101" t="s">
+      <c r="D102" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
-      <c r="H102" s="101"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3290,7 +3413,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" ref="A103:A172" si="1">A102+1</f>
+        <f t="shared" ref="A103:A173" si="1">A102+1</f>
         <v>89</v>
       </c>
       <c r="B103" s="19">
@@ -3299,13 +3422,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="101" t="s">
+      <c r="D103" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
-      <c r="H103" s="101"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="110"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3322,13 +3445,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="101" t="s">
+      <c r="D104" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="110"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3345,13 +3468,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="101" t="s">
+      <c r="D105" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3367,11 +3490,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
-      <c r="H106" s="101"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="110"/>
+      <c r="H106" s="110"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3387,13 +3510,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="101" t="s">
+      <c r="D107" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
-      <c r="H107" s="101"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3409,11 +3532,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="101"/>
-      <c r="H108" s="101"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="110"/>
+      <c r="G108" s="110"/>
+      <c r="H108" s="110"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3426,13 +3549,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="101" t="s">
+      <c r="D109" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="101"/>
-      <c r="H109" s="101"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="110"/>
+      <c r="H109" s="110"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3441,13 +3564,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="101" t="s">
+      <c r="D110" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="110"/>
+      <c r="H110" s="110"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3459,13 +3582,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="101" t="s">
+      <c r="D111" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
-      <c r="G111" s="101"/>
-      <c r="H111" s="101"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="110"/>
+      <c r="G111" s="110"/>
+      <c r="H111" s="110"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3482,13 +3605,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="101" t="s">
+      <c r="D112" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
+      <c r="E112" s="110"/>
+      <c r="F112" s="110"/>
+      <c r="G112" s="110"/>
+      <c r="H112" s="110"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3505,13 +3628,13 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="101" t="s">
+      <c r="D113" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
-      <c r="H113" s="101"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="110"/>
       <c r="I113" s="1">
         <v>5050</v>
       </c>
@@ -3523,13 +3646,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="101" t="s">
+      <c r="D114" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="101"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="101"/>
-      <c r="H114" s="101"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="110"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3538,13 +3661,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="101" t="s">
+      <c r="D115" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="110"/>
+      <c r="H115" s="110"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3561,13 +3684,13 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="101" t="s">
+      <c r="D116" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="101"/>
-      <c r="F116" s="101"/>
-      <c r="G116" s="101"/>
-      <c r="H116" s="101"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
       <c r="I116" s="1">
         <f t="shared" ref="I116:I118" si="2">220+140</f>
         <v>360</v>
@@ -3584,13 +3707,13 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="101" t="s">
+      <c r="D117" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="101"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="101"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
       <c r="I117" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3607,13 +3730,13 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="101" t="s">
+      <c r="D118" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="101"/>
-      <c r="F118" s="101"/>
-      <c r="G118" s="101"/>
-      <c r="H118" s="101"/>
+      <c r="E118" s="110"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="110"/>
       <c r="I118" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3630,13 +3753,13 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="101" t="s">
+      <c r="D119" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="101"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
       <c r="I119" s="1">
         <v>220</v>
       </c>
@@ -3652,13 +3775,13 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="101" t="s">
+      <c r="D120" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="101"/>
-      <c r="F120" s="101"/>
-      <c r="G120" s="101"/>
-      <c r="H120" s="101"/>
+      <c r="E120" s="110"/>
+      <c r="F120" s="110"/>
+      <c r="G120" s="110"/>
+      <c r="H120" s="110"/>
       <c r="I120" s="1">
         <v>220</v>
       </c>
@@ -3674,13 +3797,13 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="101" t="s">
+      <c r="D121" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="101"/>
-      <c r="F121" s="101"/>
-      <c r="G121" s="101"/>
-      <c r="H121" s="101"/>
+      <c r="E121" s="110"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="110"/>
       <c r="I121" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -3697,13 +3820,13 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="101" t="s">
+      <c r="D122" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="101"/>
-      <c r="F122" s="101"/>
-      <c r="G122" s="101"/>
-      <c r="H122" s="101"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="110"/>
+      <c r="G122" s="110"/>
+      <c r="H122" s="110"/>
       <c r="I122" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -3720,13 +3843,13 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="101" t="s">
+      <c r="D123" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
+      <c r="E123" s="110"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="110"/>
+      <c r="H123" s="110"/>
       <c r="I123" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -3743,11 +3866,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="101"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="101"/>
-      <c r="G124" s="101"/>
-      <c r="H124" s="101"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="110"/>
+      <c r="F124" s="110"/>
+      <c r="G124" s="110"/>
+      <c r="H124" s="110"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3760,13 +3883,13 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="101" t="s">
+      <c r="D125" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="101"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="101"/>
-      <c r="H125" s="101"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="110"/>
+      <c r="H125" s="110"/>
       <c r="I125" s="1">
         <v>150</v>
       </c>
@@ -3782,13 +3905,13 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="101" t="s">
+      <c r="D126" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="101"/>
-      <c r="F126" s="101"/>
-      <c r="G126" s="101"/>
-      <c r="H126" s="101"/>
+      <c r="E126" s="110"/>
+      <c r="F126" s="110"/>
+      <c r="G126" s="110"/>
+      <c r="H126" s="110"/>
       <c r="I126" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -3805,13 +3928,13 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="101" t="s">
+      <c r="D127" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="101"/>
-      <c r="F127" s="101"/>
-      <c r="G127" s="101"/>
-      <c r="H127" s="101"/>
+      <c r="E127" s="110"/>
+      <c r="F127" s="110"/>
+      <c r="G127" s="110"/>
+      <c r="H127" s="110"/>
       <c r="I127" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -3828,13 +3951,13 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="101" t="s">
+      <c r="D128" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="101"/>
-      <c r="F128" s="101"/>
-      <c r="G128" s="101"/>
-      <c r="H128" s="101"/>
+      <c r="E128" s="110"/>
+      <c r="F128" s="110"/>
+      <c r="G128" s="110"/>
+      <c r="H128" s="110"/>
       <c r="I128" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3851,13 +3974,13 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="101" t="s">
+      <c r="D129" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="101"/>
-      <c r="F129" s="101"/>
-      <c r="G129" s="101"/>
-      <c r="H129" s="101"/>
+      <c r="E129" s="110"/>
+      <c r="F129" s="110"/>
+      <c r="G129" s="110"/>
+      <c r="H129" s="110"/>
       <c r="I129" s="1">
         <f>220</f>
         <v>220</v>
@@ -3874,13 +3997,13 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="101" t="s">
+      <c r="D130" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="101"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="101"/>
-      <c r="H130" s="101"/>
+      <c r="E130" s="110"/>
+      <c r="F130" s="110"/>
+      <c r="G130" s="110"/>
+      <c r="H130" s="110"/>
       <c r="I130" s="1">
         <f>220+150</f>
         <v>370</v>
@@ -3890,13 +4013,13 @@
       <c r="A131" s="83"/>
       <c r="B131" s="84"/>
       <c r="C131" s="84"/>
-      <c r="D131" s="101" t="s">
+      <c r="D131" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="101"/>
-      <c r="F131" s="101"/>
-      <c r="G131" s="101"/>
-      <c r="H131" s="101"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="110"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="110"/>
       <c r="I131" s="1">
         <v>30000</v>
       </c>
@@ -3908,13 +4031,13 @@
       <c r="A132" s="83"/>
       <c r="B132" s="84"/>
       <c r="C132" s="84"/>
-      <c r="D132" s="101" t="s">
+      <c r="D132" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="101"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="101"/>
-      <c r="H132" s="101"/>
+      <c r="E132" s="110"/>
+      <c r="F132" s="110"/>
+      <c r="G132" s="110"/>
+      <c r="H132" s="110"/>
       <c r="J132" s="1">
         <v>30000</v>
       </c>
@@ -3930,13 +4053,13 @@
       <c r="C133" s="29">
         <v>27.4</v>
       </c>
-      <c r="D133" s="101" t="s">
+      <c r="D133" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="101"/>
-      <c r="H133" s="101"/>
+      <c r="E133" s="110"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="110"/>
       <c r="I133" s="1">
         <f>220+170</f>
         <v>390</v>
@@ -3953,13 +4076,13 @@
       <c r="C134" s="29">
         <v>28.4</v>
       </c>
-      <c r="D134" s="101" t="s">
+      <c r="D134" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E134" s="101"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="101"/>
-      <c r="H134" s="101"/>
+      <c r="E134" s="110"/>
+      <c r="F134" s="110"/>
+      <c r="G134" s="110"/>
+      <c r="H134" s="110"/>
       <c r="I134" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3976,13 +4099,13 @@
       <c r="C135" s="29">
         <v>29.4</v>
       </c>
-      <c r="D135" s="101" t="s">
+      <c r="D135" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E135" s="101"/>
-      <c r="F135" s="101"/>
-      <c r="G135" s="101"/>
-      <c r="H135" s="101"/>
+      <c r="E135" s="110"/>
+      <c r="F135" s="110"/>
+      <c r="G135" s="110"/>
+      <c r="H135" s="110"/>
       <c r="I135" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3999,13 +4122,13 @@
       <c r="C136" s="29">
         <v>30.4</v>
       </c>
-      <c r="D136" s="101" t="s">
+      <c r="D136" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="101"/>
-      <c r="F136" s="101"/>
-      <c r="G136" s="101"/>
-      <c r="H136" s="101"/>
+      <c r="E136" s="110"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="110"/>
+      <c r="H136" s="110"/>
       <c r="I136" s="1">
         <f>220+240</f>
         <v>460</v>
@@ -4022,13 +4145,13 @@
       <c r="C137" s="5">
         <v>1.5</v>
       </c>
-      <c r="D137" s="101" t="s">
+      <c r="D137" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="101"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="101"/>
-      <c r="H137" s="101"/>
+      <c r="E137" s="110"/>
+      <c r="F137" s="110"/>
+      <c r="G137" s="110"/>
+      <c r="H137" s="110"/>
       <c r="I137" s="1">
         <v>220</v>
       </c>
@@ -4044,13 +4167,13 @@
       <c r="C138" s="5">
         <v>2.5</v>
       </c>
-      <c r="D138" s="101" t="s">
+      <c r="D138" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E138" s="101"/>
-      <c r="F138" s="101"/>
-      <c r="G138" s="101"/>
-      <c r="H138" s="101"/>
+      <c r="E138" s="110"/>
+      <c r="F138" s="110"/>
+      <c r="G138" s="110"/>
+      <c r="H138" s="110"/>
       <c r="I138" s="1">
         <v>220</v>
       </c>
@@ -4066,13 +4189,13 @@
       <c r="C139" s="87">
         <v>3.5</v>
       </c>
-      <c r="D139" s="101" t="s">
+      <c r="D139" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="101"/>
-      <c r="H139" s="101"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="110"/>
+      <c r="G139" s="110"/>
+      <c r="H139" s="110"/>
       <c r="I139" s="1">
         <f>220+220</f>
         <v>440</v>
@@ -4089,13 +4212,13 @@
       <c r="C140" s="87">
         <v>4.5</v>
       </c>
-      <c r="D140" s="101" t="s">
+      <c r="D140" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="101"/>
-      <c r="F140" s="101"/>
-      <c r="G140" s="101"/>
-      <c r="H140" s="101"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="110"/>
+      <c r="G140" s="110"/>
+      <c r="H140" s="110"/>
       <c r="I140" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4112,13 +4235,13 @@
       <c r="C141" s="87">
         <v>5.5</v>
       </c>
-      <c r="D141" s="101" t="s">
+      <c r="D141" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E141" s="101"/>
-      <c r="F141" s="101"/>
-      <c r="G141" s="101"/>
-      <c r="H141" s="101"/>
+      <c r="E141" s="110"/>
+      <c r="F141" s="110"/>
+      <c r="G141" s="110"/>
+      <c r="H141" s="110"/>
       <c r="I141" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4135,11 +4258,11 @@
       <c r="C142" s="87">
         <v>6.5</v>
       </c>
-      <c r="D142" s="101"/>
-      <c r="E142" s="101"/>
-      <c r="F142" s="101"/>
-      <c r="G142" s="101"/>
-      <c r="H142" s="101"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="110"/>
+      <c r="F142" s="110"/>
+      <c r="G142" s="110"/>
+      <c r="H142" s="110"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="86">
@@ -4152,13 +4275,13 @@
       <c r="C143" s="87">
         <v>7.5</v>
       </c>
-      <c r="D143" s="101" t="s">
+      <c r="D143" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="101"/>
-      <c r="F143" s="101"/>
-      <c r="G143" s="101"/>
-      <c r="H143" s="101"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="110"/>
+      <c r="H143" s="110"/>
       <c r="I143" s="1">
         <f>140+140</f>
         <v>280</v>
@@ -4175,13 +4298,13 @@
       <c r="C144" s="87">
         <v>8.5</v>
       </c>
-      <c r="D144" s="101" t="s">
+      <c r="D144" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="101"/>
-      <c r="F144" s="101"/>
-      <c r="G144" s="101"/>
-      <c r="H144" s="101"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="110"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="110"/>
       <c r="I144" s="1">
         <f>140</f>
         <v>140</v>
@@ -4198,13 +4321,13 @@
       <c r="C145" s="87">
         <v>9.5</v>
       </c>
-      <c r="D145" s="101" t="s">
+      <c r="D145" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="101"/>
-      <c r="F145" s="101"/>
-      <c r="G145" s="101"/>
-      <c r="H145" s="101"/>
+      <c r="E145" s="110"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
       <c r="I145" s="1">
         <f>220*4+140+100</f>
         <v>1120</v>
@@ -4221,13 +4344,13 @@
       <c r="C146" s="87">
         <v>10.5</v>
       </c>
-      <c r="D146" s="101" t="s">
+      <c r="D146" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="101"/>
-      <c r="F146" s="101"/>
-      <c r="G146" s="101"/>
-      <c r="H146" s="101"/>
+      <c r="E146" s="110"/>
+      <c r="F146" s="110"/>
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
       <c r="I146" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4244,13 +4367,13 @@
       <c r="C147" s="87">
         <v>11.5</v>
       </c>
-      <c r="D147" s="101" t="s">
+      <c r="D147" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="101"/>
-      <c r="F147" s="101"/>
-      <c r="G147" s="101"/>
-      <c r="H147" s="101"/>
+      <c r="E147" s="110"/>
+      <c r="F147" s="110"/>
+      <c r="G147" s="110"/>
+      <c r="H147" s="110"/>
       <c r="I147" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4267,13 +4390,13 @@
       <c r="C148" s="87">
         <v>12.5</v>
       </c>
-      <c r="D148" s="101" t="s">
+      <c r="D148" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E148" s="101"/>
-      <c r="F148" s="101"/>
-      <c r="G148" s="101"/>
-      <c r="H148" s="101"/>
+      <c r="E148" s="110"/>
+      <c r="F148" s="110"/>
+      <c r="G148" s="110"/>
+      <c r="H148" s="110"/>
       <c r="I148" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4283,19 +4406,19 @@
       <c r="A149" s="92"/>
       <c r="B149" s="93"/>
       <c r="C149" s="93"/>
-      <c r="D149" s="101" t="s">
+      <c r="D149" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E149" s="101"/>
-      <c r="F149" s="101"/>
-      <c r="G149" s="101"/>
-      <c r="H149" s="101"/>
+      <c r="E149" s="110"/>
+      <c r="F149" s="110"/>
+      <c r="G149" s="110"/>
+      <c r="H149" s="110"/>
       <c r="J149" s="1">
         <f>980+200</f>
         <v>1180</v>
       </c>
       <c r="K149" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,13 +4432,13 @@
       <c r="C150" s="87">
         <v>13.5</v>
       </c>
-      <c r="D150" s="101" t="s">
+      <c r="D150" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="101"/>
-      <c r="F150" s="101"/>
-      <c r="G150" s="101"/>
-      <c r="H150" s="101"/>
+      <c r="E150" s="110"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="110"/>
+      <c r="H150" s="110"/>
       <c r="I150" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4325,34 +4448,34 @@
       <c r="A151" s="94"/>
       <c r="B151" s="95"/>
       <c r="C151" s="95"/>
-      <c r="D151" s="101" t="s">
+      <c r="D151" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E151" s="101"/>
-      <c r="F151" s="101"/>
-      <c r="G151" s="101"/>
-      <c r="H151" s="101"/>
+      <c r="E151" s="110"/>
+      <c r="F151" s="110"/>
+      <c r="G151" s="110"/>
+      <c r="H151" s="110"/>
       <c r="I151" s="1">
         <v>20000</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="94"/>
       <c r="B152" s="95"/>
       <c r="C152" s="95"/>
-      <c r="D152" s="101" t="s">
+      <c r="D152" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E152" s="101"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="101"/>
-      <c r="H152" s="101"/>
+      <c r="E152" s="110"/>
+      <c r="F152" s="110"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
       <c r="J152" s="1">
         <f>30000</f>
         <v>30000</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -4366,13 +4489,13 @@
       <c r="C153" s="87">
         <v>14.5</v>
       </c>
-      <c r="D153" s="101" t="s">
+      <c r="D153" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E153" s="101"/>
-      <c r="F153" s="101"/>
-      <c r="G153" s="101"/>
-      <c r="H153" s="101"/>
+      <c r="E153" s="110"/>
+      <c r="F153" s="110"/>
+      <c r="G153" s="110"/>
+      <c r="H153" s="110"/>
       <c r="I153" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4389,13 +4512,13 @@
       <c r="C154" s="87">
         <v>15.5</v>
       </c>
-      <c r="D154" s="101" t="s">
+      <c r="D154" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E154" s="101"/>
-      <c r="F154" s="101"/>
-      <c r="G154" s="101"/>
-      <c r="H154" s="101"/>
+      <c r="E154" s="110"/>
+      <c r="F154" s="110"/>
+      <c r="G154" s="110"/>
+      <c r="H154" s="110"/>
       <c r="I154" s="1">
         <f>220</f>
         <v>220</v>
@@ -4412,13 +4535,13 @@
       <c r="C155" s="87">
         <v>16.5</v>
       </c>
-      <c r="D155" s="101" t="s">
+      <c r="D155" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="101"/>
-      <c r="F155" s="101"/>
-      <c r="G155" s="101"/>
-      <c r="H155" s="101"/>
+      <c r="E155" s="110"/>
+      <c r="F155" s="110"/>
+      <c r="G155" s="110"/>
+      <c r="H155" s="110"/>
       <c r="I155" s="1">
         <f>220+380</f>
         <v>600</v>
@@ -4435,13 +4558,13 @@
       <c r="C156" s="87">
         <v>17.5</v>
       </c>
-      <c r="D156" s="101" t="s">
+      <c r="D156" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E156" s="101"/>
-      <c r="F156" s="101"/>
-      <c r="G156" s="101"/>
-      <c r="H156" s="101"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="110"/>
+      <c r="H156" s="110"/>
       <c r="I156" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4458,13 +4581,13 @@
       <c r="C157" s="87">
         <v>18.5</v>
       </c>
-      <c r="D157" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="E157" s="101"/>
-      <c r="F157" s="101"/>
-      <c r="G157" s="101"/>
-      <c r="H157" s="101"/>
+      <c r="D157" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" s="110"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="110"/>
       <c r="I157" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -4481,123 +4604,135 @@
       <c r="C158" s="87">
         <v>19.5</v>
       </c>
-      <c r="D158" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="E158" s="101"/>
-      <c r="F158" s="101"/>
-      <c r="G158" s="101"/>
-      <c r="H158" s="101"/>
+      <c r="D158" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="110"/>
+      <c r="F158" s="110"/>
+      <c r="G158" s="110"/>
+      <c r="H158" s="110"/>
       <c r="J158" s="1">
-        <v>5000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="98"/>
       <c r="B159" s="99"/>
       <c r="C159" s="99"/>
-      <c r="D159" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="101"/>
-      <c r="F159" s="101"/>
-      <c r="G159" s="101"/>
-      <c r="H159" s="101"/>
-      <c r="J159" s="1">
-        <v>2700</v>
+      <c r="D159" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110"/>
+      <c r="H159" s="110"/>
+      <c r="I159" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="98"/>
       <c r="B160" s="99"/>
       <c r="C160" s="99"/>
-      <c r="D160" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="E160" s="101"/>
-      <c r="F160" s="101"/>
-      <c r="G160" s="101"/>
-      <c r="H160" s="101"/>
+      <c r="D160" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="110"/>
+      <c r="F160" s="110"/>
+      <c r="G160" s="110"/>
+      <c r="H160" s="110"/>
       <c r="I160" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="98"/>
-      <c r="B161" s="99"/>
-      <c r="C161" s="99"/>
-      <c r="D161" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
-      <c r="H161" s="101"/>
-      <c r="I161" s="1">
         <f>440+140</f>
         <v>580</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="86">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="86">
         <f>A158+1</f>
         <v>136</v>
       </c>
-      <c r="B162" s="87">
+      <c r="B161" s="87">
         <v>14.6</v>
       </c>
-      <c r="C162" s="87">
+      <c r="C161" s="87">
         <v>20.5</v>
       </c>
-      <c r="D162" s="101" t="s">
+      <c r="D161" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E162" s="101"/>
-      <c r="F162" s="101"/>
-      <c r="G162" s="101"/>
-      <c r="H162" s="101"/>
-      <c r="I162" s="1">
+      <c r="E161" s="110"/>
+      <c r="F161" s="110"/>
+      <c r="G161" s="110"/>
+      <c r="H161" s="110"/>
+      <c r="I161" s="1">
         <f>220+140</f>
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="86">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="B162" s="87">
+        <v>15.6</v>
+      </c>
+      <c r="C162" s="87">
+        <v>21.5</v>
+      </c>
+      <c r="D162" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="110"/>
+      <c r="F162" s="110"/>
+      <c r="G162" s="110"/>
+      <c r="H162" s="110"/>
+      <c r="I162" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="86">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="87">
-        <v>15.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C163" s="87">
-        <v>21.5</v>
-      </c>
-      <c r="D163" s="101"/>
-      <c r="E163" s="101"/>
-      <c r="F163" s="101"/>
-      <c r="G163" s="101"/>
-      <c r="H163" s="101"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="86">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="B164" s="87">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C164" s="87">
         <v>22.5</v>
       </c>
-      <c r="D164" s="101"/>
-      <c r="E164" s="101"/>
-      <c r="F164" s="101"/>
-      <c r="G164" s="101"/>
-      <c r="H164" s="101"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D163" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" s="110"/>
+      <c r="F163" s="110"/>
+      <c r="G163" s="110"/>
+      <c r="H163" s="110"/>
+      <c r="I163" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="101"/>
+      <c r="B164" s="102"/>
+      <c r="C164" s="102"/>
+      <c r="D164" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="110"/>
+      <c r="F164" s="110"/>
+      <c r="G164" s="110"/>
+      <c r="H164" s="110"/>
+      <c r="J164" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="86">
-        <f t="shared" si="1"/>
+        <f>A163+1</f>
         <v>139</v>
       </c>
       <c r="B165" s="87">
@@ -4606,13 +4741,19 @@
       <c r="C165" s="87">
         <v>23.5</v>
       </c>
-      <c r="D165" s="101"/>
-      <c r="E165" s="101"/>
-      <c r="F165" s="101"/>
-      <c r="G165" s="101"/>
-      <c r="H165" s="101"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D165" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" s="110"/>
+      <c r="F165" s="110"/>
+      <c r="G165" s="110"/>
+      <c r="H165" s="110"/>
+      <c r="I165" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="86">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -4623,13 +4764,19 @@
       <c r="C166" s="87">
         <v>24.5</v>
       </c>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D166" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" s="110"/>
+      <c r="F166" s="110"/>
+      <c r="G166" s="110"/>
+      <c r="H166" s="110"/>
+      <c r="I166" s="1">
+        <f>140*2</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="86">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -4640,13 +4787,13 @@
       <c r="C167" s="87">
         <v>25.5</v>
       </c>
-      <c r="D167" s="101"/>
-      <c r="E167" s="101"/>
-      <c r="F167" s="101"/>
-      <c r="G167" s="101"/>
-      <c r="H167" s="101"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D167" s="110"/>
+      <c r="E167" s="110"/>
+      <c r="F167" s="110"/>
+      <c r="G167" s="110"/>
+      <c r="H167" s="110"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="86">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -4657,13 +4804,13 @@
       <c r="C168" s="87">
         <v>26.5</v>
       </c>
-      <c r="D168" s="101"/>
-      <c r="E168" s="101"/>
-      <c r="F168" s="101"/>
-      <c r="G168" s="101"/>
-      <c r="H168" s="101"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D168" s="110"/>
+      <c r="E168" s="110"/>
+      <c r="F168" s="110"/>
+      <c r="G168" s="110"/>
+      <c r="H168" s="110"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="86">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -4674,13 +4821,13 @@
       <c r="C169" s="87">
         <v>27.5</v>
       </c>
-      <c r="D169" s="101"/>
-      <c r="E169" s="101"/>
-      <c r="F169" s="101"/>
-      <c r="G169" s="101"/>
-      <c r="H169" s="101"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D169" s="110"/>
+      <c r="E169" s="110"/>
+      <c r="F169" s="110"/>
+      <c r="G169" s="110"/>
+      <c r="H169" s="110"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="86">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -4691,377 +4838,977 @@
       <c r="C170" s="87">
         <v>28.5</v>
       </c>
-      <c r="D170" s="101"/>
-      <c r="E170" s="101"/>
-      <c r="F170" s="101"/>
-      <c r="G170" s="101"/>
-      <c r="H170" s="101"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="86">
-        <f t="shared" si="1"/>
+      <c r="D170" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E170" s="110"/>
+      <c r="F170" s="110"/>
+      <c r="G170" s="110"/>
+      <c r="H170" s="110"/>
+      <c r="I170" s="1">
+        <f>220*8+6000</f>
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="107"/>
+      <c r="B171" s="108"/>
+      <c r="C171" s="108"/>
+      <c r="D171" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="110"/>
+      <c r="F171" s="110"/>
+      <c r="G171" s="110"/>
+      <c r="H171" s="110"/>
+      <c r="J171" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="86">
+        <f>A170+1</f>
         <v>145</v>
       </c>
-      <c r="B171" s="87">
+      <c r="B172" s="87">
         <v>23.6</v>
       </c>
-      <c r="C171" s="87">
+      <c r="C172" s="87">
         <v>29.5</v>
       </c>
-      <c r="D171" s="101"/>
-      <c r="E171" s="101"/>
-      <c r="F171" s="101"/>
-      <c r="G171" s="101"/>
-      <c r="H171" s="101"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="86">
+      <c r="D172" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="110"/>
+      <c r="F172" s="110"/>
+      <c r="G172" s="110"/>
+      <c r="H172" s="110"/>
+      <c r="I172" s="1">
+        <f>220</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="86">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B172" s="87">
+      <c r="B173" s="87">
         <v>24.6</v>
       </c>
-      <c r="D172" s="101"/>
-      <c r="E172" s="101"/>
-      <c r="F172" s="101"/>
-      <c r="G172" s="101"/>
-      <c r="H172" s="101"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="86">
-        <f t="shared" ref="A173:A206" si="3">A172+1</f>
+      <c r="C173" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D173" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E173" s="110"/>
+      <c r="F173" s="110"/>
+      <c r="G173" s="110"/>
+      <c r="H173" s="110"/>
+      <c r="I173" s="1">
+        <f>220</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="86">
+        <f t="shared" ref="A174:A237" si="3">A173+1</f>
         <v>147</v>
       </c>
-      <c r="B173" s="87">
+      <c r="B174" s="87">
         <v>25.6</v>
       </c>
-      <c r="D173" s="101"/>
-      <c r="E173" s="101"/>
-      <c r="F173" s="101"/>
-      <c r="G173" s="101"/>
-      <c r="H173" s="101"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="86">
+      <c r="C174" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D174" s="110"/>
+      <c r="E174" s="110"/>
+      <c r="F174" s="110"/>
+      <c r="G174" s="110"/>
+      <c r="H174" s="110"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="86">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="B174" s="87">
+      <c r="B175" s="87">
         <v>26.6</v>
       </c>
-      <c r="D174" s="101"/>
-      <c r="E174" s="101"/>
-      <c r="F174" s="101"/>
-      <c r="G174" s="101"/>
-      <c r="H174" s="101"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="86">
+      <c r="C175" s="105">
+        <v>3.6</v>
+      </c>
+      <c r="D175" s="110"/>
+      <c r="E175" s="110"/>
+      <c r="F175" s="110"/>
+      <c r="G175" s="110"/>
+      <c r="H175" s="110"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="86">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="B175" s="87">
+      <c r="B176" s="87">
         <v>27.6</v>
       </c>
-      <c r="D175" s="101"/>
-      <c r="E175" s="101"/>
-      <c r="F175" s="101"/>
-      <c r="G175" s="101"/>
-      <c r="H175" s="101"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="86">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="B176" s="87">
-        <v>28.6</v>
-      </c>
-      <c r="D176" s="101"/>
-      <c r="E176" s="101"/>
-      <c r="F176" s="101"/>
-      <c r="G176" s="101"/>
-      <c r="H176" s="101"/>
+      <c r="C176" s="105">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D176" s="110"/>
+      <c r="E176" s="110"/>
+      <c r="F176" s="110"/>
+      <c r="G176" s="110"/>
+      <c r="H176" s="110"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="86">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B177" s="87">
-        <v>29.6</v>
-      </c>
-      <c r="D177" s="101"/>
-      <c r="E177" s="101"/>
-      <c r="F177" s="101"/>
-      <c r="G177" s="101"/>
-      <c r="H177" s="101"/>
+        <v>28.6</v>
+      </c>
+      <c r="C177" s="105">
+        <v>5.6</v>
+      </c>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
+      <c r="H177" s="110"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="86">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B178" s="87">
-        <v>30.6</v>
-      </c>
-      <c r="D178" s="101"/>
-      <c r="E178" s="101"/>
-      <c r="F178" s="101"/>
-      <c r="G178" s="101"/>
-      <c r="H178" s="101"/>
+        <v>29.6</v>
+      </c>
+      <c r="C178" s="105">
+        <v>6.6</v>
+      </c>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="86">
         <f t="shared" si="3"/>
-        <v>153</v>
-      </c>
-      <c r="D179" s="101"/>
-      <c r="E179" s="101"/>
-      <c r="F179" s="101"/>
-      <c r="G179" s="101"/>
-      <c r="H179" s="101"/>
+        <v>152</v>
+      </c>
+      <c r="B179" s="87">
+        <v>30.6</v>
+      </c>
+      <c r="C179" s="105">
+        <v>7.6</v>
+      </c>
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
+      <c r="H179" s="110"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="86">
         <f t="shared" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="D180" s="101"/>
-      <c r="E180" s="101"/>
-      <c r="F180" s="101"/>
-      <c r="G180" s="101"/>
-      <c r="H180" s="101"/>
+        <v>153</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C180" s="105">
+        <v>8.6</v>
+      </c>
+      <c r="D180" s="110"/>
+      <c r="E180" s="110"/>
+      <c r="F180" s="110"/>
+      <c r="G180" s="110"/>
+      <c r="H180" s="110"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="86">
         <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="D181" s="101"/>
-      <c r="E181" s="101"/>
-      <c r="F181" s="101"/>
-      <c r="G181" s="101"/>
-      <c r="H181" s="101"/>
+        <v>154</v>
+      </c>
+      <c r="B181" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="C181" s="105">
+        <v>9.6</v>
+      </c>
+      <c r="D181" s="110"/>
+      <c r="E181" s="110"/>
+      <c r="F181" s="110"/>
+      <c r="G181" s="110"/>
+      <c r="H181" s="110"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="86">
         <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="D182" s="101"/>
-      <c r="E182" s="101"/>
-      <c r="F182" s="101"/>
-      <c r="G182" s="101"/>
-      <c r="H182" s="101"/>
+        <v>155</v>
+      </c>
+      <c r="B182" s="105">
+        <v>3.7</v>
+      </c>
+      <c r="C182" s="105">
+        <v>10.6</v>
+      </c>
+      <c r="D182" s="110"/>
+      <c r="E182" s="110"/>
+      <c r="F182" s="110"/>
+      <c r="G182" s="110"/>
+      <c r="H182" s="110"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="86">
         <f t="shared" si="3"/>
-        <v>157</v>
-      </c>
-      <c r="D183" s="101"/>
-      <c r="E183" s="101"/>
-      <c r="F183" s="101"/>
-      <c r="G183" s="101"/>
-      <c r="H183" s="101"/>
+        <v>156</v>
+      </c>
+      <c r="B183" s="105">
+        <v>4.7</v>
+      </c>
+      <c r="C183" s="105">
+        <v>11.6</v>
+      </c>
+      <c r="D183" s="110"/>
+      <c r="E183" s="110"/>
+      <c r="F183" s="110"/>
+      <c r="G183" s="110"/>
+      <c r="H183" s="110"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="86">
         <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="D184" s="101"/>
-      <c r="E184" s="101"/>
-      <c r="F184" s="101"/>
-      <c r="G184" s="101"/>
-      <c r="H184" s="101"/>
+        <v>157</v>
+      </c>
+      <c r="B184" s="105">
+        <v>5.7</v>
+      </c>
+      <c r="C184" s="105">
+        <v>12.6</v>
+      </c>
+      <c r="D184" s="110"/>
+      <c r="E184" s="110"/>
+      <c r="F184" s="110"/>
+      <c r="G184" s="110"/>
+      <c r="H184" s="110"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="86">
         <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="D185" s="101"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="101"/>
-      <c r="G185" s="101"/>
-      <c r="H185" s="101"/>
+        <v>158</v>
+      </c>
+      <c r="B185" s="105">
+        <v>6.7</v>
+      </c>
+      <c r="C185" s="105">
+        <v>13.6</v>
+      </c>
+      <c r="D185" s="110"/>
+      <c r="E185" s="110"/>
+      <c r="F185" s="110"/>
+      <c r="G185" s="110"/>
+      <c r="H185" s="110"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="86">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="D186" s="101"/>
-      <c r="E186" s="101"/>
-      <c r="F186" s="101"/>
-      <c r="G186" s="101"/>
-      <c r="H186" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="B186" s="105">
+        <v>7.7</v>
+      </c>
+      <c r="C186" s="105">
+        <v>14.6</v>
+      </c>
+      <c r="D186" s="110"/>
+      <c r="E186" s="110"/>
+      <c r="F186" s="110"/>
+      <c r="G186" s="110"/>
+      <c r="H186" s="110"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="86">
         <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="D187" s="101"/>
-      <c r="E187" s="101"/>
-      <c r="F187" s="101"/>
-      <c r="G187" s="101"/>
-      <c r="H187" s="101"/>
+        <v>160</v>
+      </c>
+      <c r="B187" s="105">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C187" s="105">
+        <v>15.6</v>
+      </c>
+      <c r="D187" s="110"/>
+      <c r="E187" s="110"/>
+      <c r="F187" s="110"/>
+      <c r="G187" s="110"/>
+      <c r="H187" s="110"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="86">
         <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="D188" s="101"/>
-      <c r="E188" s="101"/>
-      <c r="F188" s="101"/>
-      <c r="G188" s="101"/>
-      <c r="H188" s="101"/>
+        <v>161</v>
+      </c>
+      <c r="B188" s="105">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C188" s="105">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D188" s="110"/>
+      <c r="E188" s="110"/>
+      <c r="F188" s="110"/>
+      <c r="G188" s="110"/>
+      <c r="H188" s="110"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="86">
         <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="D189" s="101"/>
-      <c r="E189" s="101"/>
-      <c r="F189" s="101"/>
-      <c r="G189" s="101"/>
-      <c r="H189" s="101"/>
+        <v>162</v>
+      </c>
+      <c r="B189" s="105">
+        <v>10.7</v>
+      </c>
+      <c r="C189" s="105">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D189" s="110"/>
+      <c r="E189" s="110"/>
+      <c r="F189" s="110"/>
+      <c r="G189" s="110"/>
+      <c r="H189" s="110"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="86">
         <f t="shared" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="D190" s="101"/>
-      <c r="E190" s="101"/>
-      <c r="F190" s="101"/>
-      <c r="G190" s="101"/>
-      <c r="H190" s="101"/>
+        <v>163</v>
+      </c>
+      <c r="B190" s="105">
+        <v>11.7</v>
+      </c>
+      <c r="C190" s="105">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D190" s="110"/>
+      <c r="E190" s="110"/>
+      <c r="F190" s="110"/>
+      <c r="G190" s="110"/>
+      <c r="H190" s="110"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="86">
         <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="D191" s="101"/>
-      <c r="E191" s="101"/>
-      <c r="F191" s="101"/>
-      <c r="G191" s="101"/>
-      <c r="H191" s="101"/>
+        <v>164</v>
+      </c>
+      <c r="B191" s="105">
+        <v>12.7</v>
+      </c>
+      <c r="C191" s="105">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D191" s="110"/>
+      <c r="E191" s="110"/>
+      <c r="F191" s="110"/>
+      <c r="G191" s="110"/>
+      <c r="H191" s="110"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="86">
         <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-      <c r="D192" s="101"/>
-      <c r="E192" s="101"/>
-      <c r="F192" s="101"/>
-      <c r="G192" s="101"/>
-      <c r="H192" s="101"/>
+        <v>165</v>
+      </c>
+      <c r="B192" s="105">
+        <v>13.7</v>
+      </c>
+      <c r="C192" s="105">
+        <v>20.6</v>
+      </c>
+      <c r="D192" s="110"/>
+      <c r="E192" s="110"/>
+      <c r="F192" s="110"/>
+      <c r="G192" s="110"/>
+      <c r="H192" s="110"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="86">
         <f t="shared" si="3"/>
-        <v>167</v>
-      </c>
-      <c r="D193" s="101"/>
-      <c r="E193" s="101"/>
-      <c r="F193" s="101"/>
-      <c r="G193" s="101"/>
-      <c r="H193" s="101"/>
+        <v>166</v>
+      </c>
+      <c r="B193" s="105">
+        <v>14.7</v>
+      </c>
+      <c r="C193" s="105">
+        <v>21.6</v>
+      </c>
+      <c r="D193" s="110"/>
+      <c r="E193" s="110"/>
+      <c r="F193" s="110"/>
+      <c r="G193" s="110"/>
+      <c r="H193" s="110"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="86">
         <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="D194" s="101"/>
-      <c r="E194" s="101"/>
-      <c r="F194" s="101"/>
-      <c r="G194" s="101"/>
-      <c r="H194" s="101"/>
+        <v>167</v>
+      </c>
+      <c r="B194" s="105">
+        <v>15.7</v>
+      </c>
+      <c r="C194" s="105">
+        <v>22.6</v>
+      </c>
+      <c r="D194" s="110"/>
+      <c r="E194" s="110"/>
+      <c r="F194" s="110"/>
+      <c r="G194" s="110"/>
+      <c r="H194" s="110"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="86">
         <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B195" s="105">
+        <v>16.7</v>
+      </c>
+      <c r="C195" s="105">
+        <v>23.6</v>
+      </c>
+      <c r="D195" s="110"/>
+      <c r="E195" s="110"/>
+      <c r="F195" s="110"/>
+      <c r="G195" s="110"/>
+      <c r="H195" s="110"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="86">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="B196" s="105">
+        <v>17.7</v>
+      </c>
+      <c r="C196" s="105">
+        <v>24.6</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="86">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B197" s="105">
+        <v>18.7</v>
+      </c>
+      <c r="C197" s="105">
+        <v>25.6</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="86">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="B198" s="105">
+        <v>19.7</v>
+      </c>
+      <c r="C198" s="105">
+        <v>26.6</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="86">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="B199" s="105">
+        <v>20.7</v>
+      </c>
+      <c r="C199" s="105">
+        <v>27.6</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="86">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="B200" s="105">
+        <v>21.7</v>
+      </c>
+      <c r="C200" s="105">
+        <v>28.6</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="86">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B201" s="105">
+        <v>22.7</v>
+      </c>
+      <c r="C201" s="105">
+        <v>29.6</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="86">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B202" s="105">
+        <v>23.7</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="86">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B203" s="105">
+        <v>24.7</v>
+      </c>
+      <c r="C203" s="105" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="86">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="B204" s="105">
+        <v>25.7</v>
+      </c>
+      <c r="C204" s="105" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="86">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="B205" s="105">
+        <v>26.7</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="86">
         <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="B206" s="105">
+        <v>27.7</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="86">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
+      <c r="B207" s="105">
+        <v>28.7</v>
+      </c>
+      <c r="C207" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="104">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="B208" s="105">
+        <v>29.7</v>
+      </c>
+      <c r="C208" s="105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="104">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="B209" s="105">
+        <v>30.7</v>
+      </c>
+      <c r="C209" s="105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="104">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="B210" s="105">
+        <v>31.7</v>
+      </c>
+      <c r="C210" s="105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="104">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C211" s="105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="104">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="B212" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="C212" s="105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="104">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="B213" s="105">
+        <v>3.8</v>
+      </c>
+      <c r="C213" s="105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="104">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="B214" s="105">
+        <v>4.8</v>
+      </c>
+      <c r="C214" s="105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="104">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="B215" s="105">
+        <v>5.8</v>
+      </c>
+      <c r="C215" s="105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="104">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="B216" s="105">
+        <v>6.8</v>
+      </c>
+      <c r="C216" s="105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="104">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="B217" s="105">
+        <v>7.8</v>
+      </c>
+      <c r="C217" s="105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="104">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="B218" s="105">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C218" s="105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="104">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="B219" s="105">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C219" s="105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="104">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="B220" s="105">
+        <v>10.8</v>
+      </c>
+      <c r="C220" s="105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="104">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="B221" s="105">
+        <v>11.8</v>
+      </c>
+      <c r="C221" s="105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="104">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B222" s="105">
+        <v>12.8</v>
+      </c>
+      <c r="C222" s="105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="104">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B223" s="105">
+        <v>13.8</v>
+      </c>
+      <c r="C223" s="105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="104">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B224" s="105">
+        <v>14.8</v>
+      </c>
+      <c r="C224" s="105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="104">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B225" s="105">
+        <v>15.8</v>
+      </c>
+      <c r="C225" s="105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="104">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B226" s="105">
+        <v>16.8</v>
+      </c>
+      <c r="C226" s="105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="104">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B227" s="105">
+        <v>17.8</v>
+      </c>
+      <c r="C227" s="105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="104">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B228" s="105">
+        <v>18.8</v>
+      </c>
+      <c r="C228" s="105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="104">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B229" s="105">
+        <v>19.8</v>
+      </c>
+      <c r="C229" s="105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="104">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B230" s="105">
+        <v>20.8</v>
+      </c>
+      <c r="C230" s="105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="104">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B231" s="105">
+        <v>21.8</v>
+      </c>
+      <c r="C231" s="105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="104">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B232" s="105">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="104">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B233" s="105">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="104">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B234" s="105">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="104">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B235" s="105">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="104">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B236" s="105">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="104">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B237" s="105">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="104">
+        <f t="shared" ref="A238:A241" si="4">A237+1</f>
+        <v>211</v>
+      </c>
+      <c r="B238" s="105">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="104">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="B239" s="105">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="104">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="B240" s="105">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="104">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="B241" s="105">
+        <v>31.8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="198">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -5082,9 +5829,6 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="D34:H34"/>
@@ -5094,6 +5838,9 @@
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="D43:H43"/>
@@ -5198,7 +5945,7 @@
     <mergeCell ref="D131:H131"/>
     <mergeCell ref="D132:H132"/>
     <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D172:H172"/>
     <mergeCell ref="D146:H146"/>
     <mergeCell ref="D147:H147"/>
     <mergeCell ref="D148:H148"/>
@@ -5211,43 +5958,44 @@
     <mergeCell ref="D141:H141"/>
     <mergeCell ref="D142:H142"/>
     <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D145:H145"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D186:H186"/>
     <mergeCell ref="D187:H187"/>
     <mergeCell ref="D188:H188"/>
     <mergeCell ref="D189:H189"/>
     <mergeCell ref="D190:H190"/>
     <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D192:H192"/>
     <mergeCell ref="D181:H181"/>
     <mergeCell ref="D182:H182"/>
     <mergeCell ref="D183:H183"/>
     <mergeCell ref="D184:H184"/>
     <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D186:H186"/>
     <mergeCell ref="D175:H175"/>
     <mergeCell ref="D176:H176"/>
     <mergeCell ref="D177:H177"/>
     <mergeCell ref="D178:H178"/>
     <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D169:H169"/>
     <mergeCell ref="D170:H170"/>
     <mergeCell ref="D171:H171"/>
     <mergeCell ref="D159:H159"/>
     <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D192:H192"/>
     <mergeCell ref="D193:H193"/>
     <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D195:H195"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D172:H172"/>
     <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D161:H161"/>
     <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
     <mergeCell ref="D164:H164"/>
     <mergeCell ref="D165:H165"/>
     <mergeCell ref="D166:H166"/>
@@ -5350,10 +6098,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -6741,8 +7489,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="106"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -6765,8 +7513,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="106"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -6789,14 +7537,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="105"/>
-      <c r="E69" s="106"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -6812,8 +7560,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="107"/>
-      <c r="E70" s="108"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="117"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -6871,10 +7619,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="110"/>
+      <c r="C73" s="119"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -6937,8 +7685,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="109"/>
-      <c r="P75" s="109"/>
+      <c r="O75" s="118"/>
+      <c r="P75" s="118"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -8020,11 +8768,11 @@
         <v>28</v>
       </c>
       <c r="B131" s="54">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B161</f>
         <v>14.6</v>
       </c>
       <c r="C131" s="54">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C161</f>
         <v>20.5</v>
       </c>
       <c r="D131" s="54"/>
@@ -8039,11 +8787,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="54">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B162</f>
         <v>15.6</v>
       </c>
       <c r="C132" s="54">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C162</f>
         <v>21.5</v>
       </c>
       <c r="D132" s="54"/>
@@ -8058,11 +8806,11 @@
         <v>30</v>
       </c>
       <c r="B133" s="54">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B163</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C133" s="54">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C163</f>
         <v>22.5</v>
       </c>
       <c r="D133" s="54"/>
@@ -8191,11 +8939,11 @@
         <v>30</v>
       </c>
       <c r="B140" s="54">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B172</f>
         <v>23.6</v>
       </c>
       <c r="C140" s="54">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C172</f>
         <v>29.5</v>
       </c>
       <c r="D140" s="54"/>
@@ -8210,12 +8958,12 @@
         <v>31</v>
       </c>
       <c r="B141" s="54">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B173</f>
         <v>24.6</v>
       </c>
       <c r="C141" s="54">
-        <f>Sheet1!C172</f>
-        <v>0</v>
+        <f>Sheet1!C173</f>
+        <v>1.6</v>
       </c>
       <c r="D141" s="54"/>
       <c r="E141" s="54"/>
@@ -8229,12 +8977,12 @@
         <v>32</v>
       </c>
       <c r="B142" s="54">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B174</f>
         <v>25.6</v>
       </c>
       <c r="C142" s="54">
-        <f>Sheet1!C173</f>
-        <v>0</v>
+        <f>Sheet1!C174</f>
+        <v>2.6</v>
       </c>
       <c r="D142" s="54"/>
       <c r="E142" s="54"/>
@@ -8248,12 +8996,12 @@
         <v>26</v>
       </c>
       <c r="B143" s="54">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B175</f>
         <v>26.6</v>
       </c>
       <c r="C143" s="54">
-        <f>Sheet1!C174</f>
-        <v>0</v>
+        <f>Sheet1!C175</f>
+        <v>3.6</v>
       </c>
       <c r="D143" s="54"/>
       <c r="E143" s="54"/>
@@ -8267,12 +9015,12 @@
         <v>27</v>
       </c>
       <c r="B144" s="54">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B176</f>
         <v>27.6</v>
       </c>
       <c r="C144" s="54">
-        <f>Sheet1!C175</f>
-        <v>0</v>
+        <f>Sheet1!C176</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D144" s="54"/>
       <c r="E144" s="54"/>
@@ -8286,12 +9034,12 @@
         <v>28</v>
       </c>
       <c r="B145" s="54">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B177</f>
         <v>28.6</v>
       </c>
       <c r="C145" s="54">
-        <f>Sheet1!C176</f>
-        <v>0</v>
+        <f>Sheet1!C177</f>
+        <v>5.6</v>
       </c>
       <c r="D145" s="54"/>
       <c r="E145" s="54"/>
@@ -8305,12 +9053,12 @@
         <v>29</v>
       </c>
       <c r="B146" s="54">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B178</f>
         <v>29.6</v>
       </c>
       <c r="C146" s="54">
-        <f>Sheet1!C177</f>
-        <v>0</v>
+        <f>Sheet1!C178</f>
+        <v>6.6</v>
       </c>
       <c r="D146" s="54"/>
       <c r="E146" s="54"/>
@@ -8324,12 +9072,12 @@
         <v>30</v>
       </c>
       <c r="B147" s="54">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B179</f>
         <v>30.6</v>
       </c>
       <c r="C147" s="54">
-        <f>Sheet1!C178</f>
-        <v>0</v>
+        <f>Sheet1!C179</f>
+        <v>7.6</v>
       </c>
       <c r="D147" s="54"/>
       <c r="E147" s="54"/>
@@ -8343,12 +9091,12 @@
         <v>31</v>
       </c>
       <c r="B148" s="54">
-        <f>Sheet1!B179</f>
-        <v>0</v>
+        <f>Sheet1!B180</f>
+        <v>1.7</v>
       </c>
       <c r="C148" s="54">
-        <f>Sheet1!C179</f>
-        <v>0</v>
+        <f>Sheet1!C180</f>
+        <v>8.6</v>
       </c>
       <c r="D148" s="54"/>
       <c r="E148" s="54"/>
@@ -8362,12 +9110,12 @@
         <v>32</v>
       </c>
       <c r="B149" s="54">
-        <f>Sheet1!B180</f>
-        <v>0</v>
+        <f>Sheet1!B181</f>
+        <v>2.7</v>
       </c>
       <c r="C149" s="54">
-        <f>Sheet1!C180</f>
-        <v>0</v>
+        <f>Sheet1!C181</f>
+        <v>9.6</v>
       </c>
       <c r="D149" s="54"/>
       <c r="E149" s="54"/>
@@ -8381,12 +9129,12 @@
         <v>26</v>
       </c>
       <c r="B150" s="54">
-        <f>Sheet1!B181</f>
-        <v>0</v>
+        <f>Sheet1!B182</f>
+        <v>3.7</v>
       </c>
       <c r="C150" s="54">
-        <f>Sheet1!C181</f>
-        <v>0</v>
+        <f>Sheet1!C182</f>
+        <v>10.6</v>
       </c>
       <c r="D150" s="54"/>
       <c r="E150" s="54"/>
@@ -8400,12 +9148,12 @@
         <v>27</v>
       </c>
       <c r="B151" s="54">
-        <f>Sheet1!B182</f>
-        <v>0</v>
+        <f>Sheet1!B183</f>
+        <v>4.7</v>
       </c>
       <c r="C151" s="54">
-        <f>Sheet1!C182</f>
-        <v>0</v>
+        <f>Sheet1!C183</f>
+        <v>11.6</v>
       </c>
       <c r="D151" s="54"/>
       <c r="E151" s="54"/>
@@ -8419,12 +9167,12 @@
         <v>28</v>
       </c>
       <c r="B152" s="54">
-        <f>Sheet1!B183</f>
-        <v>0</v>
+        <f>Sheet1!B184</f>
+        <v>5.7</v>
       </c>
       <c r="C152" s="54">
-        <f>Sheet1!C183</f>
-        <v>0</v>
+        <f>Sheet1!C184</f>
+        <v>12.6</v>
       </c>
       <c r="D152" s="54"/>
       <c r="E152" s="54"/>
@@ -8450,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8513,10 +9261,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -8529,15 +9277,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>29520</v>
+        <v>31720</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>26400</v>
+        <v>28400</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>3120</v>
+        <v>3320</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -8610,7 +9358,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>8400</v>
+        <v>10400</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -8637,7 +9385,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -8664,7 +9412,7 @@
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>840</v>
+        <v>1040</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -8699,7 +9447,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>7000</v>
+        <v>8666.6666666666661</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -8734,7 +9482,7 @@
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>2240</v>
+        <v>2773.3333333333339</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -11261,11 +12009,11 @@
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B161</f>
         <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C161</f>
         <v>20.5</v>
       </c>
       <c r="D141" s="54">
@@ -11280,12 +12028,18 @@
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B162</f>
         <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C162</f>
         <v>21.5</v>
+      </c>
+      <c r="D142" s="54">
+        <v>0</v>
+      </c>
+      <c r="F142" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -11293,12 +12047,18 @@
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B163</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C163</f>
         <v>22.5</v>
+      </c>
+      <c r="D143" s="54">
+        <v>0</v>
+      </c>
+      <c r="F143" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -11313,8 +12073,14 @@
         <f>Sheet1!C165</f>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="54">
+        <v>0</v>
+      </c>
+      <c r="F144" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="58" t="s">
         <v>32</v>
       </c>
@@ -11326,8 +12092,14 @@
         <f>Sheet1!C166</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="54">
+        <v>0</v>
+      </c>
+      <c r="F145" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="58" t="s">
         <v>26</v>
       </c>
@@ -11339,8 +12111,14 @@
         <f>Sheet1!C167</f>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="54">
+        <v>0</v>
+      </c>
+      <c r="F146" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="58" t="s">
         <v>27</v>
       </c>
@@ -11352,8 +12130,14 @@
         <f>Sheet1!C168</f>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="54">
+        <v>0</v>
+      </c>
+      <c r="F147" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="58" t="s">
         <v>28</v>
       </c>
@@ -11365,8 +12149,14 @@
         <f>Sheet1!C169</f>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="54">
+        <v>0</v>
+      </c>
+      <c r="F148" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="58" t="s">
         <v>29</v>
       </c>
@@ -11378,148 +12168,166 @@
         <f>Sheet1!C170</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="54">
+        <v>1600</v>
+      </c>
+      <c r="F149" s="54">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B172</f>
         <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C172</f>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="54">
+        <v>200</v>
+      </c>
+      <c r="F150" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B173</f>
         <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C172</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C173</f>
+        <v>1.6</v>
+      </c>
+      <c r="D151" s="54">
+        <v>200</v>
+      </c>
+      <c r="F151" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B174</f>
         <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C174</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B175</f>
         <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C174</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C175</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B176</f>
         <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C176</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B177</f>
         <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C176</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C177</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B178</f>
         <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C178</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B179</f>
         <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C179</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B179</f>
-        <v>0</v>
+        <f>Sheet1!B180</f>
+        <v>1.7</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C179</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C180</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B180</f>
-        <v>0</v>
+        <f>Sheet1!B181</f>
+        <v>2.7</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C181</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B181</f>
-        <v>0</v>
+        <f>Sheet1!B182</f>
+        <v>3.7</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C181</f>
-        <v>0</v>
+        <f>Sheet1!C182</f>
+        <v>10.6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,12 +12335,12 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B182</f>
-        <v>0</v>
+        <f>Sheet1!B183</f>
+        <v>4.7</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C182</f>
-        <v>0</v>
+        <f>Sheet1!C183</f>
+        <v>11.6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11540,12 +12348,12 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B183</f>
-        <v>0</v>
+        <f>Sheet1!B184</f>
+        <v>5.7</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C183</f>
-        <v>0</v>
+        <f>Sheet1!C184</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11553,12 +12361,12 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B184</f>
-        <v>0</v>
+        <f>Sheet1!B185</f>
+        <v>6.7</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C184</f>
-        <v>0</v>
+        <f>Sheet1!C185</f>
+        <v>13.6</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11566,12 +12374,12 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B185</f>
-        <v>0</v>
+        <f>Sheet1!B186</f>
+        <v>7.7</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C185</f>
-        <v>0</v>
+        <f>Sheet1!C186</f>
+        <v>14.6</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11579,12 +12387,12 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B186</f>
-        <v>0</v>
+        <f>Sheet1!B187</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C186</f>
-        <v>0</v>
+        <f>Sheet1!C187</f>
+        <v>15.6</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11592,12 +12400,12 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B187</f>
-        <v>0</v>
+        <f>Sheet1!B188</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C187</f>
-        <v>0</v>
+        <f>Sheet1!C188</f>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11605,12 +12413,12 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B188</f>
-        <v>0</v>
+        <f>Sheet1!B189</f>
+        <v>10.7</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C188</f>
-        <v>0</v>
+        <f>Sheet1!C189</f>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11618,12 +12426,12 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B189</f>
-        <v>0</v>
+        <f>Sheet1!B190</f>
+        <v>11.7</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C189</f>
-        <v>0</v>
+        <f>Sheet1!C190</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11631,12 +12439,12 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B190</f>
-        <v>0</v>
+        <f>Sheet1!B191</f>
+        <v>12.7</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C190</f>
-        <v>0</v>
+        <f>Sheet1!C191</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11644,12 +12452,12 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B191</f>
-        <v>0</v>
+        <f>Sheet1!B192</f>
+        <v>13.7</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C191</f>
-        <v>0</v>
+        <f>Sheet1!C192</f>
+        <v>20.6</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11657,12 +12465,12 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B192</f>
-        <v>0</v>
+        <f>Sheet1!B193</f>
+        <v>14.7</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C192</f>
-        <v>0</v>
+        <f>Sheet1!C193</f>
+        <v>21.6</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11670,12 +12478,12 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B193</f>
-        <v>0</v>
+        <f>Sheet1!B194</f>
+        <v>15.7</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C193</f>
-        <v>0</v>
+        <f>Sheet1!C194</f>
+        <v>22.6</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11683,12 +12491,12 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B194</f>
-        <v>0</v>
+        <f>Sheet1!B195</f>
+        <v>16.7</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C194</f>
-        <v>0</v>
+        <f>Sheet1!C195</f>
+        <v>23.6</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11696,12 +12504,12 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B195</f>
-        <v>0</v>
+        <f>Sheet1!B196</f>
+        <v>17.7</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C195</f>
-        <v>0</v>
+        <f>Sheet1!C196</f>
+        <v>24.6</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11709,12 +12517,12 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B196</f>
-        <v>0</v>
+        <f>Sheet1!B197</f>
+        <v>18.7</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C196</f>
-        <v>0</v>
+        <f>Sheet1!C197</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11722,12 +12530,12 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B197</f>
-        <v>0</v>
+        <f>Sheet1!B198</f>
+        <v>19.7</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C197</f>
-        <v>0</v>
+        <f>Sheet1!C198</f>
+        <v>26.6</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11735,12 +12543,12 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B198</f>
-        <v>0</v>
+        <f>Sheet1!B199</f>
+        <v>20.7</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C198</f>
-        <v>0</v>
+        <f>Sheet1!C199</f>
+        <v>27.6</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11748,12 +12556,12 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B199</f>
-        <v>0</v>
+        <f>Sheet1!B200</f>
+        <v>21.7</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C199</f>
-        <v>0</v>
+        <f>Sheet1!C200</f>
+        <v>28.6</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11761,12 +12569,12 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B200</f>
-        <v>0</v>
+        <f>Sheet1!B201</f>
+        <v>22.7</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C200</f>
-        <v>0</v>
+        <f>Sheet1!C201</f>
+        <v>29.6</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11774,12 +12582,12 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B201</f>
-        <v>0</v>
-      </c>
-      <c r="C180" s="56">
-        <f>Sheet1!C201</f>
-        <v>0</v>
+        <f>Sheet1!B202</f>
+        <v>23.7</v>
+      </c>
+      <c r="C180" s="56" t="str">
+        <f>Sheet1!C202</f>
+        <v>1.6 (N)</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11787,12 +12595,12 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B202</f>
-        <v>0</v>
-      </c>
-      <c r="C181" s="56">
-        <f>Sheet1!C202</f>
-        <v>0</v>
+        <f>Sheet1!B203</f>
+        <v>24.7</v>
+      </c>
+      <c r="C181" s="56" t="str">
+        <f>Sheet1!C203</f>
+        <v>2.6 (N)</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11800,12 +12608,12 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B203</f>
-        <v>0</v>
-      </c>
-      <c r="C182" s="56">
-        <f>Sheet1!C203</f>
-        <v>0</v>
+        <f>Sheet1!B204</f>
+        <v>25.7</v>
+      </c>
+      <c r="C182" s="56" t="str">
+        <f>Sheet1!C204</f>
+        <v>3.6 (N)</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11813,12 +12621,12 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B204</f>
-        <v>0</v>
-      </c>
-      <c r="C183" s="56">
-        <f>Sheet1!C204</f>
-        <v>0</v>
+        <f>Sheet1!B205</f>
+        <v>26.7</v>
+      </c>
+      <c r="C183" s="56" t="str">
+        <f>Sheet1!C205</f>
+        <v>4.6 (N)</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11826,12 +12634,12 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B205</f>
-        <v>0</v>
-      </c>
-      <c r="C184" s="56">
-        <f>Sheet1!C205</f>
-        <v>0</v>
+        <f>Sheet1!B206</f>
+        <v>27.7</v>
+      </c>
+      <c r="C184" s="56" t="str">
+        <f>Sheet1!C206</f>
+        <v>5.6 (N)</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11839,12 +12647,12 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B206</f>
-        <v>0</v>
-      </c>
-      <c r="C185" s="56">
-        <f>Sheet1!C206</f>
-        <v>0</v>
+        <f>Sheet1!B207</f>
+        <v>28.7</v>
+      </c>
+      <c r="C185" s="56" t="str">
+        <f>Sheet1!C207</f>
+        <v>6.6 (N)</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11852,12 +12660,12 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B207</f>
-        <v>0</v>
-      </c>
-      <c r="C186" s="56">
-        <f>Sheet1!C207</f>
-        <v>0</v>
+        <f>Sheet1!B208</f>
+        <v>29.7</v>
+      </c>
+      <c r="C186" s="56" t="str">
+        <f>Sheet1!C208</f>
+        <v>7.6 (N)</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11865,12 +12673,12 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B208</f>
-        <v>0</v>
-      </c>
-      <c r="C187" s="56">
-        <f>Sheet1!C208</f>
-        <v>0</v>
+        <f>Sheet1!B209</f>
+        <v>30.7</v>
+      </c>
+      <c r="C187" s="56" t="str">
+        <f>Sheet1!C209</f>
+        <v>8.6 (N)</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11878,12 +12686,12 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B209</f>
-        <v>0</v>
-      </c>
-      <c r="C188" s="56">
-        <f>Sheet1!C209</f>
-        <v>0</v>
+        <f>Sheet1!B210</f>
+        <v>31.7</v>
+      </c>
+      <c r="C188" s="56" t="str">
+        <f>Sheet1!C210</f>
+        <v>9.6 (N)</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11891,12 +12699,12 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B210</f>
-        <v>0</v>
-      </c>
-      <c r="C189" s="56">
-        <f>Sheet1!C210</f>
-        <v>0</v>
+        <f>Sheet1!B211</f>
+        <v>1.8</v>
+      </c>
+      <c r="C189" s="56" t="str">
+        <f>Sheet1!C211</f>
+        <v>10.6 (N)</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11904,12 +12712,12 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B211</f>
-        <v>0</v>
-      </c>
-      <c r="C190" s="56">
-        <f>Sheet1!C211</f>
-        <v>0</v>
+        <f>Sheet1!B212</f>
+        <v>2.8</v>
+      </c>
+      <c r="C190" s="56" t="str">
+        <f>Sheet1!C212</f>
+        <v>11.6 (N)</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11917,12 +12725,12 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B212</f>
-        <v>0</v>
-      </c>
-      <c r="C191" s="56">
-        <f>Sheet1!C212</f>
-        <v>0</v>
+        <f>Sheet1!B213</f>
+        <v>3.8</v>
+      </c>
+      <c r="C191" s="56" t="str">
+        <f>Sheet1!C213</f>
+        <v>12.6 (N)</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11930,12 +12738,12 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B213</f>
-        <v>0</v>
-      </c>
-      <c r="C192" s="56">
-        <f>Sheet1!C213</f>
-        <v>0</v>
+        <f>Sheet1!B214</f>
+        <v>4.8</v>
+      </c>
+      <c r="C192" s="56" t="str">
+        <f>Sheet1!C214</f>
+        <v>13.6 (N)</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11943,12 +12751,12 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B214</f>
-        <v>0</v>
-      </c>
-      <c r="C193" s="56">
-        <f>Sheet1!C214</f>
-        <v>0</v>
+        <f>Sheet1!B215</f>
+        <v>5.8</v>
+      </c>
+      <c r="C193" s="56" t="str">
+        <f>Sheet1!C215</f>
+        <v>14.6 (N)</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11956,12 +12764,12 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B215</f>
-        <v>0</v>
-      </c>
-      <c r="C194" s="56">
-        <f>Sheet1!C215</f>
-        <v>0</v>
+        <f>Sheet1!B216</f>
+        <v>6.8</v>
+      </c>
+      <c r="C194" s="56" t="str">
+        <f>Sheet1!C216</f>
+        <v>15.6 (N)</v>
       </c>
     </row>
   </sheetData>
@@ -11977,7 +12785,7 @@
   <dimension ref="A2:P194"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+      <selection activeCell="D146" sqref="D146:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12033,15 +12841,15 @@
       <c r="G3" s="90"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>16920</v>
+        <v>17620</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>3920</v>
+        <v>4120</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -12049,10 +12857,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="89" t="s">
         <v>34</v>
       </c>
@@ -12124,7 +12932,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -12147,7 +12955,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -12170,7 +12978,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>1640</v>
+        <v>1840</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -12193,7 +13001,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>3416.6666666666665</v>
+        <v>3833.333333333333</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -12224,7 +13032,7 @@
       </c>
       <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>2323.3333333333335</v>
+        <v>2606.666666666667</v>
       </c>
       <c r="K10" s="70"/>
     </row>
@@ -15249,11 +16057,11 @@
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B161</f>
         <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C161</f>
         <v>20.5</v>
       </c>
       <c r="D141" s="1">
@@ -15271,12 +16079,21 @@
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B162</f>
         <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C162</f>
         <v>21.5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>100</v>
+      </c>
+      <c r="E142" s="1">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15284,12 +16101,21 @@
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B163</f>
         <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C163</f>
         <v>22.5</v>
+      </c>
+      <c r="D143" s="1">
+        <v>100</v>
+      </c>
+      <c r="E143" s="1">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -15304,8 +16130,17 @@
         <f>Sheet1!C165</f>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D144" s="1">
+        <v>100</v>
+      </c>
+      <c r="E144" s="1">
+        <v>10</v>
+      </c>
+      <c r="F144" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="58" t="s">
         <v>32</v>
       </c>
@@ -15317,8 +16152,17 @@
         <f>Sheet1!C166</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D145" s="1">
+        <v>200</v>
+      </c>
+      <c r="E145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F145" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="58" t="s">
         <v>26</v>
       </c>
@@ -15330,8 +16174,17 @@
         <f>Sheet1!C167</f>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="58" t="s">
         <v>27</v>
       </c>
@@ -15343,8 +16196,17 @@
         <f>Sheet1!C168</f>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="58" t="s">
         <v>28</v>
       </c>
@@ -15356,8 +16218,17 @@
         <f>Sheet1!C169</f>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="58" t="s">
         <v>29</v>
       </c>
@@ -15369,148 +16240,175 @@
         <f>Sheet1!C170</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B172</f>
         <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C172</f>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B173</f>
         <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C173</f>
+        <v>1.6</v>
+      </c>
+      <c r="D151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B174</f>
         <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C174</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B175</f>
         <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C174</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C175</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B176</f>
         <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C176</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B177</f>
         <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C176</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C177</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B178</f>
         <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C178</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B179</f>
         <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C179</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B179</f>
-        <v>0</v>
+        <f>Sheet1!B180</f>
+        <v>1.7</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C179</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C180</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B180</f>
-        <v>0</v>
+        <f>Sheet1!B181</f>
+        <v>2.7</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <f>Sheet1!C181</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B181</f>
-        <v>0</v>
+        <f>Sheet1!B182</f>
+        <v>3.7</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C181</f>
-        <v>0</v>
+        <f>Sheet1!C182</f>
+        <v>10.6</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15518,12 +16416,12 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B182</f>
-        <v>0</v>
+        <f>Sheet1!B183</f>
+        <v>4.7</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C182</f>
-        <v>0</v>
+        <f>Sheet1!C183</f>
+        <v>11.6</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15531,12 +16429,12 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B183</f>
-        <v>0</v>
+        <f>Sheet1!B184</f>
+        <v>5.7</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C183</f>
-        <v>0</v>
+        <f>Sheet1!C184</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15544,12 +16442,12 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B184</f>
-        <v>0</v>
+        <f>Sheet1!B185</f>
+        <v>6.7</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C184</f>
-        <v>0</v>
+        <f>Sheet1!C185</f>
+        <v>13.6</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15557,12 +16455,12 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B185</f>
-        <v>0</v>
+        <f>Sheet1!B186</f>
+        <v>7.7</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C185</f>
-        <v>0</v>
+        <f>Sheet1!C186</f>
+        <v>14.6</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15570,12 +16468,12 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B186</f>
-        <v>0</v>
+        <f>Sheet1!B187</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C186</f>
-        <v>0</v>
+        <f>Sheet1!C187</f>
+        <v>15.6</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15583,12 +16481,12 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B187</f>
-        <v>0</v>
+        <f>Sheet1!B188</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C187</f>
-        <v>0</v>
+        <f>Sheet1!C188</f>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15596,12 +16494,12 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B188</f>
-        <v>0</v>
+        <f>Sheet1!B189</f>
+        <v>10.7</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C188</f>
-        <v>0</v>
+        <f>Sheet1!C189</f>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15609,12 +16507,12 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B189</f>
-        <v>0</v>
+        <f>Sheet1!B190</f>
+        <v>11.7</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C189</f>
-        <v>0</v>
+        <f>Sheet1!C190</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15622,12 +16520,12 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B190</f>
-        <v>0</v>
+        <f>Sheet1!B191</f>
+        <v>12.7</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C190</f>
-        <v>0</v>
+        <f>Sheet1!C191</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15635,12 +16533,12 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B191</f>
-        <v>0</v>
+        <f>Sheet1!B192</f>
+        <v>13.7</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C191</f>
-        <v>0</v>
+        <f>Sheet1!C192</f>
+        <v>20.6</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15648,12 +16546,12 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B192</f>
-        <v>0</v>
+        <f>Sheet1!B193</f>
+        <v>14.7</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C192</f>
-        <v>0</v>
+        <f>Sheet1!C193</f>
+        <v>21.6</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15661,12 +16559,12 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B193</f>
-        <v>0</v>
+        <f>Sheet1!B194</f>
+        <v>15.7</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C193</f>
-        <v>0</v>
+        <f>Sheet1!C194</f>
+        <v>22.6</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15674,12 +16572,12 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B194</f>
-        <v>0</v>
+        <f>Sheet1!B195</f>
+        <v>16.7</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C194</f>
-        <v>0</v>
+        <f>Sheet1!C195</f>
+        <v>23.6</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15687,12 +16585,12 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B195</f>
-        <v>0</v>
+        <f>Sheet1!B196</f>
+        <v>17.7</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C195</f>
-        <v>0</v>
+        <f>Sheet1!C196</f>
+        <v>24.6</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15700,12 +16598,12 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B196</f>
-        <v>0</v>
+        <f>Sheet1!B197</f>
+        <v>18.7</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C196</f>
-        <v>0</v>
+        <f>Sheet1!C197</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15713,12 +16611,12 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B197</f>
-        <v>0</v>
+        <f>Sheet1!B198</f>
+        <v>19.7</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C197</f>
-        <v>0</v>
+        <f>Sheet1!C198</f>
+        <v>26.6</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15726,12 +16624,12 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B198</f>
-        <v>0</v>
+        <f>Sheet1!B199</f>
+        <v>20.7</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C198</f>
-        <v>0</v>
+        <f>Sheet1!C199</f>
+        <v>27.6</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15739,12 +16637,12 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B199</f>
-        <v>0</v>
+        <f>Sheet1!B200</f>
+        <v>21.7</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C199</f>
-        <v>0</v>
+        <f>Sheet1!C200</f>
+        <v>28.6</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15752,12 +16650,12 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B200</f>
-        <v>0</v>
+        <f>Sheet1!B201</f>
+        <v>22.7</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C200</f>
-        <v>0</v>
+        <f>Sheet1!C201</f>
+        <v>29.6</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15765,12 +16663,12 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B201</f>
-        <v>0</v>
-      </c>
-      <c r="C180" s="56">
-        <f>Sheet1!C201</f>
-        <v>0</v>
+        <f>Sheet1!B202</f>
+        <v>23.7</v>
+      </c>
+      <c r="C180" s="56" t="str">
+        <f>Sheet1!C202</f>
+        <v>1.6 (N)</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15778,12 +16676,12 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B202</f>
-        <v>0</v>
-      </c>
-      <c r="C181" s="56">
-        <f>Sheet1!C202</f>
-        <v>0</v>
+        <f>Sheet1!B203</f>
+        <v>24.7</v>
+      </c>
+      <c r="C181" s="56" t="str">
+        <f>Sheet1!C203</f>
+        <v>2.6 (N)</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15791,12 +16689,12 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B203</f>
-        <v>0</v>
-      </c>
-      <c r="C182" s="56">
-        <f>Sheet1!C203</f>
-        <v>0</v>
+        <f>Sheet1!B204</f>
+        <v>25.7</v>
+      </c>
+      <c r="C182" s="56" t="str">
+        <f>Sheet1!C204</f>
+        <v>3.6 (N)</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15804,12 +16702,12 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B204</f>
-        <v>0</v>
-      </c>
-      <c r="C183" s="56">
-        <f>Sheet1!C204</f>
-        <v>0</v>
+        <f>Sheet1!B205</f>
+        <v>26.7</v>
+      </c>
+      <c r="C183" s="56" t="str">
+        <f>Sheet1!C205</f>
+        <v>4.6 (N)</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15817,12 +16715,12 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B205</f>
-        <v>0</v>
-      </c>
-      <c r="C184" s="56">
-        <f>Sheet1!C205</f>
-        <v>0</v>
+        <f>Sheet1!B206</f>
+        <v>27.7</v>
+      </c>
+      <c r="C184" s="56" t="str">
+        <f>Sheet1!C206</f>
+        <v>5.6 (N)</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15830,12 +16728,12 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B206</f>
-        <v>0</v>
-      </c>
-      <c r="C185" s="56">
-        <f>Sheet1!C206</f>
-        <v>0</v>
+        <f>Sheet1!B207</f>
+        <v>28.7</v>
+      </c>
+      <c r="C185" s="56" t="str">
+        <f>Sheet1!C207</f>
+        <v>6.6 (N)</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15843,12 +16741,12 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B207</f>
-        <v>0</v>
-      </c>
-      <c r="C186" s="56">
-        <f>Sheet1!C207</f>
-        <v>0</v>
+        <f>Sheet1!B208</f>
+        <v>29.7</v>
+      </c>
+      <c r="C186" s="56" t="str">
+        <f>Sheet1!C208</f>
+        <v>7.6 (N)</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15856,12 +16754,12 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B208</f>
-        <v>0</v>
-      </c>
-      <c r="C187" s="56">
-        <f>Sheet1!C208</f>
-        <v>0</v>
+        <f>Sheet1!B209</f>
+        <v>30.7</v>
+      </c>
+      <c r="C187" s="56" t="str">
+        <f>Sheet1!C209</f>
+        <v>8.6 (N)</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15869,12 +16767,12 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B209</f>
-        <v>0</v>
-      </c>
-      <c r="C188" s="56">
-        <f>Sheet1!C209</f>
-        <v>0</v>
+        <f>Sheet1!B210</f>
+        <v>31.7</v>
+      </c>
+      <c r="C188" s="56" t="str">
+        <f>Sheet1!C210</f>
+        <v>9.6 (N)</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15882,12 +16780,12 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B210</f>
-        <v>0</v>
-      </c>
-      <c r="C189" s="56">
-        <f>Sheet1!C210</f>
-        <v>0</v>
+        <f>Sheet1!B211</f>
+        <v>1.8</v>
+      </c>
+      <c r="C189" s="56" t="str">
+        <f>Sheet1!C211</f>
+        <v>10.6 (N)</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15895,12 +16793,12 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B211</f>
-        <v>0</v>
-      </c>
-      <c r="C190" s="56">
-        <f>Sheet1!C211</f>
-        <v>0</v>
+        <f>Sheet1!B212</f>
+        <v>2.8</v>
+      </c>
+      <c r="C190" s="56" t="str">
+        <f>Sheet1!C212</f>
+        <v>11.6 (N)</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15908,12 +16806,12 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B212</f>
-        <v>0</v>
-      </c>
-      <c r="C191" s="56">
-        <f>Sheet1!C212</f>
-        <v>0</v>
+        <f>Sheet1!B213</f>
+        <v>3.8</v>
+      </c>
+      <c r="C191" s="56" t="str">
+        <f>Sheet1!C213</f>
+        <v>12.6 (N)</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15921,12 +16819,12 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B213</f>
-        <v>0</v>
-      </c>
-      <c r="C192" s="56">
-        <f>Sheet1!C213</f>
-        <v>0</v>
+        <f>Sheet1!B214</f>
+        <v>4.8</v>
+      </c>
+      <c r="C192" s="56" t="str">
+        <f>Sheet1!C214</f>
+        <v>13.6 (N)</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15934,12 +16832,12 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B214</f>
-        <v>0</v>
-      </c>
-      <c r="C193" s="56">
-        <f>Sheet1!C214</f>
-        <v>0</v>
+        <f>Sheet1!B215</f>
+        <v>5.8</v>
+      </c>
+      <c r="C193" s="56" t="str">
+        <f>Sheet1!C215</f>
+        <v>14.6 (N)</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -15947,12 +16845,12 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B215</f>
-        <v>0</v>
-      </c>
-      <c r="C194" s="56">
-        <f>Sheet1!C215</f>
-        <v>0</v>
+        <f>Sheet1!B216</f>
+        <v>6.8</v>
+      </c>
+      <c r="C194" s="56" t="str">
+        <f>Sheet1!C216</f>
+        <v>15.6 (N)</v>
       </c>
     </row>
   </sheetData>
@@ -15966,10 +16864,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16019,19 +16917,36 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="C6" s="106" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16040,10 +16955,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16051,17 +16966,18 @@
     <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D1" s="103"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>34</v>
@@ -16069,32 +16985,32 @@
       <c r="C2" s="100" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="103"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="96">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C3" s="100">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="103"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="100">
-        <f>(DATE(2017,6,14)-DATE(2017,6,12))*1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="100">
-        <f>(DATE(2017,6,14)-DATE(2017,6,12))*2.7</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f>(DATE(2017,7,12)-DATE(2017,6,12))*5</f>
+        <v>150</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="103"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>78</v>
       </c>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="176">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -437,9 +437,6 @@
     <t>cho vay(KT)</t>
   </si>
   <si>
-    <t>30000 (18/08/2017)</t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
@@ -554,7 +551,13 @@
     <t>(25/08/2017)</t>
   </si>
   <si>
-    <t>800(26/08/2017)</t>
+    <t>10000 (25/08/17)</t>
+  </si>
+  <si>
+    <t>30000 (18/08/17)</t>
+  </si>
+  <si>
+    <t>800(25/08/2017)</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="I248" sqref="I248"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="I255" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,15 +1567,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>108670</v>
+        <v>110980</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>95650</v>
+        <v>97600</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>13020</v>
+        <v>13380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1596,7 +1599,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10029)-SUM(J8:J10029)</f>
-        <v>13360</v>
+        <v>15670</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)-1600</f>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AA9)</f>
-        <v>78208.333333333328</v>
+        <v>79833.333333333328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1656,7 +1659,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AA10)</f>
-        <v>28481.666666666668</v>
+        <v>29166.666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6633,7 +6636,7 @@
         <v>1.7</v>
       </c>
       <c r="D240" s="140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E240" s="140"/>
       <c r="F240" s="140"/>
@@ -6702,7 +6705,7 @@
         <v>4.7</v>
       </c>
       <c r="D243" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E243" s="140"/>
       <c r="F243" s="140"/>
@@ -6825,6 +6828,17 @@
       <c r="C249" s="133">
         <v>9.6999999999999993</v>
       </c>
+      <c r="D249" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E249" s="140"/>
+      <c r="F249" s="140"/>
+      <c r="G249" s="140"/>
+      <c r="H249" s="140"/>
+      <c r="I249" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="103">
@@ -6837,6 +6851,17 @@
       <c r="C250" s="133">
         <v>10.7</v>
       </c>
+      <c r="D250" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E250" s="140"/>
+      <c r="F250" s="140"/>
+      <c r="G250" s="140"/>
+      <c r="H250" s="140"/>
+      <c r="I250" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="132">
@@ -6861,6 +6886,17 @@
       <c r="C252" s="133">
         <v>12.7</v>
       </c>
+      <c r="D252" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E252" s="140"/>
+      <c r="F252" s="140"/>
+      <c r="G252" s="140"/>
+      <c r="H252" s="140"/>
+      <c r="I252" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="132">
@@ -6873,6 +6909,17 @@
       <c r="C253" s="133">
         <v>13.7</v>
       </c>
+      <c r="D253" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E253" s="140"/>
+      <c r="F253" s="140"/>
+      <c r="G253" s="140"/>
+      <c r="H253" s="140"/>
+      <c r="I253" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="132">
@@ -6885,6 +6932,17 @@
       <c r="C254" s="133">
         <v>14.7</v>
       </c>
+      <c r="D254" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E254" s="140"/>
+      <c r="F254" s="140"/>
+      <c r="G254" s="140"/>
+      <c r="H254" s="140"/>
+      <c r="I254" s="1">
+        <f>(220*2)+(140*2+150)</f>
+        <v>870</v>
+      </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="132">
@@ -7204,7 +7262,7 @@
         <v>245</v>
       </c>
       <c r="B281" s="135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C281" s="133">
         <v>12.8</v>
@@ -7216,7 +7274,7 @@
         <v>246</v>
       </c>
       <c r="B282" s="135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C282" s="133">
         <v>13.8</v>
@@ -7228,7 +7286,7 @@
         <v>247</v>
       </c>
       <c r="B283" s="135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C283" s="133">
         <v>14.8</v>
@@ -7240,7 +7298,7 @@
         <v>248</v>
       </c>
       <c r="B284" s="135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C284" s="133">
         <v>15.8</v>
@@ -7252,7 +7310,7 @@
         <v>249</v>
       </c>
       <c r="B285" s="135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C285" s="133">
         <v>16.8</v>
@@ -7264,7 +7322,7 @@
         <v>250</v>
       </c>
       <c r="B286" s="135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C286" s="133">
         <v>17.8</v>
@@ -7276,7 +7334,7 @@
         <v>251</v>
       </c>
       <c r="B287" s="135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C287" s="133">
         <v>18.8</v>
@@ -7288,7 +7346,7 @@
         <v>252</v>
       </c>
       <c r="B288" s="135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C288" s="133">
         <v>19.8</v>
@@ -7300,7 +7358,7 @@
         <v>253</v>
       </c>
       <c r="B289" s="135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C289" s="133">
         <v>20.8</v>
@@ -7312,7 +7370,7 @@
         <v>254</v>
       </c>
       <c r="B290" s="135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C290" s="133">
         <v>21.8</v>
@@ -7324,7 +7382,7 @@
         <v>255</v>
       </c>
       <c r="B291" s="135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C291" s="133">
         <v>22.8</v>
@@ -7336,7 +7394,7 @@
         <v>256</v>
       </c>
       <c r="B292" s="135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C292" s="133">
         <v>23.8</v>
@@ -7348,7 +7406,7 @@
         <v>257</v>
       </c>
       <c r="B293" s="135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C293" s="133">
         <v>24.8</v>
@@ -7360,7 +7418,7 @@
         <v>258</v>
       </c>
       <c r="B294" s="135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C294" s="133">
         <v>25.8</v>
@@ -7372,7 +7430,7 @@
         <v>259</v>
       </c>
       <c r="B295" s="135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C295" s="133">
         <v>26.8</v>
@@ -7384,7 +7442,7 @@
         <v>260</v>
       </c>
       <c r="B296" s="135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C296" s="133">
         <v>27.8</v>
@@ -7396,7 +7454,7 @@
         <v>261</v>
       </c>
       <c r="B297" s="135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C297" s="133">
         <v>28.8</v>
@@ -7408,7 +7466,7 @@
         <v>262</v>
       </c>
       <c r="B298" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C298" s="133">
         <v>29.8</v>
@@ -7420,7 +7478,7 @@
         <v>263</v>
       </c>
       <c r="B299" s="135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C299" s="133">
         <v>30.8</v>
@@ -7432,7 +7490,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,7 +7499,7 @@
         <v>265</v>
       </c>
       <c r="B301" s="135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7450,7 +7508,7 @@
         <v>266</v>
       </c>
       <c r="B302" s="135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7459,7 +7517,7 @@
         <v>267</v>
       </c>
       <c r="B303" s="135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,7 +7526,7 @@
         <v>268</v>
       </c>
       <c r="B304" s="135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -7477,7 +7535,7 @@
         <v>269</v>
       </c>
       <c r="B305" s="135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -7486,7 +7544,7 @@
         <v>270</v>
       </c>
       <c r="B306" s="135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,7 +7553,7 @@
         <v>271</v>
       </c>
       <c r="B307" s="135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,7 +7562,7 @@
         <v>272</v>
       </c>
       <c r="B308" s="135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -7513,7 +7571,7 @@
         <v>273</v>
       </c>
       <c r="B309" s="135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -7522,7 +7580,7 @@
         <v>274</v>
       </c>
       <c r="B310" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -7531,7 +7589,7 @@
         <v>275</v>
       </c>
       <c r="B311" s="135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -8423,186 +8481,57 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="251">
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D242:H242"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D240:H240"/>
-    <mergeCell ref="D214:H214"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D194:H194"/>
-    <mergeCell ref="D195:H195"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D207:H207"/>
-    <mergeCell ref="D208:H208"/>
-    <mergeCell ref="D211:H211"/>
-    <mergeCell ref="D212:H212"/>
-    <mergeCell ref="D213:H213"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D144:H144"/>
+  <mergeCells count="256">
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="D168:H168"/>
@@ -8627,54 +8556,188 @@
     <mergeCell ref="D148:H148"/>
     <mergeCell ref="D150:H150"/>
     <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="D211:H211"/>
+    <mergeCell ref="D212:H212"/>
+    <mergeCell ref="D213:H213"/>
     <mergeCell ref="D205:H205"/>
     <mergeCell ref="D206:H206"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D214:H214"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D240:H240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11866,8 +11929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R1122"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D219" sqref="D219:F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11958,15 +12021,15 @@
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>46080</v>
+        <v>47400</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>41400</v>
+        <v>42600</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
-        <v>4680</v>
+        <v>4800</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="48"/>
@@ -12051,7 +12114,7 @@
       </c>
       <c r="M7" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -12083,7 +12146,7 @@
       </c>
       <c r="M8" s="56">
         <f>M7/200</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N8" s="124"/>
       <c r="O8" s="56"/>
@@ -12115,7 +12178,7 @@
       </c>
       <c r="M9" s="56">
         <f>SUM($F$190:$F$270)</f>
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -12155,7 +12218,7 @@
       </c>
       <c r="M10" s="56">
         <f>(M7/100)*(10000/120)</f>
-        <v>4666.6666666666661</v>
+        <v>5666.6666666666661</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -12195,7 +12258,7 @@
       </c>
       <c r="M11" s="61">
         <f>M7-M10+M9</f>
-        <v>1493.3333333333339</v>
+        <v>1813.3333333333339</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
@@ -16415,6 +16478,12 @@
         <f>Sheet1!C249</f>
         <v>9.6999999999999993</v>
       </c>
+      <c r="D218" s="54">
+        <v>200</v>
+      </c>
+      <c r="F218" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="58" t="s">
@@ -16428,6 +16497,12 @@
         <f>Sheet1!C250</f>
         <v>10.7</v>
       </c>
+      <c r="D219" s="54">
+        <v>200</v>
+      </c>
+      <c r="F219" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="58" t="s">
@@ -16441,6 +16516,12 @@
         <f>Sheet1!C251</f>
         <v>11.7</v>
       </c>
+      <c r="D220" s="54">
+        <v>200</v>
+      </c>
+      <c r="F220" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="58" t="s">
@@ -16454,6 +16535,12 @@
         <f>Sheet1!C252</f>
         <v>12.7</v>
       </c>
+      <c r="D221" s="54">
+        <v>200</v>
+      </c>
+      <c r="F221" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="58" t="s">
@@ -16467,6 +16554,12 @@
         <f>Sheet1!C253</f>
         <v>13.7</v>
       </c>
+      <c r="D222" s="54">
+        <v>200</v>
+      </c>
+      <c r="F222" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="58" t="s">
@@ -16479,6 +16572,12 @@
       <c r="C223" s="56">
         <f>Sheet1!C254</f>
         <v>14.7</v>
+      </c>
+      <c r="D223" s="54">
+        <v>200</v>
+      </c>
+      <c r="F223" s="54">
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -25732,8 +25831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25797,15 +25896,15 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>26890</v>
+        <v>27880</v>
       </c>
       <c r="J3" s="51">
         <f>SUM(J6:AB6)</f>
-        <v>19950</v>
+        <v>20700</v>
       </c>
       <c r="K3" s="52">
         <f>SUM(J8:AB8)</f>
-        <v>6940</v>
+        <v>7180</v>
       </c>
       <c r="L3" s="54"/>
       <c r="N3" s="1" t="s">
@@ -25844,8 +25943,8 @@
         <v>130</v>
       </c>
       <c r="O4" s="87">
-        <f>(200)-60-20-120+(140*2)-80-50</f>
-        <v>150</v>
+        <f>(200)-60-20-120+(140*2)-80-50-150</f>
+        <v>0</v>
       </c>
       <c r="P4" s="87"/>
       <c r="Q4" s="87"/>
@@ -25909,7 +26008,7 @@
       </c>
       <c r="L6" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>2650</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -25936,7 +26035,7 @@
       </c>
       <c r="L7" s="56">
         <f>L6/100</f>
-        <v>26.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -25963,7 +26062,7 @@
       </c>
       <c r="L8" s="56">
         <f>SUM($E$190:$E$270)+SUM($F$190:$F$270)</f>
-        <v>1120</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -25990,7 +26089,7 @@
       </c>
       <c r="L9" s="56">
         <f>(L6/100)*(10000/120)</f>
-        <v>2208.333333333333</v>
+        <v>2833.333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26025,7 +26124,7 @@
       </c>
       <c r="L10" s="56">
         <f>L6-L9+L8</f>
-        <v>1561.666666666667</v>
+        <v>1926.666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -30846,6 +30945,15 @@
         <f>Sheet1!C249</f>
         <v>9.6999999999999993</v>
       </c>
+      <c r="D218" s="1">
+        <v>100</v>
+      </c>
+      <c r="E218" s="1">
+        <v>10</v>
+      </c>
+      <c r="F218" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="58" t="s">
@@ -30859,6 +30967,15 @@
         <f>Sheet1!C250</f>
         <v>10.7</v>
       </c>
+      <c r="D219" s="1">
+        <v>100</v>
+      </c>
+      <c r="E219" s="1">
+        <v>10</v>
+      </c>
+      <c r="F219" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="58" t="s">
@@ -30872,6 +30989,15 @@
         <f>Sheet1!C251</f>
         <v>11.7</v>
       </c>
+      <c r="D220" s="1">
+        <v>100</v>
+      </c>
+      <c r="E220" s="1">
+        <v>10</v>
+      </c>
+      <c r="F220" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="58" t="s">
@@ -30885,6 +31011,15 @@
         <f>Sheet1!C252</f>
         <v>12.7</v>
       </c>
+      <c r="D221" s="1">
+        <v>100</v>
+      </c>
+      <c r="E221" s="1">
+        <v>10</v>
+      </c>
+      <c r="F221" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="58" t="s">
@@ -30898,6 +31033,15 @@
         <f>Sheet1!C253</f>
         <v>13.7</v>
       </c>
+      <c r="D222" s="1">
+        <v>100</v>
+      </c>
+      <c r="E222" s="1">
+        <v>10</v>
+      </c>
+      <c r="F222" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="58" t="s">
@@ -30910,6 +31054,15 @@
       <c r="C223" s="56">
         <f>Sheet1!C254</f>
         <v>14.7</v>
+      </c>
+      <c r="D223" s="1">
+        <v>250</v>
+      </c>
+      <c r="E223" s="1">
+        <v>10</v>
+      </c>
+      <c r="F223" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -39348,7 +39501,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39386,7 +39539,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D3" s="25"/>
       <c r="F3" s="31"/>
@@ -39417,7 +39570,9 @@
       <c r="B5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>173</v>
+      </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -39429,7 +39584,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="139" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="111"/>
     </row>
@@ -39465,7 +39620,7 @@
         <v>127</v>
       </c>
       <c r="E1" s="138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -39527,22 +39682,22 @@
         <v>77</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="134"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="134" t="s">
-        <v>170</v>
-      </c>
       <c r="D6" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="177">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -559,6 +559,9 @@
   <si>
     <t>800(25/08/2017)</t>
   </si>
+  <si>
+    <t>10000 (05/09/17)</t>
+  </si>
 </sst>
 </file>
 
@@ -1047,9 +1050,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,6 +1142,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1463,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="I255" sqref="I255"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="K235" sqref="K235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1516,7 @@
       <c r="K4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="131">
+      <c r="N4" s="130">
         <v>42965</v>
       </c>
     </row>
@@ -1543,7 +1546,7 @@
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="129">
+      <c r="N5" s="128">
         <f>21*100+17*50+25*20+21*10</f>
         <v>3660</v>
       </c>
@@ -1567,15 +1570,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>110980</v>
+        <v>111420</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>97600</v>
+        <v>98000</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>13380</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1599,7 +1602,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10029)-SUM(J8:J10029)</f>
-        <v>15670</v>
+        <v>16110</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)-1600</f>
@@ -1631,7 +1634,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AA9)</f>
-        <v>79833.333333333328</v>
+        <v>80166.666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1659,7 +1662,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AA10)</f>
-        <v>29166.666666666668</v>
+        <v>29273.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5113,9 +5116,9 @@
       </c>
     </row>
     <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="106"/>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
+      <c r="A171" s="105"/>
+      <c r="B171" s="106"/>
+      <c r="C171" s="106"/>
       <c r="D171" s="140" t="s">
         <v>20</v>
       </c>
@@ -5237,9 +5240,9 @@
       </c>
     </row>
     <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="109"/>
-      <c r="B177" s="110"/>
-      <c r="C177" s="110"/>
+      <c r="A177" s="108"/>
+      <c r="B177" s="109"/>
+      <c r="C177" s="109"/>
       <c r="D177" s="140" t="s">
         <v>67</v>
       </c>
@@ -5554,9 +5557,9 @@
       </c>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="112"/>
-      <c r="B191" s="113"/>
-      <c r="C191" s="113"/>
+      <c r="A191" s="111"/>
+      <c r="B191" s="112"/>
+      <c r="C191" s="112"/>
       <c r="D191" s="140" t="s">
         <v>20</v>
       </c>
@@ -5822,9 +5825,9 @@
       </c>
     </row>
     <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="116"/>
-      <c r="B203" s="117"/>
-      <c r="C203" s="117"/>
+      <c r="A203" s="115"/>
+      <c r="B203" s="116"/>
+      <c r="C203" s="116"/>
       <c r="D203" s="140" t="s">
         <v>121</v>
       </c>
@@ -5946,9 +5949,9 @@
       </c>
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="119"/>
-      <c r="B209" s="120"/>
-      <c r="C209" s="120"/>
+      <c r="A209" s="118"/>
+      <c r="B209" s="119"/>
+      <c r="C209" s="119"/>
       <c r="D209" s="140" t="s">
         <v>123</v>
       </c>
@@ -5961,9 +5964,9 @@
       </c>
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="119"/>
-      <c r="B210" s="120"/>
-      <c r="C210" s="120"/>
+      <c r="A210" s="118"/>
+      <c r="B210" s="119"/>
+      <c r="C210" s="119"/>
       <c r="D210" s="140" t="s">
         <v>59</v>
       </c>
@@ -6115,9 +6118,9 @@
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="125"/>
-      <c r="B217" s="126"/>
-      <c r="C217" s="126"/>
+      <c r="A217" s="124"/>
+      <c r="B217" s="125"/>
+      <c r="C217" s="125"/>
       <c r="D217" s="140" t="s">
         <v>132</v>
       </c>
@@ -6522,9 +6525,9 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="127"/>
-      <c r="B235" s="128"/>
-      <c r="C235" s="128"/>
+      <c r="A235" s="126"/>
+      <c r="B235" s="127"/>
+      <c r="C235" s="127"/>
       <c r="D235" s="140" t="s">
         <v>133</v>
       </c>
@@ -6541,9 +6544,9 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="127"/>
-      <c r="B236" s="128"/>
-      <c r="C236" s="128"/>
+      <c r="A236" s="126"/>
+      <c r="B236" s="127"/>
+      <c r="C236" s="127"/>
       <c r="D236" s="140" t="s">
         <v>134</v>
       </c>
@@ -6678,7 +6681,7 @@
       <c r="B242" s="104">
         <v>24.8</v>
       </c>
-      <c r="C242" s="133">
+      <c r="C242" s="132">
         <v>3.7</v>
       </c>
       <c r="D242" s="140" t="s">
@@ -6701,7 +6704,7 @@
       <c r="B243" s="104">
         <v>25.8</v>
       </c>
-      <c r="C243" s="133">
+      <c r="C243" s="132">
         <v>4.7</v>
       </c>
       <c r="D243" s="140" t="s">
@@ -6716,9 +6719,9 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="136"/>
-      <c r="B244" s="137"/>
-      <c r="C244" s="137"/>
+      <c r="A244" s="135"/>
+      <c r="B244" s="136"/>
+      <c r="C244" s="136"/>
       <c r="D244" s="140" t="s">
         <v>59</v>
       </c>
@@ -6739,7 +6742,7 @@
       <c r="B245" s="104">
         <v>26.8</v>
       </c>
-      <c r="C245" s="133">
+      <c r="C245" s="132">
         <v>5.7</v>
       </c>
       <c r="D245" s="140" t="s">
@@ -6762,7 +6765,7 @@
       <c r="B246" s="104">
         <v>27.8</v>
       </c>
-      <c r="C246" s="133">
+      <c r="C246" s="132">
         <v>6.7</v>
       </c>
       <c r="D246" s="140"/>
@@ -6779,7 +6782,7 @@
       <c r="B247" s="104">
         <v>28.8</v>
       </c>
-      <c r="C247" s="133">
+      <c r="C247" s="132">
         <v>7.7</v>
       </c>
       <c r="D247" s="140" t="s">
@@ -6802,7 +6805,7 @@
       <c r="B248" s="104">
         <v>29.8</v>
       </c>
-      <c r="C248" s="133">
+      <c r="C248" s="132">
         <v>8.6999999999999993</v>
       </c>
       <c r="D248" s="140" t="s">
@@ -6825,7 +6828,7 @@
       <c r="B249" s="104">
         <v>30.8</v>
       </c>
-      <c r="C249" s="133">
+      <c r="C249" s="132">
         <v>9.6999999999999993</v>
       </c>
       <c r="D249" s="140" t="s">
@@ -6848,7 +6851,7 @@
       <c r="B250" s="104">
         <v>31.8</v>
       </c>
-      <c r="C250" s="133">
+      <c r="C250" s="132">
         <v>10.7</v>
       </c>
       <c r="D250" s="140" t="s">
@@ -6864,26 +6867,26 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="132">
+      <c r="A251" s="131">
         <f t="shared" si="9"/>
         <v>215</v>
       </c>
       <c r="B251" s="5">
         <v>1.9</v>
       </c>
-      <c r="C251" s="133">
+      <c r="C251" s="132">
         <v>11.7</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="132">
+      <c r="A252" s="131">
         <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="B252" s="5">
         <v>2.9</v>
       </c>
-      <c r="C252" s="133">
+      <c r="C252" s="132">
         <v>12.7</v>
       </c>
       <c r="D252" s="140" t="s">
@@ -6899,14 +6902,14 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="132">
+      <c r="A253" s="131">
         <f t="shared" si="9"/>
         <v>217</v>
       </c>
-      <c r="B253" s="133">
+      <c r="B253" s="132">
         <v>3.9</v>
       </c>
-      <c r="C253" s="133">
+      <c r="C253" s="132">
         <v>13.7</v>
       </c>
       <c r="D253" s="140" t="s">
@@ -6922,14 +6925,14 @@
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="132">
+      <c r="A254" s="131">
         <f t="shared" si="9"/>
         <v>218</v>
       </c>
-      <c r="B254" s="133">
+      <c r="B254" s="132">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C254" s="133">
+      <c r="C254" s="132">
         <v>14.7</v>
       </c>
       <c r="D254" s="140" t="s">
@@ -6945,191 +6948,202 @@
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="132">
+      <c r="A255" s="131">
         <f t="shared" si="9"/>
         <v>219</v>
       </c>
-      <c r="B255" s="133">
+      <c r="B255" s="132">
         <v>5.9</v>
       </c>
-      <c r="C255" s="133">
+      <c r="C255" s="132">
         <v>15.7</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="132">
+      <c r="A256" s="131">
         <f t="shared" si="9"/>
         <v>220</v>
       </c>
-      <c r="B256" s="133">
+      <c r="B256" s="132">
         <v>6.9</v>
       </c>
-      <c r="C256" s="133">
+      <c r="C256" s="132">
         <v>16.7</v>
       </c>
+      <c r="D256" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E256" s="140"/>
+      <c r="F256" s="140"/>
+      <c r="G256" s="140"/>
+      <c r="H256" s="140"/>
+      <c r="I256" s="1">
+        <f>(220*2)</f>
+        <v>440</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="132">
+      <c r="A257" s="131">
         <f t="shared" si="9"/>
         <v>221</v>
       </c>
-      <c r="B257" s="133">
+      <c r="B257" s="132">
         <v>7.9</v>
       </c>
-      <c r="C257" s="133">
+      <c r="C257" s="132">
         <v>17.7</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="132">
+      <c r="A258" s="131">
         <f t="shared" si="9"/>
         <v>222</v>
       </c>
-      <c r="B258" s="133">
+      <c r="B258" s="132">
         <v>8.9</v>
       </c>
-      <c r="C258" s="133">
+      <c r="C258" s="132">
         <v>18.7</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="132">
+      <c r="A259" s="131">
         <f t="shared" si="9"/>
         <v>223</v>
       </c>
-      <c r="B259" s="133">
+      <c r="B259" s="132">
         <v>9.9</v>
       </c>
-      <c r="C259" s="133">
+      <c r="C259" s="132">
         <v>19.7</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="132">
+      <c r="A260" s="131">
         <f t="shared" si="9"/>
         <v>224</v>
       </c>
-      <c r="B260" s="133">
+      <c r="B260" s="132">
         <v>10.9</v>
       </c>
-      <c r="C260" s="133">
+      <c r="C260" s="132">
         <v>20.7</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="132">
+      <c r="A261" s="131">
         <f t="shared" si="9"/>
         <v>225</v>
       </c>
-      <c r="B261" s="133">
+      <c r="B261" s="132">
         <v>11.9</v>
       </c>
-      <c r="C261" s="133">
+      <c r="C261" s="132">
         <v>21.7</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="132">
+      <c r="A262" s="131">
         <f t="shared" si="9"/>
         <v>226</v>
       </c>
-      <c r="B262" s="133">
+      <c r="B262" s="132">
         <v>12.9</v>
       </c>
-      <c r="C262" s="133">
+      <c r="C262" s="132">
         <v>22.7</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="132">
+      <c r="A263" s="131">
         <f t="shared" si="9"/>
         <v>227</v>
       </c>
-      <c r="B263" s="133">
+      <c r="B263" s="132">
         <v>13.9</v>
       </c>
-      <c r="C263" s="133">
+      <c r="C263" s="132">
         <v>23.7</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="132">
+      <c r="A264" s="131">
         <f t="shared" si="9"/>
         <v>228</v>
       </c>
-      <c r="B264" s="133">
+      <c r="B264" s="132">
         <v>14.9</v>
       </c>
-      <c r="C264" s="133">
+      <c r="C264" s="132">
         <v>24.7</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="132">
+      <c r="A265" s="131">
         <f t="shared" si="9"/>
         <v>229</v>
       </c>
-      <c r="B265" s="133">
+      <c r="B265" s="132">
         <v>15.9</v>
       </c>
-      <c r="C265" s="133">
+      <c r="C265" s="132">
         <v>25.7</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="132">
+      <c r="A266" s="131">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="B266" s="133">
+      <c r="B266" s="132">
         <v>16.899999999999999</v>
       </c>
-      <c r="C266" s="133">
+      <c r="C266" s="132">
         <v>26.7</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="132">
+      <c r="A267" s="131">
         <f t="shared" si="9"/>
         <v>231</v>
       </c>
-      <c r="B267" s="133">
+      <c r="B267" s="132">
         <v>17.899999999999999</v>
       </c>
-      <c r="C267" s="133">
+      <c r="C267" s="132">
         <v>27.7</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="132">
+      <c r="A268" s="131">
         <f t="shared" si="9"/>
         <v>232</v>
       </c>
-      <c r="B268" s="133">
+      <c r="B268" s="132">
         <v>18.899999999999999</v>
       </c>
-      <c r="C268" s="133">
+      <c r="C268" s="132">
         <v>28.7</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="132">
+      <c r="A269" s="131">
         <f t="shared" si="9"/>
         <v>233</v>
       </c>
-      <c r="B269" s="133">
+      <c r="B269" s="132">
         <v>19.899999999999999</v>
       </c>
-      <c r="C269" s="133">
+      <c r="C269" s="132">
         <v>29.7</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="132">
+      <c r="A270" s="131">
         <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="B270" s="133">
+      <c r="B270" s="132">
         <v>20.9</v>
       </c>
       <c r="C270" s="5">
@@ -7137,11 +7151,11 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="132">
+      <c r="A271" s="131">
         <f t="shared" si="9"/>
         <v>235</v>
       </c>
-      <c r="B271" s="133">
+      <c r="B271" s="132">
         <v>21.9</v>
       </c>
       <c r="C271" s="5">
@@ -7149,1389 +7163,1509 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="132">
+      <c r="A272" s="131">
         <f t="shared" si="9"/>
         <v>236</v>
       </c>
-      <c r="B272" s="133">
+      <c r="B272" s="132">
         <v>22.9</v>
       </c>
-      <c r="C272" s="133">
+      <c r="C272" s="132">
         <v>3.8</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="132">
+      <c r="A273" s="131">
         <f t="shared" si="9"/>
         <v>237</v>
       </c>
-      <c r="B273" s="133">
+      <c r="B273" s="132">
         <v>23.9</v>
       </c>
-      <c r="C273" s="133">
+      <c r="C273" s="132">
         <v>4.8</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="132">
+      <c r="A274" s="131">
         <f t="shared" si="9"/>
         <v>238</v>
       </c>
-      <c r="B274" s="133">
+      <c r="B274" s="132">
         <v>24.9</v>
       </c>
-      <c r="C274" s="133">
+      <c r="C274" s="132">
         <v>5.8</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="132">
+      <c r="A275" s="131">
         <f t="shared" si="9"/>
         <v>239</v>
       </c>
-      <c r="B275" s="133">
+      <c r="B275" s="132">
         <v>25.9</v>
       </c>
-      <c r="C275" s="133">
+      <c r="C275" s="132">
         <v>6.8</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="132">
+      <c r="A276" s="131">
         <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="B276" s="133">
+      <c r="B276" s="132">
         <v>26.9</v>
       </c>
-      <c r="C276" s="133">
+      <c r="C276" s="132">
         <v>7.8</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="132">
+      <c r="A277" s="131">
         <f t="shared" si="9"/>
         <v>241</v>
       </c>
-      <c r="B277" s="133">
+      <c r="B277" s="132">
         <v>27.9</v>
       </c>
-      <c r="C277" s="133">
+      <c r="C277" s="132">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="132">
+      <c r="A278" s="131">
         <f t="shared" si="9"/>
         <v>242</v>
       </c>
-      <c r="B278" s="133">
+      <c r="B278" s="132">
         <v>28.9</v>
       </c>
-      <c r="C278" s="133">
+      <c r="C278" s="132">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="132">
+      <c r="A279" s="131">
         <f t="shared" si="9"/>
         <v>243</v>
       </c>
-      <c r="B279" s="133">
+      <c r="B279" s="132">
         <v>29.9</v>
       </c>
-      <c r="C279" s="133">
+      <c r="C279" s="132">
         <v>10.8</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="132">
+      <c r="A280" s="131">
         <f t="shared" si="9"/>
         <v>244</v>
       </c>
-      <c r="B280" s="133">
+      <c r="B280" s="132">
         <v>30.9</v>
       </c>
-      <c r="C280" s="133">
+      <c r="C280" s="132">
         <v>11.8</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="132">
+      <c r="A281" s="131">
         <f t="shared" si="9"/>
         <v>245</v>
       </c>
-      <c r="B281" s="135" t="s">
+      <c r="B281" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="C281" s="133">
+      <c r="C281" s="132">
         <v>12.8</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="132">
+      <c r="A282" s="131">
         <f t="shared" si="9"/>
         <v>246</v>
       </c>
-      <c r="B282" s="135" t="s">
+      <c r="B282" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="C282" s="133">
+      <c r="C282" s="132">
         <v>13.8</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="132">
+      <c r="A283" s="131">
         <f t="shared" si="9"/>
         <v>247</v>
       </c>
-      <c r="B283" s="135" t="s">
+      <c r="B283" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="C283" s="133">
+      <c r="C283" s="132">
         <v>14.8</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="132">
+      <c r="A284" s="131">
         <f t="shared" si="9"/>
         <v>248</v>
       </c>
-      <c r="B284" s="135" t="s">
+      <c r="B284" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="C284" s="133">
+      <c r="C284" s="132">
         <v>15.8</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="132">
+      <c r="A285" s="131">
         <f t="shared" si="9"/>
         <v>249</v>
       </c>
-      <c r="B285" s="135" t="s">
+      <c r="B285" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="C285" s="133">
+      <c r="C285" s="132">
         <v>16.8</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="132">
+      <c r="A286" s="131">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="B286" s="135" t="s">
+      <c r="B286" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C286" s="133">
+      <c r="C286" s="132">
         <v>17.8</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="132">
+      <c r="A287" s="131">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="B287" s="135" t="s">
+      <c r="B287" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="C287" s="133">
+      <c r="C287" s="132">
         <v>18.8</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="132">
+      <c r="A288" s="131">
         <f t="shared" si="9"/>
         <v>252</v>
       </c>
-      <c r="B288" s="135" t="s">
+      <c r="B288" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="C288" s="133">
+      <c r="C288" s="132">
         <v>19.8</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="132">
+      <c r="A289" s="131">
         <f t="shared" si="9"/>
         <v>253</v>
       </c>
-      <c r="B289" s="135" t="s">
+      <c r="B289" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="C289" s="133">
+      <c r="C289" s="132">
         <v>20.8</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="132">
+      <c r="A290" s="131">
         <f t="shared" si="9"/>
         <v>254</v>
       </c>
-      <c r="B290" s="135" t="s">
+      <c r="B290" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C290" s="133">
+      <c r="C290" s="132">
         <v>21.8</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="132">
+      <c r="A291" s="131">
         <f t="shared" si="9"/>
         <v>255</v>
       </c>
-      <c r="B291" s="135" t="s">
+      <c r="B291" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C291" s="133">
+      <c r="C291" s="132">
         <v>22.8</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="132">
+      <c r="A292" s="131">
         <f t="shared" si="9"/>
         <v>256</v>
       </c>
-      <c r="B292" s="135" t="s">
+      <c r="B292" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="C292" s="133">
+      <c r="C292" s="132">
         <v>23.8</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="132">
+      <c r="A293" s="131">
         <f t="shared" si="9"/>
         <v>257</v>
       </c>
-      <c r="B293" s="135" t="s">
+      <c r="B293" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="C293" s="133">
+      <c r="C293" s="132">
         <v>24.8</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="132">
+      <c r="A294" s="131">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
-      <c r="B294" s="135" t="s">
+      <c r="B294" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="C294" s="133">
+      <c r="C294" s="132">
         <v>25.8</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="132">
+      <c r="A295" s="131">
         <f t="shared" si="9"/>
         <v>259</v>
       </c>
-      <c r="B295" s="135" t="s">
+      <c r="B295" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="C295" s="133">
+      <c r="C295" s="132">
         <v>26.8</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="132">
+      <c r="A296" s="131">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="B296" s="135" t="s">
+      <c r="B296" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="C296" s="133">
+      <c r="C296" s="132">
         <v>27.8</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="132">
+      <c r="A297" s="131">
         <f t="shared" si="9"/>
         <v>261</v>
       </c>
-      <c r="B297" s="135" t="s">
+      <c r="B297" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="C297" s="133">
+      <c r="C297" s="132">
         <v>28.8</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="132">
+      <c r="A298" s="131">
         <f t="shared" si="9"/>
         <v>262</v>
       </c>
-      <c r="B298" s="135" t="s">
+      <c r="B298" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="C298" s="133">
+      <c r="C298" s="132">
         <v>29.8</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="132">
+      <c r="A299" s="131">
         <f t="shared" si="9"/>
         <v>263</v>
       </c>
-      <c r="B299" s="135" t="s">
+      <c r="B299" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="C299" s="133">
+      <c r="C299" s="132">
         <v>30.8</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="132">
+      <c r="A300" s="131">
         <f t="shared" si="9"/>
         <v>264</v>
       </c>
-      <c r="B300" s="135" t="s">
+      <c r="B300" s="134" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="132">
+      <c r="A301" s="131">
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
-      <c r="B301" s="135" t="s">
+      <c r="B301" s="134" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="132">
+      <c r="A302" s="131">
         <f t="shared" si="9"/>
         <v>266</v>
       </c>
-      <c r="B302" s="135" t="s">
+      <c r="B302" s="134" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="132">
+      <c r="A303" s="131">
         <f t="shared" si="9"/>
         <v>267</v>
       </c>
-      <c r="B303" s="135" t="s">
+      <c r="B303" s="134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="132">
+      <c r="A304" s="131">
         <f t="shared" si="9"/>
         <v>268</v>
       </c>
-      <c r="B304" s="135" t="s">
+      <c r="B304" s="134" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="132">
+      <c r="A305" s="131">
         <f t="shared" si="9"/>
         <v>269</v>
       </c>
-      <c r="B305" s="135" t="s">
+      <c r="B305" s="134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="132">
+      <c r="A306" s="131">
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="B306" s="135" t="s">
+      <c r="B306" s="134" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="132">
+      <c r="A307" s="131">
         <f t="shared" si="9"/>
         <v>271</v>
       </c>
-      <c r="B307" s="135" t="s">
+      <c r="B307" s="134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="132">
+      <c r="A308" s="131">
         <f t="shared" si="9"/>
         <v>272</v>
       </c>
-      <c r="B308" s="135" t="s">
+      <c r="B308" s="134" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="132">
+      <c r="A309" s="131">
         <f t="shared" si="9"/>
         <v>273</v>
       </c>
-      <c r="B309" s="135" t="s">
+      <c r="B309" s="134" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="132">
+      <c r="A310" s="131">
         <f t="shared" si="9"/>
         <v>274</v>
       </c>
-      <c r="B310" s="135" t="s">
+      <c r="B310" s="134" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="132">
+      <c r="A311" s="131">
         <f t="shared" ref="A311:A374" si="10">A310+1</f>
         <v>275</v>
       </c>
-      <c r="B311" s="135" t="s">
+      <c r="B311" s="134" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="132">
+      <c r="A312" s="131">
         <f t="shared" si="10"/>
         <v>276</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="132">
+      <c r="A313" s="131">
         <f t="shared" si="10"/>
         <v>277</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="132">
+      <c r="A314" s="131">
         <f t="shared" si="10"/>
         <v>278</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="132">
+      <c r="A315" s="131">
         <f t="shared" si="10"/>
         <v>279</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="132">
+      <c r="A316" s="131">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="132">
+      <c r="A317" s="131">
         <f t="shared" si="10"/>
         <v>281</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="132">
+      <c r="A318" s="131">
         <f t="shared" si="10"/>
         <v>282</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="132">
+      <c r="A319" s="131">
         <f t="shared" si="10"/>
         <v>283</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="132">
+      <c r="A320" s="131">
         <f t="shared" si="10"/>
         <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="132">
+      <c r="A321" s="131">
         <f t="shared" si="10"/>
         <v>285</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="132">
+      <c r="A322" s="131">
         <f t="shared" si="10"/>
         <v>286</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="132">
+      <c r="A323" s="131">
         <f t="shared" si="10"/>
         <v>287</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="132">
+      <c r="A324" s="131">
         <f t="shared" si="10"/>
         <v>288</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="132">
+      <c r="A325" s="131">
         <f t="shared" si="10"/>
         <v>289</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="132">
+      <c r="A326" s="131">
         <f t="shared" si="10"/>
         <v>290</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="132">
+      <c r="A327" s="131">
         <f t="shared" si="10"/>
         <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="132">
+      <c r="A328" s="131">
         <f t="shared" si="10"/>
         <v>292</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="132">
+      <c r="A329" s="131">
         <f t="shared" si="10"/>
         <v>293</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="132">
+      <c r="A330" s="131">
         <f t="shared" si="10"/>
         <v>294</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="132">
+      <c r="A331" s="131">
         <f t="shared" si="10"/>
         <v>295</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="132">
+      <c r="A332" s="131">
         <f t="shared" si="10"/>
         <v>296</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="132">
+      <c r="A333" s="131">
         <f t="shared" si="10"/>
         <v>297</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="132">
+      <c r="A334" s="131">
         <f t="shared" si="10"/>
         <v>298</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="132">
+      <c r="A335" s="131">
         <f t="shared" si="10"/>
         <v>299</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="132">
+      <c r="A336" s="131">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="132">
+      <c r="A337" s="131">
         <f t="shared" si="10"/>
         <v>301</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="132">
+      <c r="A338" s="131">
         <f t="shared" si="10"/>
         <v>302</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="132">
+      <c r="A339" s="131">
         <f t="shared" si="10"/>
         <v>303</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="132">
+      <c r="A340" s="131">
         <f t="shared" si="10"/>
         <v>304</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="132">
+      <c r="A341" s="131">
         <f t="shared" si="10"/>
         <v>305</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="132">
+      <c r="A342" s="131">
         <f t="shared" si="10"/>
         <v>306</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="132">
+      <c r="A343" s="131">
         <f t="shared" si="10"/>
         <v>307</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="132">
+      <c r="A344" s="131">
         <f t="shared" si="10"/>
         <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="132">
+      <c r="A345" s="131">
         <f t="shared" si="10"/>
         <v>309</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="132">
+      <c r="A346" s="131">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="132">
+      <c r="A347" s="131">
         <f t="shared" si="10"/>
         <v>311</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="132">
+      <c r="A348" s="131">
         <f t="shared" si="10"/>
         <v>312</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="132">
+      <c r="A349" s="131">
         <f t="shared" si="10"/>
         <v>313</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="132">
+      <c r="A350" s="131">
         <f t="shared" si="10"/>
         <v>314</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="132">
+      <c r="A351" s="131">
         <f t="shared" si="10"/>
         <v>315</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="132">
+      <c r="A352" s="131">
         <f t="shared" si="10"/>
         <v>316</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="132">
+      <c r="A353" s="131">
         <f t="shared" si="10"/>
         <v>317</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="132">
+      <c r="A354" s="131">
         <f t="shared" si="10"/>
         <v>318</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="132">
+      <c r="A355" s="131">
         <f t="shared" si="10"/>
         <v>319</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="132">
+      <c r="A356" s="131">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="132">
+      <c r="A357" s="131">
         <f t="shared" si="10"/>
         <v>321</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="132">
+      <c r="A358" s="131">
         <f t="shared" si="10"/>
         <v>322</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="132">
+      <c r="A359" s="131">
         <f t="shared" si="10"/>
         <v>323</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="132">
+      <c r="A360" s="131">
         <f t="shared" si="10"/>
         <v>324</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="132">
+      <c r="A361" s="131">
         <f t="shared" si="10"/>
         <v>325</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="132">
+      <c r="A362" s="131">
         <f t="shared" si="10"/>
         <v>326</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="132">
+      <c r="A363" s="131">
         <f t="shared" si="10"/>
         <v>327</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="132">
+      <c r="A364" s="131">
         <f t="shared" si="10"/>
         <v>328</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="132">
+      <c r="A365" s="131">
         <f t="shared" si="10"/>
         <v>329</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="132">
+      <c r="A366" s="131">
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="132">
+      <c r="A367" s="131">
         <f t="shared" si="10"/>
         <v>331</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="132">
+      <c r="A368" s="131">
         <f t="shared" si="10"/>
         <v>332</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="132">
+      <c r="A369" s="131">
         <f t="shared" si="10"/>
         <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="132">
+      <c r="A370" s="131">
         <f t="shared" si="10"/>
         <v>334</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="132">
+      <c r="A371" s="131">
         <f t="shared" si="10"/>
         <v>335</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="132">
+      <c r="A372" s="131">
         <f t="shared" si="10"/>
         <v>336</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="132">
+      <c r="A373" s="131">
         <f t="shared" si="10"/>
         <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="132">
+      <c r="A374" s="131">
         <f t="shared" si="10"/>
         <v>338</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="132">
+      <c r="A375" s="131">
         <f t="shared" ref="A375:A438" si="11">A374+1</f>
         <v>339</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="132">
+      <c r="A376" s="131">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="132">
+      <c r="A377" s="131">
         <f t="shared" si="11"/>
         <v>341</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="132">
+      <c r="A378" s="131">
         <f t="shared" si="11"/>
         <v>342</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="132">
+      <c r="A379" s="131">
         <f t="shared" si="11"/>
         <v>343</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="132">
+      <c r="A380" s="131">
         <f t="shared" si="11"/>
         <v>344</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="132">
+      <c r="A381" s="131">
         <f t="shared" si="11"/>
         <v>345</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="132">
+      <c r="A382" s="131">
         <f t="shared" si="11"/>
         <v>346</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="132">
+      <c r="A383" s="131">
         <f t="shared" si="11"/>
         <v>347</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="132">
+      <c r="A384" s="131">
         <f t="shared" si="11"/>
         <v>348</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="132">
+      <c r="A385" s="131">
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="132">
+      <c r="A386" s="131">
         <f t="shared" si="11"/>
         <v>350</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="132">
+      <c r="A387" s="131">
         <f t="shared" si="11"/>
         <v>351</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="132">
+      <c r="A388" s="131">
         <f t="shared" si="11"/>
         <v>352</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="132">
+      <c r="A389" s="131">
         <f t="shared" si="11"/>
         <v>353</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="132">
+      <c r="A390" s="131">
         <f t="shared" si="11"/>
         <v>354</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="132">
+      <c r="A391" s="131">
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="132">
+      <c r="A392" s="131">
         <f t="shared" si="11"/>
         <v>356</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="132">
+      <c r="A393" s="131">
         <f t="shared" si="11"/>
         <v>357</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="132">
+      <c r="A394" s="131">
         <f t="shared" si="11"/>
         <v>358</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="132">
+      <c r="A395" s="131">
         <f t="shared" si="11"/>
         <v>359</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="132">
+      <c r="A396" s="131">
         <f t="shared" si="11"/>
         <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="132">
+      <c r="A397" s="131">
         <f t="shared" si="11"/>
         <v>361</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="132">
+      <c r="A398" s="131">
         <f t="shared" si="11"/>
         <v>362</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="132">
+      <c r="A399" s="131">
         <f t="shared" si="11"/>
         <v>363</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="132">
+      <c r="A400" s="131">
         <f t="shared" si="11"/>
         <v>364</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="132">
+      <c r="A401" s="131">
         <f t="shared" si="11"/>
         <v>365</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="132">
+      <c r="A402" s="131">
         <f t="shared" si="11"/>
         <v>366</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="132">
+      <c r="A403" s="131">
         <f t="shared" si="11"/>
         <v>367</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="132">
+      <c r="A404" s="131">
         <f t="shared" si="11"/>
         <v>368</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="132">
+      <c r="A405" s="131">
         <f t="shared" si="11"/>
         <v>369</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="132">
+      <c r="A406" s="131">
         <f t="shared" si="11"/>
         <v>370</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="132">
+      <c r="A407" s="131">
         <f t="shared" si="11"/>
         <v>371</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="132">
+      <c r="A408" s="131">
         <f t="shared" si="11"/>
         <v>372</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="132">
+      <c r="A409" s="131">
         <f t="shared" si="11"/>
         <v>373</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="132">
+      <c r="A410" s="131">
         <f t="shared" si="11"/>
         <v>374</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="132">
+      <c r="A411" s="131">
         <f t="shared" si="11"/>
         <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="132">
+      <c r="A412" s="131">
         <f t="shared" si="11"/>
         <v>376</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="132">
+      <c r="A413" s="131">
         <f t="shared" si="11"/>
         <v>377</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="132">
+      <c r="A414" s="131">
         <f t="shared" si="11"/>
         <v>378</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="132">
+      <c r="A415" s="131">
         <f t="shared" si="11"/>
         <v>379</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="132">
+      <c r="A416" s="131">
         <f t="shared" si="11"/>
         <v>380</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="132">
+      <c r="A417" s="131">
         <f t="shared" si="11"/>
         <v>381</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="132">
+      <c r="A418" s="131">
         <f t="shared" si="11"/>
         <v>382</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="132">
+      <c r="A419" s="131">
         <f t="shared" si="11"/>
         <v>383</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="132">
+      <c r="A420" s="131">
         <f t="shared" si="11"/>
         <v>384</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="132">
+      <c r="A421" s="131">
         <f t="shared" si="11"/>
         <v>385</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="132">
+      <c r="A422" s="131">
         <f t="shared" si="11"/>
         <v>386</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="132">
+      <c r="A423" s="131">
         <f t="shared" si="11"/>
         <v>387</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="132">
+      <c r="A424" s="131">
         <f t="shared" si="11"/>
         <v>388</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="132">
+      <c r="A425" s="131">
         <f t="shared" si="11"/>
         <v>389</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="132">
+      <c r="A426" s="131">
         <f t="shared" si="11"/>
         <v>390</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="132">
+      <c r="A427" s="131">
         <f t="shared" si="11"/>
         <v>391</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="132">
+      <c r="A428" s="131">
         <f t="shared" si="11"/>
         <v>392</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="132">
+      <c r="A429" s="131">
         <f t="shared" si="11"/>
         <v>393</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="132">
+      <c r="A430" s="131">
         <f t="shared" si="11"/>
         <v>394</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="132">
+      <c r="A431" s="131">
         <f t="shared" si="11"/>
         <v>395</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="132">
+      <c r="A432" s="131">
         <f t="shared" si="11"/>
         <v>396</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="132">
+      <c r="A433" s="131">
         <f t="shared" si="11"/>
         <v>397</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="132">
+      <c r="A434" s="131">
         <f t="shared" si="11"/>
         <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="132">
+      <c r="A435" s="131">
         <f t="shared" si="11"/>
         <v>399</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="132">
+      <c r="A436" s="131">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="132">
+      <c r="A437" s="131">
         <f t="shared" si="11"/>
         <v>401</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="132">
+      <c r="A438" s="131">
         <f t="shared" si="11"/>
         <v>402</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="132">
+      <c r="A439" s="131">
         <f t="shared" ref="A439:A459" si="12">A438+1</f>
         <v>403</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="132">
+      <c r="A440" s="131">
         <f t="shared" si="12"/>
         <v>404</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="132">
+      <c r="A441" s="131">
         <f t="shared" si="12"/>
         <v>405</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="132">
+      <c r="A442" s="131">
         <f t="shared" si="12"/>
         <v>406</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="132">
+      <c r="A443" s="131">
         <f t="shared" si="12"/>
         <v>407</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="132">
+      <c r="A444" s="131">
         <f t="shared" si="12"/>
         <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="132">
+      <c r="A445" s="131">
         <f t="shared" si="12"/>
         <v>409</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="132">
+      <c r="A446" s="131">
         <f t="shared" si="12"/>
         <v>410</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="132">
+      <c r="A447" s="131">
         <f t="shared" si="12"/>
         <v>411</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="132">
+      <c r="A448" s="131">
         <f t="shared" si="12"/>
         <v>412</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="132">
+      <c r="A449" s="131">
         <f t="shared" si="12"/>
         <v>413</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="132">
+      <c r="A450" s="131">
         <f t="shared" si="12"/>
         <v>414</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="132">
+      <c r="A451" s="131">
         <f t="shared" si="12"/>
         <v>415</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="132">
+      <c r="A452" s="131">
         <f t="shared" si="12"/>
         <v>416</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="132">
+      <c r="A453" s="131">
         <f t="shared" si="12"/>
         <v>417</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="132">
+      <c r="A454" s="131">
         <f t="shared" si="12"/>
         <v>418</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="132">
+      <c r="A455" s="131">
         <f t="shared" si="12"/>
         <v>419</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="132">
+      <c r="A456" s="131">
         <f t="shared" si="12"/>
         <v>420</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="132">
+      <c r="A457" s="131">
         <f t="shared" si="12"/>
         <v>421</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="132">
+      <c r="A458" s="131">
         <f t="shared" si="12"/>
         <v>422</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="132">
+      <c r="A459" s="131">
         <f t="shared" si="12"/>
         <v>423</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="256">
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D249:H249"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D204:H204"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
+  <mergeCells count="257">
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D256:H256"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D144:H144"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="D168:H168"/>
@@ -8556,148 +8690,60 @@
     <mergeCell ref="D148:H148"/>
     <mergeCell ref="D150:H150"/>
     <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D177:H177"/>
     <mergeCell ref="D194:H194"/>
     <mergeCell ref="D195:H195"/>
     <mergeCell ref="D196:H196"/>
     <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D204:H204"/>
     <mergeCell ref="D207:H207"/>
     <mergeCell ref="D208:H208"/>
     <mergeCell ref="D211:H211"/>
@@ -8707,37 +8753,6 @@
     <mergeCell ref="D206:H206"/>
     <mergeCell ref="D214:H214"/>
     <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D242:H242"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D240:H240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11929,8 +11944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R1122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D219" sqref="D219:F223"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11958,8 +11973,8 @@
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>120</v>
       </c>
       <c r="I2" s="42"/>
@@ -11981,8 +11996,8 @@
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="42"/>
       <c r="J3" s="43" t="s">
         <v>23</v>
@@ -12016,20 +12031,20 @@
       <c r="F4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>47400</v>
+        <v>47840</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
-        <v>4800</v>
+        <v>4840</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="48"/>
@@ -12054,8 +12069,8 @@
       <c r="F5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="42"/>
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
@@ -12114,7 +12129,7 @@
       </c>
       <c r="M7" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -12146,9 +12161,9 @@
       </c>
       <c r="M8" s="56">
         <f>M7/200</f>
-        <v>34</v>
-      </c>
-      <c r="N8" s="124"/>
+        <v>36</v>
+      </c>
+      <c r="N8" s="123"/>
       <c r="O8" s="56"/>
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
@@ -12178,7 +12193,7 @@
       </c>
       <c r="M9" s="56">
         <f>SUM($F$190:$F$270)</f>
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -12218,7 +12233,7 @@
       </c>
       <c r="M10" s="56">
         <f>(M7/100)*(10000/120)</f>
-        <v>5666.6666666666661</v>
+        <v>6000</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -12258,7 +12273,7 @@
       </c>
       <c r="M11" s="61">
         <f>M7-M10+M9</f>
-        <v>1813.3333333333339</v>
+        <v>1920</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
@@ -16593,7 +16608,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="58" t="s">
         <v>28</v>
       </c>
@@ -16605,8 +16620,14 @@
         <f>Sheet1!C256</f>
         <v>16.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="54">
+        <v>400</v>
+      </c>
+      <c r="F225" s="54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="58" t="s">
         <v>29</v>
       </c>
@@ -16619,7 +16640,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="58" t="s">
         <v>30</v>
       </c>
@@ -16632,7 +16653,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="58" t="s">
         <v>31</v>
       </c>
@@ -16645,7 +16666,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="58" t="s">
         <v>32</v>
       </c>
@@ -16658,7 +16679,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="58" t="s">
         <v>26</v>
       </c>
@@ -16671,7 +16692,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="58" t="s">
         <v>27</v>
       </c>
@@ -16684,7 +16705,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="58" t="s">
         <v>28</v>
       </c>
@@ -16697,7 +16718,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="58" t="s">
         <v>29</v>
       </c>
@@ -16710,7 +16731,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="58" t="s">
         <v>30</v>
       </c>
@@ -16723,7 +16744,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="58" t="s">
         <v>31</v>
       </c>
@@ -16736,7 +16757,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="58" t="s">
         <v>32</v>
       </c>
@@ -16749,7 +16770,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="58" t="s">
         <v>26</v>
       </c>
@@ -16762,7 +16783,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="58" t="s">
         <v>27</v>
       </c>
@@ -16775,7 +16796,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="58" t="s">
         <v>28</v>
       </c>
@@ -16788,7 +16809,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="58" t="s">
         <v>29</v>
       </c>
@@ -25832,7 +25853,7 @@
   <dimension ref="A2:Q1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25859,7 +25880,7 @@
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>124</v>
       </c>
       <c r="H2" s="89"/>
@@ -25873,7 +25894,7 @@
         <v>64</v>
       </c>
       <c r="L2" s="54"/>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="114" t="s">
         <v>119</v>
       </c>
     </row>
@@ -25892,7 +25913,7 @@
       </c>
       <c r="E3" s="88"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="121"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
@@ -25932,7 +25953,7 @@
       <c r="F4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="121"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="89"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
@@ -25966,7 +25987,7 @@
       <c r="F5" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="89"/>
       <c r="I5" s="55"/>
       <c r="J5" s="44" t="s">
@@ -39501,7 +39522,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39538,7 +39559,7 @@
       <c r="B3" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="25"/>
@@ -39548,20 +39569,20 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="107">
         <v>900</v>
       </c>
-      <c r="C4" s="130">
+      <c r="C4" s="129">
         <v>900</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="D4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
@@ -39577,16 +39598,18 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="139" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39619,7 +39642,7 @@
       <c r="D1" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="137" t="s">
         <v>172</v>
       </c>
     </row>
@@ -39633,10 +39656,10 @@
       <c r="C2" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="137" t="s">
         <v>34</v>
       </c>
     </row>
@@ -39650,10 +39673,10 @@
       <c r="C3" s="99">
         <v>10000</v>
       </c>
-      <c r="D3" s="122">
+      <c r="D3" s="121">
         <v>5000</v>
       </c>
-      <c r="E3" s="138">
+      <c r="E3" s="137">
         <v>5000</v>
       </c>
     </row>
@@ -39665,15 +39688,15 @@
         <f>(DATE(2017,7,12)-DATE(2017,6,12))*5</f>
         <v>150</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <f>(DATE(2017,7,12)-DATE(2017,6,12))*10</f>
         <v>300</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="121">
         <f>(DATE(2017,7,12)-DATE(2017,6,12))*5</f>
         <v>150</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="139">
         <v>150</v>
       </c>
     </row>
@@ -39684,19 +39707,19 @@
       <c r="B5" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="134"/>
+      <c r="D5" s="133"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="133" t="s">
         <v>169</v>
       </c>
     </row>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="178">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>10000 (05/09/17)</t>
+  </si>
+  <si>
+    <t>Ube</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="K235" sqref="K235"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,15 +1573,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>111420</v>
+        <v>123200</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>98000</v>
+        <v>99500</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>13420</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1602,11 +1605,11 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10029)-SUM(J8:J10029)</f>
-        <v>16110</v>
+        <v>37890</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)-1600</f>
-        <v>800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AA9)</f>
-        <v>80166.666666666657</v>
+        <v>81416.666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1662,7 +1665,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AA10)</f>
-        <v>29273.333333333336</v>
+        <v>39803.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5948,7 +5951,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="118"/>
       <c r="B209" s="119"/>
       <c r="C209" s="119"/>
@@ -5963,7 +5966,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="118"/>
       <c r="B210" s="119"/>
       <c r="C210" s="119"/>
@@ -5979,7 +5982,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="85">
         <f>A208+1</f>
         <v>179</v>
@@ -6002,7 +6005,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -6025,7 +6028,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="103">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -6048,7 +6051,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="103">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -6071,7 +6074,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="103">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -6094,7 +6097,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="103">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -6117,7 +6120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="124"/>
       <c r="B217" s="125"/>
       <c r="C217" s="125"/>
@@ -6133,7 +6136,7 @@
         <v>14620</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="103">
         <f>A216+1</f>
         <v>185</v>
@@ -6156,7 +6159,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="103">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -6178,8 +6181,18 @@
         <f t="shared" ref="I219:I221" si="7">220+140</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L219" s="1">
+        <v>500</v>
+      </c>
+      <c r="M219" s="1">
+        <v>6</v>
+      </c>
+      <c r="N219" s="1">
+        <f>L219*M219</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="103">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -6201,8 +6214,18 @@
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L220" s="1">
+        <v>200</v>
+      </c>
+      <c r="M220" s="1">
+        <v>10</v>
+      </c>
+      <c r="N220" s="1">
+        <f t="shared" ref="N220:N224" si="8">L220*M220</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="103">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -6224,8 +6247,18 @@
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L221" s="1">
+        <v>100</v>
+      </c>
+      <c r="M221" s="1">
+        <v>14</v>
+      </c>
+      <c r="N221" s="1">
+        <f t="shared" si="8"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="103">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6247,8 +6280,18 @@
         <f>220</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L222" s="1">
+        <v>50</v>
+      </c>
+      <c r="M222" s="1">
+        <v>18</v>
+      </c>
+      <c r="N222" s="1">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="103">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6270,8 +6313,18 @@
         <f>220</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L223" s="1">
+        <v>20</v>
+      </c>
+      <c r="M223" s="1">
+        <v>14</v>
+      </c>
+      <c r="N223" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="103">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -6293,8 +6346,18 @@
         <f>220</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="1">
+        <v>10</v>
+      </c>
+      <c r="M224" s="1">
+        <v>3</v>
+      </c>
+      <c r="N224" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="103">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -6316,8 +6379,12 @@
         <f>(220*2)+(140)</f>
         <v>580</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N225" s="1">
+        <f>SUM(N219:N224)</f>
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="103">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -6336,11 +6403,11 @@
       <c r="G226" s="140"/>
       <c r="H226" s="140"/>
       <c r="I226" s="1">
-        <f t="shared" ref="I226:I232" si="8">220+140</f>
+        <f t="shared" ref="I226:I232" si="9">220+140</f>
         <v>360</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="103">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -6359,11 +6426,11 @@
       <c r="G227" s="140"/>
       <c r="H227" s="140"/>
       <c r="I227" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="103">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6382,11 +6449,11 @@
       <c r="G228" s="140"/>
       <c r="H228" s="140"/>
       <c r="I228" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="103">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6405,11 +6472,11 @@
       <c r="G229" s="140"/>
       <c r="H229" s="140"/>
       <c r="I229" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="103">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6428,11 +6495,11 @@
       <c r="G230" s="140"/>
       <c r="H230" s="140"/>
       <c r="I230" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="103">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6451,11 +6518,11 @@
       <c r="G231" s="140"/>
       <c r="H231" s="140"/>
       <c r="I231" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="103">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6474,11 +6541,11 @@
       <c r="G232" s="140"/>
       <c r="H232" s="140"/>
       <c r="I232" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="103">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6501,7 +6568,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="103">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6524,7 +6591,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="126"/>
       <c r="B235" s="127"/>
       <c r="C235" s="127"/>
@@ -6543,7 +6610,7 @@
         <v>171170</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="126"/>
       <c r="B236" s="127"/>
       <c r="C236" s="127"/>
@@ -6558,7 +6625,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="103">
         <f>A234+1</f>
         <v>202</v>
@@ -6581,7 +6648,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="103">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6604,7 +6671,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="103">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6627,7 +6694,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="103">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6776,7 +6843,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="103">
-        <f t="shared" ref="A247:A310" si="9">A246+1</f>
+        <f t="shared" ref="A247:A310" si="10">A246+1</f>
         <v>211</v>
       </c>
       <c r="B247" s="104">
@@ -6799,7 +6866,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="B248" s="104">
@@ -6822,7 +6889,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="B249" s="104">
@@ -6845,7 +6912,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="B250" s="104">
@@ -6868,7 +6935,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="B251" s="5">
@@ -6880,7 +6947,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="B252" s="5">
@@ -6903,7 +6970,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="B253" s="132">
@@ -6926,7 +6993,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="B254" s="132">
@@ -6949,7 +7016,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="B255" s="132">
@@ -6958,10 +7025,20 @@
       <c r="C255" s="132">
         <v>15.7</v>
       </c>
+      <c r="D255" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E255" s="140"/>
+      <c r="F255" s="140"/>
+      <c r="G255" s="140"/>
+      <c r="H255" s="140"/>
+      <c r="I255" s="1">
+        <v>10000</v>
+      </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="B256" s="132">
@@ -6982,9 +7059,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
       <c r="B257" s="132">
@@ -6993,10 +7070,21 @@
       <c r="C257" s="132">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" s="140"/>
+      <c r="F257" s="140"/>
+      <c r="G257" s="140"/>
+      <c r="H257" s="140"/>
+      <c r="I257" s="1">
+        <f>(200+10000)+(220)</f>
+        <v>10420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="B258" s="132">
@@ -7005,10 +7093,21 @@
       <c r="C258" s="132">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E258" s="140"/>
+      <c r="F258" s="140"/>
+      <c r="G258" s="140"/>
+      <c r="H258" s="140"/>
+      <c r="I258" s="1">
+        <f>(200)+(140)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="B259" s="132">
@@ -7017,10 +7116,20 @@
       <c r="C259" s="132">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E259" s="140"/>
+      <c r="F259" s="140"/>
+      <c r="G259" s="140"/>
+      <c r="H259" s="140"/>
+      <c r="I259" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="B260" s="132">
@@ -7030,9 +7139,9 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="B261" s="132">
@@ -7041,10 +7150,21 @@
       <c r="C261" s="132">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E261" s="140"/>
+      <c r="F261" s="140"/>
+      <c r="G261" s="140"/>
+      <c r="H261" s="140"/>
+      <c r="I261" s="1">
+        <f>(200*2)+(140*2)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>226</v>
       </c>
       <c r="B262" s="132">
@@ -7054,9 +7174,9 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="B263" s="132">
@@ -7066,9 +7186,9 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="B264" s="132">
@@ -7078,9 +7198,9 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="B265" s="132">
@@ -7090,9 +7210,9 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="B266" s="132">
@@ -7102,9 +7222,9 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="B267" s="132">
@@ -7114,9 +7234,9 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
       <c r="B268" s="132">
@@ -7126,9 +7246,9 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="B269" s="132">
@@ -7138,9 +7258,9 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="B270" s="132">
@@ -7150,9 +7270,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="B271" s="132">
@@ -7162,9 +7282,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="B272" s="132">
@@ -7176,7 +7296,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="B273" s="132">
@@ -7188,7 +7308,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="B274" s="132">
@@ -7200,7 +7320,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="B275" s="132">
@@ -7212,7 +7332,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="B276" s="132">
@@ -7224,7 +7344,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="B277" s="132">
@@ -7236,7 +7356,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="B278" s="132">
@@ -7248,7 +7368,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="B279" s="132">
@@ -7260,7 +7380,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="B280" s="132">
@@ -7272,7 +7392,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="B281" s="134" t="s">
@@ -7284,7 +7404,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="B282" s="134" t="s">
@@ -7296,7 +7416,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="B283" s="134" t="s">
@@ -7308,7 +7428,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="B284" s="134" t="s">
@@ -7320,7 +7440,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="B285" s="134" t="s">
@@ -7332,7 +7452,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="B286" s="134" t="s">
@@ -7344,7 +7464,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="B287" s="134" t="s">
@@ -7356,7 +7476,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="B288" s="134" t="s">
@@ -7368,7 +7488,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="B289" s="134" t="s">
@@ -7380,7 +7500,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="B290" s="134" t="s">
@@ -7392,7 +7512,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="B291" s="134" t="s">
@@ -7404,7 +7524,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="B292" s="134" t="s">
@@ -7416,7 +7536,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="B293" s="134" t="s">
@@ -7428,7 +7548,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="B294" s="134" t="s">
@@ -7440,7 +7560,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>259</v>
       </c>
       <c r="B295" s="134" t="s">
@@ -7452,7 +7572,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="B296" s="134" t="s">
@@ -7464,7 +7584,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>261</v>
       </c>
       <c r="B297" s="134" t="s">
@@ -7476,7 +7596,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>262</v>
       </c>
       <c r="B298" s="134" t="s">
@@ -7488,7 +7608,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>263</v>
       </c>
       <c r="B299" s="134" t="s">
@@ -7500,7 +7620,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>264</v>
       </c>
       <c r="B300" s="134" t="s">
@@ -7509,7 +7629,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>265</v>
       </c>
       <c r="B301" s="134" t="s">
@@ -7518,7 +7638,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>266</v>
       </c>
       <c r="B302" s="134" t="s">
@@ -7527,7 +7647,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>267</v>
       </c>
       <c r="B303" s="134" t="s">
@@ -7536,7 +7656,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>268</v>
       </c>
       <c r="B304" s="134" t="s">
@@ -7545,7 +7665,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>269</v>
       </c>
       <c r="B305" s="134" t="s">
@@ -7554,7 +7674,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="B306" s="134" t="s">
@@ -7563,7 +7683,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>271</v>
       </c>
       <c r="B307" s="134" t="s">
@@ -7572,7 +7692,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>272</v>
       </c>
       <c r="B308" s="134" t="s">
@@ -7581,7 +7701,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>273</v>
       </c>
       <c r="B309" s="134" t="s">
@@ -7590,7 +7710,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>274</v>
       </c>
       <c r="B310" s="134" t="s">
@@ -7599,7 +7719,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="131">
-        <f t="shared" ref="A311:A374" si="10">A310+1</f>
+        <f t="shared" ref="A311:A374" si="11">A310+1</f>
         <v>275</v>
       </c>
       <c r="B311" s="134" t="s">
@@ -7608,908 +7728,902 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>276</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>277</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>278</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>279</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>280</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>281</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>283</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>286</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>287</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>288</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>289</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>293</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>294</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>295</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>296</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>297</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>298</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>299</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>301</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>302</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>303</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>304</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>305</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>306</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>307</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>309</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>310</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>311</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>312</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>313</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>314</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>315</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>317</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>318</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>319</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>321</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>322</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>323</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>325</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>326</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>327</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>328</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>329</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>331</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>332</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>334</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>335</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="131">
-        <f t="shared" ref="A375:A438" si="11">A374+1</f>
+        <f t="shared" ref="A375:A438" si="12">A374+1</f>
         <v>339</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>340</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>341</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>342</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>343</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>344</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>345</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>346</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>347</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>348</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>349</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>351</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>352</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>353</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>354</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>355</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>356</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>357</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>358</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>361</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>362</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>363</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>364</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>365</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>366</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>367</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>368</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>369</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>370</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>371</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>372</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>373</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>374</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>376</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>377</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>379</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>380</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>381</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>382</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>383</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>384</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>385</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>386</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>387</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>388</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>389</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>390</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>391</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>392</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>393</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>394</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>395</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>396</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>397</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>399</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>401</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>402</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="131">
-        <f t="shared" ref="A439:A459" si="12">A438+1</f>
+        <f t="shared" ref="A439:A459" si="13">A438+1</f>
         <v>403</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>404</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>405</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>406</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>407</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>409</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>411</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>412</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>413</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>414</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>415</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>416</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>417</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>418</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>419</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>421</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>422</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>423</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="257">
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D240:H240"/>
+  <mergeCells count="262">
+    <mergeCell ref="D261:H261"/>
     <mergeCell ref="D256:H256"/>
     <mergeCell ref="D216:H216"/>
     <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D258:H258"/>
     <mergeCell ref="D220:H220"/>
     <mergeCell ref="D250:H250"/>
     <mergeCell ref="D248:H248"/>
@@ -8525,9 +8639,6 @@
     <mergeCell ref="D228:H228"/>
     <mergeCell ref="D229:H229"/>
     <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8707,6 +8818,13 @@
     <mergeCell ref="D167:H167"/>
     <mergeCell ref="D173:H173"/>
     <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D177:H177"/>
     <mergeCell ref="D188:H188"/>
     <mergeCell ref="D189:H189"/>
     <mergeCell ref="D190:H190"/>
@@ -8718,28 +8836,11 @@
     <mergeCell ref="D185:H185"/>
     <mergeCell ref="D186:H186"/>
     <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D177:H177"/>
     <mergeCell ref="D194:H194"/>
     <mergeCell ref="D195:H195"/>
     <mergeCell ref="D196:H196"/>
     <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D249:H249"/>
     <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
     <mergeCell ref="D200:H200"/>
     <mergeCell ref="D201:H201"/>
     <mergeCell ref="D202:H202"/>
@@ -8751,8 +8852,32 @@
     <mergeCell ref="D213:H213"/>
     <mergeCell ref="D205:H205"/>
     <mergeCell ref="D206:H206"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D255:H255"/>
+    <mergeCell ref="D259:H259"/>
+    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
     <mergeCell ref="D214:H214"/>
     <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D240:H240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11945,7 +12070,7 @@
   <dimension ref="A2:R1122"/>
   <sheetViews>
     <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12036,15 +12161,15 @@
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>47840</v>
+        <v>58840</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
-        <v>4840</v>
+        <v>14840</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="48"/>
@@ -12129,7 +12254,7 @@
       </c>
       <c r="M7" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>7200</v>
+        <v>8200</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -12161,7 +12286,7 @@
       </c>
       <c r="M8" s="56">
         <f>M7/200</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N8" s="123"/>
       <c r="O8" s="56"/>
@@ -12193,7 +12318,7 @@
       </c>
       <c r="M9" s="56">
         <f>SUM($F$190:$F$270)</f>
-        <v>720</v>
+        <v>10720</v>
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -12233,7 +12358,7 @@
       </c>
       <c r="M10" s="56">
         <f>(M7/100)*(10000/120)</f>
-        <v>6000</v>
+        <v>6833.333333333333</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -12273,7 +12398,7 @@
       </c>
       <c r="M11" s="61">
         <f>M7-M10+M9</f>
-        <v>1920</v>
+        <v>12086.666666666668</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
@@ -16639,6 +16764,12 @@
         <f>Sheet1!C257</f>
         <v>17.7</v>
       </c>
+      <c r="D226" s="54">
+        <v>200</v>
+      </c>
+      <c r="F226" s="54">
+        <v>10000</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="58" t="s">
@@ -16652,6 +16783,9 @@
         <f>Sheet1!C258</f>
         <v>18.7</v>
       </c>
+      <c r="D227" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="58" t="s">
@@ -16665,6 +16799,9 @@
         <f>Sheet1!C259</f>
         <v>19.7</v>
       </c>
+      <c r="D228" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="58" t="s">
@@ -16690,6 +16827,9 @@
       <c r="C230" s="56">
         <f>Sheet1!C261</f>
         <v>21.7</v>
+      </c>
+      <c r="D230" s="54">
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -25852,8 +25992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q1055"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25917,15 +26057,15 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>27880</v>
+        <v>28660</v>
       </c>
       <c r="J3" s="51">
         <f>SUM(J6:AB6)</f>
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K3" s="52">
         <f>SUM(J8:AB8)</f>
-        <v>7180</v>
+        <v>7460</v>
       </c>
       <c r="L3" s="54"/>
       <c r="N3" s="1" t="s">
@@ -25964,8 +26104,8 @@
         <v>130</v>
       </c>
       <c r="O4" s="87">
-        <f>(200)-60-20-120+(140*2)-80-50-150</f>
-        <v>0</v>
+        <f>(200)-60-20-120+(140*2)-80-50-150+200</f>
+        <v>200</v>
       </c>
       <c r="P4" s="87"/>
       <c r="Q4" s="87"/>
@@ -26029,7 +26169,7 @@
       </c>
       <c r="L6" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>3400</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26056,7 +26196,7 @@
       </c>
       <c r="L7" s="56">
         <f>L6/100</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26083,7 +26223,7 @@
       </c>
       <c r="L8" s="56">
         <f>SUM($E$190:$E$270)+SUM($F$190:$F$270)</f>
-        <v>1360</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26110,7 +26250,7 @@
       </c>
       <c r="L9" s="56">
         <f>(L6/100)*(10000/120)</f>
-        <v>2833.333333333333</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26145,7 +26285,7 @@
       </c>
       <c r="L10" s="56">
         <f>L6-L9+L8</f>
-        <v>1926.666666666667</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -31098,8 +31238,17 @@
         <f>Sheet1!C255</f>
         <v>15.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D224" s="1">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="58" t="s">
         <v>28</v>
       </c>
@@ -31111,8 +31260,17 @@
         <f>Sheet1!C256</f>
         <v>16.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D225" s="1">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="58" t="s">
         <v>29</v>
       </c>
@@ -31124,8 +31282,17 @@
         <f>Sheet1!C257</f>
         <v>17.7</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D226" s="1">
+        <v>100</v>
+      </c>
+      <c r="E226" s="1">
+        <v>30</v>
+      </c>
+      <c r="F226" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="58" t="s">
         <v>30</v>
       </c>
@@ -31137,8 +31304,17 @@
         <f>Sheet1!C258</f>
         <v>18.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D227" s="1">
+        <v>100</v>
+      </c>
+      <c r="E227" s="1">
+        <v>10</v>
+      </c>
+      <c r="F227" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="58" t="s">
         <v>31</v>
       </c>
@@ -31150,8 +31326,17 @@
         <f>Sheet1!C259</f>
         <v>19.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D228" s="1">
+        <v>100</v>
+      </c>
+      <c r="E228" s="1">
+        <v>10</v>
+      </c>
+      <c r="F228" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="58" t="s">
         <v>32</v>
       </c>
@@ -31164,7 +31349,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="58" t="s">
         <v>26</v>
       </c>
@@ -31176,8 +31361,17 @@
         <f>Sheet1!C261</f>
         <v>21.7</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D230" s="1">
+        <v>200</v>
+      </c>
+      <c r="E230" s="1">
+        <v>20</v>
+      </c>
+      <c r="F230" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="58" t="s">
         <v>27</v>
       </c>
@@ -31190,7 +31384,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="58" t="s">
         <v>28</v>
       </c>
@@ -31203,7 +31397,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="58" t="s">
         <v>29</v>
       </c>
@@ -31216,7 +31410,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="58" t="s">
         <v>30</v>
       </c>
@@ -31229,7 +31423,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="58" t="s">
         <v>31</v>
       </c>
@@ -31242,7 +31436,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="58" t="s">
         <v>32</v>
       </c>
@@ -31255,7 +31449,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="58" t="s">
         <v>26</v>
       </c>
@@ -31268,7 +31462,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="58" t="s">
         <v>27</v>
       </c>
@@ -31281,7 +31475,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="58" t="s">
         <v>28</v>
       </c>
@@ -31294,7 +31488,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="58" t="s">
         <v>29</v>
       </c>
@@ -39522,7 +39716,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39730,10 +39924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39742,15 +39936,18 @@
     <col min="3" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>33</v>
       </c>
@@ -39758,7 +39955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
         <v>42865</v>
       </c>
@@ -39766,7 +39963,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
         <v>42899</v>
       </c>
@@ -39774,7 +39971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
         <v>42926</v>
       </c>
@@ -39782,12 +39979,23 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
         <v>42957</v>
       </c>
       <c r="B6" s="78">
         <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="81">
+        <v>42988</v>
+      </c>
+      <c r="B7" s="78">
+        <v>600</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="178">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="I262" sqref="I262"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M225" sqref="M225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,15 +1573,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>123200</v>
+        <v>124220</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>99500</v>
+        <v>100400</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>23700</v>
+        <v>23820</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10029)-SUM(J8:J10029)</f>
-        <v>37890</v>
+        <v>39590</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)-1600</f>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AA9)</f>
-        <v>81416.666666666657</v>
+        <v>82166.666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AA10)</f>
-        <v>39803.333333333336</v>
+        <v>40073.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6185,11 +6185,11 @@
         <v>500</v>
       </c>
       <c r="M219" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N219" s="1">
         <f>L219*M219</f>
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -6218,11 +6218,11 @@
         <v>200</v>
       </c>
       <c r="M220" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N220" s="1">
         <f t="shared" ref="N220:N224" si="8">L220*M220</f>
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -6251,11 +6251,11 @@
         <v>100</v>
       </c>
       <c r="M221" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N221" s="1">
         <f t="shared" si="8"/>
-        <v>1400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -6284,11 +6284,11 @@
         <v>50</v>
       </c>
       <c r="M222" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N222" s="1">
         <f t="shared" si="8"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -6317,11 +6317,11 @@
         <v>20</v>
       </c>
       <c r="M223" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="8"/>
-        <v>280</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="N225" s="1">
         <f>SUM(N219:N224)</f>
-        <v>7610</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -7173,6 +7173,16 @@
       <c r="C262" s="132">
         <v>22.7</v>
       </c>
+      <c r="D262" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E262" s="140"/>
+      <c r="F262" s="140"/>
+      <c r="G262" s="140"/>
+      <c r="H262" s="140"/>
+      <c r="I262" s="1">
+        <v>340</v>
+      </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="131">
@@ -7185,6 +7195,16 @@
       <c r="C263" s="132">
         <v>23.7</v>
       </c>
+      <c r="D263" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263" s="140"/>
+      <c r="F263" s="140"/>
+      <c r="G263" s="140"/>
+      <c r="H263" s="140"/>
+      <c r="I263" s="1">
+        <v>340</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="131">
@@ -7197,6 +7217,16 @@
       <c r="C264" s="132">
         <v>24.7</v>
       </c>
+      <c r="D264" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264" s="140"/>
+      <c r="F264" s="140"/>
+      <c r="G264" s="140"/>
+      <c r="H264" s="140"/>
+      <c r="I264" s="1">
+        <v>340</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="131">
@@ -7209,6 +7239,16 @@
       <c r="C265" s="132">
         <v>25.7</v>
       </c>
+      <c r="D265" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E265" s="140"/>
+      <c r="F265" s="140"/>
+      <c r="G265" s="140"/>
+      <c r="H265" s="140"/>
+      <c r="I265" s="1">
+        <v>340</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="131">
@@ -7221,6 +7261,16 @@
       <c r="C266" s="132">
         <v>26.7</v>
       </c>
+      <c r="D266" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E266" s="140"/>
+      <c r="F266" s="140"/>
+      <c r="G266" s="140"/>
+      <c r="H266" s="140"/>
+      <c r="I266" s="1">
+        <v>340</v>
+      </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="131">
@@ -8615,168 +8665,88 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="262">
-    <mergeCell ref="D261:H261"/>
-    <mergeCell ref="D256:H256"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D258:H258"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D242:H242"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D144:H144"/>
+  <mergeCells count="267">
+    <mergeCell ref="D265:H265"/>
+    <mergeCell ref="D266:H266"/>
+    <mergeCell ref="D262:H262"/>
+    <mergeCell ref="D263:H263"/>
+    <mergeCell ref="D264:H264"/>
+    <mergeCell ref="D259:H259"/>
+    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D214:H214"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="D211:H211"/>
+    <mergeCell ref="D212:H212"/>
+    <mergeCell ref="D213:H213"/>
+    <mergeCell ref="D205:H205"/>
+    <mergeCell ref="D206:H206"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D177:H177"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="D168:H168"/>
@@ -8801,83 +8771,168 @@
     <mergeCell ref="D148:H148"/>
     <mergeCell ref="D150:H150"/>
     <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D194:H194"/>
-    <mergeCell ref="D195:H195"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D204:H204"/>
-    <mergeCell ref="D207:H207"/>
-    <mergeCell ref="D208:H208"/>
-    <mergeCell ref="D211:H211"/>
-    <mergeCell ref="D212:H212"/>
-    <mergeCell ref="D213:H213"/>
-    <mergeCell ref="D205:H205"/>
-    <mergeCell ref="D206:H206"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D261:H261"/>
+    <mergeCell ref="D256:H256"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D258:H258"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D230:H230"/>
     <mergeCell ref="D255:H255"/>
-    <mergeCell ref="D259:H259"/>
-    <mergeCell ref="D257:H257"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D214:H214"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D249:H249"/>
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D240:H240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12070,7 +12125,7 @@
   <dimension ref="A2:R1122"/>
   <sheetViews>
     <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+      <selection activeCell="D232" sqref="D232:D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12161,11 +12216,11 @@
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>58840</v>
+        <v>59440</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>44000</v>
+        <v>44600</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
@@ -12254,7 +12309,7 @@
       </c>
       <c r="M7" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -12286,7 +12341,7 @@
       </c>
       <c r="M8" s="56">
         <f>M7/200</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="123"/>
       <c r="O8" s="56"/>
@@ -12358,7 +12413,7 @@
       </c>
       <c r="M10" s="56">
         <f>(M7/100)*(10000/120)</f>
-        <v>6833.333333333333</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -12398,7 +12453,7 @@
       </c>
       <c r="M11" s="61">
         <f>M7-M10+M9</f>
-        <v>12086.666666666668</v>
+        <v>12186.666666666668</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
@@ -16844,6 +16899,9 @@
         <f>Sheet1!C262</f>
         <v>22.7</v>
       </c>
+      <c r="D231" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="58" t="s">
@@ -16857,6 +16915,9 @@
         <f>Sheet1!C263</f>
         <v>23.7</v>
       </c>
+      <c r="D232" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="58" t="s">
@@ -16869,6 +16930,9 @@
       <c r="C233" s="56">
         <f>Sheet1!C264</f>
         <v>24.7</v>
+      </c>
+      <c r="D233" s="54">
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -25992,8 +26056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26057,15 +26121,15 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>28660</v>
+        <v>29080</v>
       </c>
       <c r="J3" s="51">
         <f>SUM(J6:AB6)</f>
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="K3" s="52">
         <f>SUM(J8:AB8)</f>
-        <v>7460</v>
+        <v>7580</v>
       </c>
       <c r="L3" s="54"/>
       <c r="N3" s="1" t="s">
@@ -26169,7 +26233,7 @@
       </c>
       <c r="L6" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>3900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26196,7 +26260,7 @@
       </c>
       <c r="L7" s="56">
         <f>L6/100</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26223,7 +26287,7 @@
       </c>
       <c r="L8" s="56">
         <f>SUM($E$190:$E$270)+SUM($F$190:$F$270)</f>
-        <v>1640</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26250,7 +26314,7 @@
       </c>
       <c r="L9" s="56">
         <f>(L6/100)*(10000/120)</f>
-        <v>3250</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -26285,7 +26349,7 @@
       </c>
       <c r="L10" s="56">
         <f>L6-L9+L8</f>
-        <v>2290</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -31383,6 +31447,15 @@
         <f>Sheet1!C262</f>
         <v>22.7</v>
       </c>
+      <c r="D231" s="1">
+        <v>100</v>
+      </c>
+      <c r="E231" s="1">
+        <v>10</v>
+      </c>
+      <c r="F231" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="58" t="s">
@@ -31396,6 +31469,15 @@
         <f>Sheet1!C263</f>
         <v>23.7</v>
       </c>
+      <c r="D232" s="1">
+        <v>100</v>
+      </c>
+      <c r="E232" s="1">
+        <v>10</v>
+      </c>
+      <c r="F232" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="58" t="s">
@@ -31408,6 +31490,15 @@
       <c r="C233" s="56">
         <f>Sheet1!C264</f>
         <v>24.7</v>
+      </c>
+      <c r="D233" s="1">
+        <v>100</v>
+      </c>
+      <c r="E233" s="1">
+        <v>10</v>
+      </c>
+      <c r="F233" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="I275" sqref="I275"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6343,11 +6343,11 @@
         <v>200</v>
       </c>
       <c r="M220" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N220" s="1">
         <f t="shared" ref="N220:N224" si="8">L220*M220</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -6409,11 +6409,11 @@
         <v>50</v>
       </c>
       <c r="M222" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N222" s="1">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -6442,11 +6442,11 @@
         <v>20</v>
       </c>
       <c r="M223" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="8"/>
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="N225" s="1">
         <f>SUM(N219:N224)</f>
-        <v>3110</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -8878,70 +8878,188 @@
     </row>
   </sheetData>
   <mergeCells count="274">
-    <mergeCell ref="D274:H274"/>
-    <mergeCell ref="D255:H255"/>
-    <mergeCell ref="D270:H270"/>
-    <mergeCell ref="D271:H271"/>
-    <mergeCell ref="D267:H267"/>
-    <mergeCell ref="D265:H265"/>
-    <mergeCell ref="D266:H266"/>
-    <mergeCell ref="D262:H262"/>
-    <mergeCell ref="D263:H263"/>
-    <mergeCell ref="D264:H264"/>
-    <mergeCell ref="D259:H259"/>
-    <mergeCell ref="D268:H268"/>
-    <mergeCell ref="D269:H269"/>
-    <mergeCell ref="D261:H261"/>
-    <mergeCell ref="D249:H249"/>
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D240:H240"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D214:H214"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D204:H204"/>
-    <mergeCell ref="D207:H207"/>
-    <mergeCell ref="D208:H208"/>
-    <mergeCell ref="D211:H211"/>
-    <mergeCell ref="D212:H212"/>
-    <mergeCell ref="D213:H213"/>
-    <mergeCell ref="D205:H205"/>
-    <mergeCell ref="D206:H206"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D194:H194"/>
-    <mergeCell ref="D195:H195"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D258:H258"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D149:H149"/>
     <mergeCell ref="D153:H153"/>
     <mergeCell ref="D154:H154"/>
     <mergeCell ref="D155:H155"/>
@@ -8966,192 +9084,74 @@
     <mergeCell ref="D180:H180"/>
     <mergeCell ref="D181:H181"/>
     <mergeCell ref="D177:H177"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D214:H214"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="D211:H211"/>
+    <mergeCell ref="D212:H212"/>
+    <mergeCell ref="D213:H213"/>
+    <mergeCell ref="D205:H205"/>
+    <mergeCell ref="D206:H206"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D274:H274"/>
+    <mergeCell ref="D255:H255"/>
+    <mergeCell ref="D270:H270"/>
+    <mergeCell ref="D271:H271"/>
+    <mergeCell ref="D267:H267"/>
+    <mergeCell ref="D265:H265"/>
+    <mergeCell ref="D266:H266"/>
+    <mergeCell ref="D262:H262"/>
+    <mergeCell ref="D263:H263"/>
+    <mergeCell ref="D264:H264"/>
+    <mergeCell ref="D259:H259"/>
+    <mergeCell ref="D268:H268"/>
+    <mergeCell ref="D269:H269"/>
+    <mergeCell ref="D261:H261"/>
     <mergeCell ref="D272:H272"/>
     <mergeCell ref="D256:H256"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D258:H258"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D242:H242"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D257:H257"/>
-    <mergeCell ref="D246:H246"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="209">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>15000(4/10/17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ky 4: </t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N225" sqref="N225"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,15 +1703,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>130830</v>
+        <v>133010</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>106250</v>
+        <v>108150</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>24580</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1732,7 +1735,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10032)-SUM(J8:J10032)</f>
-        <v>16420</v>
+        <v>13250</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)-1600-140-60</f>
@@ -1763,8 +1766,8 @@
         <v>50</v>
       </c>
       <c r="N8" s="20">
-        <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AA9)</f>
-        <v>87041.666666666657</v>
+        <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AB9)</f>
+        <v>88625</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1791,8 +1794,8 @@
         <v>51</v>
       </c>
       <c r="N9" s="20">
-        <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AA10)</f>
-        <v>41808.333333333336</v>
+        <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AB10)</f>
+        <v>42405</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6312,11 +6315,11 @@
         <v>500</v>
       </c>
       <c r="M219" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N219" s="1">
         <f>L219*M219</f>
-        <v>15000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -6345,11 +6348,11 @@
         <v>200</v>
       </c>
       <c r="M220" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N220" s="1">
         <f t="shared" ref="N220:N224" si="8">L220*M220</f>
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -6378,11 +6381,11 @@
         <v>100</v>
       </c>
       <c r="M221" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N221" s="1">
         <f t="shared" si="8"/>
-        <v>900</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -6411,11 +6414,11 @@
         <v>50</v>
       </c>
       <c r="M222" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N222" s="1">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -6444,11 +6447,11 @@
         <v>20</v>
       </c>
       <c r="M223" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="8"/>
-        <v>700</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -6477,11 +6480,11 @@
         <v>10</v>
       </c>
       <c r="M224" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N224" s="1">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -6508,7 +6511,7 @@
       </c>
       <c r="N225" s="1">
         <f>SUM(N219:N224)</f>
-        <v>17620</v>
+        <v>14450</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -7839,8 +7842,19 @@
       <c r="C288" s="131">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="155"/>
+      <c r="F288" s="155"/>
+      <c r="G288" s="155"/>
+      <c r="H288" s="155"/>
+      <c r="I288" s="1">
+        <f>200+(140*2)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="130">
         <f t="shared" si="10"/>
         <v>250</v>
@@ -7851,10 +7865,21 @@
       <c r="C289" s="131">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="E289" s="155"/>
+      <c r="F289" s="155"/>
+      <c r="G289" s="155"/>
+      <c r="H289" s="155"/>
+      <c r="J289" s="1">
+        <f>5210</f>
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="130">
-        <f t="shared" si="10"/>
+        <f>A289+1</f>
         <v>251</v>
       </c>
       <c r="B290" s="133" t="s">
@@ -7863,8 +7888,19 @@
       <c r="C290" s="131">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="E290" s="155"/>
+      <c r="F290" s="155"/>
+      <c r="G290" s="155"/>
+      <c r="H290" s="155"/>
+      <c r="I290" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="130">
         <f t="shared" si="10"/>
         <v>252</v>
@@ -7876,7 +7912,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="130">
         <f t="shared" si="10"/>
         <v>253</v>
@@ -7887,8 +7923,19 @@
       <c r="C292" s="131">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="E292" s="155"/>
+      <c r="F292" s="155"/>
+      <c r="G292" s="155"/>
+      <c r="H292" s="155"/>
+      <c r="I292" s="1">
+        <f>140*2</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="130">
         <f t="shared" si="10"/>
         <v>254</v>
@@ -7899,8 +7946,19 @@
       <c r="C293" s="131">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="E293" s="155"/>
+      <c r="F293" s="155"/>
+      <c r="G293" s="155"/>
+      <c r="H293" s="155"/>
+      <c r="I293" s="1">
+        <f>(200*5)+140</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="130">
         <f t="shared" si="10"/>
         <v>255</v>
@@ -7912,7 +7970,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="130">
         <f t="shared" si="10"/>
         <v>256</v>
@@ -7924,7 +7982,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="130">
         <f t="shared" si="10"/>
         <v>257</v>
@@ -7936,7 +7994,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="130">
         <f t="shared" si="10"/>
         <v>258</v>
@@ -7948,7 +8006,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="130">
         <f t="shared" si="10"/>
         <v>259</v>
@@ -7960,7 +8018,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="130">
         <f t="shared" si="10"/>
         <v>260</v>
@@ -7972,7 +8030,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="130">
         <f t="shared" si="10"/>
         <v>261</v>
@@ -7984,7 +8042,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="130">
         <f t="shared" si="10"/>
         <v>262</v>
@@ -7996,7 +8054,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="130">
         <f t="shared" si="10"/>
         <v>263</v>
@@ -8008,7 +8066,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="130">
         <f t="shared" si="10"/>
         <v>264</v>
@@ -8017,7 +8075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="130">
         <f t="shared" si="10"/>
         <v>265</v>
@@ -9005,17 +9063,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="285">
-    <mergeCell ref="D284:H284"/>
-    <mergeCell ref="D285:H285"/>
-    <mergeCell ref="D283:H283"/>
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D258:H258"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D248:H248"/>
+  <mergeCells count="290">
+    <mergeCell ref="D293:H293"/>
+    <mergeCell ref="D290:H290"/>
     <mergeCell ref="D221:H221"/>
     <mergeCell ref="D222:H222"/>
     <mergeCell ref="D223:H223"/>
@@ -9027,9 +9077,15 @@
     <mergeCell ref="D239:H239"/>
     <mergeCell ref="D228:H228"/>
     <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D257:H257"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D276:H276"/>
+    <mergeCell ref="D277:H277"/>
+    <mergeCell ref="D286:H286"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D244:H244"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9255,18 +9311,28 @@
     <mergeCell ref="D203:H203"/>
     <mergeCell ref="D216:H216"/>
     <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D240:H240"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D220:H220"/>
     <mergeCell ref="D237:H237"/>
     <mergeCell ref="D238:H238"/>
     <mergeCell ref="D234:H234"/>
     <mergeCell ref="D241:H241"/>
     <mergeCell ref="D236:H236"/>
     <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D284:H284"/>
+    <mergeCell ref="D285:H285"/>
+    <mergeCell ref="D283:H283"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D258:H258"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D292:H292"/>
+    <mergeCell ref="D288:H288"/>
+    <mergeCell ref="D289:H289"/>
     <mergeCell ref="D287:H287"/>
     <mergeCell ref="D281:H281"/>
     <mergeCell ref="D279:H279"/>
@@ -9288,9 +9354,6 @@
     <mergeCell ref="D272:H272"/>
     <mergeCell ref="D256:H256"/>
     <mergeCell ref="D278:H278"/>
-    <mergeCell ref="D276:H276"/>
-    <mergeCell ref="D277:H277"/>
-    <mergeCell ref="D286:H286"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12482,8 +12545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R1122"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252:D253"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12574,11 +12637,11 @@
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>63440</v>
+        <v>64640</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>48600</v>
+        <v>49800</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
@@ -12667,7 +12730,7 @@
       </c>
       <c r="M7" s="56">
         <f>SUM($D$190:$D$270)</f>
-        <v>12800</v>
+        <v>14000</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -12699,7 +12762,7 @@
       </c>
       <c r="M8" s="56">
         <f>M7/200</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N8" s="122"/>
       <c r="O8" s="56"/>
@@ -12771,7 +12834,7 @@
       </c>
       <c r="M10" s="56">
         <f>(M7/100)*(10000/120)</f>
-        <v>10666.666666666666</v>
+        <v>11666.666666666666</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
@@ -12811,7 +12874,7 @@
       </c>
       <c r="M11" s="61">
         <f>M7-M10+M9</f>
-        <v>12853.333333333334</v>
+        <v>13053.333333333334</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
@@ -17610,6 +17673,9 @@
         <f>Sheet1!C288</f>
         <v>16.8</v>
       </c>
+      <c r="D254" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="58" t="s">
@@ -17637,7 +17703,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="58" t="s">
         <v>32</v>
       </c>
@@ -17650,7 +17716,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="58" t="s">
         <v>26</v>
       </c>
@@ -17663,7 +17729,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="58" t="s">
         <v>27</v>
       </c>
@@ -17675,8 +17741,11 @@
         <f>Sheet1!C293</f>
         <v>21.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="58" t="s">
         <v>28</v>
       </c>
@@ -17689,7 +17758,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="58" t="s">
         <v>29</v>
       </c>
@@ -17702,7 +17771,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="58" t="s">
         <v>30</v>
       </c>
@@ -17715,7 +17784,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="58" t="s">
         <v>31</v>
       </c>
@@ -17728,7 +17797,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="58" t="s">
         <v>32</v>
       </c>
@@ -17741,7 +17810,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="58" t="s">
         <v>26</v>
       </c>
@@ -17754,7 +17823,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="58" t="s">
         <v>27</v>
       </c>
@@ -17767,7 +17836,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="58" t="s">
         <v>28</v>
       </c>
@@ -17780,7 +17849,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="58" t="s">
         <v>29</v>
       </c>
@@ -17793,7 +17862,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="58" t="s">
         <v>30</v>
       </c>
@@ -17806,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="58" t="s">
         <v>31</v>
       </c>
@@ -17819,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="58" t="s">
         <v>32</v>
       </c>
@@ -17832,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="58" t="s">
         <v>26</v>
       </c>
@@ -26457,10 +26526,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q1055"/>
+  <dimension ref="A2:R1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26476,7 +26545,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="67"/>
       <c r="C2" s="44" t="s">
@@ -26501,11 +26570,12 @@
         <v>64</v>
       </c>
       <c r="L2" s="54"/>
-      <c r="N2" s="113" t="s">
+      <c r="M2" s="54"/>
+      <c r="O2" s="113" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>37</v>
       </c>
@@ -26524,26 +26594,27 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>31690</v>
+        <v>32670</v>
       </c>
       <c r="J3" s="51">
-        <f>SUM(J6:AB6)</f>
-        <v>23350</v>
+        <f>SUM(J6:AC6)</f>
+        <v>24050</v>
       </c>
       <c r="K3" s="52">
-        <f>SUM(J8:AB8)</f>
-        <v>8340</v>
+        <f>SUM(J8:AC8)</f>
+        <v>8620</v>
       </c>
       <c r="L3" s="54"/>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="54"/>
+      <c r="O3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="54">
+      <c r="P3" s="54">
         <f>(140*5)-50-20-20-30</f>
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
@@ -26566,18 +26637,19 @@
       <c r="J4" s="54"/>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="87">
-        <f>(200)-60-20-120+(140*2)-80-50-150+200+90</f>
-        <v>290</v>
-      </c>
-      <c r="P4" s="87"/>
+      <c r="P4" s="87">
+        <f>(200)-60-20-120+(140*2)-80-50-150+200+90-40</f>
+        <v>250</v>
+      </c>
       <c r="Q4" s="87"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R4" s="87"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="88" t="s">
         <v>24</v>
@@ -26606,13 +26678,16 @@
       <c r="L5" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="87"/>
+      <c r="M5" s="44" t="s">
+        <v>208</v>
+      </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
       <c r="Q5" s="87"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R5" s="87"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>26</v>
       </c>
@@ -26635,11 +26710,15 @@
         <v>8400</v>
       </c>
       <c r="L6" s="56">
-        <f>SUM($D$190:$D$270)</f>
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM($D$190:$D$256)</f>
+        <v>6350</v>
+      </c>
+      <c r="M6" s="56">
+        <f>SUM($D$256:$D$326)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
@@ -26663,10 +26742,14 @@
       </c>
       <c r="L7" s="56">
         <f>L6/100</f>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63.5</v>
+      </c>
+      <c r="M7" s="56">
+        <f>M6/100</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>28</v>
       </c>
@@ -26689,11 +26772,15 @@
         <v>3540</v>
       </c>
       <c r="L8" s="56">
-        <f>SUM($E$190:$E$270)+SUM($F$190:$F$270)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM($E$190:$E$256)+SUM($F$190:$F$256)</f>
+        <v>2640</v>
+      </c>
+      <c r="M8" s="56">
+        <f>SUM($E$256:$E$326)+SUM($F$256:$F$326)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>29</v>
       </c>
@@ -26717,10 +26804,14 @@
       </c>
       <c r="L9" s="56">
         <f>(L6/100)*(10000/120)</f>
-        <v>5041.6666666666661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5291.6666666666661</v>
+      </c>
+      <c r="M9" s="56">
+        <f>(M6/100)*(10000/120)</f>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
@@ -26752,10 +26843,14 @@
       </c>
       <c r="L10" s="56">
         <f>L6-L9+L8</f>
-        <v>3528.3333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>3698.3333333333339</v>
+      </c>
+      <c r="M10" s="56">
+        <f>M6-M9+M8</f>
+        <v>226.66666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>31</v>
       </c>
@@ -26778,8 +26873,9 @@
       <c r="J11" s="61"/>
       <c r="K11" s="90"/>
       <c r="L11" s="52"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="56"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
@@ -26802,7 +26898,7 @@
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>26</v>
       </c>
@@ -26824,7 +26920,7 @@
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>27</v>
       </c>
@@ -26846,7 +26942,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>28</v>
       </c>
@@ -26869,7 +26965,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>29</v>
       </c>
@@ -30677,7 +30773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="58" t="s">
         <v>29</v>
       </c>
@@ -30700,7 +30796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="58" t="s">
         <v>30</v>
       </c>
@@ -30723,7 +30819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="58" t="s">
         <v>31</v>
       </c>
@@ -30746,7 +30842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="58" t="s">
         <v>32</v>
       </c>
@@ -30759,7 +30855,7 @@
         <v>1.6 (N)</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="58" t="s">
         <v>26</v>
       </c>
@@ -30781,7 +30877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="58" t="s">
         <v>27</v>
       </c>
@@ -30803,7 +30899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="58" t="s">
         <v>28</v>
       </c>
@@ -30828,7 +30924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="58" t="s">
         <v>29</v>
       </c>
@@ -30850,7 +30946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="58" t="s">
         <v>30</v>
       </c>
@@ -30872,7 +30968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="58" t="s">
         <v>31</v>
       </c>
@@ -30894,7 +30990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="58" t="s">
         <v>32</v>
       </c>
@@ -30916,7 +31012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="58" t="s">
         <v>26</v>
       </c>
@@ -30938,7 +31034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="58" t="s">
         <v>27</v>
       </c>
@@ -30957,7 +31053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="58" t="s">
         <v>28</v>
       </c>
@@ -30979,7 +31075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="58" t="s">
         <v>29</v>
       </c>
@@ -31001,7 +31097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="58" t="s">
         <v>30</v>
       </c>
@@ -31022,8 +31118,16 @@
       <c r="F192" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J192" s="1">
+        <f>10000*(1.11)-6600</f>
+        <v>4500.0000000000018</v>
+      </c>
+      <c r="L192" s="1">
+        <f>0.05/30*6</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="58" t="s">
         <v>31</v>
       </c>
@@ -31044,8 +31148,12 @@
       <c r="F193" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J193" s="1">
+        <f>10000-J192-250-40</f>
+        <v>5209.9999999999982</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="58" t="s">
         <v>32</v>
       </c>
@@ -31067,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="58" t="s">
         <v>26</v>
       </c>
@@ -31089,7 +31197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="58" t="s">
         <v>27</v>
       </c>
@@ -31108,7 +31216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="58" t="s">
         <v>28</v>
       </c>
@@ -31130,7 +31238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="58" t="s">
         <v>29</v>
       </c>
@@ -31152,7 +31260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="58" t="s">
         <v>30</v>
       </c>
@@ -31174,7 +31282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="58" t="s">
         <v>31</v>
       </c>
@@ -31196,7 +31304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="58" t="s">
         <v>32</v>
       </c>
@@ -31218,7 +31326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="58" t="s">
         <v>26</v>
       </c>
@@ -31240,7 +31348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="58" t="s">
         <v>27</v>
       </c>
@@ -31262,7 +31370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="58" t="s">
         <v>28</v>
       </c>
@@ -31284,7 +31392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="58" t="s">
         <v>29</v>
       </c>
@@ -31306,7 +31414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="58" t="s">
         <v>30</v>
       </c>
@@ -31328,7 +31436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="58" t="s">
         <v>31</v>
       </c>
@@ -31350,7 +31458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="58" t="s">
         <v>32</v>
       </c>
@@ -32311,6 +32419,15 @@
         <f>Sheet1!C288</f>
         <v>16.8</v>
       </c>
+      <c r="D254" s="1">
+        <v>200</v>
+      </c>
+      <c r="E254" s="1">
+        <v>20</v>
+      </c>
+      <c r="F254" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="58" t="s">
@@ -32337,8 +32454,17 @@
         <f>Sheet1!C290</f>
         <v>18.8</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D256" s="1">
+        <v>100</v>
+      </c>
+      <c r="E256" s="1">
+        <v>10</v>
+      </c>
+      <c r="F256" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="58" t="s">
         <v>32</v>
       </c>
@@ -32351,7 +32477,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B258" s="56" t="str">
         <f>Sheet1!B292</f>
         <v>9.10</v>
@@ -32360,8 +32486,17 @@
         <f>Sheet1!C292</f>
         <v>20.8</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D258" s="1">
+        <v>200</v>
+      </c>
+      <c r="E258" s="1">
+        <v>20</v>
+      </c>
+      <c r="F258" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B259" s="56" t="str">
         <f>Sheet1!B293</f>
         <v>10.10</v>
@@ -32370,8 +32505,17 @@
         <f>Sheet1!C293</f>
         <v>21.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D259" s="1">
+        <v>100</v>
+      </c>
+      <c r="E259" s="1">
+        <v>10</v>
+      </c>
+      <c r="F259" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B260" s="56" t="str">
         <f>Sheet1!B294</f>
         <v>11.10</v>
@@ -32381,7 +32525,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B261" s="56" t="str">
         <f>Sheet1!B295</f>
         <v>12.10</v>
@@ -32391,7 +32535,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B262" s="56" t="str">
         <f>Sheet1!B296</f>
         <v>13.10</v>
@@ -32401,7 +32545,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263" s="56" t="str">
         <f>Sheet1!B297</f>
         <v>14.10</v>
@@ -32411,7 +32555,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B264" s="56" t="str">
         <f>Sheet1!B298</f>
         <v>15.10</v>
@@ -32421,7 +32565,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B265" s="56" t="str">
         <f>Sheet1!B299</f>
         <v>16.10</v>
@@ -32431,7 +32575,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B266" s="56" t="str">
         <f>Sheet1!B300</f>
         <v>17.10</v>
@@ -32441,7 +32585,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B267" s="56" t="str">
         <f>Sheet1!B301</f>
         <v>18.10</v>
@@ -32451,7 +32595,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268" s="56" t="str">
         <f>Sheet1!B302</f>
         <v>19.10</v>
@@ -32461,7 +32605,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269" s="56" t="str">
         <f>Sheet1!B303</f>
         <v>20.10</v>
@@ -32471,7 +32615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B270" s="56" t="str">
         <f>Sheet1!B304</f>
         <v>21.10</v>
@@ -32481,7 +32625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B271" s="56" t="str">
         <f>Sheet1!B305</f>
         <v>22.10</v>
@@ -32491,7 +32635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B272" s="56" t="str">
         <f>Sheet1!B306</f>
         <v>23.10</v>
@@ -40344,7 +40488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="234">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -732,6 +732,9 @@
   <si>
     <t>141050+12120</t>
   </si>
+  <si>
+    <t>(14/11/2017)</t>
+  </si>
 </sst>
 </file>
 
@@ -958,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1418,16 +1421,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I328" sqref="I328"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,11 +1767,11 @@
         <v>500</v>
       </c>
       <c r="N1" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1">
         <f>M1*N1</f>
-        <v>1000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1773,11 +1782,11 @@
         <v>200</v>
       </c>
       <c r="N2" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O6" si="0">M2*N2</f>
-        <v>2400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1788,11 +1797,11 @@
         <v>100</v>
       </c>
       <c r="N3" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1803,28 +1812,28 @@
         <v>50</v>
       </c>
       <c r="N4" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
-      <c r="G5" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="173"/>
+      <c r="G5" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="175"/>
       <c r="M5" s="1">
         <v>20</v>
       </c>
       <c r="N5" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1839,11 +1848,11 @@
         <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1856,11 +1865,11 @@
       </c>
       <c r="O7" s="1">
         <f>SUM(O1:O6)</f>
-        <v>7680</v>
+        <v>9140</v>
       </c>
       <c r="P7" s="1">
         <f>N11+Q11</f>
-        <v>7680</v>
+        <v>9140</v>
       </c>
       <c r="Q7" s="1">
         <f>O7-P7</f>
@@ -1884,25 +1893,25 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="173" t="s">
+      <c r="C9" s="177"/>
+      <c r="D9" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173" t="s">
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173" t="s">
+      <c r="J9" s="175"/>
+      <c r="K9" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="173"/>
+      <c r="L9" s="175"/>
       <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,44 +1936,44 @@
       </c>
       <c r="M10" s="1">
         <f>SUM(N10:O10)</f>
-        <v>141890</v>
+        <v>145750</v>
       </c>
       <c r="N10" s="1">
         <f>Son!H3+Lang!K4+Thuy!J3+1800</f>
-        <v>115950</v>
+        <v>119370</v>
       </c>
       <c r="O10" s="1">
         <f>Son!I3+Lang!L4+Thuy!K3+180</f>
-        <v>25940</v>
+        <v>26380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="174">
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="178">
         <v>70000</v>
       </c>
-      <c r="J11" s="174"/>
-      <c r="K11" s="173" t="s">
+      <c r="J11" s="178"/>
+      <c r="K11" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="173"/>
+      <c r="L11" s="175"/>
       <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="1">
         <f>SUM(I12:I10040)-SUM(J12:J10040)</f>
-        <v>4080</v>
+        <v>4940</v>
       </c>
       <c r="Q11" s="1">
         <f>SUM(BM!$B3:$B100)</f>
-        <v>3600</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1977,13 +1986,13 @@
       <c r="C12" s="5">
         <v>7.1</v>
       </c>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
       <c r="I12" s="1">
         <v>320</v>
       </c>
@@ -1992,7 +2001,7 @@
       </c>
       <c r="N12" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!K10:AB10)+SUM(Thuy!J9:AB9)</f>
-        <v>95125</v>
+        <v>97974.999999999985</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2005,13 +2014,13 @@
       <c r="C13" s="5">
         <v>8.1</v>
       </c>
-      <c r="D13" s="173" t="s">
+      <c r="D13" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
       <c r="I13" s="1">
         <v>760</v>
       </c>
@@ -2020,7 +2029,7 @@
       </c>
       <c r="N13" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!K11:AB11)+SUM(Thuy!J10:AB10)</f>
-        <v>44785</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2033,13 +2042,13 @@
       <c r="C14" s="5">
         <v>9.1</v>
       </c>
-      <c r="D14" s="173" t="s">
+      <c r="D14" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
       <c r="I14" s="1">
         <v>110</v>
       </c>
@@ -2061,13 +2070,13 @@
       <c r="C15" s="5">
         <v>10.1</v>
       </c>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
       <c r="I15" s="1">
         <v>970</v>
       </c>
@@ -2082,13 +2091,13 @@
       <c r="C16" s="5">
         <v>11.1</v>
       </c>
-      <c r="D16" s="173" t="s">
+      <c r="D16" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
       <c r="I16" s="1">
         <v>330</v>
       </c>
@@ -2103,13 +2112,13 @@
       <c r="C17" s="5">
         <v>12.1</v>
       </c>
-      <c r="D17" s="173" t="s">
+      <c r="D17" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="1">
         <v>330</v>
       </c>
@@ -2124,13 +2133,13 @@
       <c r="C18" s="5">
         <v>13.1</v>
       </c>
-      <c r="D18" s="173" t="s">
+      <c r="D18" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
       <c r="I18" s="1">
         <v>1070</v>
       </c>
@@ -2145,13 +2154,13 @@
       <c r="C19" s="6">
         <v>13.1</v>
       </c>
-      <c r="D19" s="173" t="s">
+      <c r="D19" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
       <c r="J19" s="1">
         <v>2820</v>
       </c>
@@ -2166,11 +2175,11 @@
       <c r="C20" s="5">
         <v>14.1</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -2185,11 +2194,11 @@
       <c r="C21" s="5">
         <v>15.1</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
       <c r="I21" s="1">
         <v>0</v>
       </c>
@@ -2204,13 +2213,13 @@
       <c r="C22" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D22" s="173" t="s">
+      <c r="D22" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
       <c r="I22" s="1">
         <v>1080</v>
       </c>
@@ -2225,13 +2234,13 @@
       <c r="C23" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
       <c r="J23" s="1">
         <v>2000</v>
       </c>
@@ -2246,20 +2255,20 @@
       <c r="C24" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D24" s="173" t="s">
+      <c r="D24" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
       <c r="I24" s="8">
         <v>22000</v>
       </c>
-      <c r="K24" s="173" t="s">
+      <c r="K24" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="173"/>
+      <c r="L24" s="175"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2271,13 +2280,13 @@
       <c r="C25" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D25" s="173" t="s">
+      <c r="D25" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
       <c r="J25" s="7">
         <v>22000</v>
       </c>
@@ -2292,13 +2301,13 @@
       <c r="C26" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D26" s="173" t="s">
+      <c r="D26" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
       <c r="I26" s="1">
         <v>530</v>
       </c>
@@ -2313,13 +2322,13 @@
       <c r="C27" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -2334,11 +2343,11 @@
       <c r="C28" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
       <c r="I28" s="1">
         <v>0</v>
       </c>
@@ -2353,13 +2362,13 @@
       <c r="C29" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D29" s="173" t="s">
+      <c r="D29" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
       <c r="I29" s="1">
         <v>930</v>
       </c>
@@ -2374,13 +2383,13 @@
       <c r="C30" s="6">
         <v>21.1</v>
       </c>
-      <c r="D30" s="173" t="s">
+      <c r="D30" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
       <c r="I30" s="1">
         <v>1530</v>
       </c>
@@ -2395,13 +2404,13 @@
       <c r="C31" s="6">
         <v>22.1</v>
       </c>
-      <c r="D31" s="173" t="s">
+      <c r="D31" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
       <c r="I31" s="1">
         <v>820</v>
       </c>
@@ -2416,13 +2425,13 @@
       <c r="C32" s="6">
         <v>23.1</v>
       </c>
-      <c r="D32" s="173" t="s">
+      <c r="D32" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
       <c r="I32" s="1">
         <v>610</v>
       </c>
@@ -2437,11 +2446,11 @@
       <c r="C33" s="6">
         <v>24.1</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2453,13 +2462,13 @@
       <c r="C34" s="6">
         <v>25.1</v>
       </c>
-      <c r="D34" s="173" t="s">
+      <c r="D34" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
       <c r="I34" s="1">
         <v>1850</v>
       </c>
@@ -2475,13 +2484,13 @@
       <c r="C35" s="6">
         <v>26.1</v>
       </c>
-      <c r="D35" s="173" t="s">
+      <c r="D35" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
       <c r="I35" s="1">
         <v>320</v>
       </c>
@@ -2497,13 +2506,13 @@
       <c r="C36" s="6">
         <v>27.1</v>
       </c>
-      <c r="D36" s="173" t="s">
+      <c r="D36" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
       <c r="I36" s="1">
         <v>1110</v>
       </c>
@@ -2519,13 +2528,13 @@
       <c r="C37" s="6">
         <v>28.1</v>
       </c>
-      <c r="D37" s="173" t="s">
+      <c r="D37" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
       <c r="I37" s="1">
         <v>530</v>
       </c>
@@ -2541,13 +2550,13 @@
       <c r="C38" s="6">
         <v>29.1</v>
       </c>
-      <c r="D38" s="173" t="s">
+      <c r="D38" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
       <c r="I38" s="1">
         <v>1320</v>
       </c>
@@ -2563,11 +2572,11 @@
       <c r="C39" s="6">
         <v>1.2</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
       <c r="I39" s="1">
         <v>0</v>
       </c>
@@ -2583,13 +2592,13 @@
       <c r="C40" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D40" s="173" t="s">
+      <c r="D40" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
       <c r="I40" s="1">
         <v>720</v>
       </c>
@@ -2605,13 +2614,13 @@
       <c r="C41" s="13">
         <v>3.2</v>
       </c>
-      <c r="D41" s="173" t="s">
+      <c r="D41" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
       <c r="I41" s="1">
         <v>1740</v>
       </c>
@@ -2627,13 +2636,13 @@
       <c r="C42" s="14">
         <v>4.2</v>
       </c>
-      <c r="D42" s="173" t="s">
+      <c r="D42" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -2649,13 +2658,13 @@
       <c r="C43" s="14">
         <v>5.2</v>
       </c>
-      <c r="D43" s="173" t="s">
+      <c r="D43" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -2671,13 +2680,13 @@
       <c r="C44" s="14">
         <v>6.2</v>
       </c>
-      <c r="D44" s="173" t="s">
+      <c r="D44" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -2693,13 +2702,13 @@
       <c r="C45" s="14">
         <v>7.2</v>
       </c>
-      <c r="D45" s="173" t="s">
+      <c r="D45" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -2715,13 +2724,13 @@
       <c r="C46" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D46" s="173" t="s">
+      <c r="D46" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
       <c r="I46" s="1">
         <v>820</v>
       </c>
@@ -2737,13 +2746,13 @@
       <c r="C47" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D47" s="173" t="s">
+      <c r="D47" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
       <c r="I47" s="1">
         <v>820</v>
       </c>
@@ -2759,13 +2768,13 @@
       <c r="C48" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D48" s="173" t="s">
+      <c r="D48" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2781,13 +2790,13 @@
       <c r="C49" s="14">
         <v>11.2</v>
       </c>
-      <c r="D49" s="173" t="s">
+      <c r="D49" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="173"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
       <c r="I49" s="1">
         <v>820</v>
       </c>
@@ -2803,11 +2812,11 @@
       <c r="C50" s="14">
         <v>12.2</v>
       </c>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
       <c r="I50" s="1">
         <v>0</v>
       </c>
@@ -2823,13 +2832,13 @@
       <c r="C51" s="14">
         <v>13.2</v>
       </c>
-      <c r="D51" s="173" t="s">
+      <c r="D51" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
       <c r="I51" s="1">
         <v>1640</v>
       </c>
@@ -2845,13 +2854,13 @@
       <c r="C52" s="14">
         <v>14.2</v>
       </c>
-      <c r="D52" s="173" t="s">
+      <c r="D52" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
       <c r="I52" s="1">
         <v>820</v>
       </c>
@@ -2867,11 +2876,11 @@
       <c r="C53" s="14">
         <v>15.2</v>
       </c>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
       <c r="I53" s="1">
         <v>0</v>
       </c>
@@ -2887,13 +2896,13 @@
       <c r="C54" s="14">
         <v>16.2</v>
       </c>
-      <c r="D54" s="173" t="s">
+      <c r="D54" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
       <c r="I54" s="1">
         <v>1640</v>
       </c>
@@ -2909,13 +2918,13 @@
       <c r="C55" s="14">
         <v>17.2</v>
       </c>
-      <c r="D55" s="173" t="s">
+      <c r="D55" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="175"/>
       <c r="I55" s="1">
         <v>610</v>
       </c>
@@ -2931,13 +2940,13 @@
       <c r="C56" s="14">
         <v>18.2</v>
       </c>
-      <c r="D56" s="173" t="s">
+      <c r="D56" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="175"/>
       <c r="I56" s="1">
         <v>1030</v>
       </c>
@@ -2953,13 +2962,13 @@
       <c r="C57" s="14">
         <v>19.2</v>
       </c>
-      <c r="D57" s="173" t="s">
+      <c r="D57" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
       <c r="I57" s="1">
         <v>820</v>
       </c>
@@ -2975,13 +2984,13 @@
       <c r="C58" s="14">
         <v>20.2</v>
       </c>
-      <c r="D58" s="173" t="s">
+      <c r="D58" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="175"/>
       <c r="J58" s="1">
         <v>20000</v>
       </c>
@@ -2994,13 +3003,13 @@
       <c r="C59" s="18">
         <v>20.2</v>
       </c>
-      <c r="D59" s="173" t="s">
+      <c r="D59" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
+      <c r="E59" s="175"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="175"/>
+      <c r="H59" s="175"/>
       <c r="I59" s="1">
         <v>820</v>
       </c>
@@ -3016,20 +3025,20 @@
       <c r="C60" s="14">
         <v>21.2</v>
       </c>
-      <c r="D60" s="173" t="s">
+      <c r="D60" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175"/>
+      <c r="H60" s="175"/>
       <c r="I60" s="1">
         <v>15000</v>
       </c>
-      <c r="K60" s="173" t="s">
+      <c r="K60" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="173"/>
+      <c r="L60" s="175"/>
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
@@ -3039,13 +3048,13 @@
       <c r="C61" s="18">
         <v>21.2</v>
       </c>
-      <c r="D61" s="173" t="s">
+      <c r="D61" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="175"/>
       <c r="J61" s="1">
         <v>15000</v>
       </c>
@@ -3058,13 +3067,13 @@
       <c r="C62" s="18">
         <v>21.2</v>
       </c>
-      <c r="D62" s="173" t="s">
+      <c r="D62" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="173"/>
-      <c r="F62" s="173"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="173"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
       <c r="I62" s="1">
         <v>860</v>
       </c>
@@ -3080,13 +3089,13 @@
       <c r="C63" s="14">
         <v>22.2</v>
       </c>
-      <c r="D63" s="173" t="s">
+      <c r="D63" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="173"/>
-      <c r="F63" s="173"/>
-      <c r="G63" s="173"/>
-      <c r="H63" s="173"/>
+      <c r="E63" s="175"/>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="175"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -3102,13 +3111,13 @@
       <c r="C64" s="14">
         <v>23.2</v>
       </c>
-      <c r="D64" s="173" t="s">
+      <c r="D64" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -3124,13 +3133,13 @@
       <c r="C65" s="14">
         <v>24.2</v>
       </c>
-      <c r="D65" s="173" t="s">
+      <c r="D65" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="173"/>
-      <c r="F65" s="173"/>
-      <c r="G65" s="173"/>
-      <c r="H65" s="173"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="175"/>
       <c r="I65" s="1">
         <v>750</v>
       </c>
@@ -3146,13 +3155,13 @@
       <c r="C66" s="14">
         <v>25.2</v>
       </c>
-      <c r="D66" s="173" t="s">
+      <c r="D66" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="173"/>
-      <c r="F66" s="173"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
+      <c r="E66" s="175"/>
+      <c r="F66" s="175"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
       <c r="I66" s="1">
         <v>1030</v>
       </c>
@@ -3168,13 +3177,13 @@
       <c r="C67" s="14">
         <v>26.2</v>
       </c>
-      <c r="D67" s="173" t="s">
+      <c r="D67" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="173"/>
-      <c r="F67" s="173"/>
-      <c r="G67" s="173"/>
-      <c r="H67" s="173"/>
+      <c r="E67" s="175"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
       <c r="I67" s="1">
         <v>890</v>
       </c>
@@ -3190,13 +3199,13 @@
       <c r="C68" s="14">
         <v>27.2</v>
       </c>
-      <c r="D68" s="173" t="s">
+      <c r="D68" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
+      <c r="E68" s="175"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
       <c r="I68" s="1">
         <v>890</v>
       </c>
@@ -3212,13 +3221,13 @@
       <c r="C69" s="14">
         <v>28.2</v>
       </c>
-      <c r="D69" s="173" t="s">
+      <c r="D69" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="173"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
       <c r="I69" s="1">
         <v>890</v>
       </c>
@@ -3234,13 +3243,13 @@
       <c r="C70" s="14">
         <v>29.2</v>
       </c>
-      <c r="D70" s="173" t="s">
+      <c r="D70" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="175"/>
       <c r="I70" s="1">
         <v>890</v>
       </c>
@@ -3256,13 +3265,13 @@
       <c r="C71" s="14">
         <v>30.2</v>
       </c>
-      <c r="D71" s="173" t="s">
+      <c r="D71" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="173"/>
-      <c r="F71" s="173"/>
-      <c r="G71" s="173"/>
-      <c r="H71" s="173"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
       <c r="I71" s="1">
         <v>750</v>
       </c>
@@ -3275,13 +3284,13 @@
       <c r="C72" s="22">
         <v>30.2</v>
       </c>
-      <c r="D72" s="173" t="s">
+      <c r="D72" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
       <c r="J72" s="1">
         <v>10000</v>
       </c>
@@ -3297,13 +3306,13 @@
       <c r="C73" s="5">
         <v>1.3</v>
       </c>
-      <c r="D73" s="173" t="s">
+      <c r="D73" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="173"/>
-      <c r="F73" s="173"/>
-      <c r="G73" s="173"/>
-      <c r="H73" s="173"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="175"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="175"/>
       <c r="I73" s="1">
         <v>770</v>
       </c>
@@ -3319,13 +3328,13 @@
       <c r="C74" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D74" s="173" t="s">
+      <c r="D74" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
       <c r="I74" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -3342,13 +3351,13 @@
       <c r="C75" s="19">
         <v>3.3</v>
       </c>
-      <c r="D75" s="173" t="s">
+      <c r="D75" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="173"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="173"/>
-      <c r="H75" s="173"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
       <c r="I75" s="1">
         <v>680</v>
       </c>
@@ -3364,13 +3373,13 @@
       <c r="C76" s="19">
         <v>4.3</v>
       </c>
-      <c r="D76" s="173" t="s">
+      <c r="D76" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="173"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
       <c r="I76" s="1">
         <v>1140</v>
       </c>
@@ -3383,13 +3392,13 @@
       <c r="C77" s="24">
         <v>4.3</v>
       </c>
-      <c r="D77" s="173" t="s">
+      <c r="D77" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="173"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="175"/>
       <c r="J77" s="1">
         <v>50000</v>
       </c>
@@ -3402,13 +3411,13 @@
       <c r="C78" s="24">
         <v>4.3</v>
       </c>
-      <c r="D78" s="173" t="s">
+      <c r="D78" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="173"/>
-      <c r="F78" s="173"/>
-      <c r="G78" s="173"/>
-      <c r="H78" s="173"/>
+      <c r="E78" s="175"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
       <c r="I78" s="1">
         <v>41300</v>
       </c>
@@ -3427,13 +3436,13 @@
       <c r="C79" s="19">
         <v>5.3</v>
       </c>
-      <c r="D79" s="173" t="s">
+      <c r="D79" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="173"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
       <c r="I79" s="1">
         <v>140</v>
       </c>
@@ -3449,13 +3458,13 @@
       <c r="C80" s="19">
         <v>6.3</v>
       </c>
-      <c r="D80" s="173" t="s">
+      <c r="D80" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="173"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="173"/>
-      <c r="H80" s="173"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175"/>
       <c r="I80" s="1">
         <v>1680</v>
       </c>
@@ -3471,13 +3480,13 @@
       <c r="C81" s="19">
         <v>7.3</v>
       </c>
-      <c r="D81" s="173" t="s">
+      <c r="D81" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="173"/>
-      <c r="F81" s="173"/>
-      <c r="G81" s="173"/>
-      <c r="H81" s="173"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175"/>
       <c r="I81" s="1">
         <v>3910</v>
       </c>
@@ -3493,13 +3502,13 @@
       <c r="C82" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D82" s="173" t="s">
+      <c r="D82" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="173"/>
-      <c r="F82" s="173"/>
-      <c r="G82" s="173"/>
-      <c r="H82" s="173"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="175"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="175"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -3515,13 +3524,13 @@
       <c r="C83" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D83" s="173" t="s">
+      <c r="D83" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
-      <c r="G83" s="173"/>
-      <c r="H83" s="173"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175"/>
       <c r="I83" s="1">
         <v>680</v>
       </c>
@@ -3537,13 +3546,13 @@
       <c r="C84" s="19">
         <v>10.3</v>
       </c>
-      <c r="D84" s="173" t="s">
+      <c r="D84" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175"/>
       <c r="I84" s="1">
         <v>910</v>
       </c>
@@ -3559,13 +3568,13 @@
       <c r="C85" s="19">
         <v>11.3</v>
       </c>
-      <c r="D85" s="173" t="s">
+      <c r="D85" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="173"/>
-      <c r="F85" s="173"/>
-      <c r="G85" s="173"/>
-      <c r="H85" s="173"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="175"/>
       <c r="I85" s="1">
         <v>5150</v>
       </c>
@@ -3581,13 +3590,13 @@
       <c r="C86" s="19">
         <v>12.3</v>
       </c>
-      <c r="D86" s="173" t="s">
+      <c r="D86" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
       <c r="I86" s="1">
         <v>910</v>
       </c>
@@ -3603,13 +3612,13 @@
       <c r="C87" s="19">
         <v>13.3</v>
       </c>
-      <c r="D87" s="173" t="s">
+      <c r="D87" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-      <c r="G87" s="173"/>
-      <c r="H87" s="173"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
+      <c r="G87" s="175"/>
+      <c r="H87" s="175"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -3625,13 +3634,13 @@
       <c r="C88" s="19">
         <v>14.3</v>
       </c>
-      <c r="D88" s="173" t="s">
+      <c r="D88" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
-      <c r="G88" s="173"/>
-      <c r="H88" s="173"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
       <c r="I88" s="1">
         <v>680</v>
       </c>
@@ -3647,13 +3656,13 @@
       <c r="C89" s="19">
         <v>15.3</v>
       </c>
-      <c r="D89" s="173" t="s">
+      <c r="D89" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="E89" s="173"/>
-      <c r="F89" s="173"/>
-      <c r="G89" s="173"/>
-      <c r="H89" s="173"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="175"/>
       <c r="I89" s="1">
         <v>5000</v>
       </c>
@@ -3669,13 +3678,13 @@
       <c r="C90" s="19">
         <v>16.3</v>
       </c>
-      <c r="D90" s="173" t="s">
+      <c r="D90" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="173"/>
-      <c r="F90" s="173"/>
-      <c r="G90" s="173"/>
-      <c r="H90" s="173"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
       <c r="I90" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -3692,13 +3701,13 @@
       <c r="C91" s="19">
         <v>17.3</v>
       </c>
-      <c r="D91" s="173" t="s">
+      <c r="D91" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="173"/>
-      <c r="F91" s="173"/>
-      <c r="G91" s="173"/>
-      <c r="H91" s="173"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="175"/>
       <c r="I91" s="1">
         <v>910</v>
       </c>
@@ -3714,13 +3723,13 @@
       <c r="C92" s="19">
         <v>18.3</v>
       </c>
-      <c r="D92" s="173" t="s">
+      <c r="D92" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="173"/>
+      <c r="E92" s="175"/>
+      <c r="F92" s="175"/>
+      <c r="G92" s="175"/>
+      <c r="H92" s="175"/>
       <c r="I92" s="1">
         <v>910</v>
       </c>
@@ -3736,13 +3745,13 @@
       <c r="C93" s="19">
         <v>19.3</v>
       </c>
-      <c r="D93" s="173" t="s">
+      <c r="D93" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
+      <c r="E93" s="175"/>
+      <c r="F93" s="175"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="175"/>
       <c r="I93" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -3759,13 +3768,13 @@
       <c r="C94" s="19">
         <v>20.3</v>
       </c>
-      <c r="D94" s="173" t="s">
+      <c r="D94" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="173"/>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
-      <c r="H94" s="173"/>
+      <c r="E94" s="175"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
       <c r="I94" s="1">
         <v>5600</v>
       </c>
@@ -3781,13 +3790,13 @@
       <c r="C95" s="19">
         <v>21.3</v>
       </c>
-      <c r="D95" s="173" t="s">
+      <c r="D95" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="173"/>
-      <c r="F95" s="173"/>
-      <c r="G95" s="173"/>
-      <c r="H95" s="173"/>
+      <c r="E95" s="175"/>
+      <c r="F95" s="175"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="175"/>
       <c r="I95" s="1">
         <v>370</v>
       </c>
@@ -3803,13 +3812,13 @@
       <c r="C96" s="19">
         <v>22.3</v>
       </c>
-      <c r="D96" s="173" t="s">
+      <c r="D96" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="173"/>
-      <c r="F96" s="173"/>
-      <c r="G96" s="173"/>
-      <c r="H96" s="173"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="175"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="175"/>
       <c r="I96" s="1">
         <v>370</v>
       </c>
@@ -3822,13 +3831,13 @@
       <c r="C97" s="27">
         <v>22.3</v>
       </c>
-      <c r="D97" s="173" t="s">
+      <c r="D97" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="173"/>
-      <c r="F97" s="173"/>
-      <c r="G97" s="173"/>
-      <c r="H97" s="173"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="175"/>
+      <c r="G97" s="175"/>
+      <c r="H97" s="175"/>
       <c r="J97" s="1">
         <v>13400</v>
       </c>
@@ -3844,13 +3853,13 @@
       <c r="C98" s="19">
         <v>23.3</v>
       </c>
-      <c r="D98" s="173" t="s">
+      <c r="D98" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="173"/>
-      <c r="F98" s="173"/>
-      <c r="G98" s="173"/>
-      <c r="H98" s="173"/>
+      <c r="E98" s="175"/>
+      <c r="F98" s="175"/>
+      <c r="G98" s="175"/>
+      <c r="H98" s="175"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3866,13 +3875,13 @@
       <c r="C99" s="19">
         <v>24.3</v>
       </c>
-      <c r="D99" s="173" t="s">
+      <c r="D99" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="173"/>
-      <c r="F99" s="173"/>
-      <c r="G99" s="173"/>
-      <c r="H99" s="173"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
       <c r="I99" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3889,13 +3898,13 @@
       <c r="C100" s="19">
         <v>25.3</v>
       </c>
-      <c r="D100" s="173" t="s">
+      <c r="D100" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="173"/>
-      <c r="F100" s="173"/>
-      <c r="G100" s="173"/>
-      <c r="H100" s="173"/>
+      <c r="E100" s="175"/>
+      <c r="F100" s="175"/>
+      <c r="G100" s="175"/>
+      <c r="H100" s="175"/>
       <c r="I100" s="1">
         <v>890</v>
       </c>
@@ -3911,13 +3920,13 @@
       <c r="C101" s="19">
         <v>26.3</v>
       </c>
-      <c r="D101" s="173" t="s">
+      <c r="D101" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="173"/>
-      <c r="F101" s="173"/>
-      <c r="G101" s="173"/>
-      <c r="H101" s="173"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="175"/>
       <c r="I101" s="1">
         <v>890</v>
       </c>
@@ -3933,13 +3942,13 @@
       <c r="C102" s="19">
         <v>27.3</v>
       </c>
-      <c r="D102" s="173" t="s">
+      <c r="D102" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E102" s="173"/>
-      <c r="F102" s="173"/>
-      <c r="G102" s="173"/>
-      <c r="H102" s="173"/>
+      <c r="E102" s="175"/>
+      <c r="F102" s="175"/>
+      <c r="G102" s="175"/>
+      <c r="H102" s="175"/>
       <c r="I102" s="1">
         <v>890</v>
       </c>
@@ -3955,13 +3964,13 @@
       <c r="C103" s="19">
         <v>28.3</v>
       </c>
-      <c r="D103" s="173" t="s">
+      <c r="D103" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="173"/>
-      <c r="F103" s="173"/>
-      <c r="G103" s="173"/>
-      <c r="H103" s="173"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="175"/>
+      <c r="H103" s="175"/>
       <c r="I103" s="1">
         <v>140</v>
       </c>
@@ -3977,13 +3986,13 @@
       <c r="C104" s="19">
         <v>29.3</v>
       </c>
-      <c r="D104" s="173" t="s">
+      <c r="D104" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="173"/>
-      <c r="F104" s="173"/>
-      <c r="G104" s="173"/>
-      <c r="H104" s="173"/>
+      <c r="E104" s="175"/>
+      <c r="F104" s="175"/>
+      <c r="G104" s="175"/>
+      <c r="H104" s="175"/>
       <c r="I104" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -4000,13 +4009,13 @@
       <c r="C105" s="5">
         <v>1.4</v>
       </c>
-      <c r="D105" s="173" t="s">
+      <c r="D105" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E105" s="173"/>
-      <c r="F105" s="173"/>
-      <c r="G105" s="173"/>
-      <c r="H105" s="173"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="175"/>
+      <c r="G105" s="175"/>
+      <c r="H105" s="175"/>
       <c r="I105" s="1">
         <v>230</v>
       </c>
@@ -4022,13 +4031,13 @@
       <c r="C106" s="5">
         <v>2.4</v>
       </c>
-      <c r="D106" s="173" t="s">
+      <c r="D106" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="173"/>
-      <c r="F106" s="173"/>
-      <c r="G106" s="173"/>
-      <c r="H106" s="173"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="175"/>
+      <c r="G106" s="175"/>
+      <c r="H106" s="175"/>
       <c r="I106" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -4045,13 +4054,13 @@
       <c r="C107" s="29">
         <v>3.4</v>
       </c>
-      <c r="D107" s="173" t="s">
+      <c r="D107" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="173"/>
-      <c r="F107" s="173"/>
-      <c r="G107" s="173"/>
-      <c r="H107" s="173"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="175"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="175"/>
       <c r="I107" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -4068,13 +4077,13 @@
       <c r="C108" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D108" s="173" t="s">
+      <c r="D108" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="173"/>
-      <c r="F108" s="173"/>
-      <c r="G108" s="173"/>
-      <c r="H108" s="173"/>
+      <c r="E108" s="175"/>
+      <c r="F108" s="175"/>
+      <c r="G108" s="175"/>
+      <c r="H108" s="175"/>
       <c r="I108" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -4091,13 +4100,13 @@
       <c r="C109" s="29">
         <v>5.4</v>
       </c>
-      <c r="D109" s="173" t="s">
+      <c r="D109" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="173"/>
-      <c r="F109" s="173"/>
-      <c r="G109" s="173"/>
-      <c r="H109" s="173"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="175"/>
+      <c r="G109" s="175"/>
+      <c r="H109" s="175"/>
       <c r="I109" s="1">
         <v>140</v>
       </c>
@@ -4113,11 +4122,11 @@
       <c r="C110" s="29">
         <v>6.4</v>
       </c>
-      <c r="D110" s="173"/>
-      <c r="E110" s="173"/>
-      <c r="F110" s="173"/>
-      <c r="G110" s="173"/>
-      <c r="H110" s="173"/>
+      <c r="D110" s="175"/>
+      <c r="E110" s="175"/>
+      <c r="F110" s="175"/>
+      <c r="G110" s="175"/>
+      <c r="H110" s="175"/>
       <c r="I110" s="1">
         <v>0</v>
       </c>
@@ -4133,13 +4142,13 @@
       <c r="C111" s="29">
         <v>7.4</v>
       </c>
-      <c r="D111" s="173" t="s">
+      <c r="D111" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="173"/>
-      <c r="F111" s="173"/>
-      <c r="G111" s="173"/>
-      <c r="H111" s="173"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="175"/>
+      <c r="G111" s="175"/>
+      <c r="H111" s="175"/>
       <c r="I111" s="1">
         <v>280</v>
       </c>
@@ -4155,11 +4164,11 @@
       <c r="C112" s="29">
         <v>8.4</v>
       </c>
-      <c r="D112" s="173"/>
-      <c r="E112" s="173"/>
-      <c r="F112" s="173"/>
-      <c r="G112" s="173"/>
-      <c r="H112" s="173"/>
+      <c r="D112" s="175"/>
+      <c r="E112" s="175"/>
+      <c r="F112" s="175"/>
+      <c r="G112" s="175"/>
+      <c r="H112" s="175"/>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
@@ -4172,13 +4181,13 @@
       <c r="C113" s="29">
         <v>9.4</v>
       </c>
-      <c r="D113" s="173" t="s">
+      <c r="D113" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="173"/>
-      <c r="F113" s="173"/>
-      <c r="G113" s="173"/>
-      <c r="H113" s="173"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="175"/>
+      <c r="G113" s="175"/>
+      <c r="H113" s="175"/>
       <c r="J113" s="1">
         <v>7400</v>
       </c>
@@ -4187,13 +4196,13 @@
       <c r="A114" s="71"/>
       <c r="B114" s="72"/>
       <c r="C114" s="72"/>
-      <c r="D114" s="173" t="s">
+      <c r="D114" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E114" s="173"/>
-      <c r="F114" s="173"/>
-      <c r="G114" s="173"/>
-      <c r="H114" s="173"/>
+      <c r="E114" s="175"/>
+      <c r="F114" s="175"/>
+      <c r="G114" s="175"/>
+      <c r="H114" s="175"/>
       <c r="J114" s="1">
         <v>50000</v>
       </c>
@@ -4205,13 +4214,13 @@
       <c r="A115" s="73"/>
       <c r="B115" s="74"/>
       <c r="C115" s="74"/>
-      <c r="D115" s="173" t="s">
+      <c r="D115" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="173"/>
-      <c r="F115" s="173"/>
-      <c r="G115" s="173"/>
-      <c r="H115" s="173"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="175"/>
+      <c r="G115" s="175"/>
+      <c r="H115" s="175"/>
       <c r="I115" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -4228,13 +4237,13 @@
       <c r="C116" s="29">
         <v>10.4</v>
       </c>
-      <c r="D116" s="173" t="s">
+      <c r="D116" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="173"/>
-      <c r="F116" s="173"/>
-      <c r="G116" s="173"/>
-      <c r="H116" s="173"/>
+      <c r="E116" s="175"/>
+      <c r="F116" s="175"/>
+      <c r="G116" s="175"/>
+      <c r="H116" s="175"/>
       <c r="I116" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -4251,13 +4260,13 @@
       <c r="C117" s="29">
         <v>11.4</v>
       </c>
-      <c r="D117" s="173" t="s">
+      <c r="D117" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="173"/>
-      <c r="F117" s="173"/>
-      <c r="G117" s="173"/>
-      <c r="H117" s="173"/>
+      <c r="E117" s="175"/>
+      <c r="F117" s="175"/>
+      <c r="G117" s="175"/>
+      <c r="H117" s="175"/>
       <c r="I117" s="1">
         <v>5050</v>
       </c>
@@ -4269,13 +4278,13 @@
       <c r="A118" s="76"/>
       <c r="B118" s="77"/>
       <c r="C118" s="77"/>
-      <c r="D118" s="173" t="s">
+      <c r="D118" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="173"/>
-      <c r="F118" s="173"/>
-      <c r="G118" s="173"/>
-      <c r="H118" s="173"/>
+      <c r="E118" s="175"/>
+      <c r="F118" s="175"/>
+      <c r="G118" s="175"/>
+      <c r="H118" s="175"/>
       <c r="J118" s="1">
         <v>10000</v>
       </c>
@@ -4284,13 +4293,13 @@
       <c r="A119" s="76"/>
       <c r="B119" s="77"/>
       <c r="C119" s="77"/>
-      <c r="D119" s="173" t="s">
+      <c r="D119" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="173"/>
-      <c r="F119" s="173"/>
-      <c r="G119" s="173"/>
-      <c r="H119" s="173"/>
+      <c r="E119" s="175"/>
+      <c r="F119" s="175"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="175"/>
       <c r="I119" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4307,13 +4316,13 @@
       <c r="C120" s="29">
         <v>12.4</v>
       </c>
-      <c r="D120" s="173" t="s">
+      <c r="D120" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="173"/>
-      <c r="F120" s="173"/>
-      <c r="G120" s="173"/>
-      <c r="H120" s="173"/>
+      <c r="E120" s="175"/>
+      <c r="F120" s="175"/>
+      <c r="G120" s="175"/>
+      <c r="H120" s="175"/>
       <c r="I120" s="1">
         <f t="shared" ref="I120:I122" si="3">220+140</f>
         <v>360</v>
@@ -4330,13 +4339,13 @@
       <c r="C121" s="29">
         <v>13.4</v>
       </c>
-      <c r="D121" s="173" t="s">
+      <c r="D121" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E121" s="173"/>
-      <c r="F121" s="173"/>
-      <c r="G121" s="173"/>
-      <c r="H121" s="173"/>
+      <c r="E121" s="175"/>
+      <c r="F121" s="175"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="175"/>
       <c r="I121" s="1">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -4353,13 +4362,13 @@
       <c r="C122" s="29">
         <v>14.4</v>
       </c>
-      <c r="D122" s="173" t="s">
+      <c r="D122" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="173"/>
-      <c r="F122" s="173"/>
-      <c r="G122" s="173"/>
-      <c r="H122" s="173"/>
+      <c r="E122" s="175"/>
+      <c r="F122" s="175"/>
+      <c r="G122" s="175"/>
+      <c r="H122" s="175"/>
       <c r="I122" s="1">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -4376,13 +4385,13 @@
       <c r="C123" s="29">
         <v>15.4</v>
       </c>
-      <c r="D123" s="173" t="s">
+      <c r="D123" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="173"/>
-      <c r="F123" s="173"/>
-      <c r="G123" s="173"/>
-      <c r="H123" s="173"/>
+      <c r="E123" s="175"/>
+      <c r="F123" s="175"/>
+      <c r="G123" s="175"/>
+      <c r="H123" s="175"/>
       <c r="I123" s="1">
         <v>220</v>
       </c>
@@ -4398,13 +4407,13 @@
       <c r="C124" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D124" s="173" t="s">
+      <c r="D124" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E124" s="173"/>
-      <c r="F124" s="173"/>
-      <c r="G124" s="173"/>
-      <c r="H124" s="173"/>
+      <c r="E124" s="175"/>
+      <c r="F124" s="175"/>
+      <c r="G124" s="175"/>
+      <c r="H124" s="175"/>
       <c r="I124" s="1">
         <v>220</v>
       </c>
@@ -4420,13 +4429,13 @@
       <c r="C125" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D125" s="173" t="s">
+      <c r="D125" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="173"/>
-      <c r="F125" s="173"/>
-      <c r="G125" s="173"/>
-      <c r="H125" s="173"/>
+      <c r="E125" s="175"/>
+      <c r="F125" s="175"/>
+      <c r="G125" s="175"/>
+      <c r="H125" s="175"/>
       <c r="I125" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -4443,13 +4452,13 @@
       <c r="C126" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D126" s="173" t="s">
+      <c r="D126" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="173"/>
-      <c r="F126" s="173"/>
-      <c r="G126" s="173"/>
-      <c r="H126" s="173"/>
+      <c r="E126" s="175"/>
+      <c r="F126" s="175"/>
+      <c r="G126" s="175"/>
+      <c r="H126" s="175"/>
       <c r="I126" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -4466,13 +4475,13 @@
       <c r="C127" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D127" s="173" t="s">
+      <c r="D127" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="173"/>
-      <c r="F127" s="173"/>
-      <c r="G127" s="173"/>
-      <c r="H127" s="173"/>
+      <c r="E127" s="175"/>
+      <c r="F127" s="175"/>
+      <c r="G127" s="175"/>
+      <c r="H127" s="175"/>
       <c r="I127" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -4489,11 +4498,11 @@
       <c r="C128" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D128" s="173"/>
-      <c r="E128" s="173"/>
-      <c r="F128" s="173"/>
-      <c r="G128" s="173"/>
-      <c r="H128" s="173"/>
+      <c r="D128" s="175"/>
+      <c r="E128" s="175"/>
+      <c r="F128" s="175"/>
+      <c r="G128" s="175"/>
+      <c r="H128" s="175"/>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
@@ -4506,13 +4515,13 @@
       <c r="C129" s="29">
         <v>21.4</v>
       </c>
-      <c r="D129" s="173" t="s">
+      <c r="D129" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="173"/>
-      <c r="F129" s="173"/>
-      <c r="G129" s="173"/>
-      <c r="H129" s="173"/>
+      <c r="E129" s="175"/>
+      <c r="F129" s="175"/>
+      <c r="G129" s="175"/>
+      <c r="H129" s="175"/>
       <c r="I129" s="1">
         <v>150</v>
       </c>
@@ -4528,13 +4537,13 @@
       <c r="C130" s="29">
         <v>22.4</v>
       </c>
-      <c r="D130" s="173" t="s">
+      <c r="D130" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="173"/>
-      <c r="F130" s="173"/>
-      <c r="G130" s="173"/>
-      <c r="H130" s="173"/>
+      <c r="E130" s="175"/>
+      <c r="F130" s="175"/>
+      <c r="G130" s="175"/>
+      <c r="H130" s="175"/>
       <c r="I130" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -4551,13 +4560,13 @@
       <c r="C131" s="29">
         <v>23.4</v>
       </c>
-      <c r="D131" s="173" t="s">
+      <c r="D131" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E131" s="173"/>
-      <c r="F131" s="173"/>
-      <c r="G131" s="173"/>
-      <c r="H131" s="173"/>
+      <c r="E131" s="175"/>
+      <c r="F131" s="175"/>
+      <c r="G131" s="175"/>
+      <c r="H131" s="175"/>
       <c r="I131" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -4574,13 +4583,13 @@
       <c r="C132" s="29">
         <v>24.4</v>
       </c>
-      <c r="D132" s="173" t="s">
+      <c r="D132" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E132" s="173"/>
-      <c r="F132" s="173"/>
-      <c r="G132" s="173"/>
-      <c r="H132" s="173"/>
+      <c r="E132" s="175"/>
+      <c r="F132" s="175"/>
+      <c r="G132" s="175"/>
+      <c r="H132" s="175"/>
       <c r="I132" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4597,13 +4606,13 @@
       <c r="C133" s="29">
         <v>25.4</v>
       </c>
-      <c r="D133" s="173" t="s">
+      <c r="D133" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="173"/>
-      <c r="F133" s="173"/>
-      <c r="G133" s="173"/>
-      <c r="H133" s="173"/>
+      <c r="E133" s="175"/>
+      <c r="F133" s="175"/>
+      <c r="G133" s="175"/>
+      <c r="H133" s="175"/>
       <c r="I133" s="1">
         <f>220</f>
         <v>220</v>
@@ -4620,13 +4629,13 @@
       <c r="C134" s="29">
         <v>26.4</v>
       </c>
-      <c r="D134" s="173" t="s">
+      <c r="D134" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E134" s="173"/>
-      <c r="F134" s="173"/>
-      <c r="G134" s="173"/>
-      <c r="H134" s="173"/>
+      <c r="E134" s="175"/>
+      <c r="F134" s="175"/>
+      <c r="G134" s="175"/>
+      <c r="H134" s="175"/>
       <c r="I134" s="1">
         <f>220+150</f>
         <v>370</v>
@@ -4636,13 +4645,13 @@
       <c r="A135" s="82"/>
       <c r="B135" s="83"/>
       <c r="C135" s="83"/>
-      <c r="D135" s="173" t="s">
+      <c r="D135" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E135" s="173"/>
-      <c r="F135" s="173"/>
-      <c r="G135" s="173"/>
-      <c r="H135" s="173"/>
+      <c r="E135" s="175"/>
+      <c r="F135" s="175"/>
+      <c r="G135" s="175"/>
+      <c r="H135" s="175"/>
       <c r="I135" s="1">
         <v>30000</v>
       </c>
@@ -4654,13 +4663,13 @@
       <c r="A136" s="82"/>
       <c r="B136" s="83"/>
       <c r="C136" s="83"/>
-      <c r="D136" s="173" t="s">
+      <c r="D136" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E136" s="173"/>
-      <c r="F136" s="173"/>
-      <c r="G136" s="173"/>
-      <c r="H136" s="173"/>
+      <c r="E136" s="175"/>
+      <c r="F136" s="175"/>
+      <c r="G136" s="175"/>
+      <c r="H136" s="175"/>
       <c r="J136" s="1">
         <v>30000</v>
       </c>
@@ -4676,13 +4685,13 @@
       <c r="C137" s="29">
         <v>27.4</v>
       </c>
-      <c r="D137" s="173" t="s">
+      <c r="D137" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E137" s="173"/>
-      <c r="F137" s="173"/>
-      <c r="G137" s="173"/>
-      <c r="H137" s="173"/>
+      <c r="E137" s="175"/>
+      <c r="F137" s="175"/>
+      <c r="G137" s="175"/>
+      <c r="H137" s="175"/>
       <c r="I137" s="1">
         <f>220+170</f>
         <v>390</v>
@@ -4699,13 +4708,13 @@
       <c r="C138" s="29">
         <v>28.4</v>
       </c>
-      <c r="D138" s="173" t="s">
+      <c r="D138" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="173"/>
-      <c r="F138" s="173"/>
-      <c r="G138" s="173"/>
-      <c r="H138" s="173"/>
+      <c r="E138" s="175"/>
+      <c r="F138" s="175"/>
+      <c r="G138" s="175"/>
+      <c r="H138" s="175"/>
       <c r="I138" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4722,13 +4731,13 @@
       <c r="C139" s="29">
         <v>29.4</v>
       </c>
-      <c r="D139" s="173" t="s">
+      <c r="D139" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E139" s="173"/>
-      <c r="F139" s="173"/>
-      <c r="G139" s="173"/>
-      <c r="H139" s="173"/>
+      <c r="E139" s="175"/>
+      <c r="F139" s="175"/>
+      <c r="G139" s="175"/>
+      <c r="H139" s="175"/>
       <c r="I139" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4745,13 +4754,13 @@
       <c r="C140" s="29">
         <v>30.4</v>
       </c>
-      <c r="D140" s="173" t="s">
+      <c r="D140" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="173"/>
-      <c r="F140" s="173"/>
-      <c r="G140" s="173"/>
-      <c r="H140" s="173"/>
+      <c r="E140" s="175"/>
+      <c r="F140" s="175"/>
+      <c r="G140" s="175"/>
+      <c r="H140" s="175"/>
       <c r="I140" s="1">
         <f>220+240</f>
         <v>460</v>
@@ -4768,13 +4777,13 @@
       <c r="C141" s="5">
         <v>1.5</v>
       </c>
-      <c r="D141" s="173" t="s">
+      <c r="D141" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E141" s="173"/>
-      <c r="F141" s="173"/>
-      <c r="G141" s="173"/>
-      <c r="H141" s="173"/>
+      <c r="E141" s="175"/>
+      <c r="F141" s="175"/>
+      <c r="G141" s="175"/>
+      <c r="H141" s="175"/>
       <c r="I141" s="1">
         <v>220</v>
       </c>
@@ -4790,13 +4799,13 @@
       <c r="C142" s="5">
         <v>2.5</v>
       </c>
-      <c r="D142" s="173" t="s">
+      <c r="D142" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E142" s="173"/>
-      <c r="F142" s="173"/>
-      <c r="G142" s="173"/>
-      <c r="H142" s="173"/>
+      <c r="E142" s="175"/>
+      <c r="F142" s="175"/>
+      <c r="G142" s="175"/>
+      <c r="H142" s="175"/>
       <c r="I142" s="1">
         <v>220</v>
       </c>
@@ -4812,13 +4821,13 @@
       <c r="C143" s="86">
         <v>3.5</v>
       </c>
-      <c r="D143" s="173" t="s">
+      <c r="D143" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="173"/>
-      <c r="F143" s="173"/>
-      <c r="G143" s="173"/>
-      <c r="H143" s="173"/>
+      <c r="E143" s="175"/>
+      <c r="F143" s="175"/>
+      <c r="G143" s="175"/>
+      <c r="H143" s="175"/>
       <c r="I143" s="1">
         <f>220+220</f>
         <v>440</v>
@@ -4835,13 +4844,13 @@
       <c r="C144" s="86">
         <v>4.5</v>
       </c>
-      <c r="D144" s="173" t="s">
+      <c r="D144" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="173"/>
-      <c r="F144" s="173"/>
-      <c r="G144" s="173"/>
-      <c r="H144" s="173"/>
+      <c r="E144" s="175"/>
+      <c r="F144" s="175"/>
+      <c r="G144" s="175"/>
+      <c r="H144" s="175"/>
       <c r="I144" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4858,13 +4867,13 @@
       <c r="C145" s="86">
         <v>5.5</v>
       </c>
-      <c r="D145" s="173" t="s">
+      <c r="D145" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="173"/>
-      <c r="F145" s="173"/>
-      <c r="G145" s="173"/>
-      <c r="H145" s="173"/>
+      <c r="E145" s="175"/>
+      <c r="F145" s="175"/>
+      <c r="G145" s="175"/>
+      <c r="H145" s="175"/>
       <c r="I145" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4881,11 +4890,11 @@
       <c r="C146" s="86">
         <v>6.5</v>
       </c>
-      <c r="D146" s="173"/>
-      <c r="E146" s="173"/>
-      <c r="F146" s="173"/>
-      <c r="G146" s="173"/>
-      <c r="H146" s="173"/>
+      <c r="D146" s="175"/>
+      <c r="E146" s="175"/>
+      <c r="F146" s="175"/>
+      <c r="G146" s="175"/>
+      <c r="H146" s="175"/>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="85">
@@ -4898,13 +4907,13 @@
       <c r="C147" s="86">
         <v>7.5</v>
       </c>
-      <c r="D147" s="173" t="s">
+      <c r="D147" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="173"/>
-      <c r="F147" s="173"/>
-      <c r="G147" s="173"/>
-      <c r="H147" s="173"/>
+      <c r="E147" s="175"/>
+      <c r="F147" s="175"/>
+      <c r="G147" s="175"/>
+      <c r="H147" s="175"/>
       <c r="I147" s="1">
         <f>140+140</f>
         <v>280</v>
@@ -4921,13 +4930,13 @@
       <c r="C148" s="86">
         <v>8.5</v>
       </c>
-      <c r="D148" s="173" t="s">
+      <c r="D148" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E148" s="173"/>
-      <c r="F148" s="173"/>
-      <c r="G148" s="173"/>
-      <c r="H148" s="173"/>
+      <c r="E148" s="175"/>
+      <c r="F148" s="175"/>
+      <c r="G148" s="175"/>
+      <c r="H148" s="175"/>
       <c r="I148" s="1">
         <f>140</f>
         <v>140</v>
@@ -4944,13 +4953,13 @@
       <c r="C149" s="86">
         <v>9.5</v>
       </c>
-      <c r="D149" s="173" t="s">
+      <c r="D149" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="173"/>
-      <c r="F149" s="173"/>
-      <c r="G149" s="173"/>
-      <c r="H149" s="173"/>
+      <c r="E149" s="175"/>
+      <c r="F149" s="175"/>
+      <c r="G149" s="175"/>
+      <c r="H149" s="175"/>
       <c r="I149" s="1">
         <f>220*4+140+100</f>
         <v>1120</v>
@@ -4967,13 +4976,13 @@
       <c r="C150" s="86">
         <v>10.5</v>
       </c>
-      <c r="D150" s="173" t="s">
+      <c r="D150" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="173"/>
-      <c r="F150" s="173"/>
-      <c r="G150" s="173"/>
-      <c r="H150" s="173"/>
+      <c r="E150" s="175"/>
+      <c r="F150" s="175"/>
+      <c r="G150" s="175"/>
+      <c r="H150" s="175"/>
       <c r="I150" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4990,13 +4999,13 @@
       <c r="C151" s="86">
         <v>11.5</v>
       </c>
-      <c r="D151" s="173" t="s">
+      <c r="D151" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E151" s="173"/>
-      <c r="F151" s="173"/>
-      <c r="G151" s="173"/>
-      <c r="H151" s="173"/>
+      <c r="E151" s="175"/>
+      <c r="F151" s="175"/>
+      <c r="G151" s="175"/>
+      <c r="H151" s="175"/>
       <c r="I151" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5013,13 +5022,13 @@
       <c r="C152" s="86">
         <v>12.5</v>
       </c>
-      <c r="D152" s="173" t="s">
+      <c r="D152" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E152" s="173"/>
-      <c r="F152" s="173"/>
-      <c r="G152" s="173"/>
-      <c r="H152" s="173"/>
+      <c r="E152" s="175"/>
+      <c r="F152" s="175"/>
+      <c r="G152" s="175"/>
+      <c r="H152" s="175"/>
       <c r="I152" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5029,13 +5038,13 @@
       <c r="A153" s="91"/>
       <c r="B153" s="92"/>
       <c r="C153" s="92"/>
-      <c r="D153" s="173" t="s">
+      <c r="D153" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E153" s="173"/>
-      <c r="F153" s="173"/>
-      <c r="G153" s="173"/>
-      <c r="H153" s="173"/>
+      <c r="E153" s="175"/>
+      <c r="F153" s="175"/>
+      <c r="G153" s="175"/>
+      <c r="H153" s="175"/>
       <c r="J153" s="1">
         <f>980+200</f>
         <v>1180</v>
@@ -5055,13 +5064,13 @@
       <c r="C154" s="86">
         <v>13.5</v>
       </c>
-      <c r="D154" s="173" t="s">
+      <c r="D154" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E154" s="173"/>
-      <c r="F154" s="173"/>
-      <c r="G154" s="173"/>
-      <c r="H154" s="173"/>
+      <c r="E154" s="175"/>
+      <c r="F154" s="175"/>
+      <c r="G154" s="175"/>
+      <c r="H154" s="175"/>
       <c r="I154" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5071,13 +5080,13 @@
       <c r="A155" s="93"/>
       <c r="B155" s="94"/>
       <c r="C155" s="94"/>
-      <c r="D155" s="173" t="s">
+      <c r="D155" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="173"/>
-      <c r="F155" s="173"/>
-      <c r="G155" s="173"/>
-      <c r="H155" s="173"/>
+      <c r="E155" s="175"/>
+      <c r="F155" s="175"/>
+      <c r="G155" s="175"/>
+      <c r="H155" s="175"/>
       <c r="I155" s="1">
         <v>20000</v>
       </c>
@@ -5089,13 +5098,13 @@
       <c r="A156" s="93"/>
       <c r="B156" s="94"/>
       <c r="C156" s="94"/>
-      <c r="D156" s="173" t="s">
+      <c r="D156" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="173"/>
-      <c r="F156" s="173"/>
-      <c r="G156" s="173"/>
-      <c r="H156" s="173"/>
+      <c r="E156" s="175"/>
+      <c r="F156" s="175"/>
+      <c r="G156" s="175"/>
+      <c r="H156" s="175"/>
       <c r="J156" s="1">
         <f>30000</f>
         <v>30000</v>
@@ -5112,13 +5121,13 @@
       <c r="C157" s="86">
         <v>14.5</v>
       </c>
-      <c r="D157" s="173" t="s">
+      <c r="D157" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E157" s="173"/>
-      <c r="F157" s="173"/>
-      <c r="G157" s="173"/>
-      <c r="H157" s="173"/>
+      <c r="E157" s="175"/>
+      <c r="F157" s="175"/>
+      <c r="G157" s="175"/>
+      <c r="H157" s="175"/>
       <c r="I157" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5135,13 +5144,13 @@
       <c r="C158" s="86">
         <v>15.5</v>
       </c>
-      <c r="D158" s="173" t="s">
+      <c r="D158" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E158" s="173"/>
-      <c r="F158" s="173"/>
-      <c r="G158" s="173"/>
-      <c r="H158" s="173"/>
+      <c r="E158" s="175"/>
+      <c r="F158" s="175"/>
+      <c r="G158" s="175"/>
+      <c r="H158" s="175"/>
       <c r="I158" s="1">
         <f>220</f>
         <v>220</v>
@@ -5158,13 +5167,13 @@
       <c r="C159" s="86">
         <v>16.5</v>
       </c>
-      <c r="D159" s="173" t="s">
+      <c r="D159" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E159" s="173"/>
-      <c r="F159" s="173"/>
-      <c r="G159" s="173"/>
-      <c r="H159" s="173"/>
+      <c r="E159" s="175"/>
+      <c r="F159" s="175"/>
+      <c r="G159" s="175"/>
+      <c r="H159" s="175"/>
       <c r="I159" s="1">
         <f>220+380</f>
         <v>600</v>
@@ -5181,13 +5190,13 @@
       <c r="C160" s="86">
         <v>17.5</v>
       </c>
-      <c r="D160" s="173" t="s">
+      <c r="D160" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="173"/>
-      <c r="F160" s="173"/>
-      <c r="G160" s="173"/>
-      <c r="H160" s="173"/>
+      <c r="E160" s="175"/>
+      <c r="F160" s="175"/>
+      <c r="G160" s="175"/>
+      <c r="H160" s="175"/>
       <c r="I160" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5204,13 +5213,13 @@
       <c r="C161" s="86">
         <v>18.5</v>
       </c>
-      <c r="D161" s="173" t="s">
+      <c r="D161" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="173"/>
-      <c r="F161" s="173"/>
-      <c r="G161" s="173"/>
-      <c r="H161" s="173"/>
+      <c r="E161" s="175"/>
+      <c r="F161" s="175"/>
+      <c r="G161" s="175"/>
+      <c r="H161" s="175"/>
       <c r="I161" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -5227,13 +5236,13 @@
       <c r="C162" s="86">
         <v>19.5</v>
       </c>
-      <c r="D162" s="173" t="s">
+      <c r="D162" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="173"/>
-      <c r="F162" s="173"/>
-      <c r="G162" s="173"/>
-      <c r="H162" s="173"/>
+      <c r="E162" s="175"/>
+      <c r="F162" s="175"/>
+      <c r="G162" s="175"/>
+      <c r="H162" s="175"/>
       <c r="J162" s="1">
         <v>2700</v>
       </c>
@@ -5242,13 +5251,13 @@
       <c r="A163" s="97"/>
       <c r="B163" s="98"/>
       <c r="C163" s="98"/>
-      <c r="D163" s="173" t="s">
+      <c r="D163" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="E163" s="173"/>
-      <c r="F163" s="173"/>
-      <c r="G163" s="173"/>
-      <c r="H163" s="173"/>
+      <c r="E163" s="175"/>
+      <c r="F163" s="175"/>
+      <c r="G163" s="175"/>
+      <c r="H163" s="175"/>
       <c r="I163" s="1">
         <v>600</v>
       </c>
@@ -5257,13 +5266,13 @@
       <c r="A164" s="97"/>
       <c r="B164" s="98"/>
       <c r="C164" s="98"/>
-      <c r="D164" s="173" t="s">
+      <c r="D164" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E164" s="173"/>
-      <c r="F164" s="173"/>
-      <c r="G164" s="173"/>
-      <c r="H164" s="173"/>
+      <c r="E164" s="175"/>
+      <c r="F164" s="175"/>
+      <c r="G164" s="175"/>
+      <c r="H164" s="175"/>
       <c r="I164" s="1">
         <f>440+140</f>
         <v>580</v>
@@ -5280,13 +5289,13 @@
       <c r="C165" s="86">
         <v>20.5</v>
       </c>
-      <c r="D165" s="173" t="s">
+      <c r="D165" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E165" s="173"/>
-      <c r="F165" s="173"/>
-      <c r="G165" s="173"/>
-      <c r="H165" s="173"/>
+      <c r="E165" s="175"/>
+      <c r="F165" s="175"/>
+      <c r="G165" s="175"/>
+      <c r="H165" s="175"/>
       <c r="I165" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5303,13 +5312,13 @@
       <c r="C166" s="86">
         <v>21.5</v>
       </c>
-      <c r="D166" s="173" t="s">
+      <c r="D166" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="173"/>
-      <c r="F166" s="173"/>
-      <c r="G166" s="173"/>
-      <c r="H166" s="173"/>
+      <c r="E166" s="175"/>
+      <c r="F166" s="175"/>
+      <c r="G166" s="175"/>
+      <c r="H166" s="175"/>
       <c r="I166" s="1">
         <f>140</f>
         <v>140</v>
@@ -5326,13 +5335,13 @@
       <c r="C167" s="86">
         <v>22.5</v>
       </c>
-      <c r="D167" s="173" t="s">
+      <c r="D167" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="173"/>
-      <c r="F167" s="173"/>
-      <c r="G167" s="173"/>
-      <c r="H167" s="173"/>
+      <c r="E167" s="175"/>
+      <c r="F167" s="175"/>
+      <c r="G167" s="175"/>
+      <c r="H167" s="175"/>
       <c r="I167" s="1">
         <f>140</f>
         <v>140</v>
@@ -5342,13 +5351,13 @@
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
-      <c r="D168" s="173" t="s">
+      <c r="D168" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="173"/>
-      <c r="F168" s="173"/>
-      <c r="G168" s="173"/>
-      <c r="H168" s="173"/>
+      <c r="E168" s="175"/>
+      <c r="F168" s="175"/>
+      <c r="G168" s="175"/>
+      <c r="H168" s="175"/>
       <c r="J168" s="1">
         <v>1300</v>
       </c>
@@ -5364,13 +5373,13 @@
       <c r="C169" s="86">
         <v>23.5</v>
       </c>
-      <c r="D169" s="173" t="s">
+      <c r="D169" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="173"/>
-      <c r="F169" s="173"/>
-      <c r="G169" s="173"/>
-      <c r="H169" s="173"/>
+      <c r="E169" s="175"/>
+      <c r="F169" s="175"/>
+      <c r="G169" s="175"/>
+      <c r="H169" s="175"/>
       <c r="I169" s="1">
         <f>140</f>
         <v>140</v>
@@ -5387,13 +5396,13 @@
       <c r="C170" s="86">
         <v>24.5</v>
       </c>
-      <c r="D170" s="173" t="s">
+      <c r="D170" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E170" s="173"/>
-      <c r="F170" s="173"/>
-      <c r="G170" s="173"/>
-      <c r="H170" s="173"/>
+      <c r="E170" s="175"/>
+      <c r="F170" s="175"/>
+      <c r="G170" s="175"/>
+      <c r="H170" s="175"/>
       <c r="I170" s="1">
         <f>140*2</f>
         <v>280</v>
@@ -5410,11 +5419,11 @@
       <c r="C171" s="86">
         <v>25.5</v>
       </c>
-      <c r="D171" s="173"/>
-      <c r="E171" s="173"/>
-      <c r="F171" s="173"/>
-      <c r="G171" s="173"/>
-      <c r="H171" s="173"/>
+      <c r="D171" s="175"/>
+      <c r="E171" s="175"/>
+      <c r="F171" s="175"/>
+      <c r="G171" s="175"/>
+      <c r="H171" s="175"/>
     </row>
     <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="85">
@@ -5427,11 +5436,11 @@
       <c r="C172" s="86">
         <v>26.5</v>
       </c>
-      <c r="D172" s="173"/>
-      <c r="E172" s="173"/>
-      <c r="F172" s="173"/>
-      <c r="G172" s="173"/>
-      <c r="H172" s="173"/>
+      <c r="D172" s="175"/>
+      <c r="E172" s="175"/>
+      <c r="F172" s="175"/>
+      <c r="G172" s="175"/>
+      <c r="H172" s="175"/>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="85">
@@ -5444,11 +5453,11 @@
       <c r="C173" s="86">
         <v>27.5</v>
       </c>
-      <c r="D173" s="173"/>
-      <c r="E173" s="173"/>
-      <c r="F173" s="173"/>
-      <c r="G173" s="173"/>
-      <c r="H173" s="173"/>
+      <c r="D173" s="175"/>
+      <c r="E173" s="175"/>
+      <c r="F173" s="175"/>
+      <c r="G173" s="175"/>
+      <c r="H173" s="175"/>
     </row>
     <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="85">
@@ -5461,13 +5470,13 @@
       <c r="C174" s="86">
         <v>28.5</v>
       </c>
-      <c r="D174" s="173" t="s">
+      <c r="D174" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="E174" s="173"/>
-      <c r="F174" s="173"/>
-      <c r="G174" s="173"/>
-      <c r="H174" s="173"/>
+      <c r="E174" s="175"/>
+      <c r="F174" s="175"/>
+      <c r="G174" s="175"/>
+      <c r="H174" s="175"/>
       <c r="I174" s="1">
         <f>220*8+6000</f>
         <v>7760</v>
@@ -5477,13 +5486,13 @@
       <c r="A175" s="105"/>
       <c r="B175" s="106"/>
       <c r="C175" s="106"/>
-      <c r="D175" s="173" t="s">
+      <c r="D175" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="173"/>
-      <c r="F175" s="173"/>
-      <c r="G175" s="173"/>
-      <c r="H175" s="173"/>
+      <c r="E175" s="175"/>
+      <c r="F175" s="175"/>
+      <c r="G175" s="175"/>
+      <c r="H175" s="175"/>
       <c r="J175" s="1">
         <v>10000</v>
       </c>
@@ -5499,13 +5508,13 @@
       <c r="C176" s="86">
         <v>29.5</v>
       </c>
-      <c r="D176" s="173" t="s">
+      <c r="D176" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E176" s="173"/>
-      <c r="F176" s="173"/>
-      <c r="G176" s="173"/>
-      <c r="H176" s="173"/>
+      <c r="E176" s="175"/>
+      <c r="F176" s="175"/>
+      <c r="G176" s="175"/>
+      <c r="H176" s="175"/>
       <c r="I176" s="1">
         <f>220</f>
         <v>220</v>
@@ -5522,13 +5531,13 @@
       <c r="C177" s="5">
         <v>1.6</v>
       </c>
-      <c r="D177" s="173" t="s">
+      <c r="D177" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E177" s="173"/>
-      <c r="F177" s="173"/>
-      <c r="G177" s="173"/>
-      <c r="H177" s="173"/>
+      <c r="E177" s="175"/>
+      <c r="F177" s="175"/>
+      <c r="G177" s="175"/>
+      <c r="H177" s="175"/>
       <c r="I177" s="1">
         <f>220</f>
         <v>220</v>
@@ -5545,11 +5554,11 @@
       <c r="C178" s="5">
         <v>2.6</v>
       </c>
-      <c r="D178" s="173"/>
-      <c r="E178" s="173"/>
-      <c r="F178" s="173"/>
-      <c r="G178" s="173"/>
-      <c r="H178" s="173"/>
+      <c r="D178" s="175"/>
+      <c r="E178" s="175"/>
+      <c r="F178" s="175"/>
+      <c r="G178" s="175"/>
+      <c r="H178" s="175"/>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="85">
@@ -5562,13 +5571,13 @@
       <c r="C179" s="104">
         <v>3.6</v>
       </c>
-      <c r="D179" s="173" t="s">
+      <c r="D179" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E179" s="173"/>
-      <c r="F179" s="173"/>
-      <c r="G179" s="173"/>
-      <c r="H179" s="173"/>
+      <c r="E179" s="175"/>
+      <c r="F179" s="175"/>
+      <c r="G179" s="175"/>
+      <c r="H179" s="175"/>
       <c r="I179" s="1">
         <f>140*3</f>
         <v>420</v>
@@ -5585,13 +5594,13 @@
       <c r="C180" s="104">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D180" s="173" t="s">
+      <c r="D180" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="173"/>
-      <c r="F180" s="173"/>
-      <c r="G180" s="173"/>
-      <c r="H180" s="173"/>
+      <c r="E180" s="175"/>
+      <c r="F180" s="175"/>
+      <c r="G180" s="175"/>
+      <c r="H180" s="175"/>
       <c r="I180" s="1">
         <f>220*3+140</f>
         <v>800</v>
@@ -5601,13 +5610,13 @@
       <c r="A181" s="108"/>
       <c r="B181" s="109"/>
       <c r="C181" s="109"/>
-      <c r="D181" s="173" t="s">
+      <c r="D181" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E181" s="173"/>
-      <c r="F181" s="173"/>
-      <c r="G181" s="173"/>
-      <c r="H181" s="173"/>
+      <c r="E181" s="175"/>
+      <c r="F181" s="175"/>
+      <c r="G181" s="175"/>
+      <c r="H181" s="175"/>
       <c r="J181" s="1">
         <v>1000</v>
       </c>
@@ -5626,13 +5635,13 @@
       <c r="C182" s="104">
         <v>5.6</v>
       </c>
-      <c r="D182" s="173" t="s">
+      <c r="D182" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E182" s="173"/>
-      <c r="F182" s="173"/>
-      <c r="G182" s="173"/>
-      <c r="H182" s="173"/>
+      <c r="E182" s="175"/>
+      <c r="F182" s="175"/>
+      <c r="G182" s="175"/>
+      <c r="H182" s="175"/>
       <c r="I182" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5649,13 +5658,13 @@
       <c r="C183" s="104">
         <v>6.6</v>
       </c>
-      <c r="D183" s="173" t="s">
+      <c r="D183" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E183" s="173"/>
-      <c r="F183" s="173"/>
-      <c r="G183" s="173"/>
-      <c r="H183" s="173"/>
+      <c r="E183" s="175"/>
+      <c r="F183" s="175"/>
+      <c r="G183" s="175"/>
+      <c r="H183" s="175"/>
       <c r="I183" s="1">
         <f>140+220+5000</f>
         <v>5360</v>
@@ -5672,13 +5681,13 @@
       <c r="C184" s="104">
         <v>7.6</v>
       </c>
-      <c r="D184" s="173" t="s">
+      <c r="D184" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E184" s="173"/>
-      <c r="F184" s="173"/>
-      <c r="G184" s="173"/>
-      <c r="H184" s="173"/>
+      <c r="E184" s="175"/>
+      <c r="F184" s="175"/>
+      <c r="G184" s="175"/>
+      <c r="H184" s="175"/>
       <c r="I184" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5695,13 +5704,13 @@
       <c r="C185" s="104">
         <v>8.6</v>
       </c>
-      <c r="D185" s="173" t="s">
+      <c r="D185" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E185" s="173"/>
-      <c r="F185" s="173"/>
-      <c r="G185" s="173"/>
-      <c r="H185" s="173"/>
+      <c r="E185" s="175"/>
+      <c r="F185" s="175"/>
+      <c r="G185" s="175"/>
+      <c r="H185" s="175"/>
       <c r="I185" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5718,13 +5727,13 @@
       <c r="C186" s="104">
         <v>9.6</v>
       </c>
-      <c r="D186" s="173" t="s">
+      <c r="D186" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E186" s="173"/>
-      <c r="F186" s="173"/>
-      <c r="G186" s="173"/>
-      <c r="H186" s="173"/>
+      <c r="E186" s="175"/>
+      <c r="F186" s="175"/>
+      <c r="G186" s="175"/>
+      <c r="H186" s="175"/>
       <c r="I186" s="1">
         <f>140</f>
         <v>140</v>
@@ -5741,13 +5750,13 @@
       <c r="C187" s="104">
         <v>10.6</v>
       </c>
-      <c r="D187" s="173" t="s">
+      <c r="D187" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E187" s="173"/>
-      <c r="F187" s="173"/>
-      <c r="G187" s="173"/>
-      <c r="H187" s="173"/>
+      <c r="E187" s="175"/>
+      <c r="F187" s="175"/>
+      <c r="G187" s="175"/>
+      <c r="H187" s="175"/>
       <c r="I187" s="1">
         <f>220*2+140</f>
         <v>580</v>
@@ -5764,13 +5773,13 @@
       <c r="C188" s="104">
         <v>11.6</v>
       </c>
-      <c r="D188" s="173" t="s">
+      <c r="D188" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E188" s="173"/>
-      <c r="F188" s="173"/>
-      <c r="G188" s="173"/>
-      <c r="H188" s="173"/>
+      <c r="E188" s="175"/>
+      <c r="F188" s="175"/>
+      <c r="G188" s="175"/>
+      <c r="H188" s="175"/>
       <c r="I188" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5787,13 +5796,13 @@
       <c r="C189" s="104">
         <v>12.6</v>
       </c>
-      <c r="D189" s="173" t="s">
+      <c r="D189" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E189" s="173"/>
-      <c r="F189" s="173"/>
-      <c r="G189" s="173"/>
-      <c r="H189" s="173"/>
+      <c r="E189" s="175"/>
+      <c r="F189" s="175"/>
+      <c r="G189" s="175"/>
+      <c r="H189" s="175"/>
       <c r="I189" s="1">
         <f>(140+50)+220</f>
         <v>410</v>
@@ -5810,13 +5819,13 @@
       <c r="C190" s="104">
         <v>13.6</v>
       </c>
-      <c r="D190" s="173" t="s">
+      <c r="D190" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="173"/>
-      <c r="F190" s="173"/>
-      <c r="G190" s="173"/>
-      <c r="H190" s="173"/>
+      <c r="E190" s="175"/>
+      <c r="F190" s="175"/>
+      <c r="G190" s="175"/>
+      <c r="H190" s="175"/>
       <c r="I190" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5833,13 +5842,13 @@
       <c r="C191" s="104">
         <v>14.6</v>
       </c>
-      <c r="D191" s="173" t="s">
+      <c r="D191" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E191" s="173"/>
-      <c r="F191" s="173"/>
-      <c r="G191" s="173"/>
-      <c r="H191" s="173"/>
+      <c r="E191" s="175"/>
+      <c r="F191" s="175"/>
+      <c r="G191" s="175"/>
+      <c r="H191" s="175"/>
       <c r="I191" s="1">
         <f>140</f>
         <v>140</v>
@@ -5856,13 +5865,13 @@
       <c r="C192" s="104">
         <v>15.6</v>
       </c>
-      <c r="D192" s="173" t="s">
+      <c r="D192" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E192" s="173"/>
-      <c r="F192" s="173"/>
-      <c r="G192" s="173"/>
-      <c r="H192" s="173"/>
+      <c r="E192" s="175"/>
+      <c r="F192" s="175"/>
+      <c r="G192" s="175"/>
+      <c r="H192" s="175"/>
       <c r="I192" s="1">
         <f>220*2</f>
         <v>440</v>
@@ -5879,13 +5888,13 @@
       <c r="C193" s="104">
         <v>16.600000000000001</v>
       </c>
-      <c r="D193" s="173" t="s">
+      <c r="D193" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E193" s="173"/>
-      <c r="F193" s="173"/>
-      <c r="G193" s="173"/>
-      <c r="H193" s="173"/>
+      <c r="E193" s="175"/>
+      <c r="F193" s="175"/>
+      <c r="G193" s="175"/>
+      <c r="H193" s="175"/>
       <c r="I193" s="1">
         <f>140*2+220</f>
         <v>500</v>
@@ -5902,13 +5911,13 @@
       <c r="C194" s="104">
         <v>17.600000000000001</v>
       </c>
-      <c r="D194" s="173" t="s">
+      <c r="D194" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="E194" s="173"/>
-      <c r="F194" s="173"/>
-      <c r="G194" s="173"/>
-      <c r="H194" s="173"/>
+      <c r="E194" s="175"/>
+      <c r="F194" s="175"/>
+      <c r="G194" s="175"/>
+      <c r="H194" s="175"/>
       <c r="I194" s="1">
         <f>140+450</f>
         <v>590</v>
@@ -5918,13 +5927,13 @@
       <c r="A195" s="110"/>
       <c r="B195" s="111"/>
       <c r="C195" s="111"/>
-      <c r="D195" s="173" t="s">
+      <c r="D195" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E195" s="173"/>
-      <c r="F195" s="173"/>
-      <c r="G195" s="173"/>
-      <c r="H195" s="173"/>
+      <c r="E195" s="175"/>
+      <c r="F195" s="175"/>
+      <c r="G195" s="175"/>
+      <c r="H195" s="175"/>
       <c r="J195" s="1">
         <v>5000</v>
       </c>
@@ -5940,13 +5949,13 @@
       <c r="C196" s="104">
         <v>18.600000000000001</v>
       </c>
-      <c r="D196" s="173" t="s">
+      <c r="D196" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E196" s="173"/>
-      <c r="F196" s="173"/>
-      <c r="G196" s="173"/>
-      <c r="H196" s="173"/>
+      <c r="E196" s="175"/>
+      <c r="F196" s="175"/>
+      <c r="G196" s="175"/>
+      <c r="H196" s="175"/>
       <c r="I196" s="1">
         <f>220*2+140</f>
         <v>580</v>
@@ -5963,13 +5972,13 @@
       <c r="C197" s="104">
         <v>19.600000000000001</v>
       </c>
-      <c r="D197" s="173" t="s">
+      <c r="D197" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="173"/>
-      <c r="F197" s="173"/>
-      <c r="G197" s="173"/>
-      <c r="H197" s="173"/>
+      <c r="E197" s="175"/>
+      <c r="F197" s="175"/>
+      <c r="G197" s="175"/>
+      <c r="H197" s="175"/>
       <c r="I197" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5986,13 +5995,13 @@
       <c r="C198" s="104">
         <v>20.6</v>
       </c>
-      <c r="D198" s="173" t="s">
+      <c r="D198" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E198" s="173"/>
-      <c r="F198" s="173"/>
-      <c r="G198" s="173"/>
-      <c r="H198" s="173"/>
+      <c r="E198" s="175"/>
+      <c r="F198" s="175"/>
+      <c r="G198" s="175"/>
+      <c r="H198" s="175"/>
       <c r="I198" s="1">
         <f t="shared" ref="I198:I200" si="5">220+140</f>
         <v>360</v>
@@ -6009,13 +6018,13 @@
       <c r="C199" s="104">
         <v>21.6</v>
       </c>
-      <c r="D199" s="173" t="s">
+      <c r="D199" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E199" s="173"/>
-      <c r="F199" s="173"/>
-      <c r="G199" s="173"/>
-      <c r="H199" s="173"/>
+      <c r="E199" s="175"/>
+      <c r="F199" s="175"/>
+      <c r="G199" s="175"/>
+      <c r="H199" s="175"/>
       <c r="I199" s="1">
         <f>220+(140+20)</f>
         <v>380</v>
@@ -6032,13 +6041,13 @@
       <c r="C200" s="104">
         <v>22.6</v>
       </c>
-      <c r="D200" s="173" t="s">
+      <c r="D200" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E200" s="173"/>
-      <c r="F200" s="173"/>
-      <c r="G200" s="173"/>
-      <c r="H200" s="173"/>
+      <c r="E200" s="175"/>
+      <c r="F200" s="175"/>
+      <c r="G200" s="175"/>
+      <c r="H200" s="175"/>
       <c r="I200" s="1">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -6055,13 +6064,13 @@
       <c r="C201" s="104">
         <v>23.6</v>
       </c>
-      <c r="D201" s="173" t="s">
+      <c r="D201" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E201" s="173"/>
-      <c r="F201" s="173"/>
-      <c r="G201" s="173"/>
-      <c r="H201" s="173"/>
+      <c r="E201" s="175"/>
+      <c r="F201" s="175"/>
+      <c r="G201" s="175"/>
+      <c r="H201" s="175"/>
       <c r="I201" s="1">
         <f>140</f>
         <v>140</v>
@@ -6078,13 +6087,13 @@
       <c r="C202" s="104">
         <v>24.6</v>
       </c>
-      <c r="D202" s="173" t="s">
+      <c r="D202" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E202" s="173"/>
-      <c r="F202" s="173"/>
-      <c r="G202" s="173"/>
-      <c r="H202" s="173"/>
+      <c r="E202" s="175"/>
+      <c r="F202" s="175"/>
+      <c r="G202" s="175"/>
+      <c r="H202" s="175"/>
       <c r="I202" s="1">
         <f>140</f>
         <v>140</v>
@@ -6101,13 +6110,13 @@
       <c r="C203" s="104">
         <v>25.6</v>
       </c>
-      <c r="D203" s="173" t="s">
+      <c r="D203" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E203" s="173"/>
-      <c r="F203" s="173"/>
-      <c r="G203" s="173"/>
-      <c r="H203" s="173"/>
+      <c r="E203" s="175"/>
+      <c r="F203" s="175"/>
+      <c r="G203" s="175"/>
+      <c r="H203" s="175"/>
       <c r="I203" s="1">
         <f>220*3+(140+20)+15900</f>
         <v>16720</v>
@@ -6124,13 +6133,13 @@
       <c r="C204" s="104">
         <v>26.6</v>
       </c>
-      <c r="D204" s="173" t="s">
+      <c r="D204" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E204" s="173"/>
-      <c r="F204" s="173"/>
-      <c r="G204" s="173"/>
-      <c r="H204" s="173"/>
+      <c r="E204" s="175"/>
+      <c r="F204" s="175"/>
+      <c r="G204" s="175"/>
+      <c r="H204" s="175"/>
       <c r="I204" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6147,13 +6156,13 @@
       <c r="C205" s="104">
         <v>27.6</v>
       </c>
-      <c r="D205" s="173" t="s">
+      <c r="D205" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="173"/>
-      <c r="F205" s="173"/>
-      <c r="G205" s="173"/>
-      <c r="H205" s="173"/>
+      <c r="E205" s="175"/>
+      <c r="F205" s="175"/>
+      <c r="G205" s="175"/>
+      <c r="H205" s="175"/>
       <c r="I205" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6170,13 +6179,13 @@
       <c r="C206" s="104">
         <v>28.6</v>
       </c>
-      <c r="D206" s="173" t="s">
+      <c r="D206" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="173"/>
-      <c r="F206" s="173"/>
-      <c r="G206" s="173"/>
-      <c r="H206" s="173"/>
+      <c r="E206" s="175"/>
+      <c r="F206" s="175"/>
+      <c r="G206" s="175"/>
+      <c r="H206" s="175"/>
       <c r="I206" s="1">
         <f t="shared" ref="I206" si="6">220+140</f>
         <v>360</v>
@@ -6186,13 +6195,13 @@
       <c r="A207" s="114"/>
       <c r="B207" s="115"/>
       <c r="C207" s="115"/>
-      <c r="D207" s="173" t="s">
+      <c r="D207" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E207" s="173"/>
-      <c r="F207" s="173"/>
-      <c r="G207" s="173"/>
-      <c r="H207" s="173"/>
+      <c r="E207" s="175"/>
+      <c r="F207" s="175"/>
+      <c r="G207" s="175"/>
+      <c r="H207" s="175"/>
       <c r="J207" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -6209,13 +6218,13 @@
       <c r="C208" s="104">
         <v>29.6</v>
       </c>
-      <c r="D208" s="173" t="s">
+      <c r="D208" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E208" s="173"/>
-      <c r="F208" s="173"/>
-      <c r="G208" s="173"/>
-      <c r="H208" s="173"/>
+      <c r="E208" s="175"/>
+      <c r="F208" s="175"/>
+      <c r="G208" s="175"/>
+      <c r="H208" s="175"/>
       <c r="I208" s="1">
         <f>140</f>
         <v>140</v>
@@ -6232,11 +6241,11 @@
       <c r="C209" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D209" s="173"/>
-      <c r="E209" s="173"/>
-      <c r="F209" s="173"/>
-      <c r="G209" s="173"/>
-      <c r="H209" s="173"/>
+      <c r="D209" s="175"/>
+      <c r="E209" s="175"/>
+      <c r="F209" s="175"/>
+      <c r="G209" s="175"/>
+      <c r="H209" s="175"/>
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="85">
@@ -6249,13 +6258,13 @@
       <c r="C210" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D210" s="173" t="s">
+      <c r="D210" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="173"/>
-      <c r="F210" s="173"/>
-      <c r="G210" s="173"/>
-      <c r="H210" s="173"/>
+      <c r="E210" s="175"/>
+      <c r="F210" s="175"/>
+      <c r="G210" s="175"/>
+      <c r="H210" s="175"/>
       <c r="I210" s="1">
         <f>140*2+(220*3+10)</f>
         <v>950</v>
@@ -6272,13 +6281,13 @@
       <c r="C211" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D211" s="173" t="s">
+      <c r="D211" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E211" s="173"/>
-      <c r="F211" s="173"/>
-      <c r="G211" s="173"/>
-      <c r="H211" s="173"/>
+      <c r="E211" s="175"/>
+      <c r="F211" s="175"/>
+      <c r="G211" s="175"/>
+      <c r="H211" s="175"/>
       <c r="I211" s="1">
         <f>(140+30)</f>
         <v>170</v>
@@ -6295,13 +6304,13 @@
       <c r="C212" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D212" s="173" t="s">
+      <c r="D212" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="E212" s="173"/>
-      <c r="F212" s="173"/>
-      <c r="G212" s="173"/>
-      <c r="H212" s="173"/>
+      <c r="E212" s="175"/>
+      <c r="F212" s="175"/>
+      <c r="G212" s="175"/>
+      <c r="H212" s="175"/>
       <c r="J212" s="1">
         <v>2000</v>
       </c>
@@ -6310,13 +6319,13 @@
       <c r="A213" s="117"/>
       <c r="B213" s="118"/>
       <c r="C213" s="118"/>
-      <c r="D213" s="173" t="s">
+      <c r="D213" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="E213" s="173"/>
-      <c r="F213" s="173"/>
-      <c r="G213" s="173"/>
-      <c r="H213" s="173"/>
+      <c r="E213" s="175"/>
+      <c r="F213" s="175"/>
+      <c r="G213" s="175"/>
+      <c r="H213" s="175"/>
       <c r="J213" s="1">
         <v>5000</v>
       </c>
@@ -6325,13 +6334,13 @@
       <c r="A214" s="117"/>
       <c r="B214" s="118"/>
       <c r="C214" s="118"/>
-      <c r="D214" s="173" t="s">
+      <c r="D214" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E214" s="173"/>
-      <c r="F214" s="173"/>
-      <c r="G214" s="173"/>
-      <c r="H214" s="173"/>
+      <c r="E214" s="175"/>
+      <c r="F214" s="175"/>
+      <c r="G214" s="175"/>
+      <c r="H214" s="175"/>
       <c r="I214" s="1">
         <f>220*2+140+900</f>
         <v>1480</v>
@@ -6348,13 +6357,13 @@
       <c r="C215" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D215" s="173" t="s">
+      <c r="D215" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E215" s="173"/>
-      <c r="F215" s="173"/>
-      <c r="G215" s="173"/>
-      <c r="H215" s="173"/>
+      <c r="E215" s="175"/>
+      <c r="F215" s="175"/>
+      <c r="G215" s="175"/>
+      <c r="H215" s="175"/>
       <c r="I215" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -6371,13 +6380,13 @@
       <c r="C216" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D216" s="173" t="s">
+      <c r="D216" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E216" s="173"/>
-      <c r="F216" s="173"/>
-      <c r="G216" s="173"/>
-      <c r="H216" s="173"/>
+      <c r="E216" s="175"/>
+      <c r="F216" s="175"/>
+      <c r="G216" s="175"/>
+      <c r="H216" s="175"/>
       <c r="I216" s="1">
         <f t="shared" ref="I216:I219" si="7">140+220</f>
         <v>360</v>
@@ -6394,13 +6403,13 @@
       <c r="C217" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="D217" s="173" t="s">
+      <c r="D217" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E217" s="173"/>
-      <c r="F217" s="173"/>
-      <c r="G217" s="173"/>
-      <c r="H217" s="173"/>
+      <c r="E217" s="175"/>
+      <c r="F217" s="175"/>
+      <c r="G217" s="175"/>
+      <c r="H217" s="175"/>
       <c r="I217" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6417,13 +6426,13 @@
       <c r="C218" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D218" s="173" t="s">
+      <c r="D218" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E218" s="173"/>
-      <c r="F218" s="173"/>
-      <c r="G218" s="173"/>
-      <c r="H218" s="173"/>
+      <c r="E218" s="175"/>
+      <c r="F218" s="175"/>
+      <c r="G218" s="175"/>
+      <c r="H218" s="175"/>
       <c r="I218" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6440,13 +6449,13 @@
       <c r="C219" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D219" s="173" t="s">
+      <c r="D219" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E219" s="173"/>
-      <c r="F219" s="173"/>
-      <c r="G219" s="173"/>
-      <c r="H219" s="173"/>
+      <c r="E219" s="175"/>
+      <c r="F219" s="175"/>
+      <c r="G219" s="175"/>
+      <c r="H219" s="175"/>
       <c r="I219" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6463,13 +6472,13 @@
       <c r="C220" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D220" s="173" t="s">
+      <c r="D220" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="173"/>
-      <c r="F220" s="173"/>
-      <c r="G220" s="173"/>
-      <c r="H220" s="173"/>
+      <c r="E220" s="175"/>
+      <c r="F220" s="175"/>
+      <c r="G220" s="175"/>
+      <c r="H220" s="175"/>
       <c r="I220" s="1">
         <f>20+40</f>
         <v>60</v>
@@ -6479,13 +6488,13 @@
       <c r="A221" s="122"/>
       <c r="B221" s="123"/>
       <c r="C221" s="123"/>
-      <c r="D221" s="173" t="s">
+      <c r="D221" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="E221" s="173"/>
-      <c r="F221" s="173"/>
-      <c r="G221" s="173"/>
-      <c r="H221" s="173"/>
+      <c r="E221" s="175"/>
+      <c r="F221" s="175"/>
+      <c r="G221" s="175"/>
+      <c r="H221" s="175"/>
       <c r="J221" s="1">
         <f>(9800)+(4820)</f>
         <v>14620</v>
@@ -6502,13 +6511,13 @@
       <c r="C222" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D222" s="173" t="s">
+      <c r="D222" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E222" s="173"/>
-      <c r="F222" s="173"/>
-      <c r="G222" s="173"/>
-      <c r="H222" s="173"/>
+      <c r="E222" s="175"/>
+      <c r="F222" s="175"/>
+      <c r="G222" s="175"/>
+      <c r="H222" s="175"/>
       <c r="I222" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6525,13 +6534,13 @@
       <c r="C223" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D223" s="173" t="s">
+      <c r="D223" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="173"/>
-      <c r="F223" s="173"/>
-      <c r="G223" s="173"/>
-      <c r="H223" s="173"/>
+      <c r="E223" s="175"/>
+      <c r="F223" s="175"/>
+      <c r="G223" s="175"/>
+      <c r="H223" s="175"/>
       <c r="I223" s="1">
         <f t="shared" ref="I223:I225" si="8">220+140</f>
         <v>360</v>
@@ -6548,13 +6557,13 @@
       <c r="C224" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D224" s="173" t="s">
+      <c r="D224" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E224" s="173"/>
-      <c r="F224" s="173"/>
-      <c r="G224" s="173"/>
-      <c r="H224" s="173"/>
+      <c r="E224" s="175"/>
+      <c r="F224" s="175"/>
+      <c r="G224" s="175"/>
+      <c r="H224" s="175"/>
       <c r="I224" s="1">
         <f t="shared" si="8"/>
         <v>360</v>
@@ -6571,13 +6580,13 @@
       <c r="C225" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="D225" s="173" t="s">
+      <c r="D225" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E225" s="173"/>
-      <c r="F225" s="173"/>
-      <c r="G225" s="173"/>
-      <c r="H225" s="173"/>
+      <c r="E225" s="175"/>
+      <c r="F225" s="175"/>
+      <c r="G225" s="175"/>
+      <c r="H225" s="175"/>
       <c r="I225" s="1">
         <f t="shared" si="8"/>
         <v>360</v>
@@ -6594,13 +6603,13 @@
       <c r="C226" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D226" s="173" t="s">
+      <c r="D226" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E226" s="173"/>
-      <c r="F226" s="173"/>
-      <c r="G226" s="173"/>
-      <c r="H226" s="173"/>
+      <c r="E226" s="175"/>
+      <c r="F226" s="175"/>
+      <c r="G226" s="175"/>
+      <c r="H226" s="175"/>
       <c r="I226" s="1">
         <f>220</f>
         <v>220</v>
@@ -6617,13 +6626,13 @@
       <c r="C227" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D227" s="173" t="s">
+      <c r="D227" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E227" s="173"/>
-      <c r="F227" s="173"/>
-      <c r="G227" s="173"/>
-      <c r="H227" s="173"/>
+      <c r="E227" s="175"/>
+      <c r="F227" s="175"/>
+      <c r="G227" s="175"/>
+      <c r="H227" s="175"/>
       <c r="I227" s="1">
         <f>220</f>
         <v>220</v>
@@ -6640,13 +6649,13 @@
       <c r="C228" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="D228" s="173" t="s">
+      <c r="D228" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E228" s="173"/>
-      <c r="F228" s="173"/>
-      <c r="G228" s="173"/>
-      <c r="H228" s="173"/>
+      <c r="E228" s="175"/>
+      <c r="F228" s="175"/>
+      <c r="G228" s="175"/>
+      <c r="H228" s="175"/>
       <c r="I228" s="1">
         <f>220</f>
         <v>220</v>
@@ -6663,13 +6672,13 @@
       <c r="C229" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="D229" s="173" t="s">
+      <c r="D229" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E229" s="173"/>
-      <c r="F229" s="173"/>
-      <c r="G229" s="173"/>
-      <c r="H229" s="173"/>
+      <c r="E229" s="175"/>
+      <c r="F229" s="175"/>
+      <c r="G229" s="175"/>
+      <c r="H229" s="175"/>
       <c r="I229" s="1">
         <f>(220*2)+(140)</f>
         <v>580</v>
@@ -6686,13 +6695,13 @@
       <c r="C230" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="D230" s="173" t="s">
+      <c r="D230" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E230" s="173"/>
-      <c r="F230" s="173"/>
-      <c r="G230" s="173"/>
-      <c r="H230" s="173"/>
+      <c r="E230" s="175"/>
+      <c r="F230" s="175"/>
+      <c r="G230" s="175"/>
+      <c r="H230" s="175"/>
       <c r="I230" s="1">
         <f t="shared" ref="I230:I236" si="9">220+140</f>
         <v>360</v>
@@ -6709,13 +6718,13 @@
       <c r="C231" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D231" s="173" t="s">
+      <c r="D231" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E231" s="173"/>
-      <c r="F231" s="173"/>
-      <c r="G231" s="173"/>
-      <c r="H231" s="173"/>
+      <c r="E231" s="175"/>
+      <c r="F231" s="175"/>
+      <c r="G231" s="175"/>
+      <c r="H231" s="175"/>
       <c r="I231" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6732,13 +6741,13 @@
       <c r="C232" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="D232" s="173" t="s">
+      <c r="D232" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E232" s="173"/>
-      <c r="F232" s="173"/>
-      <c r="G232" s="173"/>
-      <c r="H232" s="173"/>
+      <c r="E232" s="175"/>
+      <c r="F232" s="175"/>
+      <c r="G232" s="175"/>
+      <c r="H232" s="175"/>
       <c r="I232" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6755,13 +6764,13 @@
       <c r="C233" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="D233" s="173" t="s">
+      <c r="D233" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E233" s="173"/>
-      <c r="F233" s="173"/>
-      <c r="G233" s="173"/>
-      <c r="H233" s="173"/>
+      <c r="E233" s="175"/>
+      <c r="F233" s="175"/>
+      <c r="G233" s="175"/>
+      <c r="H233" s="175"/>
       <c r="I233" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6778,13 +6787,13 @@
       <c r="C234" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D234" s="173" t="s">
+      <c r="D234" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E234" s="173"/>
-      <c r="F234" s="173"/>
-      <c r="G234" s="173"/>
-      <c r="H234" s="173"/>
+      <c r="E234" s="175"/>
+      <c r="F234" s="175"/>
+      <c r="G234" s="175"/>
+      <c r="H234" s="175"/>
       <c r="I234" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6801,13 +6810,13 @@
       <c r="C235" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D235" s="173" t="s">
+      <c r="D235" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E235" s="173"/>
-      <c r="F235" s="173"/>
-      <c r="G235" s="173"/>
-      <c r="H235" s="173"/>
+      <c r="E235" s="175"/>
+      <c r="F235" s="175"/>
+      <c r="G235" s="175"/>
+      <c r="H235" s="175"/>
       <c r="I235" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6824,13 +6833,13 @@
       <c r="C236" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D236" s="173" t="s">
+      <c r="D236" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E236" s="173"/>
-      <c r="F236" s="173"/>
-      <c r="G236" s="173"/>
-      <c r="H236" s="173"/>
+      <c r="E236" s="175"/>
+      <c r="F236" s="175"/>
+      <c r="G236" s="175"/>
+      <c r="H236" s="175"/>
       <c r="I236" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6847,13 +6856,13 @@
       <c r="C237" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D237" s="173" t="s">
+      <c r="D237" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E237" s="173"/>
-      <c r="F237" s="173"/>
-      <c r="G237" s="173"/>
-      <c r="H237" s="173"/>
+      <c r="E237" s="175"/>
+      <c r="F237" s="175"/>
+      <c r="G237" s="175"/>
+      <c r="H237" s="175"/>
       <c r="I237" s="1">
         <f>220+(140+60)</f>
         <v>420</v>
@@ -6870,13 +6879,13 @@
       <c r="C238" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="D238" s="173" t="s">
+      <c r="D238" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="173"/>
-      <c r="F238" s="173"/>
-      <c r="G238" s="173"/>
-      <c r="H238" s="173"/>
+      <c r="E238" s="175"/>
+      <c r="F238" s="175"/>
+      <c r="G238" s="175"/>
+      <c r="H238" s="175"/>
       <c r="I238" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6886,13 +6895,13 @@
       <c r="A239" s="124"/>
       <c r="B239" s="125"/>
       <c r="C239" s="125"/>
-      <c r="D239" s="173" t="s">
+      <c r="D239" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="E239" s="173"/>
-      <c r="F239" s="173"/>
-      <c r="G239" s="173"/>
-      <c r="H239" s="173"/>
+      <c r="E239" s="175"/>
+      <c r="F239" s="175"/>
+      <c r="G239" s="175"/>
+      <c r="H239" s="175"/>
       <c r="I239" s="1">
         <v>20000</v>
       </c>
@@ -6905,13 +6914,13 @@
       <c r="A240" s="124"/>
       <c r="B240" s="125"/>
       <c r="C240" s="125"/>
-      <c r="D240" s="173" t="s">
+      <c r="D240" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="E240" s="173"/>
-      <c r="F240" s="173"/>
-      <c r="G240" s="173"/>
-      <c r="H240" s="173"/>
+      <c r="E240" s="175"/>
+      <c r="F240" s="175"/>
+      <c r="G240" s="175"/>
+      <c r="H240" s="175"/>
       <c r="J240" s="1">
         <v>30000</v>
       </c>
@@ -6927,13 +6936,13 @@
       <c r="C241" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D241" s="173" t="s">
+      <c r="D241" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="173"/>
-      <c r="F241" s="173"/>
-      <c r="G241" s="173"/>
-      <c r="H241" s="173"/>
+      <c r="E241" s="175"/>
+      <c r="F241" s="175"/>
+      <c r="G241" s="175"/>
+      <c r="H241" s="175"/>
       <c r="I241" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6950,13 +6959,13 @@
       <c r="C242" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D242" s="173" t="s">
+      <c r="D242" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="173"/>
-      <c r="F242" s="173"/>
-      <c r="G242" s="173"/>
-      <c r="H242" s="173"/>
+      <c r="E242" s="175"/>
+      <c r="F242" s="175"/>
+      <c r="G242" s="175"/>
+      <c r="H242" s="175"/>
       <c r="I242" s="1">
         <f>220+(140+20)</f>
         <v>380</v>
@@ -6973,13 +6982,13 @@
       <c r="C243" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D243" s="173" t="s">
+      <c r="D243" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E243" s="173"/>
-      <c r="F243" s="173"/>
-      <c r="G243" s="173"/>
-      <c r="H243" s="173"/>
+      <c r="E243" s="175"/>
+      <c r="F243" s="175"/>
+      <c r="G243" s="175"/>
+      <c r="H243" s="175"/>
       <c r="I243" s="1">
         <f>220+(140+120)</f>
         <v>480</v>
@@ -6996,13 +7005,13 @@
       <c r="C244" s="5">
         <v>1.7</v>
       </c>
-      <c r="D244" s="173" t="s">
+      <c r="D244" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="E244" s="173"/>
-      <c r="F244" s="173"/>
-      <c r="G244" s="173"/>
-      <c r="H244" s="173"/>
+      <c r="E244" s="175"/>
+      <c r="F244" s="175"/>
+      <c r="G244" s="175"/>
+      <c r="H244" s="175"/>
       <c r="I244" s="1">
         <f>220+750</f>
         <v>970</v>
@@ -7019,13 +7028,13 @@
       <c r="C245" s="5">
         <v>2.7</v>
       </c>
-      <c r="D245" s="173" t="s">
+      <c r="D245" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E245" s="173"/>
-      <c r="F245" s="173"/>
-      <c r="G245" s="173"/>
-      <c r="H245" s="173"/>
+      <c r="E245" s="175"/>
+      <c r="F245" s="175"/>
+      <c r="G245" s="175"/>
+      <c r="H245" s="175"/>
       <c r="I245" s="1">
         <f>220</f>
         <v>220</v>
@@ -7042,13 +7051,13 @@
       <c r="C246" s="130">
         <v>3.7</v>
       </c>
-      <c r="D246" s="173" t="s">
+      <c r="D246" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E246" s="173"/>
-      <c r="F246" s="173"/>
-      <c r="G246" s="173"/>
-      <c r="H246" s="173"/>
+      <c r="E246" s="175"/>
+      <c r="F246" s="175"/>
+      <c r="G246" s="175"/>
+      <c r="H246" s="175"/>
       <c r="I246" s="1">
         <f>(140+80)</f>
         <v>220</v>
@@ -7065,13 +7074,13 @@
       <c r="C247" s="130">
         <v>4.7</v>
       </c>
-      <c r="D247" s="173" t="s">
+      <c r="D247" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="E247" s="173"/>
-      <c r="F247" s="173"/>
-      <c r="G247" s="173"/>
-      <c r="H247" s="173"/>
+      <c r="E247" s="175"/>
+      <c r="F247" s="175"/>
+      <c r="G247" s="175"/>
+      <c r="H247" s="175"/>
       <c r="J247" s="1">
         <v>5000</v>
       </c>
@@ -7080,13 +7089,13 @@
       <c r="A248" s="133"/>
       <c r="B248" s="134"/>
       <c r="C248" s="134"/>
-      <c r="D248" s="173" t="s">
+      <c r="D248" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E248" s="173"/>
-      <c r="F248" s="173"/>
-      <c r="G248" s="173"/>
-      <c r="H248" s="173"/>
+      <c r="E248" s="175"/>
+      <c r="F248" s="175"/>
+      <c r="G248" s="175"/>
+      <c r="H248" s="175"/>
       <c r="I248" s="1">
         <f>(220*2)+(140+50)+10800</f>
         <v>11430</v>
@@ -7103,13 +7112,13 @@
       <c r="C249" s="130">
         <v>5.7</v>
       </c>
-      <c r="D249" s="173" t="s">
+      <c r="D249" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E249" s="173"/>
-      <c r="F249" s="173"/>
-      <c r="G249" s="173"/>
-      <c r="H249" s="173"/>
+      <c r="E249" s="175"/>
+      <c r="F249" s="175"/>
+      <c r="G249" s="175"/>
+      <c r="H249" s="175"/>
       <c r="I249" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7126,11 +7135,11 @@
       <c r="C250" s="130">
         <v>6.7</v>
       </c>
-      <c r="D250" s="173"/>
-      <c r="E250" s="173"/>
-      <c r="F250" s="173"/>
-      <c r="G250" s="173"/>
-      <c r="H250" s="173"/>
+      <c r="D250" s="175"/>
+      <c r="E250" s="175"/>
+      <c r="F250" s="175"/>
+      <c r="G250" s="175"/>
+      <c r="H250" s="175"/>
     </row>
     <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="103">
@@ -7143,13 +7152,13 @@
       <c r="C251" s="130">
         <v>7.7</v>
       </c>
-      <c r="D251" s="173" t="s">
+      <c r="D251" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E251" s="173"/>
-      <c r="F251" s="173"/>
-      <c r="G251" s="173"/>
-      <c r="H251" s="173"/>
+      <c r="E251" s="175"/>
+      <c r="F251" s="175"/>
+      <c r="G251" s="175"/>
+      <c r="H251" s="175"/>
       <c r="I251" s="1">
         <f>(220+140)*2</f>
         <v>720</v>
@@ -7166,13 +7175,13 @@
       <c r="C252" s="130">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D252" s="173" t="s">
+      <c r="D252" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E252" s="173"/>
-      <c r="F252" s="173"/>
-      <c r="G252" s="173"/>
-      <c r="H252" s="173"/>
+      <c r="E252" s="175"/>
+      <c r="F252" s="175"/>
+      <c r="G252" s="175"/>
+      <c r="H252" s="175"/>
       <c r="I252" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7189,13 +7198,13 @@
       <c r="C253" s="130">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D253" s="173" t="s">
+      <c r="D253" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E253" s="173"/>
-      <c r="F253" s="173"/>
-      <c r="G253" s="173"/>
-      <c r="H253" s="173"/>
+      <c r="E253" s="175"/>
+      <c r="F253" s="175"/>
+      <c r="G253" s="175"/>
+      <c r="H253" s="175"/>
       <c r="I253" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7212,13 +7221,13 @@
       <c r="C254" s="130">
         <v>10.7</v>
       </c>
-      <c r="D254" s="173" t="s">
+      <c r="D254" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E254" s="173"/>
-      <c r="F254" s="173"/>
-      <c r="G254" s="173"/>
-      <c r="H254" s="173"/>
+      <c r="E254" s="175"/>
+      <c r="F254" s="175"/>
+      <c r="G254" s="175"/>
+      <c r="H254" s="175"/>
       <c r="I254" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7247,13 +7256,13 @@
       <c r="C256" s="130">
         <v>12.7</v>
       </c>
-      <c r="D256" s="173" t="s">
+      <c r="D256" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E256" s="173"/>
-      <c r="F256" s="173"/>
-      <c r="G256" s="173"/>
-      <c r="H256" s="173"/>
+      <c r="E256" s="175"/>
+      <c r="F256" s="175"/>
+      <c r="G256" s="175"/>
+      <c r="H256" s="175"/>
       <c r="I256" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7270,13 +7279,13 @@
       <c r="C257" s="130">
         <v>13.7</v>
       </c>
-      <c r="D257" s="173" t="s">
+      <c r="D257" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E257" s="173"/>
-      <c r="F257" s="173"/>
-      <c r="G257" s="173"/>
-      <c r="H257" s="173"/>
+      <c r="E257" s="175"/>
+      <c r="F257" s="175"/>
+      <c r="G257" s="175"/>
+      <c r="H257" s="175"/>
       <c r="I257" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7293,13 +7302,13 @@
       <c r="C258" s="130">
         <v>14.7</v>
       </c>
-      <c r="D258" s="173" t="s">
+      <c r="D258" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E258" s="173"/>
-      <c r="F258" s="173"/>
-      <c r="G258" s="173"/>
-      <c r="H258" s="173"/>
+      <c r="E258" s="175"/>
+      <c r="F258" s="175"/>
+      <c r="G258" s="175"/>
+      <c r="H258" s="175"/>
       <c r="I258" s="1">
         <f>(220*2)+(140*2+150)</f>
         <v>870</v>
@@ -7316,13 +7325,13 @@
       <c r="C259" s="130">
         <v>15.7</v>
       </c>
-      <c r="D259" s="173" t="s">
+      <c r="D259" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="E259" s="173"/>
-      <c r="F259" s="173"/>
-      <c r="G259" s="173"/>
-      <c r="H259" s="173"/>
+      <c r="E259" s="175"/>
+      <c r="F259" s="175"/>
+      <c r="G259" s="175"/>
+      <c r="H259" s="175"/>
       <c r="I259" s="1">
         <v>10000</v>
       </c>
@@ -7338,13 +7347,13 @@
       <c r="C260" s="130">
         <v>16.7</v>
       </c>
-      <c r="D260" s="173" t="s">
+      <c r="D260" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E260" s="173"/>
-      <c r="F260" s="173"/>
-      <c r="G260" s="173"/>
-      <c r="H260" s="173"/>
+      <c r="E260" s="175"/>
+      <c r="F260" s="175"/>
+      <c r="G260" s="175"/>
+      <c r="H260" s="175"/>
       <c r="I260" s="1">
         <f>(220*2)</f>
         <v>440</v>
@@ -7361,13 +7370,13 @@
       <c r="C261" s="130">
         <v>17.7</v>
       </c>
-      <c r="D261" s="173" t="s">
+      <c r="D261" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E261" s="173"/>
-      <c r="F261" s="173"/>
-      <c r="G261" s="173"/>
-      <c r="H261" s="173"/>
+      <c r="E261" s="175"/>
+      <c r="F261" s="175"/>
+      <c r="G261" s="175"/>
+      <c r="H261" s="175"/>
       <c r="I261" s="1">
         <f>(200+10000)+(220)</f>
         <v>10420</v>
@@ -7384,13 +7393,13 @@
       <c r="C262" s="130">
         <v>18.7</v>
       </c>
-      <c r="D262" s="173" t="s">
+      <c r="D262" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E262" s="173"/>
-      <c r="F262" s="173"/>
-      <c r="G262" s="173"/>
-      <c r="H262" s="173"/>
+      <c r="E262" s="175"/>
+      <c r="F262" s="175"/>
+      <c r="G262" s="175"/>
+      <c r="H262" s="175"/>
       <c r="I262" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7407,13 +7416,13 @@
       <c r="C263" s="130">
         <v>19.7</v>
       </c>
-      <c r="D263" s="173" t="s">
+      <c r="D263" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E263" s="173"/>
-      <c r="F263" s="173"/>
-      <c r="G263" s="173"/>
-      <c r="H263" s="173"/>
+      <c r="E263" s="175"/>
+      <c r="F263" s="175"/>
+      <c r="G263" s="175"/>
+      <c r="H263" s="175"/>
       <c r="I263" s="1">
         <v>340</v>
       </c>
@@ -7441,13 +7450,13 @@
       <c r="C265" s="130">
         <v>21.7</v>
       </c>
-      <c r="D265" s="173" t="s">
+      <c r="D265" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E265" s="173"/>
-      <c r="F265" s="173"/>
-      <c r="G265" s="173"/>
-      <c r="H265" s="173"/>
+      <c r="E265" s="175"/>
+      <c r="F265" s="175"/>
+      <c r="G265" s="175"/>
+      <c r="H265" s="175"/>
       <c r="I265" s="1">
         <f>(200*2)+(140*2)</f>
         <v>680</v>
@@ -7464,13 +7473,13 @@
       <c r="C266" s="130">
         <v>22.7</v>
       </c>
-      <c r="D266" s="173" t="s">
+      <c r="D266" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E266" s="173"/>
-      <c r="F266" s="173"/>
-      <c r="G266" s="173"/>
-      <c r="H266" s="173"/>
+      <c r="E266" s="175"/>
+      <c r="F266" s="175"/>
+      <c r="G266" s="175"/>
+      <c r="H266" s="175"/>
       <c r="I266" s="1">
         <v>340</v>
       </c>
@@ -7486,13 +7495,13 @@
       <c r="C267" s="130">
         <v>23.7</v>
       </c>
-      <c r="D267" s="173" t="s">
+      <c r="D267" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E267" s="173"/>
-      <c r="F267" s="173"/>
-      <c r="G267" s="173"/>
-      <c r="H267" s="173"/>
+      <c r="E267" s="175"/>
+      <c r="F267" s="175"/>
+      <c r="G267" s="175"/>
+      <c r="H267" s="175"/>
       <c r="I267" s="1">
         <v>340</v>
       </c>
@@ -7508,13 +7517,13 @@
       <c r="C268" s="130">
         <v>24.7</v>
       </c>
-      <c r="D268" s="173" t="s">
+      <c r="D268" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E268" s="173"/>
-      <c r="F268" s="173"/>
-      <c r="G268" s="173"/>
-      <c r="H268" s="173"/>
+      <c r="E268" s="175"/>
+      <c r="F268" s="175"/>
+      <c r="G268" s="175"/>
+      <c r="H268" s="175"/>
       <c r="I268" s="1">
         <v>340</v>
       </c>
@@ -7530,13 +7539,13 @@
       <c r="C269" s="130">
         <v>25.7</v>
       </c>
-      <c r="D269" s="173" t="s">
+      <c r="D269" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E269" s="173"/>
-      <c r="F269" s="173"/>
-      <c r="G269" s="173"/>
-      <c r="H269" s="173"/>
+      <c r="E269" s="175"/>
+      <c r="F269" s="175"/>
+      <c r="G269" s="175"/>
+      <c r="H269" s="175"/>
       <c r="I269" s="1">
         <v>340</v>
       </c>
@@ -7552,13 +7561,13 @@
       <c r="C270" s="130">
         <v>26.7</v>
       </c>
-      <c r="D270" s="173" t="s">
+      <c r="D270" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E270" s="173"/>
-      <c r="F270" s="173"/>
-      <c r="G270" s="173"/>
-      <c r="H270" s="173"/>
+      <c r="E270" s="175"/>
+      <c r="F270" s="175"/>
+      <c r="G270" s="175"/>
+      <c r="H270" s="175"/>
       <c r="I270" s="1">
         <f>340+10900</f>
         <v>11240</v>
@@ -7575,13 +7584,13 @@
       <c r="C271" s="130">
         <v>27.7</v>
       </c>
-      <c r="D271" s="173" t="s">
+      <c r="D271" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="173"/>
-      <c r="F271" s="173"/>
-      <c r="G271" s="173"/>
-      <c r="H271" s="173"/>
+      <c r="E271" s="175"/>
+      <c r="F271" s="175"/>
+      <c r="G271" s="175"/>
+      <c r="H271" s="175"/>
       <c r="I271" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7598,13 +7607,13 @@
       <c r="C272" s="130">
         <v>28.7</v>
       </c>
-      <c r="D272" s="173" t="s">
+      <c r="D272" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="173"/>
-      <c r="F272" s="173"/>
-      <c r="G272" s="173"/>
-      <c r="H272" s="173"/>
+      <c r="E272" s="175"/>
+      <c r="F272" s="175"/>
+      <c r="G272" s="175"/>
+      <c r="H272" s="175"/>
       <c r="I272" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7614,13 +7623,13 @@
       <c r="A273" s="140"/>
       <c r="B273" s="141"/>
       <c r="C273" s="141"/>
-      <c r="D273" s="173" t="s">
+      <c r="D273" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="E273" s="173"/>
-      <c r="F273" s="173"/>
-      <c r="G273" s="173"/>
-      <c r="H273" s="173"/>
+      <c r="E273" s="175"/>
+      <c r="F273" s="175"/>
+      <c r="G273" s="175"/>
+      <c r="H273" s="175"/>
       <c r="J273" s="1">
         <f>(15000)+(30000)</f>
         <v>45000</v>
@@ -7637,13 +7646,13 @@
       <c r="C274" s="130">
         <v>29.7</v>
       </c>
-      <c r="D274" s="173" t="s">
+      <c r="D274" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="173"/>
-      <c r="F274" s="173"/>
-      <c r="G274" s="173"/>
-      <c r="H274" s="173"/>
+      <c r="E274" s="175"/>
+      <c r="F274" s="175"/>
+      <c r="G274" s="175"/>
+      <c r="H274" s="175"/>
       <c r="I274" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7653,13 +7662,13 @@
       <c r="A275" s="146"/>
       <c r="B275" s="147"/>
       <c r="C275" s="147"/>
-      <c r="D275" s="173" t="s">
+      <c r="D275" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="E275" s="173"/>
-      <c r="F275" s="173"/>
-      <c r="G275" s="173"/>
-      <c r="H275" s="173"/>
+      <c r="E275" s="175"/>
+      <c r="F275" s="175"/>
+      <c r="G275" s="175"/>
+      <c r="H275" s="175"/>
       <c r="J275" s="1">
         <v>5000</v>
       </c>
@@ -7675,13 +7684,13 @@
       <c r="C276" s="5">
         <v>1.8</v>
       </c>
-      <c r="D276" s="173" t="s">
+      <c r="D276" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E276" s="173"/>
-      <c r="F276" s="173"/>
-      <c r="G276" s="173"/>
-      <c r="H276" s="173"/>
+      <c r="E276" s="175"/>
+      <c r="F276" s="175"/>
+      <c r="G276" s="175"/>
+      <c r="H276" s="175"/>
       <c r="I276" s="1">
         <f>200</f>
         <v>200</v>
@@ -7710,13 +7719,13 @@
       <c r="C278" s="130">
         <v>3.8</v>
       </c>
-      <c r="D278" s="173" t="s">
+      <c r="D278" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E278" s="173"/>
-      <c r="F278" s="173"/>
-      <c r="G278" s="173"/>
-      <c r="H278" s="173"/>
+      <c r="E278" s="175"/>
+      <c r="F278" s="175"/>
+      <c r="G278" s="175"/>
+      <c r="H278" s="175"/>
       <c r="I278" s="1">
         <f>(200*2)+(140*2+50)</f>
         <v>730</v>
@@ -7733,13 +7742,13 @@
       <c r="C279" s="130">
         <v>4.8</v>
       </c>
-      <c r="D279" s="173" t="s">
+      <c r="D279" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E279" s="173"/>
-      <c r="F279" s="173"/>
-      <c r="G279" s="173"/>
-      <c r="H279" s="173"/>
+      <c r="E279" s="175"/>
+      <c r="F279" s="175"/>
+      <c r="G279" s="175"/>
+      <c r="H279" s="175"/>
       <c r="I279" s="1">
         <f>140</f>
         <v>140</v>
@@ -7756,13 +7765,13 @@
       <c r="C280" s="130">
         <v>5.8</v>
       </c>
-      <c r="D280" s="173" t="s">
+      <c r="D280" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E280" s="173"/>
-      <c r="F280" s="173"/>
-      <c r="G280" s="173"/>
-      <c r="H280" s="173"/>
+      <c r="E280" s="175"/>
+      <c r="F280" s="175"/>
+      <c r="G280" s="175"/>
+      <c r="H280" s="175"/>
       <c r="I280" s="1">
         <f>(200*2)+140</f>
         <v>540</v>
@@ -7779,13 +7788,13 @@
       <c r="C281" s="130">
         <v>6.8</v>
       </c>
-      <c r="D281" s="173" t="s">
+      <c r="D281" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E281" s="173"/>
-      <c r="F281" s="173"/>
-      <c r="G281" s="173"/>
-      <c r="H281" s="173"/>
+      <c r="E281" s="175"/>
+      <c r="F281" s="175"/>
+      <c r="G281" s="175"/>
+      <c r="H281" s="175"/>
       <c r="I281" s="1">
         <f>140</f>
         <v>140</v>
@@ -7802,13 +7811,13 @@
       <c r="C282" s="130">
         <v>7.8</v>
       </c>
-      <c r="D282" s="173" t="s">
+      <c r="D282" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E282" s="173"/>
-      <c r="F282" s="173"/>
-      <c r="G282" s="173"/>
-      <c r="H282" s="173"/>
+      <c r="E282" s="175"/>
+      <c r="F282" s="175"/>
+      <c r="G282" s="175"/>
+      <c r="H282" s="175"/>
       <c r="I282" s="1">
         <f>(200*2)+140</f>
         <v>540</v>
@@ -7825,13 +7834,13 @@
       <c r="C283" s="130">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D283" s="173" t="s">
+      <c r="D283" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E283" s="173"/>
-      <c r="F283" s="173"/>
-      <c r="G283" s="173"/>
-      <c r="H283" s="173"/>
+      <c r="E283" s="175"/>
+      <c r="F283" s="175"/>
+      <c r="G283" s="175"/>
+      <c r="H283" s="175"/>
       <c r="I283" s="1">
         <f>140</f>
         <v>140</v>
@@ -7860,13 +7869,13 @@
       <c r="C285" s="130">
         <v>10.8</v>
       </c>
-      <c r="D285" s="173" t="s">
+      <c r="D285" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E285" s="173"/>
-      <c r="F285" s="173"/>
-      <c r="G285" s="173"/>
-      <c r="H285" s="173"/>
+      <c r="E285" s="175"/>
+      <c r="F285" s="175"/>
+      <c r="G285" s="175"/>
+      <c r="H285" s="175"/>
       <c r="I285" s="1">
         <f>(200*3)+(140*2+40)</f>
         <v>920</v>
@@ -7895,13 +7904,13 @@
       <c r="C287" s="130">
         <v>12.8</v>
       </c>
-      <c r="D287" s="173" t="s">
+      <c r="D287" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E287" s="173"/>
-      <c r="F287" s="173"/>
-      <c r="G287" s="173"/>
-      <c r="H287" s="173"/>
+      <c r="E287" s="175"/>
+      <c r="F287" s="175"/>
+      <c r="G287" s="175"/>
+      <c r="H287" s="175"/>
       <c r="I287" s="1">
         <f>(200*2)+(140*2)</f>
         <v>680</v>
@@ -7918,13 +7927,13 @@
       <c r="C288" s="130">
         <v>13.8</v>
       </c>
-      <c r="D288" s="173" t="s">
+      <c r="D288" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E288" s="173"/>
-      <c r="F288" s="173"/>
-      <c r="G288" s="173"/>
-      <c r="H288" s="173"/>
+      <c r="E288" s="175"/>
+      <c r="F288" s="175"/>
+      <c r="G288" s="175"/>
+      <c r="H288" s="175"/>
       <c r="I288" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -7934,13 +7943,13 @@
       <c r="A289" s="150"/>
       <c r="B289" s="132"/>
       <c r="C289" s="151"/>
-      <c r="D289" s="173" t="s">
+      <c r="D289" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="E289" s="173"/>
-      <c r="F289" s="173"/>
-      <c r="G289" s="173"/>
-      <c r="H289" s="173"/>
+      <c r="E289" s="175"/>
+      <c r="F289" s="175"/>
+      <c r="G289" s="175"/>
+      <c r="H289" s="175"/>
       <c r="J289" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -7957,13 +7966,13 @@
       <c r="C290" s="130">
         <v>14.8</v>
       </c>
-      <c r="D290" s="173" t="s">
+      <c r="D290" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E290" s="173"/>
-      <c r="F290" s="173"/>
-      <c r="G290" s="173"/>
-      <c r="H290" s="173"/>
+      <c r="E290" s="175"/>
+      <c r="F290" s="175"/>
+      <c r="G290" s="175"/>
+      <c r="H290" s="175"/>
       <c r="I290" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -7980,13 +7989,13 @@
       <c r="C291" s="130">
         <v>15.8</v>
       </c>
-      <c r="D291" s="173" t="s">
+      <c r="D291" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="E291" s="173"/>
-      <c r="F291" s="173"/>
-      <c r="G291" s="173"/>
-      <c r="H291" s="173"/>
+      <c r="E291" s="175"/>
+      <c r="F291" s="175"/>
+      <c r="G291" s="175"/>
+      <c r="H291" s="175"/>
       <c r="I291" s="1">
         <f>200+15000</f>
         <v>15200</v>
@@ -8003,13 +8012,13 @@
       <c r="C292" s="130">
         <v>16.8</v>
       </c>
-      <c r="D292" s="173" t="s">
+      <c r="D292" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="173"/>
-      <c r="F292" s="173"/>
-      <c r="G292" s="173"/>
-      <c r="H292" s="173"/>
+      <c r="E292" s="175"/>
+      <c r="F292" s="175"/>
+      <c r="G292" s="175"/>
+      <c r="H292" s="175"/>
       <c r="I292" s="1">
         <f>200+(140*2)</f>
         <v>480</v>
@@ -8026,13 +8035,13 @@
       <c r="C293" s="130">
         <v>17.8</v>
       </c>
-      <c r="D293" s="173" t="s">
+      <c r="D293" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="E293" s="173"/>
-      <c r="F293" s="173"/>
-      <c r="G293" s="173"/>
-      <c r="H293" s="173"/>
+      <c r="E293" s="175"/>
+      <c r="F293" s="175"/>
+      <c r="G293" s="175"/>
+      <c r="H293" s="175"/>
       <c r="J293" s="1">
         <f>5210</f>
         <v>5210</v>
@@ -8049,13 +8058,13 @@
       <c r="C294" s="130">
         <v>18.8</v>
       </c>
-      <c r="D294" s="173" t="s">
+      <c r="D294" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E294" s="173"/>
-      <c r="F294" s="173"/>
-      <c r="G294" s="173"/>
-      <c r="H294" s="173"/>
+      <c r="E294" s="175"/>
+      <c r="F294" s="175"/>
+      <c r="G294" s="175"/>
+      <c r="H294" s="175"/>
       <c r="I294" s="1">
         <f>140</f>
         <v>140</v>
@@ -8084,13 +8093,13 @@
       <c r="C296" s="130">
         <v>20.8</v>
       </c>
-      <c r="D296" s="173" t="s">
+      <c r="D296" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E296" s="173"/>
-      <c r="F296" s="173"/>
-      <c r="G296" s="173"/>
-      <c r="H296" s="173"/>
+      <c r="E296" s="175"/>
+      <c r="F296" s="175"/>
+      <c r="G296" s="175"/>
+      <c r="H296" s="175"/>
       <c r="I296" s="1">
         <f>140*2</f>
         <v>280</v>
@@ -8107,13 +8116,13 @@
       <c r="C297" s="130">
         <v>21.8</v>
       </c>
-      <c r="D297" s="173" t="s">
+      <c r="D297" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="173"/>
-      <c r="F297" s="173"/>
-      <c r="G297" s="173"/>
-      <c r="H297" s="173"/>
+      <c r="E297" s="175"/>
+      <c r="F297" s="175"/>
+      <c r="G297" s="175"/>
+      <c r="H297" s="175"/>
       <c r="I297" s="1">
         <f>(200*5)+140</f>
         <v>1140</v>
@@ -8130,13 +8139,13 @@
       <c r="C298" s="130">
         <v>22.8</v>
       </c>
-      <c r="D298" s="173" t="s">
+      <c r="D298" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E298" s="173"/>
-      <c r="F298" s="173"/>
-      <c r="G298" s="173"/>
-      <c r="H298" s="173"/>
+      <c r="E298" s="175"/>
+      <c r="F298" s="175"/>
+      <c r="G298" s="175"/>
+      <c r="H298" s="175"/>
       <c r="I298" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8153,13 +8162,13 @@
       <c r="C299" s="130">
         <v>23.8</v>
       </c>
-      <c r="D299" s="173" t="s">
+      <c r="D299" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E299" s="173"/>
-      <c r="F299" s="173"/>
-      <c r="G299" s="173"/>
-      <c r="H299" s="173"/>
+      <c r="E299" s="175"/>
+      <c r="F299" s="175"/>
+      <c r="G299" s="175"/>
+      <c r="H299" s="175"/>
       <c r="I299" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8169,13 +8178,13 @@
       <c r="A300" s="155"/>
       <c r="B300" s="132"/>
       <c r="C300" s="156"/>
-      <c r="D300" s="173" t="s">
+      <c r="D300" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="E300" s="173"/>
-      <c r="F300" s="173"/>
-      <c r="G300" s="173"/>
-      <c r="H300" s="173"/>
+      <c r="E300" s="175"/>
+      <c r="F300" s="175"/>
+      <c r="G300" s="175"/>
+      <c r="H300" s="175"/>
       <c r="J300" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -8192,13 +8201,13 @@
       <c r="C301" s="130">
         <v>24.8</v>
       </c>
-      <c r="D301" s="173" t="s">
+      <c r="D301" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E301" s="173"/>
-      <c r="F301" s="173"/>
-      <c r="G301" s="173"/>
-      <c r="H301" s="173"/>
+      <c r="E301" s="175"/>
+      <c r="F301" s="175"/>
+      <c r="G301" s="175"/>
+      <c r="H301" s="175"/>
       <c r="I301" s="1">
         <v>340</v>
       </c>
@@ -8214,13 +8223,13 @@
       <c r="C302" s="130">
         <v>25.8</v>
       </c>
-      <c r="D302" s="173" t="s">
+      <c r="D302" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="173"/>
-      <c r="F302" s="173"/>
-      <c r="G302" s="173"/>
-      <c r="H302" s="173"/>
+      <c r="E302" s="175"/>
+      <c r="F302" s="175"/>
+      <c r="G302" s="175"/>
+      <c r="H302" s="175"/>
       <c r="I302" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8237,13 +8246,13 @@
       <c r="C303" s="130">
         <v>26.8</v>
       </c>
-      <c r="D303" s="173" t="s">
+      <c r="D303" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="173"/>
-      <c r="F303" s="173"/>
-      <c r="G303" s="173"/>
-      <c r="H303" s="173"/>
+      <c r="E303" s="175"/>
+      <c r="F303" s="175"/>
+      <c r="G303" s="175"/>
+      <c r="H303" s="175"/>
       <c r="I303" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8260,13 +8269,13 @@
       <c r="C304" s="130">
         <v>27.8</v>
       </c>
-      <c r="D304" s="173" t="s">
+      <c r="D304" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="173"/>
-      <c r="F304" s="173"/>
-      <c r="G304" s="173"/>
-      <c r="H304" s="173"/>
+      <c r="E304" s="175"/>
+      <c r="F304" s="175"/>
+      <c r="G304" s="175"/>
+      <c r="H304" s="175"/>
       <c r="I304" s="1">
         <f t="shared" ref="I304:I305" si="11">200+140</f>
         <v>340</v>
@@ -8283,13 +8292,13 @@
       <c r="C305" s="130">
         <v>28.8</v>
       </c>
-      <c r="D305" s="173" t="s">
+      <c r="D305" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="173"/>
-      <c r="F305" s="173"/>
-      <c r="G305" s="173"/>
-      <c r="H305" s="173"/>
+      <c r="E305" s="175"/>
+      <c r="F305" s="175"/>
+      <c r="G305" s="175"/>
+      <c r="H305" s="175"/>
       <c r="I305" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
@@ -8306,13 +8315,13 @@
       <c r="C306" s="130">
         <v>29.8</v>
       </c>
-      <c r="D306" s="173" t="s">
+      <c r="D306" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E306" s="173"/>
-      <c r="F306" s="173"/>
-      <c r="G306" s="173"/>
-      <c r="H306" s="173"/>
+      <c r="E306" s="175"/>
+      <c r="F306" s="175"/>
+      <c r="G306" s="175"/>
+      <c r="H306" s="175"/>
       <c r="I306" s="1">
         <v>200</v>
       </c>
@@ -8328,13 +8337,13 @@
       <c r="C307" s="130">
         <v>30.8</v>
       </c>
-      <c r="D307" s="173" t="s">
+      <c r="D307" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="E307" s="173"/>
-      <c r="F307" s="173"/>
-      <c r="G307" s="173"/>
-      <c r="H307" s="173"/>
+      <c r="E307" s="175"/>
+      <c r="F307" s="175"/>
+      <c r="G307" s="175"/>
+      <c r="H307" s="175"/>
       <c r="I307" s="1">
         <f>480+17700</f>
         <v>18180</v>
@@ -8344,13 +8353,13 @@
       <c r="A308" s="161"/>
       <c r="B308" s="132"/>
       <c r="C308" s="162"/>
-      <c r="D308" s="173" t="s">
+      <c r="D308" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E308" s="173"/>
-      <c r="F308" s="173"/>
-      <c r="G308" s="173"/>
-      <c r="H308" s="173"/>
+      <c r="E308" s="175"/>
+      <c r="F308" s="175"/>
+      <c r="G308" s="175"/>
+      <c r="H308" s="175"/>
       <c r="J308" s="1">
         <v>8000</v>
       </c>
@@ -8369,13 +8378,13 @@
       <c r="C309" s="5">
         <v>1.9</v>
       </c>
-      <c r="D309" s="173" t="s">
+      <c r="D309" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E309" s="173"/>
-      <c r="F309" s="173"/>
-      <c r="G309" s="173"/>
-      <c r="H309" s="173"/>
+      <c r="E309" s="175"/>
+      <c r="F309" s="175"/>
+      <c r="G309" s="175"/>
+      <c r="H309" s="175"/>
       <c r="I309" s="1">
         <v>200</v>
       </c>
@@ -8391,13 +8400,13 @@
       <c r="C310" s="5">
         <v>2.9</v>
       </c>
-      <c r="D310" s="173" t="s">
+      <c r="D310" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E310" s="173"/>
-      <c r="F310" s="173"/>
-      <c r="G310" s="173"/>
-      <c r="H310" s="173"/>
+      <c r="E310" s="175"/>
+      <c r="F310" s="175"/>
+      <c r="G310" s="175"/>
+      <c r="H310" s="175"/>
       <c r="I310" s="1">
         <v>200</v>
       </c>
@@ -8425,13 +8434,13 @@
       <c r="C312" s="165">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D312" s="173" t="s">
+      <c r="D312" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E312" s="173"/>
-      <c r="F312" s="173"/>
-      <c r="G312" s="173"/>
-      <c r="H312" s="173"/>
+      <c r="E312" s="175"/>
+      <c r="F312" s="175"/>
+      <c r="G312" s="175"/>
+      <c r="H312" s="175"/>
       <c r="I312" s="1">
         <f>140*4-200</f>
         <v>360</v>
@@ -8448,13 +8457,13 @@
       <c r="C313" s="165">
         <v>5.9</v>
       </c>
-      <c r="D313" s="173" t="s">
+      <c r="D313" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="173"/>
-      <c r="F313" s="173"/>
-      <c r="G313" s="173"/>
-      <c r="H313" s="173"/>
+      <c r="E313" s="175"/>
+      <c r="F313" s="175"/>
+      <c r="G313" s="175"/>
+      <c r="H313" s="175"/>
       <c r="I313" s="1">
         <f>600+140</f>
         <v>740</v>
@@ -8471,13 +8480,13 @@
       <c r="C314" s="165">
         <v>6.9</v>
       </c>
-      <c r="D314" s="173" t="s">
+      <c r="D314" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="173"/>
-      <c r="F314" s="173"/>
-      <c r="G314" s="173"/>
-      <c r="H314" s="173"/>
+      <c r="E314" s="175"/>
+      <c r="F314" s="175"/>
+      <c r="G314" s="175"/>
+      <c r="H314" s="175"/>
       <c r="I314" s="1">
         <f>140+200</f>
         <v>340</v>
@@ -8487,13 +8496,13 @@
       <c r="A315" s="167"/>
       <c r="B315" s="132"/>
       <c r="C315" s="168"/>
-      <c r="D315" s="173" t="s">
+      <c r="D315" s="175" t="s">
         <v>231</v>
       </c>
-      <c r="E315" s="173"/>
-      <c r="F315" s="173"/>
-      <c r="G315" s="173"/>
-      <c r="H315" s="173"/>
+      <c r="E315" s="175"/>
+      <c r="F315" s="175"/>
+      <c r="G315" s="175"/>
+      <c r="H315" s="175"/>
       <c r="J315" s="1">
         <v>14000</v>
       </c>
@@ -8509,13 +8518,13 @@
       <c r="C316" s="165">
         <v>7.9</v>
       </c>
-      <c r="D316" s="173" t="s">
+      <c r="D316" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="173"/>
-      <c r="F316" s="173"/>
-      <c r="G316" s="173"/>
-      <c r="H316" s="173"/>
+      <c r="E316" s="175"/>
+      <c r="F316" s="175"/>
+      <c r="G316" s="175"/>
+      <c r="H316" s="175"/>
       <c r="I316" s="1">
         <v>340</v>
       </c>
@@ -8531,13 +8540,13 @@
       <c r="C317" s="165">
         <v>8.9</v>
       </c>
-      <c r="D317" s="173" t="s">
+      <c r="D317" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="173"/>
-      <c r="F317" s="173"/>
-      <c r="G317" s="173"/>
-      <c r="H317" s="173"/>
+      <c r="E317" s="175"/>
+      <c r="F317" s="175"/>
+      <c r="G317" s="175"/>
+      <c r="H317" s="175"/>
       <c r="I317" s="1">
         <v>340</v>
       </c>
@@ -8553,11 +8562,11 @@
       <c r="C318" s="165">
         <v>9.9</v>
       </c>
-      <c r="D318" s="173"/>
-      <c r="E318" s="173"/>
-      <c r="F318" s="173"/>
-      <c r="G318" s="173"/>
-      <c r="H318" s="173"/>
+      <c r="D318" s="175"/>
+      <c r="E318" s="175"/>
+      <c r="F318" s="175"/>
+      <c r="G318" s="175"/>
+      <c r="H318" s="175"/>
       <c r="I318" s="1">
         <f>1150</f>
         <v>1150</v>
@@ -8574,13 +8583,13 @@
       <c r="C319" s="165">
         <v>10.9</v>
       </c>
-      <c r="D319" s="173" t="s">
+      <c r="D319" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="173"/>
-      <c r="F319" s="173"/>
-      <c r="G319" s="173"/>
-      <c r="H319" s="173"/>
+      <c r="E319" s="175"/>
+      <c r="F319" s="175"/>
+      <c r="G319" s="175"/>
+      <c r="H319" s="175"/>
       <c r="I319" s="1">
         <f>400+200</f>
         <v>600</v>
@@ -8597,13 +8606,13 @@
       <c r="C320" s="165">
         <v>11.9</v>
       </c>
-      <c r="D320" s="173" t="s">
+      <c r="D320" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E320" s="173"/>
-      <c r="F320" s="173"/>
-      <c r="G320" s="173"/>
-      <c r="H320" s="173"/>
+      <c r="E320" s="175"/>
+      <c r="F320" s="175"/>
+      <c r="G320" s="175"/>
+      <c r="H320" s="175"/>
       <c r="J320" s="1">
         <v>10000</v>
       </c>
@@ -8611,23 +8620,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="171"/>
       <c r="B321" s="132"/>
       <c r="C321" s="172"/>
-      <c r="D321" s="173" t="s">
+      <c r="D321" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E321" s="173"/>
-      <c r="F321" s="173"/>
-      <c r="G321" s="173"/>
-      <c r="H321" s="173"/>
+      <c r="E321" s="175"/>
+      <c r="F321" s="175"/>
+      <c r="G321" s="175"/>
+      <c r="H321" s="175"/>
       <c r="I321" s="1">
         <f>220</f>
         <v>220</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="129">
         <f>A320+1</f>
         <v>275</v>
@@ -8638,19 +8647,19 @@
       <c r="C322" s="165">
         <v>12.9</v>
       </c>
-      <c r="D322" s="173" t="s">
+      <c r="D322" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="173"/>
-      <c r="F322" s="173"/>
-      <c r="G322" s="173"/>
-      <c r="H322" s="173"/>
+      <c r="E322" s="175"/>
+      <c r="F322" s="175"/>
+      <c r="G322" s="175"/>
+      <c r="H322" s="175"/>
       <c r="I322" s="1">
         <f>400+140</f>
         <v>540</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="129">
         <f t="shared" ref="A323:A385" si="12">A322+1</f>
         <v>276</v>
@@ -8661,19 +8670,19 @@
       <c r="C323" s="165">
         <v>13.9</v>
       </c>
-      <c r="D323" s="173" t="s">
+      <c r="D323" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="173"/>
-      <c r="F323" s="173"/>
-      <c r="G323" s="173"/>
-      <c r="H323" s="173"/>
+      <c r="E323" s="175"/>
+      <c r="F323" s="175"/>
+      <c r="G323" s="175"/>
+      <c r="H323" s="175"/>
       <c r="I323" s="1">
         <f>200+140</f>
         <v>340</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="129">
         <f t="shared" si="12"/>
         <v>277</v>
@@ -8684,19 +8693,19 @@
       <c r="C324" s="165">
         <v>14.9</v>
       </c>
-      <c r="D324" s="173" t="s">
+      <c r="D324" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="173"/>
-      <c r="F324" s="173"/>
-      <c r="G324" s="173"/>
-      <c r="H324" s="173"/>
+      <c r="E324" s="175"/>
+      <c r="F324" s="175"/>
+      <c r="G324" s="175"/>
+      <c r="H324" s="175"/>
       <c r="I324" s="1">
         <f>200+140</f>
         <v>340</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="129">
         <f t="shared" si="12"/>
         <v>278</v>
@@ -8707,18 +8716,18 @@
       <c r="C325" s="165">
         <v>15.9</v>
       </c>
-      <c r="D325" s="173" t="s">
+      <c r="D325" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E325" s="173"/>
-      <c r="F325" s="173"/>
-      <c r="G325" s="173"/>
-      <c r="H325" s="173"/>
+      <c r="E325" s="175"/>
+      <c r="F325" s="175"/>
+      <c r="G325" s="175"/>
+      <c r="H325" s="175"/>
       <c r="I325" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="129">
         <f t="shared" si="12"/>
         <v>279</v>
@@ -8730,7 +8739,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="129">
         <f t="shared" si="12"/>
         <v>280</v>
@@ -8741,19 +8750,19 @@
       <c r="C327" s="165">
         <v>17.899999999999999</v>
       </c>
-      <c r="D327" s="173" t="s">
+      <c r="D327" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="173"/>
-      <c r="F327" s="173"/>
-      <c r="G327" s="173"/>
-      <c r="H327" s="173"/>
+      <c r="E327" s="175"/>
+      <c r="F327" s="175"/>
+      <c r="G327" s="175"/>
+      <c r="H327" s="175"/>
       <c r="I327" s="1">
         <f>(200*2)+(140*3)</f>
         <v>820</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="129">
         <f t="shared" si="12"/>
         <v>281</v>
@@ -8764,19 +8773,19 @@
       <c r="C328" s="165">
         <v>18.899999999999999</v>
       </c>
-      <c r="D328" s="173" t="s">
+      <c r="D328" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="173"/>
-      <c r="F328" s="173"/>
-      <c r="G328" s="173"/>
-      <c r="H328" s="173"/>
+      <c r="E328" s="175"/>
+      <c r="F328" s="175"/>
+      <c r="G328" s="175"/>
+      <c r="H328" s="175"/>
       <c r="I328" s="1">
-        <f>200+140</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <f>200+(140+50)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="129">
         <f t="shared" si="12"/>
         <v>282</v>
@@ -8787,8 +8796,19 @@
       <c r="C329" s="165">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D329" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="175"/>
+      <c r="F329" s="175"/>
+      <c r="G329" s="175"/>
+      <c r="H329" s="175"/>
+      <c r="I329" s="1">
+        <f>200+140</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="129">
         <f t="shared" si="12"/>
         <v>283</v>
@@ -8799,8 +8819,18 @@
       <c r="C330" s="165">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D330" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E330" s="175"/>
+      <c r="F330" s="175"/>
+      <c r="G330" s="175"/>
+      <c r="H330" s="175"/>
+      <c r="I330" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="129">
         <f t="shared" si="12"/>
         <v>284</v>
@@ -8811,8 +8841,19 @@
       <c r="C331" s="165">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D331" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="175"/>
+      <c r="F331" s="175"/>
+      <c r="G331" s="175"/>
+      <c r="H331" s="175"/>
+      <c r="I331" s="1">
+        <f>200*2+140+20</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="129">
         <f t="shared" si="12"/>
         <v>285</v>
@@ -8823,8 +8864,19 @@
       <c r="C332" s="165">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D332" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E332" s="175"/>
+      <c r="F332" s="175"/>
+      <c r="G332" s="175"/>
+      <c r="H332" s="175"/>
+      <c r="I332" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="129">
         <f t="shared" si="12"/>
         <v>286</v>
@@ -8835,8 +8887,19 @@
       <c r="C333" s="165">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D333" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E333" s="175"/>
+      <c r="F333" s="175"/>
+      <c r="G333" s="175"/>
+      <c r="H333" s="175"/>
+      <c r="I333" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="129">
         <f t="shared" si="12"/>
         <v>287</v>
@@ -8847,8 +8910,19 @@
       <c r="C334" s="165">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D334" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E334" s="175"/>
+      <c r="F334" s="175"/>
+      <c r="G334" s="175"/>
+      <c r="H334" s="175"/>
+      <c r="I334" s="1">
+        <f>140</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="129">
         <f t="shared" si="12"/>
         <v>288</v>
@@ -8859,8 +8933,19 @@
       <c r="C335" s="165">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D335" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="175"/>
+      <c r="F335" s="175"/>
+      <c r="G335" s="175"/>
+      <c r="H335" s="175"/>
+      <c r="I335" s="1">
+        <f>200*4+140</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="129">
         <f t="shared" si="12"/>
         <v>289</v>
@@ -8871,8 +8956,18 @@
       <c r="C336" s="165">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="E336" s="175"/>
+      <c r="F336" s="175"/>
+      <c r="G336" s="175"/>
+      <c r="H336" s="175"/>
+      <c r="J336" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="129">
         <f t="shared" si="12"/>
         <v>290</v>
@@ -8883,8 +8978,19 @@
       <c r="C337" s="165">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E337" s="175"/>
+      <c r="F337" s="175"/>
+      <c r="G337" s="175"/>
+      <c r="H337" s="175"/>
+      <c r="I337" s="1">
+        <f>200*2+140*2</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="129">
         <f t="shared" si="12"/>
         <v>291</v>
@@ -8895,8 +9001,19 @@
       <c r="C338" s="165">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" s="175"/>
+      <c r="F338" s="175"/>
+      <c r="G338" s="175"/>
+      <c r="H338" s="175"/>
+      <c r="I338" s="1">
+        <f>200+140</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="129">
         <f t="shared" si="12"/>
         <v>292</v>
@@ -8907,8 +9024,19 @@
       <c r="C339" s="165">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" s="175"/>
+      <c r="F339" s="175"/>
+      <c r="G339" s="175"/>
+      <c r="H339" s="175"/>
+      <c r="I339" s="1">
+        <f>200+140+50</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="129">
         <f t="shared" si="12"/>
         <v>293</v>
@@ -8920,7 +9048,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="129">
         <f t="shared" si="12"/>
         <v>294</v>
@@ -8932,7 +9060,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="129">
         <f t="shared" si="12"/>
         <v>295</v>
@@ -8944,7 +9072,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="129">
         <f t="shared" si="12"/>
         <v>296</v>
@@ -8956,7 +9084,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="129">
         <f t="shared" si="12"/>
         <v>297</v>
@@ -8968,7 +9096,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="129">
         <f t="shared" si="12"/>
         <v>298</v>
@@ -8980,7 +9108,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="129">
         <f t="shared" si="12"/>
         <v>299</v>
@@ -8992,7 +9120,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="129">
         <f t="shared" si="12"/>
         <v>300</v>
@@ -9004,7 +9132,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="129">
         <f t="shared" si="12"/>
         <v>301</v>
@@ -9016,7 +9144,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="129">
         <f t="shared" si="12"/>
         <v>302</v>
@@ -9028,7 +9156,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="129">
         <f t="shared" si="12"/>
         <v>303</v>
@@ -9040,7 +9168,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="129">
         <f t="shared" si="12"/>
         <v>304</v>
@@ -9052,7 +9180,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="129">
         <f t="shared" si="12"/>
         <v>305</v>
@@ -10004,194 +10132,107 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="319">
-    <mergeCell ref="D327:H327"/>
-    <mergeCell ref="D328:H328"/>
-    <mergeCell ref="D322:H322"/>
-    <mergeCell ref="D323:H323"/>
-    <mergeCell ref="D324:H324"/>
-    <mergeCell ref="D320:H320"/>
-    <mergeCell ref="D314:H314"/>
-    <mergeCell ref="D315:H315"/>
-    <mergeCell ref="D316:H316"/>
-    <mergeCell ref="D317:H317"/>
-    <mergeCell ref="D291:H291"/>
-    <mergeCell ref="D313:H313"/>
+  <mergeCells count="330">
+    <mergeCell ref="D339:H339"/>
+    <mergeCell ref="D338:H338"/>
+    <mergeCell ref="D310:H310"/>
+    <mergeCell ref="D304:H304"/>
+    <mergeCell ref="D305:H305"/>
+    <mergeCell ref="D303:H303"/>
+    <mergeCell ref="D300:H300"/>
+    <mergeCell ref="D298:H298"/>
+    <mergeCell ref="D296:H296"/>
+    <mergeCell ref="D292:H292"/>
+    <mergeCell ref="D293:H293"/>
+    <mergeCell ref="D308:H308"/>
+    <mergeCell ref="D309:H309"/>
+    <mergeCell ref="D299:H299"/>
+    <mergeCell ref="D306:H306"/>
+    <mergeCell ref="D307:H307"/>
+    <mergeCell ref="D302:H302"/>
     <mergeCell ref="D312:H312"/>
     <mergeCell ref="D301:H301"/>
     <mergeCell ref="D321:H321"/>
     <mergeCell ref="D318:H318"/>
     <mergeCell ref="D319:H319"/>
-    <mergeCell ref="D279:H279"/>
-    <mergeCell ref="D278:H278"/>
     <mergeCell ref="D297:H297"/>
     <mergeCell ref="D294:H294"/>
-    <mergeCell ref="D290:H290"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D253:H253"/>
-    <mergeCell ref="D280:H280"/>
-    <mergeCell ref="D281:H281"/>
-    <mergeCell ref="D288:H288"/>
-    <mergeCell ref="D289:H289"/>
-    <mergeCell ref="D287:H287"/>
-    <mergeCell ref="D259:H259"/>
-    <mergeCell ref="D274:H274"/>
-    <mergeCell ref="D275:H275"/>
-    <mergeCell ref="D272:H272"/>
-    <mergeCell ref="D273:H273"/>
-    <mergeCell ref="D256:H256"/>
-    <mergeCell ref="D258:H258"/>
-    <mergeCell ref="D262:H262"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D252:H252"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D240:H240"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D251:H251"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D249:H249"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D320:H320"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D205:H205"/>
+    <mergeCell ref="D206:H206"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="D211:H211"/>
+    <mergeCell ref="D212:H212"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D213:H213"/>
+    <mergeCell ref="D214:H214"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D181:H181"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="D172:H172"/>
@@ -10216,114 +10257,212 @@
     <mergeCell ref="D152:H152"/>
     <mergeCell ref="D154:H154"/>
     <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D194:H194"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D252:H252"/>
+    <mergeCell ref="D253:H253"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D251:H251"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D259:H259"/>
+    <mergeCell ref="D274:H274"/>
+    <mergeCell ref="D256:H256"/>
+    <mergeCell ref="D258:H258"/>
+    <mergeCell ref="D262:H262"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D276:H276"/>
+    <mergeCell ref="D260:H260"/>
+    <mergeCell ref="D263:H263"/>
+    <mergeCell ref="D275:H275"/>
+    <mergeCell ref="D272:H272"/>
+    <mergeCell ref="D273:H273"/>
+    <mergeCell ref="D265:H265"/>
+    <mergeCell ref="D257:H257"/>
     <mergeCell ref="D269:H269"/>
     <mergeCell ref="D271:H271"/>
-    <mergeCell ref="D204:H204"/>
-    <mergeCell ref="D205:H205"/>
-    <mergeCell ref="D206:H206"/>
-    <mergeCell ref="D208:H208"/>
-    <mergeCell ref="D211:H211"/>
-    <mergeCell ref="D212:H212"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D213:H213"/>
-    <mergeCell ref="D214:H214"/>
-    <mergeCell ref="D207:H207"/>
     <mergeCell ref="D261:H261"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D242:H242"/>
     <mergeCell ref="D270:H270"/>
     <mergeCell ref="D266:H266"/>
     <mergeCell ref="D267:H267"/>
     <mergeCell ref="D268:H268"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D234:H234"/>
-    <mergeCell ref="D325:H325"/>
-    <mergeCell ref="D282:H282"/>
-    <mergeCell ref="D265:H265"/>
-    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D291:H291"/>
+    <mergeCell ref="D280:H280"/>
+    <mergeCell ref="D281:H281"/>
+    <mergeCell ref="D288:H288"/>
+    <mergeCell ref="D289:H289"/>
+    <mergeCell ref="D287:H287"/>
     <mergeCell ref="D285:H285"/>
     <mergeCell ref="D283:H283"/>
-    <mergeCell ref="D310:H310"/>
-    <mergeCell ref="D304:H304"/>
-    <mergeCell ref="D305:H305"/>
-    <mergeCell ref="D303:H303"/>
-    <mergeCell ref="D300:H300"/>
-    <mergeCell ref="D298:H298"/>
-    <mergeCell ref="D296:H296"/>
-    <mergeCell ref="D292:H292"/>
-    <mergeCell ref="D293:H293"/>
-    <mergeCell ref="D308:H308"/>
-    <mergeCell ref="D309:H309"/>
-    <mergeCell ref="D299:H299"/>
-    <mergeCell ref="D306:H306"/>
-    <mergeCell ref="D307:H307"/>
-    <mergeCell ref="D302:H302"/>
-    <mergeCell ref="D276:H276"/>
-    <mergeCell ref="D260:H260"/>
-    <mergeCell ref="D263:H263"/>
+    <mergeCell ref="D279:H279"/>
+    <mergeCell ref="D278:H278"/>
+    <mergeCell ref="D314:H314"/>
+    <mergeCell ref="D315:H315"/>
+    <mergeCell ref="D316:H316"/>
+    <mergeCell ref="D317:H317"/>
+    <mergeCell ref="D325:H325"/>
+    <mergeCell ref="D330:H330"/>
+    <mergeCell ref="D329:H329"/>
+    <mergeCell ref="D290:H290"/>
+    <mergeCell ref="D282:H282"/>
+    <mergeCell ref="D313:H313"/>
+    <mergeCell ref="D337:H337"/>
+    <mergeCell ref="D335:H335"/>
+    <mergeCell ref="D331:H331"/>
+    <mergeCell ref="D332:H332"/>
+    <mergeCell ref="D327:H327"/>
+    <mergeCell ref="D328:H328"/>
+    <mergeCell ref="D322:H322"/>
+    <mergeCell ref="D323:H323"/>
+    <mergeCell ref="D324:H324"/>
+    <mergeCell ref="D336:H336"/>
+    <mergeCell ref="D333:H333"/>
+    <mergeCell ref="D334:H334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10415,10 +10554,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -11806,8 +11945,8 @@
         <f>Sheet1!C93</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="177"/>
-      <c r="E67" s="178"/>
+      <c r="D67" s="179"/>
+      <c r="E67" s="180"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -11830,8 +11969,8 @@
         <f>Sheet1!C94</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="177"/>
-      <c r="E68" s="178"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="180"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -11854,14 +11993,14 @@
         <f>Sheet1!C95</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="177"/>
-      <c r="E69" s="178"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="180"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="181"/>
-      <c r="P69" s="181"/>
+      <c r="O69" s="183"/>
+      <c r="P69" s="183"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -11877,8 +12016,8 @@
         <f>Sheet1!C96</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="179"/>
-      <c r="E70" s="180"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="182"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -11936,10 +12075,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="182" t="s">
+      <c r="B73" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="182"/>
+      <c r="C73" s="184"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -12002,8 +12141,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="181"/>
-      <c r="P75" s="181"/>
+      <c r="O75" s="183"/>
+      <c r="P75" s="183"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -13515,8 +13654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1122"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13632,10 +13771,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -13650,11 +13789,11 @@
       <c r="I4" s="42"/>
       <c r="J4" s="50">
         <f>SUM(K4:L4)</f>
-        <v>70040</v>
+        <v>72240</v>
       </c>
       <c r="K4" s="51">
         <f>SUM(K7:AC7)</f>
-        <v>55200</v>
+        <v>57400</v>
       </c>
       <c r="L4" s="52">
         <f>SUM(K9:AC9)</f>
@@ -13770,7 +13909,7 @@
       </c>
       <c r="N7" s="56">
         <f>SUM($D$274:$D$500)</f>
-        <v>2600</v>
+        <v>4800</v>
       </c>
       <c r="O7" s="56"/>
     </row>
@@ -13802,7 +13941,7 @@
       </c>
       <c r="N8" s="56">
         <f>N7/200</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O8" s="56"/>
       <c r="P8" s="56"/>
@@ -13880,7 +14019,7 @@
       </c>
       <c r="N10" s="56">
         <f>(N7/100)*(10000/120)</f>
-        <v>2166.6666666666665</v>
+        <v>4000</v>
       </c>
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
@@ -13923,7 +14062,7 @@
       </c>
       <c r="N11" s="61">
         <f>N7-N10+N9</f>
-        <v>433.33333333333348</v>
+        <v>800</v>
       </c>
       <c r="O11" s="56"/>
       <c r="P11" s="56"/>
@@ -19230,6 +19369,9 @@
         <f>Sheet1!C329</f>
         <v>19.899999999999999</v>
       </c>
+      <c r="D287" s="54">
+        <v>200</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="58" t="s">
@@ -19244,7 +19386,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="58" t="s">
         <v>29</v>
       </c>
@@ -19256,8 +19398,11 @@
         <f>Sheet1!C331</f>
         <v>21.9</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="58" t="s">
         <v>30</v>
       </c>
@@ -19270,7 +19415,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="58" t="s">
         <v>31</v>
       </c>
@@ -19283,7 +19428,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="58" t="s">
         <v>32</v>
       </c>
@@ -19296,7 +19441,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="58" t="s">
         <v>26</v>
       </c>
@@ -19308,8 +19453,11 @@
         <f>Sheet1!C335</f>
         <v>25.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="54">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="58" t="s">
         <v>27</v>
       </c>
@@ -19322,7 +19470,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="58" t="s">
         <v>28</v>
       </c>
@@ -19334,8 +19482,11 @@
         <f>Sheet1!C337</f>
         <v>27.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="58" t="s">
         <v>29</v>
       </c>
@@ -19347,8 +19498,11 @@
         <f>Sheet1!C338</f>
         <v>28.9</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="58" t="s">
         <v>30</v>
       </c>
@@ -19360,8 +19514,11 @@
         <f>Sheet1!C339</f>
         <v>29.9</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="58" t="s">
         <v>31</v>
       </c>
@@ -19374,7 +19531,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="58" t="s">
         <v>32</v>
       </c>
@@ -19387,7 +19544,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="58" t="s">
         <v>26</v>
       </c>
@@ -19400,7 +19557,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="58" t="s">
         <v>27</v>
       </c>
@@ -19413,7 +19570,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="58" t="s">
         <v>28</v>
       </c>
@@ -19426,7 +19583,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="58" t="s">
         <v>29</v>
       </c>
@@ -19439,7 +19596,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="58" t="s">
         <v>30</v>
       </c>
@@ -28658,8 +28815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28724,15 +28881,15 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>36150</v>
+        <v>37810</v>
       </c>
       <c r="J3" s="51">
         <f>SUM(J6:AC6)</f>
-        <v>26450</v>
+        <v>27670</v>
       </c>
       <c r="K3" s="52">
         <f>SUM(J8:AC8)</f>
-        <v>9700</v>
+        <v>10140</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
@@ -28748,10 +28905,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="88" t="s">
         <v>34</v>
       </c>
@@ -28816,8 +28973,8 @@
         <v>211</v>
       </c>
       <c r="P5" s="159">
-        <f>200+80-80</f>
-        <v>200</v>
+        <f>200+80-80-50-20-50</f>
+        <v>80</v>
       </c>
       <c r="Q5" s="87"/>
       <c r="R5" s="87"/>
@@ -28850,7 +29007,7 @@
       </c>
       <c r="M6" s="56">
         <f>SUM($D$256:$D$326)</f>
-        <v>2900</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -28881,7 +29038,7 @@
       </c>
       <c r="M7" s="56">
         <f>M6/100</f>
-        <v>29</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -28912,7 +29069,7 @@
       </c>
       <c r="M8" s="56">
         <f>SUM($E$256:$E$326)+SUM($F$256:$F$326)</f>
-        <v>1240</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -28943,7 +29100,7 @@
       </c>
       <c r="M9" s="56">
         <f>(M6/100)*(10000/120)</f>
-        <v>2416.6666666666665</v>
+        <v>3433.3333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -28982,7 +29139,7 @@
       </c>
       <c r="M10" s="56">
         <f>M6-M9+M8</f>
-        <v>1723.3333333333335</v>
+        <v>2366.6666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -35166,7 +35323,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D286" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E286" s="1">
         <v>10</v>
@@ -35187,6 +35344,15 @@
         <f>Sheet1!C329</f>
         <v>19.899999999999999</v>
       </c>
+      <c r="D287" s="1">
+        <v>100</v>
+      </c>
+      <c r="E287" s="1">
+        <v>10</v>
+      </c>
+      <c r="F287" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="58" t="s">
@@ -35200,8 +35366,17 @@
         <f>Sheet1!C330</f>
         <v>20.9</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D288" s="1">
+        <v>100</v>
+      </c>
+      <c r="E288" s="1">
+        <v>10</v>
+      </c>
+      <c r="F288" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="58" t="s">
         <v>29</v>
       </c>
@@ -35213,8 +35388,17 @@
         <f>Sheet1!C331</f>
         <v>21.9</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D289" s="1">
+        <v>120</v>
+      </c>
+      <c r="E289" s="1">
+        <v>10</v>
+      </c>
+      <c r="F289" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="58" t="s">
         <v>30</v>
       </c>
@@ -35226,8 +35410,17 @@
         <f>Sheet1!C332</f>
         <v>22.9</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D290" s="1">
+        <v>100</v>
+      </c>
+      <c r="E290" s="1">
+        <v>10</v>
+      </c>
+      <c r="F290" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="58" t="s">
         <v>31</v>
       </c>
@@ -35239,8 +35432,17 @@
         <f>Sheet1!C333</f>
         <v>23.9</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D291" s="1">
+        <v>100</v>
+      </c>
+      <c r="E291" s="1">
+        <v>10</v>
+      </c>
+      <c r="F291" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="58" t="s">
         <v>32</v>
       </c>
@@ -35252,8 +35454,17 @@
         <f>Sheet1!C334</f>
         <v>24.9</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D292" s="1">
+        <v>100</v>
+      </c>
+      <c r="E292" s="1">
+        <v>10</v>
+      </c>
+      <c r="F292" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="58" t="s">
         <v>26</v>
       </c>
@@ -35265,8 +35476,17 @@
         <f>Sheet1!C335</f>
         <v>25.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D293" s="1">
+        <v>100</v>
+      </c>
+      <c r="E293" s="1">
+        <v>10</v>
+      </c>
+      <c r="F293" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="58" t="s">
         <v>27</v>
       </c>
@@ -35279,7 +35499,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="58" t="s">
         <v>28</v>
       </c>
@@ -35291,8 +35511,17 @@
         <f>Sheet1!C337</f>
         <v>27.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D295" s="1">
+        <v>200</v>
+      </c>
+      <c r="E295" s="1">
+        <v>20</v>
+      </c>
+      <c r="F295" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="58" t="s">
         <v>29</v>
       </c>
@@ -35304,8 +35533,17 @@
         <f>Sheet1!C338</f>
         <v>28.9</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D296" s="1">
+        <v>100</v>
+      </c>
+      <c r="E296" s="1">
+        <v>10</v>
+      </c>
+      <c r="F296" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="58" t="s">
         <v>30</v>
       </c>
@@ -35317,8 +35555,17 @@
         <f>Sheet1!C339</f>
         <v>29.9</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D297" s="1">
+        <v>150</v>
+      </c>
+      <c r="E297" s="1">
+        <v>10</v>
+      </c>
+      <c r="F297" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="58" t="s">
         <v>31</v>
       </c>
@@ -35331,7 +35578,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="58" t="s">
         <v>32</v>
       </c>
@@ -35344,7 +35591,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="58" t="s">
         <v>26</v>
       </c>
@@ -35357,7 +35604,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="58" t="s">
         <v>27</v>
       </c>
@@ -35370,7 +35617,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="58" t="s">
         <v>28</v>
       </c>
@@ -35383,7 +35630,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="58" t="s">
         <v>29</v>
       </c>
@@ -35396,7 +35643,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="58" t="s">
         <v>30</v>
       </c>
@@ -43940,26 +44187,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>77</v>
       </c>
       <c r="B1">
         <f>SUM(B5:Z5)</f>
-        <v>55000</v>
+        <v>58000</v>
       </c>
       <c r="D1">
         <f>SUM(B6:Z6)</f>
@@ -43970,10 +44217,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="142"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="99" t="s">
         <v>82</v>
       </c>
@@ -43998,8 +44245,11 @@
       <c r="I3" s="157" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="174" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="95" t="s">
         <v>34</v>
       </c>
@@ -44024,8 +44274,11 @@
       <c r="I4" s="157" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="174" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>75</v>
       </c>
@@ -44053,8 +44306,11 @@
       <c r="I5" s="157">
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="174">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>127</v>
       </c>
@@ -44090,8 +44346,9 @@
         <f>I5*0.03</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="174"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>76</v>
       </c>
@@ -44103,7 +44360,7 @@
       </c>
       <c r="D7" s="131"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>167</v>
       </c>
@@ -44114,7 +44371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="153">
         <v>42996</v>
       </c>
@@ -44130,7 +44387,7 @@
       </c>
       <c r="F9" s="142"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="153">
         <v>43036</v>
       </c>
@@ -44157,10 +44414,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44238,8 +44495,14 @@
       <c r="B8" s="154">
         <v>600</v>
       </c>
-      <c r="C8" s="154" t="s">
-        <v>175</v>
+      <c r="C8" s="154"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>43049</v>
+      </c>
+      <c r="B9" s="173">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Số Cái .xlsx
+++ b/Số Cái .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="237">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -741,6 +741,9 @@
   <si>
     <t>5000(18/11)</t>
   </si>
+  <si>
+    <t>Thu (Láng+Thúy+Cuong)</t>
+  </si>
 </sst>
 </file>
 
@@ -967,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,13 +1448,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,11 +1788,11 @@
         <v>500</v>
       </c>
       <c r="N1" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1">
         <f>M1*N1</f>
-        <v>6000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1797,11 +1803,11 @@
         <v>200</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O6" si="0">M2*N2</f>
-        <v>200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1812,11 +1818,11 @@
         <v>100</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1827,11 +1833,11 @@
         <v>50</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
@@ -1839,16 +1845,16 @@
       <c r="G5" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="179"/>
       <c r="M5" s="1">
         <v>20</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1863,11 +1869,11 @@
         <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1880,15 +1886,15 @@
       </c>
       <c r="O7" s="1">
         <f>SUM(O1:O6)</f>
-        <v>6570</v>
+        <v>12570</v>
       </c>
       <c r="P7" s="1">
         <f>N11+Q11</f>
-        <v>6970</v>
+        <v>12570</v>
       </c>
       <c r="Q7" s="1">
         <f>O7-P7</f>
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1912,21 +1918,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="181"/>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178" t="s">
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178" t="s">
+      <c r="J9" s="179"/>
+      <c r="K9" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1951,40 +1957,40 @@
       </c>
       <c r="M10" s="1">
         <f>SUM(N10:O10)</f>
-        <v>146600</v>
+        <v>150700</v>
       </c>
       <c r="N10" s="1">
         <f>Son!H3+Lang!L4+Thuy!J3+1800</f>
-        <v>120070</v>
+        <v>123620</v>
       </c>
       <c r="O10" s="1">
         <f>Son!I3+Lang!M4+Thuy!K3+180</f>
-        <v>26530</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179">
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="182">
         <v>70000</v>
       </c>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178" t="s">
+      <c r="J11" s="182"/>
+      <c r="K11" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="178"/>
+      <c r="L11" s="179"/>
       <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="1">
         <f>SUM(I12:I10041)-SUM(J12:J10041)</f>
-        <v>2770</v>
+        <v>8370</v>
       </c>
       <c r="Q11" s="1">
         <f>SUM(BM!$B3:$B100)</f>
@@ -2001,13 +2007,13 @@
       <c r="C12" s="5">
         <v>7.1</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
       <c r="I12" s="1">
         <v>320</v>
       </c>
@@ -2016,7 +2022,7 @@
       </c>
       <c r="N12" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!L10:AC10)+SUM(Thuy!J9:AB9)</f>
-        <v>98558.333333333328</v>
+        <v>101516.66666666667</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2029,13 +2035,13 @@
       <c r="C13" s="5">
         <v>8.1</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
       <c r="I13" s="1">
         <v>760</v>
       </c>
@@ -2044,7 +2050,7 @@
       </c>
       <c r="N13" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!L11:AC11)+SUM(Thuy!J10:AB10)</f>
-        <v>46061.666666666672</v>
+        <v>47203.333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2057,13 +2063,13 @@
       <c r="C14" s="5">
         <v>9.1</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
       <c r="I14" s="1">
         <v>110</v>
       </c>
@@ -2085,13 +2091,13 @@
       <c r="C15" s="5">
         <v>10.1</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
       <c r="I15" s="1">
         <v>970</v>
       </c>
@@ -2106,13 +2112,13 @@
       <c r="C16" s="5">
         <v>11.1</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
       <c r="I16" s="1">
         <v>330</v>
       </c>
@@ -2127,13 +2133,13 @@
       <c r="C17" s="5">
         <v>12.1</v>
       </c>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
       <c r="I17" s="1">
         <v>330</v>
       </c>
@@ -2148,13 +2154,13 @@
       <c r="C18" s="5">
         <v>13.1</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
       <c r="I18" s="1">
         <v>1070</v>
       </c>
@@ -2169,13 +2175,13 @@
       <c r="C19" s="6">
         <v>13.1</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
       <c r="J19" s="1">
         <v>2820</v>
       </c>
@@ -2190,11 +2196,11 @@
       <c r="C20" s="5">
         <v>14.1</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -2209,11 +2215,11 @@
       <c r="C21" s="5">
         <v>15.1</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
       <c r="I21" s="1">
         <v>0</v>
       </c>
@@ -2228,13 +2234,13 @@
       <c r="C22" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D22" s="178" t="s">
+      <c r="D22" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
       <c r="I22" s="1">
         <v>1080</v>
       </c>
@@ -2249,13 +2255,13 @@
       <c r="C23" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
       <c r="J23" s="1">
         <v>2000</v>
       </c>
@@ -2270,20 +2276,20 @@
       <c r="C24" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D24" s="178" t="s">
+      <c r="D24" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
       <c r="I24" s="8">
         <v>22000</v>
       </c>
-      <c r="K24" s="178" t="s">
+      <c r="K24" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="178"/>
+      <c r="L24" s="179"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2295,13 +2301,13 @@
       <c r="C25" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D25" s="178" t="s">
+      <c r="D25" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
       <c r="J25" s="7">
         <v>22000</v>
       </c>
@@ -2316,13 +2322,13 @@
       <c r="C26" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
       <c r="I26" s="1">
         <v>530</v>
       </c>
@@ -2337,13 +2343,13 @@
       <c r="C27" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -2358,11 +2364,11 @@
       <c r="C28" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
       <c r="I28" s="1">
         <v>0</v>
       </c>
@@ -2377,13 +2383,13 @@
       <c r="C29" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D29" s="178" t="s">
+      <c r="D29" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
       <c r="I29" s="1">
         <v>930</v>
       </c>
@@ -2398,13 +2404,13 @@
       <c r="C30" s="6">
         <v>21.1</v>
       </c>
-      <c r="D30" s="178" t="s">
+      <c r="D30" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
       <c r="I30" s="1">
         <v>1530</v>
       </c>
@@ -2419,13 +2425,13 @@
       <c r="C31" s="6">
         <v>22.1</v>
       </c>
-      <c r="D31" s="178" t="s">
+      <c r="D31" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
       <c r="I31" s="1">
         <v>820</v>
       </c>
@@ -2440,13 +2446,13 @@
       <c r="C32" s="6">
         <v>23.1</v>
       </c>
-      <c r="D32" s="178" t="s">
+      <c r="D32" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
       <c r="I32" s="1">
         <v>610</v>
       </c>
@@ -2461,11 +2467,11 @@
       <c r="C33" s="6">
         <v>24.1</v>
       </c>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2477,13 +2483,13 @@
       <c r="C34" s="6">
         <v>25.1</v>
       </c>
-      <c r="D34" s="178" t="s">
+      <c r="D34" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
       <c r="I34" s="1">
         <v>1850</v>
       </c>
@@ -2499,13 +2505,13 @@
       <c r="C35" s="6">
         <v>26.1</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
       <c r="I35" s="1">
         <v>320</v>
       </c>
@@ -2521,13 +2527,13 @@
       <c r="C36" s="6">
         <v>27.1</v>
       </c>
-      <c r="D36" s="178" t="s">
+      <c r="D36" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
       <c r="I36" s="1">
         <v>1110</v>
       </c>
@@ -2543,13 +2549,13 @@
       <c r="C37" s="6">
         <v>28.1</v>
       </c>
-      <c r="D37" s="178" t="s">
+      <c r="D37" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
       <c r="I37" s="1">
         <v>530</v>
       </c>
@@ -2565,13 +2571,13 @@
       <c r="C38" s="6">
         <v>29.1</v>
       </c>
-      <c r="D38" s="178" t="s">
+      <c r="D38" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
       <c r="I38" s="1">
         <v>1320</v>
       </c>
@@ -2587,11 +2593,11 @@
       <c r="C39" s="6">
         <v>1.2</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
       <c r="I39" s="1">
         <v>0</v>
       </c>
@@ -2607,13 +2613,13 @@
       <c r="C40" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
       <c r="I40" s="1">
         <v>720</v>
       </c>
@@ -2629,13 +2635,13 @@
       <c r="C41" s="13">
         <v>3.2</v>
       </c>
-      <c r="D41" s="178" t="s">
+      <c r="D41" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
       <c r="I41" s="1">
         <v>1740</v>
       </c>
@@ -2651,13 +2657,13 @@
       <c r="C42" s="14">
         <v>4.2</v>
       </c>
-      <c r="D42" s="178" t="s">
+      <c r="D42" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -2673,13 +2679,13 @@
       <c r="C43" s="14">
         <v>5.2</v>
       </c>
-      <c r="D43" s="178" t="s">
+      <c r="D43" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -2695,13 +2701,13 @@
       <c r="C44" s="14">
         <v>6.2</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -2717,13 +2723,13 @@
       <c r="C45" s="14">
         <v>7.2</v>
       </c>
-      <c r="D45" s="178" t="s">
+      <c r="D45" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -2739,13 +2745,13 @@
       <c r="C46" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D46" s="178" t="s">
+      <c r="D46" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
       <c r="I46" s="1">
         <v>820</v>
       </c>
@@ -2761,13 +2767,13 @@
       <c r="C47" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="179"/>
+      <c r="H47" s="179"/>
       <c r="I47" s="1">
         <v>820</v>
       </c>
@@ -2783,13 +2789,13 @@
       <c r="C48" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="D48" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2805,13 +2811,13 @@
       <c r="C49" s="14">
         <v>11.2</v>
       </c>
-      <c r="D49" s="178" t="s">
+      <c r="D49" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="179"/>
       <c r="I49" s="1">
         <v>820</v>
       </c>
@@ -2827,11 +2833,11 @@
       <c r="C50" s="14">
         <v>12.2</v>
       </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
       <c r="I50" s="1">
         <v>0</v>
       </c>
@@ -2847,13 +2853,13 @@
       <c r="C51" s="14">
         <v>13.2</v>
       </c>
-      <c r="D51" s="178" t="s">
+      <c r="D51" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
       <c r="I51" s="1">
         <v>1640</v>
       </c>
@@ -2869,13 +2875,13 @@
       <c r="C52" s="14">
         <v>14.2</v>
       </c>
-      <c r="D52" s="178" t="s">
+      <c r="D52" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
+      <c r="H52" s="179"/>
       <c r="I52" s="1">
         <v>820</v>
       </c>
@@ -2891,11 +2897,11 @@
       <c r="C53" s="14">
         <v>15.2</v>
       </c>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
+      <c r="D53" s="179"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="179"/>
+      <c r="H53" s="179"/>
       <c r="I53" s="1">
         <v>0</v>
       </c>
@@ -2911,13 +2917,13 @@
       <c r="C54" s="14">
         <v>16.2</v>
       </c>
-      <c r="D54" s="178" t="s">
+      <c r="D54" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="179"/>
       <c r="I54" s="1">
         <v>1640</v>
       </c>
@@ -2933,13 +2939,13 @@
       <c r="C55" s="14">
         <v>17.2</v>
       </c>
-      <c r="D55" s="178" t="s">
+      <c r="D55" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
       <c r="I55" s="1">
         <v>610</v>
       </c>
@@ -2955,13 +2961,13 @@
       <c r="C56" s="14">
         <v>18.2</v>
       </c>
-      <c r="D56" s="178" t="s">
+      <c r="D56" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="179"/>
+      <c r="H56" s="179"/>
       <c r="I56" s="1">
         <v>1030</v>
       </c>
@@ -2977,13 +2983,13 @@
       <c r="C57" s="14">
         <v>19.2</v>
       </c>
-      <c r="D57" s="178" t="s">
+      <c r="D57" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="179"/>
       <c r="I57" s="1">
         <v>820</v>
       </c>
@@ -2999,13 +3005,13 @@
       <c r="C58" s="14">
         <v>20.2</v>
       </c>
-      <c r="D58" s="178" t="s">
+      <c r="D58" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
       <c r="J58" s="1">
         <v>20000</v>
       </c>
@@ -3018,13 +3024,13 @@
       <c r="C59" s="18">
         <v>20.2</v>
       </c>
-      <c r="D59" s="178" t="s">
+      <c r="D59" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179"/>
+      <c r="H59" s="179"/>
       <c r="I59" s="1">
         <v>820</v>
       </c>
@@ -3040,20 +3046,20 @@
       <c r="C60" s="14">
         <v>21.2</v>
       </c>
-      <c r="D60" s="178" t="s">
+      <c r="D60" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
       <c r="I60" s="1">
         <v>15000</v>
       </c>
-      <c r="K60" s="178" t="s">
+      <c r="K60" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="178"/>
+      <c r="L60" s="179"/>
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
@@ -3063,13 +3069,13 @@
       <c r="C61" s="18">
         <v>21.2</v>
       </c>
-      <c r="D61" s="178" t="s">
+      <c r="D61" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
       <c r="J61" s="1">
         <v>15000</v>
       </c>
@@ -3082,13 +3088,13 @@
       <c r="C62" s="18">
         <v>21.2</v>
       </c>
-      <c r="D62" s="178" t="s">
+      <c r="D62" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
+      <c r="H62" s="179"/>
       <c r="I62" s="1">
         <v>860</v>
       </c>
@@ -3104,13 +3110,13 @@
       <c r="C63" s="14">
         <v>22.2</v>
       </c>
-      <c r="D63" s="178" t="s">
+      <c r="D63" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -3126,13 +3132,13 @@
       <c r="C64" s="14">
         <v>23.2</v>
       </c>
-      <c r="D64" s="178" t="s">
+      <c r="D64" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="179"/>
+      <c r="H64" s="179"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -3148,13 +3154,13 @@
       <c r="C65" s="14">
         <v>24.2</v>
       </c>
-      <c r="D65" s="178" t="s">
+      <c r="D65" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
       <c r="I65" s="1">
         <v>750</v>
       </c>
@@ -3170,13 +3176,13 @@
       <c r="C66" s="14">
         <v>25.2</v>
       </c>
-      <c r="D66" s="178" t="s">
+      <c r="D66" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
+      <c r="E66" s="179"/>
+      <c r="F66" s="179"/>
+      <c r="G66" s="179"/>
+      <c r="H66" s="179"/>
       <c r="I66" s="1">
         <v>1030</v>
       </c>
@@ -3192,13 +3198,13 @@
       <c r="C67" s="14">
         <v>26.2</v>
       </c>
-      <c r="D67" s="178" t="s">
+      <c r="D67" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="179"/>
+      <c r="G67" s="179"/>
+      <c r="H67" s="179"/>
       <c r="I67" s="1">
         <v>890</v>
       </c>
@@ -3214,13 +3220,13 @@
       <c r="C68" s="14">
         <v>27.2</v>
       </c>
-      <c r="D68" s="178" t="s">
+      <c r="D68" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="179"/>
+      <c r="G68" s="179"/>
+      <c r="H68" s="179"/>
       <c r="I68" s="1">
         <v>890</v>
       </c>
@@ -3236,13 +3242,13 @@
       <c r="C69" s="14">
         <v>28.2</v>
       </c>
-      <c r="D69" s="178" t="s">
+      <c r="D69" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
       <c r="I69" s="1">
         <v>890</v>
       </c>
@@ -3258,13 +3264,13 @@
       <c r="C70" s="14">
         <v>29.2</v>
       </c>
-      <c r="D70" s="178" t="s">
+      <c r="D70" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
+      <c r="E70" s="179"/>
+      <c r="F70" s="179"/>
+      <c r="G70" s="179"/>
+      <c r="H70" s="179"/>
       <c r="I70" s="1">
         <v>890</v>
       </c>
@@ -3280,13 +3286,13 @@
       <c r="C71" s="14">
         <v>30.2</v>
       </c>
-      <c r="D71" s="178" t="s">
+      <c r="D71" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
       <c r="I71" s="1">
         <v>750</v>
       </c>
@@ -3299,13 +3305,13 @@
       <c r="C72" s="22">
         <v>30.2</v>
       </c>
-      <c r="D72" s="178" t="s">
+      <c r="D72" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
       <c r="J72" s="1">
         <v>10000</v>
       </c>
@@ -3321,13 +3327,13 @@
       <c r="C73" s="5">
         <v>1.3</v>
       </c>
-      <c r="D73" s="178" t="s">
+      <c r="D73" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
       <c r="I73" s="1">
         <v>770</v>
       </c>
@@ -3343,13 +3349,13 @@
       <c r="C74" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D74" s="178" t="s">
+      <c r="D74" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
+      <c r="E74" s="179"/>
+      <c r="F74" s="179"/>
+      <c r="G74" s="179"/>
+      <c r="H74" s="179"/>
       <c r="I74" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -3366,13 +3372,13 @@
       <c r="C75" s="19">
         <v>3.3</v>
       </c>
-      <c r="D75" s="178" t="s">
+      <c r="D75" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
+      <c r="E75" s="179"/>
+      <c r="F75" s="179"/>
+      <c r="G75" s="179"/>
+      <c r="H75" s="179"/>
       <c r="I75" s="1">
         <v>680</v>
       </c>
@@ -3388,13 +3394,13 @@
       <c r="C76" s="19">
         <v>4.3</v>
       </c>
-      <c r="D76" s="178" t="s">
+      <c r="D76" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
+      <c r="E76" s="179"/>
+      <c r="F76" s="179"/>
+      <c r="G76" s="179"/>
+      <c r="H76" s="179"/>
       <c r="I76" s="1">
         <v>1140</v>
       </c>
@@ -3407,13 +3413,13 @@
       <c r="C77" s="24">
         <v>4.3</v>
       </c>
-      <c r="D77" s="178" t="s">
+      <c r="D77" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
+      <c r="E77" s="179"/>
+      <c r="F77" s="179"/>
+      <c r="G77" s="179"/>
+      <c r="H77" s="179"/>
       <c r="J77" s="1">
         <v>50000</v>
       </c>
@@ -3426,13 +3432,13 @@
       <c r="C78" s="24">
         <v>4.3</v>
       </c>
-      <c r="D78" s="178" t="s">
+      <c r="D78" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="178"/>
-      <c r="F78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="179"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
       <c r="I78" s="1">
         <v>41300</v>
       </c>
@@ -3451,13 +3457,13 @@
       <c r="C79" s="19">
         <v>5.3</v>
       </c>
-      <c r="D79" s="178" t="s">
+      <c r="D79" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="178"/>
-      <c r="F79" s="178"/>
-      <c r="G79" s="178"/>
-      <c r="H79" s="178"/>
+      <c r="E79" s="179"/>
+      <c r="F79" s="179"/>
+      <c r="G79" s="179"/>
+      <c r="H79" s="179"/>
       <c r="I79" s="1">
         <v>140</v>
       </c>
@@ -3473,13 +3479,13 @@
       <c r="C80" s="19">
         <v>6.3</v>
       </c>
-      <c r="D80" s="178" t="s">
+      <c r="D80" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="178"/>
-      <c r="F80" s="178"/>
-      <c r="G80" s="178"/>
-      <c r="H80" s="178"/>
+      <c r="E80" s="179"/>
+      <c r="F80" s="179"/>
+      <c r="G80" s="179"/>
+      <c r="H80" s="179"/>
       <c r="I80" s="1">
         <v>1680</v>
       </c>
@@ -3495,13 +3501,13 @@
       <c r="C81" s="19">
         <v>7.3</v>
       </c>
-      <c r="D81" s="178" t="s">
+      <c r="D81" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="178"/>
-      <c r="F81" s="178"/>
-      <c r="G81" s="178"/>
-      <c r="H81" s="178"/>
+      <c r="E81" s="179"/>
+      <c r="F81" s="179"/>
+      <c r="G81" s="179"/>
+      <c r="H81" s="179"/>
       <c r="I81" s="1">
         <v>3910</v>
       </c>
@@ -3517,13 +3523,13 @@
       <c r="C82" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D82" s="178" t="s">
+      <c r="D82" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="178"/>
-      <c r="F82" s="178"/>
-      <c r="G82" s="178"/>
-      <c r="H82" s="178"/>
+      <c r="E82" s="179"/>
+      <c r="F82" s="179"/>
+      <c r="G82" s="179"/>
+      <c r="H82" s="179"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -3539,13 +3545,13 @@
       <c r="C83" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D83" s="178" t="s">
+      <c r="D83" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="178"/>
-      <c r="F83" s="178"/>
-      <c r="G83" s="178"/>
-      <c r="H83" s="178"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="179"/>
       <c r="I83" s="1">
         <v>680</v>
       </c>
@@ -3561,13 +3567,13 @@
       <c r="C84" s="19">
         <v>10.3</v>
       </c>
-      <c r="D84" s="178" t="s">
+      <c r="D84" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
-      <c r="G84" s="178"/>
-      <c r="H84" s="178"/>
+      <c r="E84" s="179"/>
+      <c r="F84" s="179"/>
+      <c r="G84" s="179"/>
+      <c r="H84" s="179"/>
       <c r="I84" s="1">
         <v>910</v>
       </c>
@@ -3583,13 +3589,13 @@
       <c r="C85" s="19">
         <v>11.3</v>
       </c>
-      <c r="D85" s="178" t="s">
+      <c r="D85" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
+      <c r="E85" s="179"/>
+      <c r="F85" s="179"/>
+      <c r="G85" s="179"/>
+      <c r="H85" s="179"/>
       <c r="I85" s="1">
         <v>5150</v>
       </c>
@@ -3605,13 +3611,13 @@
       <c r="C86" s="19">
         <v>12.3</v>
       </c>
-      <c r="D86" s="178" t="s">
+      <c r="D86" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="178"/>
-      <c r="F86" s="178"/>
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
+      <c r="E86" s="179"/>
+      <c r="F86" s="179"/>
+      <c r="G86" s="179"/>
+      <c r="H86" s="179"/>
       <c r="I86" s="1">
         <v>910</v>
       </c>
@@ -3627,13 +3633,13 @@
       <c r="C87" s="19">
         <v>13.3</v>
       </c>
-      <c r="D87" s="178" t="s">
+      <c r="D87" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="178"/>
-      <c r="F87" s="178"/>
-      <c r="G87" s="178"/>
-      <c r="H87" s="178"/>
+      <c r="E87" s="179"/>
+      <c r="F87" s="179"/>
+      <c r="G87" s="179"/>
+      <c r="H87" s="179"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -3649,13 +3655,13 @@
       <c r="C88" s="19">
         <v>14.3</v>
       </c>
-      <c r="D88" s="178" t="s">
+      <c r="D88" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="178"/>
-      <c r="F88" s="178"/>
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="179"/>
+      <c r="G88" s="179"/>
+      <c r="H88" s="179"/>
       <c r="I88" s="1">
         <v>680</v>
       </c>
@@ -3671,13 +3677,13 @@
       <c r="C89" s="19">
         <v>15.3</v>
       </c>
-      <c r="D89" s="178" t="s">
+      <c r="D89" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="E89" s="178"/>
-      <c r="F89" s="178"/>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
+      <c r="E89" s="179"/>
+      <c r="F89" s="179"/>
+      <c r="G89" s="179"/>
+      <c r="H89" s="179"/>
       <c r="I89" s="1">
         <v>5000</v>
       </c>
@@ -3693,13 +3699,13 @@
       <c r="C90" s="19">
         <v>16.3</v>
       </c>
-      <c r="D90" s="178" t="s">
+      <c r="D90" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="178"/>
-      <c r="F90" s="178"/>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
+      <c r="E90" s="179"/>
+      <c r="F90" s="179"/>
+      <c r="G90" s="179"/>
+      <c r="H90" s="179"/>
       <c r="I90" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -3716,13 +3722,13 @@
       <c r="C91" s="19">
         <v>17.3</v>
       </c>
-      <c r="D91" s="178" t="s">
+      <c r="D91" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="178"/>
-      <c r="F91" s="178"/>
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
+      <c r="E91" s="179"/>
+      <c r="F91" s="179"/>
+      <c r="G91" s="179"/>
+      <c r="H91" s="179"/>
       <c r="I91" s="1">
         <v>910</v>
       </c>
@@ -3738,13 +3744,13 @@
       <c r="C92" s="19">
         <v>18.3</v>
       </c>
-      <c r="D92" s="178" t="s">
+      <c r="D92" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="178"/>
-      <c r="F92" s="178"/>
-      <c r="G92" s="178"/>
-      <c r="H92" s="178"/>
+      <c r="E92" s="179"/>
+      <c r="F92" s="179"/>
+      <c r="G92" s="179"/>
+      <c r="H92" s="179"/>
       <c r="I92" s="1">
         <v>910</v>
       </c>
@@ -3760,13 +3766,13 @@
       <c r="C93" s="19">
         <v>19.3</v>
       </c>
-      <c r="D93" s="178" t="s">
+      <c r="D93" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="178"/>
-      <c r="F93" s="178"/>
-      <c r="G93" s="178"/>
-      <c r="H93" s="178"/>
+      <c r="E93" s="179"/>
+      <c r="F93" s="179"/>
+      <c r="G93" s="179"/>
+      <c r="H93" s="179"/>
       <c r="I93" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -3783,13 +3789,13 @@
       <c r="C94" s="19">
         <v>20.3</v>
       </c>
-      <c r="D94" s="178" t="s">
+      <c r="D94" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="178"/>
-      <c r="F94" s="178"/>
-      <c r="G94" s="178"/>
-      <c r="H94" s="178"/>
+      <c r="E94" s="179"/>
+      <c r="F94" s="179"/>
+      <c r="G94" s="179"/>
+      <c r="H94" s="179"/>
       <c r="I94" s="1">
         <v>5600</v>
       </c>
@@ -3805,13 +3811,13 @@
       <c r="C95" s="19">
         <v>21.3</v>
       </c>
-      <c r="D95" s="178" t="s">
+      <c r="D95" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="178"/>
-      <c r="F95" s="178"/>
-      <c r="G95" s="178"/>
-      <c r="H95" s="178"/>
+      <c r="E95" s="179"/>
+      <c r="F95" s="179"/>
+      <c r="G95" s="179"/>
+      <c r="H95" s="179"/>
       <c r="I95" s="1">
         <v>370</v>
       </c>
@@ -3827,13 +3833,13 @@
       <c r="C96" s="19">
         <v>22.3</v>
       </c>
-      <c r="D96" s="178" t="s">
+      <c r="D96" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="178"/>
-      <c r="F96" s="178"/>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178"/>
+      <c r="E96" s="179"/>
+      <c r="F96" s="179"/>
+      <c r="G96" s="179"/>
+      <c r="H96" s="179"/>
       <c r="I96" s="1">
         <v>370</v>
       </c>
@@ -3846,13 +3852,13 @@
       <c r="C97" s="27">
         <v>22.3</v>
       </c>
-      <c r="D97" s="178" t="s">
+      <c r="D97" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="178"/>
-      <c r="F97" s="178"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178"/>
+      <c r="E97" s="179"/>
+      <c r="F97" s="179"/>
+      <c r="G97" s="179"/>
+      <c r="H97" s="179"/>
       <c r="J97" s="1">
         <v>13400</v>
       </c>
@@ -3868,13 +3874,13 @@
       <c r="C98" s="19">
         <v>23.3</v>
       </c>
-      <c r="D98" s="178" t="s">
+      <c r="D98" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="178"/>
-      <c r="F98" s="178"/>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
+      <c r="E98" s="179"/>
+      <c r="F98" s="179"/>
+      <c r="G98" s="179"/>
+      <c r="H98" s="179"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3890,13 +3896,13 @@
       <c r="C99" s="19">
         <v>24.3</v>
       </c>
-      <c r="D99" s="178" t="s">
+      <c r="D99" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="178"/>
-      <c r="F99" s="178"/>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
+      <c r="E99" s="179"/>
+      <c r="F99" s="179"/>
+      <c r="G99" s="179"/>
+      <c r="H99" s="179"/>
       <c r="I99" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3913,13 +3919,13 @@
       <c r="C100" s="19">
         <v>25.3</v>
       </c>
-      <c r="D100" s="178" t="s">
+      <c r="D100" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="178"/>
-      <c r="F100" s="178"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="178"/>
+      <c r="E100" s="179"/>
+      <c r="F100" s="179"/>
+      <c r="G100" s="179"/>
+      <c r="H100" s="179"/>
       <c r="I100" s="1">
         <v>890</v>
       </c>
@@ -3935,13 +3941,13 @@
       <c r="C101" s="19">
         <v>26.3</v>
       </c>
-      <c r="D101" s="178" t="s">
+      <c r="D101" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
+      <c r="E101" s="179"/>
+      <c r="F101" s="179"/>
+      <c r="G101" s="179"/>
+      <c r="H101" s="179"/>
       <c r="I101" s="1">
         <v>890</v>
       </c>
@@ -3957,13 +3963,13 @@
       <c r="C102" s="19">
         <v>27.3</v>
       </c>
-      <c r="D102" s="178" t="s">
+      <c r="D102" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E102" s="178"/>
-      <c r="F102" s="178"/>
-      <c r="G102" s="178"/>
-      <c r="H102" s="178"/>
+      <c r="E102" s="179"/>
+      <c r="F102" s="179"/>
+      <c r="G102" s="179"/>
+      <c r="H102" s="179"/>
       <c r="I102" s="1">
         <v>890</v>
       </c>
@@ -3979,13 +3985,13 @@
       <c r="C103" s="19">
         <v>28.3</v>
       </c>
-      <c r="D103" s="178" t="s">
+      <c r="D103" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="178"/>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
-      <c r="H103" s="178"/>
+      <c r="E103" s="179"/>
+      <c r="F103" s="179"/>
+      <c r="G103" s="179"/>
+      <c r="H103" s="179"/>
       <c r="I103" s="1">
         <v>140</v>
       </c>
@@ -4001,13 +4007,13 @@
       <c r="C104" s="19">
         <v>29.3</v>
       </c>
-      <c r="D104" s="178" t="s">
+      <c r="D104" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="178"/>
-      <c r="F104" s="178"/>
-      <c r="G104" s="178"/>
-      <c r="H104" s="178"/>
+      <c r="E104" s="179"/>
+      <c r="F104" s="179"/>
+      <c r="G104" s="179"/>
+      <c r="H104" s="179"/>
       <c r="I104" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -4024,13 +4030,13 @@
       <c r="C105" s="5">
         <v>1.4</v>
       </c>
-      <c r="D105" s="178" t="s">
+      <c r="D105" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E105" s="178"/>
-      <c r="F105" s="178"/>
-      <c r="G105" s="178"/>
-      <c r="H105" s="178"/>
+      <c r="E105" s="179"/>
+      <c r="F105" s="179"/>
+      <c r="G105" s="179"/>
+      <c r="H105" s="179"/>
       <c r="I105" s="1">
         <v>230</v>
       </c>
@@ -4046,13 +4052,13 @@
       <c r="C106" s="5">
         <v>2.4</v>
       </c>
-      <c r="D106" s="178" t="s">
+      <c r="D106" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="178"/>
-      <c r="F106" s="178"/>
-      <c r="G106" s="178"/>
-      <c r="H106" s="178"/>
+      <c r="E106" s="179"/>
+      <c r="F106" s="179"/>
+      <c r="G106" s="179"/>
+      <c r="H106" s="179"/>
       <c r="I106" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -4069,13 +4075,13 @@
       <c r="C107" s="29">
         <v>3.4</v>
       </c>
-      <c r="D107" s="178" t="s">
+      <c r="D107" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="178"/>
-      <c r="F107" s="178"/>
-      <c r="G107" s="178"/>
-      <c r="H107" s="178"/>
+      <c r="E107" s="179"/>
+      <c r="F107" s="179"/>
+      <c r="G107" s="179"/>
+      <c r="H107" s="179"/>
       <c r="I107" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -4092,13 +4098,13 @@
       <c r="C108" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D108" s="178" t="s">
+      <c r="D108" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="178"/>
-      <c r="F108" s="178"/>
-      <c r="G108" s="178"/>
-      <c r="H108" s="178"/>
+      <c r="E108" s="179"/>
+      <c r="F108" s="179"/>
+      <c r="G108" s="179"/>
+      <c r="H108" s="179"/>
       <c r="I108" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -4115,13 +4121,13 @@
       <c r="C109" s="29">
         <v>5.4</v>
       </c>
-      <c r="D109" s="178" t="s">
+      <c r="D109" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="178"/>
-      <c r="F109" s="178"/>
-      <c r="G109" s="178"/>
-      <c r="H109" s="178"/>
+      <c r="E109" s="179"/>
+      <c r="F109" s="179"/>
+      <c r="G109" s="179"/>
+      <c r="H109" s="179"/>
       <c r="I109" s="1">
         <v>140</v>
       </c>
@@ -4137,11 +4143,11 @@
       <c r="C110" s="29">
         <v>6.4</v>
       </c>
-      <c r="D110" s="178"/>
-      <c r="E110" s="178"/>
-      <c r="F110" s="178"/>
-      <c r="G110" s="178"/>
-      <c r="H110" s="178"/>
+      <c r="D110" s="179"/>
+      <c r="E110" s="179"/>
+      <c r="F110" s="179"/>
+      <c r="G110" s="179"/>
+      <c r="H110" s="179"/>
       <c r="I110" s="1">
         <v>0</v>
       </c>
@@ -4157,13 +4163,13 @@
       <c r="C111" s="29">
         <v>7.4</v>
       </c>
-      <c r="D111" s="178" t="s">
+      <c r="D111" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="178"/>
-      <c r="F111" s="178"/>
-      <c r="G111" s="178"/>
-      <c r="H111" s="178"/>
+      <c r="E111" s="179"/>
+      <c r="F111" s="179"/>
+      <c r="G111" s="179"/>
+      <c r="H111" s="179"/>
       <c r="I111" s="1">
         <v>280</v>
       </c>
@@ -4179,11 +4185,11 @@
       <c r="C112" s="29">
         <v>8.4</v>
       </c>
-      <c r="D112" s="178"/>
-      <c r="E112" s="178"/>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
-      <c r="H112" s="178"/>
+      <c r="D112" s="179"/>
+      <c r="E112" s="179"/>
+      <c r="F112" s="179"/>
+      <c r="G112" s="179"/>
+      <c r="H112" s="179"/>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
@@ -4196,13 +4202,13 @@
       <c r="C113" s="29">
         <v>9.4</v>
       </c>
-      <c r="D113" s="178" t="s">
+      <c r="D113" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="178"/>
-      <c r="F113" s="178"/>
-      <c r="G113" s="178"/>
-      <c r="H113" s="178"/>
+      <c r="E113" s="179"/>
+      <c r="F113" s="179"/>
+      <c r="G113" s="179"/>
+      <c r="H113" s="179"/>
       <c r="J113" s="1">
         <v>7400</v>
       </c>
@@ -4211,13 +4217,13 @@
       <c r="A114" s="71"/>
       <c r="B114" s="72"/>
       <c r="C114" s="72"/>
-      <c r="D114" s="178" t="s">
+      <c r="D114" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E114" s="178"/>
-      <c r="F114" s="178"/>
-      <c r="G114" s="178"/>
-      <c r="H114" s="178"/>
+      <c r="E114" s="179"/>
+      <c r="F114" s="179"/>
+      <c r="G114" s="179"/>
+      <c r="H114" s="179"/>
       <c r="J114" s="1">
         <v>50000</v>
       </c>
@@ -4229,13 +4235,13 @@
       <c r="A115" s="73"/>
       <c r="B115" s="74"/>
       <c r="C115" s="74"/>
-      <c r="D115" s="178" t="s">
+      <c r="D115" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="178"/>
-      <c r="F115" s="178"/>
-      <c r="G115" s="178"/>
-      <c r="H115" s="178"/>
+      <c r="E115" s="179"/>
+      <c r="F115" s="179"/>
+      <c r="G115" s="179"/>
+      <c r="H115" s="179"/>
       <c r="I115" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -4252,13 +4258,13 @@
       <c r="C116" s="29">
         <v>10.4</v>
       </c>
-      <c r="D116" s="178" t="s">
+      <c r="D116" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="178"/>
-      <c r="F116" s="178"/>
-      <c r="G116" s="178"/>
-      <c r="H116" s="178"/>
+      <c r="E116" s="179"/>
+      <c r="F116" s="179"/>
+      <c r="G116" s="179"/>
+      <c r="H116" s="179"/>
       <c r="I116" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -4275,13 +4281,13 @@
       <c r="C117" s="29">
         <v>11.4</v>
       </c>
-      <c r="D117" s="178" t="s">
+      <c r="D117" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="178"/>
-      <c r="F117" s="178"/>
-      <c r="G117" s="178"/>
-      <c r="H117" s="178"/>
+      <c r="E117" s="179"/>
+      <c r="F117" s="179"/>
+      <c r="G117" s="179"/>
+      <c r="H117" s="179"/>
       <c r="I117" s="1">
         <v>5050</v>
       </c>
@@ -4293,13 +4299,13 @@
       <c r="A118" s="76"/>
       <c r="B118" s="77"/>
       <c r="C118" s="77"/>
-      <c r="D118" s="178" t="s">
+      <c r="D118" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="178"/>
-      <c r="F118" s="178"/>
-      <c r="G118" s="178"/>
-      <c r="H118" s="178"/>
+      <c r="E118" s="179"/>
+      <c r="F118" s="179"/>
+      <c r="G118" s="179"/>
+      <c r="H118" s="179"/>
       <c r="J118" s="1">
         <v>10000</v>
       </c>
@@ -4308,13 +4314,13 @@
       <c r="A119" s="76"/>
       <c r="B119" s="77"/>
       <c r="C119" s="77"/>
-      <c r="D119" s="178" t="s">
+      <c r="D119" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="178"/>
-      <c r="F119" s="178"/>
-      <c r="G119" s="178"/>
-      <c r="H119" s="178"/>
+      <c r="E119" s="179"/>
+      <c r="F119" s="179"/>
+      <c r="G119" s="179"/>
+      <c r="H119" s="179"/>
       <c r="I119" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4331,13 +4337,13 @@
       <c r="C120" s="29">
         <v>12.4</v>
       </c>
-      <c r="D120" s="178" t="s">
+      <c r="D120" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="178"/>
-      <c r="F120" s="178"/>
-      <c r="G120" s="178"/>
-      <c r="H120" s="178"/>
+      <c r="E120" s="179"/>
+      <c r="F120" s="179"/>
+      <c r="G120" s="179"/>
+      <c r="H120" s="179"/>
       <c r="I120" s="1">
         <f t="shared" ref="I120:I122" si="3">220+140</f>
         <v>360</v>
@@ -4354,13 +4360,13 @@
       <c r="C121" s="29">
         <v>13.4</v>
       </c>
-      <c r="D121" s="178" t="s">
+      <c r="D121" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E121" s="178"/>
-      <c r="F121" s="178"/>
-      <c r="G121" s="178"/>
-      <c r="H121" s="178"/>
+      <c r="E121" s="179"/>
+      <c r="F121" s="179"/>
+      <c r="G121" s="179"/>
+      <c r="H121" s="179"/>
       <c r="I121" s="1">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -4377,13 +4383,13 @@
       <c r="C122" s="29">
         <v>14.4</v>
       </c>
-      <c r="D122" s="178" t="s">
+      <c r="D122" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="178"/>
-      <c r="F122" s="178"/>
-      <c r="G122" s="178"/>
-      <c r="H122" s="178"/>
+      <c r="E122" s="179"/>
+      <c r="F122" s="179"/>
+      <c r="G122" s="179"/>
+      <c r="H122" s="179"/>
       <c r="I122" s="1">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -4400,13 +4406,13 @@
       <c r="C123" s="29">
         <v>15.4</v>
       </c>
-      <c r="D123" s="178" t="s">
+      <c r="D123" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="178"/>
-      <c r="F123" s="178"/>
-      <c r="G123" s="178"/>
-      <c r="H123" s="178"/>
+      <c r="E123" s="179"/>
+      <c r="F123" s="179"/>
+      <c r="G123" s="179"/>
+      <c r="H123" s="179"/>
       <c r="I123" s="1">
         <v>220</v>
       </c>
@@ -4422,13 +4428,13 @@
       <c r="C124" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D124" s="178" t="s">
+      <c r="D124" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E124" s="178"/>
-      <c r="F124" s="178"/>
-      <c r="G124" s="178"/>
-      <c r="H124" s="178"/>
+      <c r="E124" s="179"/>
+      <c r="F124" s="179"/>
+      <c r="G124" s="179"/>
+      <c r="H124" s="179"/>
       <c r="I124" s="1">
         <v>220</v>
       </c>
@@ -4444,13 +4450,13 @@
       <c r="C125" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D125" s="178" t="s">
+      <c r="D125" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="178"/>
-      <c r="F125" s="178"/>
-      <c r="G125" s="178"/>
-      <c r="H125" s="178"/>
+      <c r="E125" s="179"/>
+      <c r="F125" s="179"/>
+      <c r="G125" s="179"/>
+      <c r="H125" s="179"/>
       <c r="I125" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -4467,13 +4473,13 @@
       <c r="C126" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D126" s="178" t="s">
+      <c r="D126" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="178"/>
-      <c r="F126" s="178"/>
-      <c r="G126" s="178"/>
-      <c r="H126" s="178"/>
+      <c r="E126" s="179"/>
+      <c r="F126" s="179"/>
+      <c r="G126" s="179"/>
+      <c r="H126" s="179"/>
       <c r="I126" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -4490,13 +4496,13 @@
       <c r="C127" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D127" s="178" t="s">
+      <c r="D127" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="178"/>
-      <c r="F127" s="178"/>
-      <c r="G127" s="178"/>
-      <c r="H127" s="178"/>
+      <c r="E127" s="179"/>
+      <c r="F127" s="179"/>
+      <c r="G127" s="179"/>
+      <c r="H127" s="179"/>
       <c r="I127" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -4513,11 +4519,11 @@
       <c r="C128" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D128" s="178"/>
-      <c r="E128" s="178"/>
-      <c r="F128" s="178"/>
-      <c r="G128" s="178"/>
-      <c r="H128" s="178"/>
+      <c r="D128" s="179"/>
+      <c r="E128" s="179"/>
+      <c r="F128" s="179"/>
+      <c r="G128" s="179"/>
+      <c r="H128" s="179"/>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
@@ -4530,13 +4536,13 @@
       <c r="C129" s="29">
         <v>21.4</v>
       </c>
-      <c r="D129" s="178" t="s">
+      <c r="D129" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="178"/>
-      <c r="F129" s="178"/>
-      <c r="G129" s="178"/>
-      <c r="H129" s="178"/>
+      <c r="E129" s="179"/>
+      <c r="F129" s="179"/>
+      <c r="G129" s="179"/>
+      <c r="H129" s="179"/>
       <c r="I129" s="1">
         <v>150</v>
       </c>
@@ -4552,13 +4558,13 @@
       <c r="C130" s="29">
         <v>22.4</v>
       </c>
-      <c r="D130" s="178" t="s">
+      <c r="D130" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="178"/>
-      <c r="F130" s="178"/>
-      <c r="G130" s="178"/>
-      <c r="H130" s="178"/>
+      <c r="E130" s="179"/>
+      <c r="F130" s="179"/>
+      <c r="G130" s="179"/>
+      <c r="H130" s="179"/>
       <c r="I130" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -4575,13 +4581,13 @@
       <c r="C131" s="29">
         <v>23.4</v>
       </c>
-      <c r="D131" s="178" t="s">
+      <c r="D131" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E131" s="178"/>
-      <c r="F131" s="178"/>
-      <c r="G131" s="178"/>
-      <c r="H131" s="178"/>
+      <c r="E131" s="179"/>
+      <c r="F131" s="179"/>
+      <c r="G131" s="179"/>
+      <c r="H131" s="179"/>
       <c r="I131" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -4598,13 +4604,13 @@
       <c r="C132" s="29">
         <v>24.4</v>
       </c>
-      <c r="D132" s="178" t="s">
+      <c r="D132" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E132" s="178"/>
-      <c r="F132" s="178"/>
-      <c r="G132" s="178"/>
-      <c r="H132" s="178"/>
+      <c r="E132" s="179"/>
+      <c r="F132" s="179"/>
+      <c r="G132" s="179"/>
+      <c r="H132" s="179"/>
       <c r="I132" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4621,13 +4627,13 @@
       <c r="C133" s="29">
         <v>25.4</v>
       </c>
-      <c r="D133" s="178" t="s">
+      <c r="D133" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="178"/>
-      <c r="F133" s="178"/>
-      <c r="G133" s="178"/>
-      <c r="H133" s="178"/>
+      <c r="E133" s="179"/>
+      <c r="F133" s="179"/>
+      <c r="G133" s="179"/>
+      <c r="H133" s="179"/>
       <c r="I133" s="1">
         <f>220</f>
         <v>220</v>
@@ -4644,13 +4650,13 @@
       <c r="C134" s="29">
         <v>26.4</v>
       </c>
-      <c r="D134" s="178" t="s">
+      <c r="D134" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E134" s="178"/>
-      <c r="F134" s="178"/>
-      <c r="G134" s="178"/>
-      <c r="H134" s="178"/>
+      <c r="E134" s="179"/>
+      <c r="F134" s="179"/>
+      <c r="G134" s="179"/>
+      <c r="H134" s="179"/>
       <c r="I134" s="1">
         <f>220+150</f>
         <v>370</v>
@@ -4660,13 +4666,13 @@
       <c r="A135" s="82"/>
       <c r="B135" s="83"/>
       <c r="C135" s="83"/>
-      <c r="D135" s="178" t="s">
+      <c r="D135" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E135" s="178"/>
-      <c r="F135" s="178"/>
-      <c r="G135" s="178"/>
-      <c r="H135" s="178"/>
+      <c r="E135" s="179"/>
+      <c r="F135" s="179"/>
+      <c r="G135" s="179"/>
+      <c r="H135" s="179"/>
       <c r="I135" s="1">
         <v>30000</v>
       </c>
@@ -4678,13 +4684,13 @@
       <c r="A136" s="82"/>
       <c r="B136" s="83"/>
       <c r="C136" s="83"/>
-      <c r="D136" s="178" t="s">
+      <c r="D136" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E136" s="178"/>
-      <c r="F136" s="178"/>
-      <c r="G136" s="178"/>
-      <c r="H136" s="178"/>
+      <c r="E136" s="179"/>
+      <c r="F136" s="179"/>
+      <c r="G136" s="179"/>
+      <c r="H136" s="179"/>
       <c r="J136" s="1">
         <v>30000</v>
       </c>
@@ -4700,13 +4706,13 @@
       <c r="C137" s="29">
         <v>27.4</v>
       </c>
-      <c r="D137" s="178" t="s">
+      <c r="D137" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E137" s="178"/>
-      <c r="F137" s="178"/>
-      <c r="G137" s="178"/>
-      <c r="H137" s="178"/>
+      <c r="E137" s="179"/>
+      <c r="F137" s="179"/>
+      <c r="G137" s="179"/>
+      <c r="H137" s="179"/>
       <c r="I137" s="1">
         <f>220+170</f>
         <v>390</v>
@@ -4723,13 +4729,13 @@
       <c r="C138" s="29">
         <v>28.4</v>
       </c>
-      <c r="D138" s="178" t="s">
+      <c r="D138" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="178"/>
-      <c r="F138" s="178"/>
-      <c r="G138" s="178"/>
-      <c r="H138" s="178"/>
+      <c r="E138" s="179"/>
+      <c r="F138" s="179"/>
+      <c r="G138" s="179"/>
+      <c r="H138" s="179"/>
       <c r="I138" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4746,13 +4752,13 @@
       <c r="C139" s="29">
         <v>29.4</v>
       </c>
-      <c r="D139" s="178" t="s">
+      <c r="D139" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E139" s="178"/>
-      <c r="F139" s="178"/>
-      <c r="G139" s="178"/>
-      <c r="H139" s="178"/>
+      <c r="E139" s="179"/>
+      <c r="F139" s="179"/>
+      <c r="G139" s="179"/>
+      <c r="H139" s="179"/>
       <c r="I139" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4769,13 +4775,13 @@
       <c r="C140" s="29">
         <v>30.4</v>
       </c>
-      <c r="D140" s="178" t="s">
+      <c r="D140" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="178"/>
-      <c r="F140" s="178"/>
-      <c r="G140" s="178"/>
-      <c r="H140" s="178"/>
+      <c r="E140" s="179"/>
+      <c r="F140" s="179"/>
+      <c r="G140" s="179"/>
+      <c r="H140" s="179"/>
       <c r="I140" s="1">
         <f>220+240</f>
         <v>460</v>
@@ -4792,13 +4798,13 @@
       <c r="C141" s="5">
         <v>1.5</v>
       </c>
-      <c r="D141" s="178" t="s">
+      <c r="D141" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E141" s="178"/>
-      <c r="F141" s="178"/>
-      <c r="G141" s="178"/>
-      <c r="H141" s="178"/>
+      <c r="E141" s="179"/>
+      <c r="F141" s="179"/>
+      <c r="G141" s="179"/>
+      <c r="H141" s="179"/>
       <c r="I141" s="1">
         <v>220</v>
       </c>
@@ -4814,13 +4820,13 @@
       <c r="C142" s="5">
         <v>2.5</v>
       </c>
-      <c r="D142" s="178" t="s">
+      <c r="D142" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E142" s="178"/>
-      <c r="F142" s="178"/>
-      <c r="G142" s="178"/>
-      <c r="H142" s="178"/>
+      <c r="E142" s="179"/>
+      <c r="F142" s="179"/>
+      <c r="G142" s="179"/>
+      <c r="H142" s="179"/>
       <c r="I142" s="1">
         <v>220</v>
       </c>
@@ -4836,13 +4842,13 @@
       <c r="C143" s="86">
         <v>3.5</v>
       </c>
-      <c r="D143" s="178" t="s">
+      <c r="D143" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="178"/>
-      <c r="F143" s="178"/>
-      <c r="G143" s="178"/>
-      <c r="H143" s="178"/>
+      <c r="E143" s="179"/>
+      <c r="F143" s="179"/>
+      <c r="G143" s="179"/>
+      <c r="H143" s="179"/>
       <c r="I143" s="1">
         <f>220+220</f>
         <v>440</v>
@@ -4859,13 +4865,13 @@
       <c r="C144" s="86">
         <v>4.5</v>
       </c>
-      <c r="D144" s="178" t="s">
+      <c r="D144" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="178"/>
-      <c r="F144" s="178"/>
-      <c r="G144" s="178"/>
-      <c r="H144" s="178"/>
+      <c r="E144" s="179"/>
+      <c r="F144" s="179"/>
+      <c r="G144" s="179"/>
+      <c r="H144" s="179"/>
       <c r="I144" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4882,13 +4888,13 @@
       <c r="C145" s="86">
         <v>5.5</v>
       </c>
-      <c r="D145" s="178" t="s">
+      <c r="D145" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="178"/>
-      <c r="F145" s="178"/>
-      <c r="G145" s="178"/>
-      <c r="H145" s="178"/>
+      <c r="E145" s="179"/>
+      <c r="F145" s="179"/>
+      <c r="G145" s="179"/>
+      <c r="H145" s="179"/>
       <c r="I145" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -4905,11 +4911,11 @@
       <c r="C146" s="86">
         <v>6.5</v>
       </c>
-      <c r="D146" s="178"/>
-      <c r="E146" s="178"/>
-      <c r="F146" s="178"/>
-      <c r="G146" s="178"/>
-      <c r="H146" s="178"/>
+      <c r="D146" s="179"/>
+      <c r="E146" s="179"/>
+      <c r="F146" s="179"/>
+      <c r="G146" s="179"/>
+      <c r="H146" s="179"/>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="85">
@@ -4922,13 +4928,13 @@
       <c r="C147" s="86">
         <v>7.5</v>
       </c>
-      <c r="D147" s="178" t="s">
+      <c r="D147" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="178"/>
-      <c r="F147" s="178"/>
-      <c r="G147" s="178"/>
-      <c r="H147" s="178"/>
+      <c r="E147" s="179"/>
+      <c r="F147" s="179"/>
+      <c r="G147" s="179"/>
+      <c r="H147" s="179"/>
       <c r="I147" s="1">
         <f>140+140</f>
         <v>280</v>
@@ -4945,13 +4951,13 @@
       <c r="C148" s="86">
         <v>8.5</v>
       </c>
-      <c r="D148" s="178" t="s">
+      <c r="D148" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E148" s="178"/>
-      <c r="F148" s="178"/>
-      <c r="G148" s="178"/>
-      <c r="H148" s="178"/>
+      <c r="E148" s="179"/>
+      <c r="F148" s="179"/>
+      <c r="G148" s="179"/>
+      <c r="H148" s="179"/>
       <c r="I148" s="1">
         <f>140</f>
         <v>140</v>
@@ -4968,13 +4974,13 @@
       <c r="C149" s="86">
         <v>9.5</v>
       </c>
-      <c r="D149" s="178" t="s">
+      <c r="D149" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="178"/>
-      <c r="F149" s="178"/>
-      <c r="G149" s="178"/>
-      <c r="H149" s="178"/>
+      <c r="E149" s="179"/>
+      <c r="F149" s="179"/>
+      <c r="G149" s="179"/>
+      <c r="H149" s="179"/>
       <c r="I149" s="1">
         <f>220*4+140+100</f>
         <v>1120</v>
@@ -4991,13 +4997,13 @@
       <c r="C150" s="86">
         <v>10.5</v>
       </c>
-      <c r="D150" s="178" t="s">
+      <c r="D150" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="178"/>
-      <c r="F150" s="178"/>
-      <c r="G150" s="178"/>
-      <c r="H150" s="178"/>
+      <c r="E150" s="179"/>
+      <c r="F150" s="179"/>
+      <c r="G150" s="179"/>
+      <c r="H150" s="179"/>
       <c r="I150" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5014,13 +5020,13 @@
       <c r="C151" s="86">
         <v>11.5</v>
       </c>
-      <c r="D151" s="178" t="s">
+      <c r="D151" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E151" s="178"/>
-      <c r="F151" s="178"/>
-      <c r="G151" s="178"/>
-      <c r="H151" s="178"/>
+      <c r="E151" s="179"/>
+      <c r="F151" s="179"/>
+      <c r="G151" s="179"/>
+      <c r="H151" s="179"/>
       <c r="I151" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5037,13 +5043,13 @@
       <c r="C152" s="86">
         <v>12.5</v>
       </c>
-      <c r="D152" s="178" t="s">
+      <c r="D152" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E152" s="178"/>
-      <c r="F152" s="178"/>
-      <c r="G152" s="178"/>
-      <c r="H152" s="178"/>
+      <c r="E152" s="179"/>
+      <c r="F152" s="179"/>
+      <c r="G152" s="179"/>
+      <c r="H152" s="179"/>
       <c r="I152" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5053,13 +5059,13 @@
       <c r="A153" s="91"/>
       <c r="B153" s="92"/>
       <c r="C153" s="92"/>
-      <c r="D153" s="178" t="s">
+      <c r="D153" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E153" s="178"/>
-      <c r="F153" s="178"/>
-      <c r="G153" s="178"/>
-      <c r="H153" s="178"/>
+      <c r="E153" s="179"/>
+      <c r="F153" s="179"/>
+      <c r="G153" s="179"/>
+      <c r="H153" s="179"/>
       <c r="J153" s="1">
         <f>980+200</f>
         <v>1180</v>
@@ -5079,13 +5085,13 @@
       <c r="C154" s="86">
         <v>13.5</v>
       </c>
-      <c r="D154" s="178" t="s">
+      <c r="D154" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E154" s="178"/>
-      <c r="F154" s="178"/>
-      <c r="G154" s="178"/>
-      <c r="H154" s="178"/>
+      <c r="E154" s="179"/>
+      <c r="F154" s="179"/>
+      <c r="G154" s="179"/>
+      <c r="H154" s="179"/>
       <c r="I154" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5095,13 +5101,13 @@
       <c r="A155" s="93"/>
       <c r="B155" s="94"/>
       <c r="C155" s="94"/>
-      <c r="D155" s="178" t="s">
+      <c r="D155" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="178"/>
-      <c r="F155" s="178"/>
-      <c r="G155" s="178"/>
-      <c r="H155" s="178"/>
+      <c r="E155" s="179"/>
+      <c r="F155" s="179"/>
+      <c r="G155" s="179"/>
+      <c r="H155" s="179"/>
       <c r="I155" s="1">
         <v>20000</v>
       </c>
@@ -5113,13 +5119,13 @@
       <c r="A156" s="93"/>
       <c r="B156" s="94"/>
       <c r="C156" s="94"/>
-      <c r="D156" s="178" t="s">
+      <c r="D156" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="178"/>
-      <c r="F156" s="178"/>
-      <c r="G156" s="178"/>
-      <c r="H156" s="178"/>
+      <c r="E156" s="179"/>
+      <c r="F156" s="179"/>
+      <c r="G156" s="179"/>
+      <c r="H156" s="179"/>
       <c r="J156" s="1">
         <f>30000</f>
         <v>30000</v>
@@ -5136,13 +5142,13 @@
       <c r="C157" s="86">
         <v>14.5</v>
       </c>
-      <c r="D157" s="178" t="s">
+      <c r="D157" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E157" s="178"/>
-      <c r="F157" s="178"/>
-      <c r="G157" s="178"/>
-      <c r="H157" s="178"/>
+      <c r="E157" s="179"/>
+      <c r="F157" s="179"/>
+      <c r="G157" s="179"/>
+      <c r="H157" s="179"/>
       <c r="I157" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5159,13 +5165,13 @@
       <c r="C158" s="86">
         <v>15.5</v>
       </c>
-      <c r="D158" s="178" t="s">
+      <c r="D158" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E158" s="178"/>
-      <c r="F158" s="178"/>
-      <c r="G158" s="178"/>
-      <c r="H158" s="178"/>
+      <c r="E158" s="179"/>
+      <c r="F158" s="179"/>
+      <c r="G158" s="179"/>
+      <c r="H158" s="179"/>
       <c r="I158" s="1">
         <f>220</f>
         <v>220</v>
@@ -5182,13 +5188,13 @@
       <c r="C159" s="86">
         <v>16.5</v>
       </c>
-      <c r="D159" s="178" t="s">
+      <c r="D159" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E159" s="178"/>
-      <c r="F159" s="178"/>
-      <c r="G159" s="178"/>
-      <c r="H159" s="178"/>
+      <c r="E159" s="179"/>
+      <c r="F159" s="179"/>
+      <c r="G159" s="179"/>
+      <c r="H159" s="179"/>
       <c r="I159" s="1">
         <f>220+380</f>
         <v>600</v>
@@ -5205,13 +5211,13 @@
       <c r="C160" s="86">
         <v>17.5</v>
       </c>
-      <c r="D160" s="178" t="s">
+      <c r="D160" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="178"/>
-      <c r="F160" s="178"/>
-      <c r="G160" s="178"/>
-      <c r="H160" s="178"/>
+      <c r="E160" s="179"/>
+      <c r="F160" s="179"/>
+      <c r="G160" s="179"/>
+      <c r="H160" s="179"/>
       <c r="I160" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5228,13 +5234,13 @@
       <c r="C161" s="86">
         <v>18.5</v>
       </c>
-      <c r="D161" s="178" t="s">
+      <c r="D161" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="178"/>
-      <c r="F161" s="178"/>
-      <c r="G161" s="178"/>
-      <c r="H161" s="178"/>
+      <c r="E161" s="179"/>
+      <c r="F161" s="179"/>
+      <c r="G161" s="179"/>
+      <c r="H161" s="179"/>
       <c r="I161" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -5251,13 +5257,13 @@
       <c r="C162" s="86">
         <v>19.5</v>
       </c>
-      <c r="D162" s="178" t="s">
+      <c r="D162" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="178"/>
-      <c r="F162" s="178"/>
-      <c r="G162" s="178"/>
-      <c r="H162" s="178"/>
+      <c r="E162" s="179"/>
+      <c r="F162" s="179"/>
+      <c r="G162" s="179"/>
+      <c r="H162" s="179"/>
       <c r="J162" s="1">
         <v>2700</v>
       </c>
@@ -5266,13 +5272,13 @@
       <c r="A163" s="97"/>
       <c r="B163" s="98"/>
       <c r="C163" s="98"/>
-      <c r="D163" s="178" t="s">
+      <c r="D163" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="E163" s="178"/>
-      <c r="F163" s="178"/>
-      <c r="G163" s="178"/>
-      <c r="H163" s="178"/>
+      <c r="E163" s="179"/>
+      <c r="F163" s="179"/>
+      <c r="G163" s="179"/>
+      <c r="H163" s="179"/>
       <c r="I163" s="1">
         <v>600</v>
       </c>
@@ -5281,13 +5287,13 @@
       <c r="A164" s="97"/>
       <c r="B164" s="98"/>
       <c r="C164" s="98"/>
-      <c r="D164" s="178" t="s">
+      <c r="D164" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E164" s="178"/>
-      <c r="F164" s="178"/>
-      <c r="G164" s="178"/>
-      <c r="H164" s="178"/>
+      <c r="E164" s="179"/>
+      <c r="F164" s="179"/>
+      <c r="G164" s="179"/>
+      <c r="H164" s="179"/>
       <c r="I164" s="1">
         <f>440+140</f>
         <v>580</v>
@@ -5304,13 +5310,13 @@
       <c r="C165" s="86">
         <v>20.5</v>
       </c>
-      <c r="D165" s="178" t="s">
+      <c r="D165" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E165" s="178"/>
-      <c r="F165" s="178"/>
-      <c r="G165" s="178"/>
-      <c r="H165" s="178"/>
+      <c r="E165" s="179"/>
+      <c r="F165" s="179"/>
+      <c r="G165" s="179"/>
+      <c r="H165" s="179"/>
       <c r="I165" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -5327,13 +5333,13 @@
       <c r="C166" s="86">
         <v>21.5</v>
       </c>
-      <c r="D166" s="178" t="s">
+      <c r="D166" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="178"/>
-      <c r="F166" s="178"/>
-      <c r="G166" s="178"/>
-      <c r="H166" s="178"/>
+      <c r="E166" s="179"/>
+      <c r="F166" s="179"/>
+      <c r="G166" s="179"/>
+      <c r="H166" s="179"/>
       <c r="I166" s="1">
         <f>140</f>
         <v>140</v>
@@ -5350,13 +5356,13 @@
       <c r="C167" s="86">
         <v>22.5</v>
       </c>
-      <c r="D167" s="178" t="s">
+      <c r="D167" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="178"/>
-      <c r="F167" s="178"/>
-      <c r="G167" s="178"/>
-      <c r="H167" s="178"/>
+      <c r="E167" s="179"/>
+      <c r="F167" s="179"/>
+      <c r="G167" s="179"/>
+      <c r="H167" s="179"/>
       <c r="I167" s="1">
         <f>140</f>
         <v>140</v>
@@ -5366,13 +5372,13 @@
       <c r="A168" s="100"/>
       <c r="B168" s="101"/>
       <c r="C168" s="101"/>
-      <c r="D168" s="178" t="s">
+      <c r="D168" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="178"/>
-      <c r="F168" s="178"/>
-      <c r="G168" s="178"/>
-      <c r="H168" s="178"/>
+      <c r="E168" s="179"/>
+      <c r="F168" s="179"/>
+      <c r="G168" s="179"/>
+      <c r="H168" s="179"/>
       <c r="J168" s="1">
         <v>1300</v>
       </c>
@@ -5388,13 +5394,13 @@
       <c r="C169" s="86">
         <v>23.5</v>
       </c>
-      <c r="D169" s="178" t="s">
+      <c r="D169" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="178"/>
-      <c r="F169" s="178"/>
-      <c r="G169" s="178"/>
-      <c r="H169" s="178"/>
+      <c r="E169" s="179"/>
+      <c r="F169" s="179"/>
+      <c r="G169" s="179"/>
+      <c r="H169" s="179"/>
       <c r="I169" s="1">
         <f>140</f>
         <v>140</v>
@@ -5411,13 +5417,13 @@
       <c r="C170" s="86">
         <v>24.5</v>
       </c>
-      <c r="D170" s="178" t="s">
+      <c r="D170" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E170" s="178"/>
-      <c r="F170" s="178"/>
-      <c r="G170" s="178"/>
-      <c r="H170" s="178"/>
+      <c r="E170" s="179"/>
+      <c r="F170" s="179"/>
+      <c r="G170" s="179"/>
+      <c r="H170" s="179"/>
       <c r="I170" s="1">
         <f>140*2</f>
         <v>280</v>
@@ -5434,11 +5440,11 @@
       <c r="C171" s="86">
         <v>25.5</v>
       </c>
-      <c r="D171" s="178"/>
-      <c r="E171" s="178"/>
-      <c r="F171" s="178"/>
-      <c r="G171" s="178"/>
-      <c r="H171" s="178"/>
+      <c r="D171" s="179"/>
+      <c r="E171" s="179"/>
+      <c r="F171" s="179"/>
+      <c r="G171" s="179"/>
+      <c r="H171" s="179"/>
     </row>
     <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="85">
@@ -5451,11 +5457,11 @@
       <c r="C172" s="86">
         <v>26.5</v>
       </c>
-      <c r="D172" s="178"/>
-      <c r="E172" s="178"/>
-      <c r="F172" s="178"/>
-      <c r="G172" s="178"/>
-      <c r="H172" s="178"/>
+      <c r="D172" s="179"/>
+      <c r="E172" s="179"/>
+      <c r="F172" s="179"/>
+      <c r="G172" s="179"/>
+      <c r="H172" s="179"/>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="85">
@@ -5468,11 +5474,11 @@
       <c r="C173" s="86">
         <v>27.5</v>
       </c>
-      <c r="D173" s="178"/>
-      <c r="E173" s="178"/>
-      <c r="F173" s="178"/>
-      <c r="G173" s="178"/>
-      <c r="H173" s="178"/>
+      <c r="D173" s="179"/>
+      <c r="E173" s="179"/>
+      <c r="F173" s="179"/>
+      <c r="G173" s="179"/>
+      <c r="H173" s="179"/>
     </row>
     <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="85">
@@ -5485,13 +5491,13 @@
       <c r="C174" s="86">
         <v>28.5</v>
       </c>
-      <c r="D174" s="178" t="s">
+      <c r="D174" s="179" t="s">
         <v>83</v>
       </c>
-      <c r="E174" s="178"/>
-      <c r="F174" s="178"/>
-      <c r="G174" s="178"/>
-      <c r="H174" s="178"/>
+      <c r="E174" s="179"/>
+      <c r="F174" s="179"/>
+      <c r="G174" s="179"/>
+      <c r="H174" s="179"/>
       <c r="I174" s="1">
         <f>220*8+6000</f>
         <v>7760</v>
@@ -5501,13 +5507,13 @@
       <c r="A175" s="105"/>
       <c r="B175" s="106"/>
       <c r="C175" s="106"/>
-      <c r="D175" s="178" t="s">
+      <c r="D175" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="178"/>
-      <c r="F175" s="178"/>
-      <c r="G175" s="178"/>
-      <c r="H175" s="178"/>
+      <c r="E175" s="179"/>
+      <c r="F175" s="179"/>
+      <c r="G175" s="179"/>
+      <c r="H175" s="179"/>
       <c r="J175" s="1">
         <v>10000</v>
       </c>
@@ -5523,13 +5529,13 @@
       <c r="C176" s="86">
         <v>29.5</v>
       </c>
-      <c r="D176" s="178" t="s">
+      <c r="D176" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E176" s="178"/>
-      <c r="F176" s="178"/>
-      <c r="G176" s="178"/>
-      <c r="H176" s="178"/>
+      <c r="E176" s="179"/>
+      <c r="F176" s="179"/>
+      <c r="G176" s="179"/>
+      <c r="H176" s="179"/>
       <c r="I176" s="1">
         <f>220</f>
         <v>220</v>
@@ -5546,13 +5552,13 @@
       <c r="C177" s="5">
         <v>1.6</v>
       </c>
-      <c r="D177" s="178" t="s">
+      <c r="D177" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E177" s="178"/>
-      <c r="F177" s="178"/>
-      <c r="G177" s="178"/>
-      <c r="H177" s="178"/>
+      <c r="E177" s="179"/>
+      <c r="F177" s="179"/>
+      <c r="G177" s="179"/>
+      <c r="H177" s="179"/>
       <c r="I177" s="1">
         <f>220</f>
         <v>220</v>
@@ -5569,11 +5575,11 @@
       <c r="C178" s="5">
         <v>2.6</v>
       </c>
-      <c r="D178" s="178"/>
-      <c r="E178" s="178"/>
-      <c r="F178" s="178"/>
-      <c r="G178" s="178"/>
-      <c r="H178" s="178"/>
+      <c r="D178" s="179"/>
+      <c r="E178" s="179"/>
+      <c r="F178" s="179"/>
+      <c r="G178" s="179"/>
+      <c r="H178" s="179"/>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="85">
@@ -5586,13 +5592,13 @@
       <c r="C179" s="104">
         <v>3.6</v>
       </c>
-      <c r="D179" s="178" t="s">
+      <c r="D179" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E179" s="178"/>
-      <c r="F179" s="178"/>
-      <c r="G179" s="178"/>
-      <c r="H179" s="178"/>
+      <c r="E179" s="179"/>
+      <c r="F179" s="179"/>
+      <c r="G179" s="179"/>
+      <c r="H179" s="179"/>
       <c r="I179" s="1">
         <f>140*3</f>
         <v>420</v>
@@ -5609,13 +5615,13 @@
       <c r="C180" s="104">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D180" s="178" t="s">
+      <c r="D180" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="178"/>
-      <c r="F180" s="178"/>
-      <c r="G180" s="178"/>
-      <c r="H180" s="178"/>
+      <c r="E180" s="179"/>
+      <c r="F180" s="179"/>
+      <c r="G180" s="179"/>
+      <c r="H180" s="179"/>
       <c r="I180" s="1">
         <f>220*3+140</f>
         <v>800</v>
@@ -5625,13 +5631,13 @@
       <c r="A181" s="108"/>
       <c r="B181" s="109"/>
       <c r="C181" s="109"/>
-      <c r="D181" s="178" t="s">
+      <c r="D181" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E181" s="178"/>
-      <c r="F181" s="178"/>
-      <c r="G181" s="178"/>
-      <c r="H181" s="178"/>
+      <c r="E181" s="179"/>
+      <c r="F181" s="179"/>
+      <c r="G181" s="179"/>
+      <c r="H181" s="179"/>
       <c r="J181" s="1">
         <v>1000</v>
       </c>
@@ -5650,13 +5656,13 @@
       <c r="C182" s="104">
         <v>5.6</v>
       </c>
-      <c r="D182" s="178" t="s">
+      <c r="D182" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E182" s="178"/>
-      <c r="F182" s="178"/>
-      <c r="G182" s="178"/>
-      <c r="H182" s="178"/>
+      <c r="E182" s="179"/>
+      <c r="F182" s="179"/>
+      <c r="G182" s="179"/>
+      <c r="H182" s="179"/>
       <c r="I182" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5673,13 +5679,13 @@
       <c r="C183" s="104">
         <v>6.6</v>
       </c>
-      <c r="D183" s="178" t="s">
+      <c r="D183" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E183" s="178"/>
-      <c r="F183" s="178"/>
-      <c r="G183" s="178"/>
-      <c r="H183" s="178"/>
+      <c r="E183" s="179"/>
+      <c r="F183" s="179"/>
+      <c r="G183" s="179"/>
+      <c r="H183" s="179"/>
       <c r="I183" s="1">
         <f>140+220+5000</f>
         <v>5360</v>
@@ -5696,13 +5702,13 @@
       <c r="C184" s="104">
         <v>7.6</v>
       </c>
-      <c r="D184" s="178" t="s">
+      <c r="D184" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E184" s="178"/>
-      <c r="F184" s="178"/>
-      <c r="G184" s="178"/>
-      <c r="H184" s="178"/>
+      <c r="E184" s="179"/>
+      <c r="F184" s="179"/>
+      <c r="G184" s="179"/>
+      <c r="H184" s="179"/>
       <c r="I184" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5719,13 +5725,13 @@
       <c r="C185" s="104">
         <v>8.6</v>
       </c>
-      <c r="D185" s="178" t="s">
+      <c r="D185" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E185" s="178"/>
-      <c r="F185" s="178"/>
-      <c r="G185" s="178"/>
-      <c r="H185" s="178"/>
+      <c r="E185" s="179"/>
+      <c r="F185" s="179"/>
+      <c r="G185" s="179"/>
+      <c r="H185" s="179"/>
       <c r="I185" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5742,13 +5748,13 @@
       <c r="C186" s="104">
         <v>9.6</v>
       </c>
-      <c r="D186" s="178" t="s">
+      <c r="D186" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E186" s="178"/>
-      <c r="F186" s="178"/>
-      <c r="G186" s="178"/>
-      <c r="H186" s="178"/>
+      <c r="E186" s="179"/>
+      <c r="F186" s="179"/>
+      <c r="G186" s="179"/>
+      <c r="H186" s="179"/>
       <c r="I186" s="1">
         <f>140</f>
         <v>140</v>
@@ -5765,13 +5771,13 @@
       <c r="C187" s="104">
         <v>10.6</v>
       </c>
-      <c r="D187" s="178" t="s">
+      <c r="D187" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E187" s="178"/>
-      <c r="F187" s="178"/>
-      <c r="G187" s="178"/>
-      <c r="H187" s="178"/>
+      <c r="E187" s="179"/>
+      <c r="F187" s="179"/>
+      <c r="G187" s="179"/>
+      <c r="H187" s="179"/>
       <c r="I187" s="1">
         <f>220*2+140</f>
         <v>580</v>
@@ -5788,13 +5794,13 @@
       <c r="C188" s="104">
         <v>11.6</v>
       </c>
-      <c r="D188" s="178" t="s">
+      <c r="D188" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E188" s="178"/>
-      <c r="F188" s="178"/>
-      <c r="G188" s="178"/>
-      <c r="H188" s="178"/>
+      <c r="E188" s="179"/>
+      <c r="F188" s="179"/>
+      <c r="G188" s="179"/>
+      <c r="H188" s="179"/>
       <c r="I188" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5811,13 +5817,13 @@
       <c r="C189" s="104">
         <v>12.6</v>
       </c>
-      <c r="D189" s="178" t="s">
+      <c r="D189" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E189" s="178"/>
-      <c r="F189" s="178"/>
-      <c r="G189" s="178"/>
-      <c r="H189" s="178"/>
+      <c r="E189" s="179"/>
+      <c r="F189" s="179"/>
+      <c r="G189" s="179"/>
+      <c r="H189" s="179"/>
       <c r="I189" s="1">
         <f>(140+50)+220</f>
         <v>410</v>
@@ -5834,13 +5840,13 @@
       <c r="C190" s="104">
         <v>13.6</v>
       </c>
-      <c r="D190" s="178" t="s">
+      <c r="D190" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="178"/>
-      <c r="F190" s="178"/>
-      <c r="G190" s="178"/>
-      <c r="H190" s="178"/>
+      <c r="E190" s="179"/>
+      <c r="F190" s="179"/>
+      <c r="G190" s="179"/>
+      <c r="H190" s="179"/>
       <c r="I190" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -5857,13 +5863,13 @@
       <c r="C191" s="104">
         <v>14.6</v>
       </c>
-      <c r="D191" s="178" t="s">
+      <c r="D191" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E191" s="178"/>
-      <c r="F191" s="178"/>
-      <c r="G191" s="178"/>
-      <c r="H191" s="178"/>
+      <c r="E191" s="179"/>
+      <c r="F191" s="179"/>
+      <c r="G191" s="179"/>
+      <c r="H191" s="179"/>
       <c r="I191" s="1">
         <f>140</f>
         <v>140</v>
@@ -5880,13 +5886,13 @@
       <c r="C192" s="104">
         <v>15.6</v>
       </c>
-      <c r="D192" s="178" t="s">
+      <c r="D192" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E192" s="178"/>
-      <c r="F192" s="178"/>
-      <c r="G192" s="178"/>
-      <c r="H192" s="178"/>
+      <c r="E192" s="179"/>
+      <c r="F192" s="179"/>
+      <c r="G192" s="179"/>
+      <c r="H192" s="179"/>
       <c r="I192" s="1">
         <f>220*2</f>
         <v>440</v>
@@ -5903,13 +5909,13 @@
       <c r="C193" s="104">
         <v>16.600000000000001</v>
       </c>
-      <c r="D193" s="178" t="s">
+      <c r="D193" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E193" s="178"/>
-      <c r="F193" s="178"/>
-      <c r="G193" s="178"/>
-      <c r="H193" s="178"/>
+      <c r="E193" s="179"/>
+      <c r="F193" s="179"/>
+      <c r="G193" s="179"/>
+      <c r="H193" s="179"/>
       <c r="I193" s="1">
         <f>140*2+220</f>
         <v>500</v>
@@ -5926,13 +5932,13 @@
       <c r="C194" s="104">
         <v>17.600000000000001</v>
       </c>
-      <c r="D194" s="178" t="s">
+      <c r="D194" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="E194" s="178"/>
-      <c r="F194" s="178"/>
-      <c r="G194" s="178"/>
-      <c r="H194" s="178"/>
+      <c r="E194" s="179"/>
+      <c r="F194" s="179"/>
+      <c r="G194" s="179"/>
+      <c r="H194" s="179"/>
       <c r="I194" s="1">
         <f>140+450</f>
         <v>590</v>
@@ -5942,13 +5948,13 @@
       <c r="A195" s="110"/>
       <c r="B195" s="111"/>
       <c r="C195" s="111"/>
-      <c r="D195" s="178" t="s">
+      <c r="D195" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="E195" s="178"/>
-      <c r="F195" s="178"/>
-      <c r="G195" s="178"/>
-      <c r="H195" s="178"/>
+      <c r="E195" s="179"/>
+      <c r="F195" s="179"/>
+      <c r="G195" s="179"/>
+      <c r="H195" s="179"/>
       <c r="J195" s="1">
         <v>5000</v>
       </c>
@@ -5964,13 +5970,13 @@
       <c r="C196" s="104">
         <v>18.600000000000001</v>
       </c>
-      <c r="D196" s="178" t="s">
+      <c r="D196" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E196" s="178"/>
-      <c r="F196" s="178"/>
-      <c r="G196" s="178"/>
-      <c r="H196" s="178"/>
+      <c r="E196" s="179"/>
+      <c r="F196" s="179"/>
+      <c r="G196" s="179"/>
+      <c r="H196" s="179"/>
       <c r="I196" s="1">
         <f>220*2+140</f>
         <v>580</v>
@@ -5987,13 +5993,13 @@
       <c r="C197" s="104">
         <v>19.600000000000001</v>
       </c>
-      <c r="D197" s="178" t="s">
+      <c r="D197" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="178"/>
-      <c r="F197" s="178"/>
-      <c r="G197" s="178"/>
-      <c r="H197" s="178"/>
+      <c r="E197" s="179"/>
+      <c r="F197" s="179"/>
+      <c r="G197" s="179"/>
+      <c r="H197" s="179"/>
       <c r="I197" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6010,13 +6016,13 @@
       <c r="C198" s="104">
         <v>20.6</v>
       </c>
-      <c r="D198" s="178" t="s">
+      <c r="D198" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E198" s="178"/>
-      <c r="F198" s="178"/>
-      <c r="G198" s="178"/>
-      <c r="H198" s="178"/>
+      <c r="E198" s="179"/>
+      <c r="F198" s="179"/>
+      <c r="G198" s="179"/>
+      <c r="H198" s="179"/>
       <c r="I198" s="1">
         <f t="shared" ref="I198:I200" si="5">220+140</f>
         <v>360</v>
@@ -6033,13 +6039,13 @@
       <c r="C199" s="104">
         <v>21.6</v>
       </c>
-      <c r="D199" s="178" t="s">
+      <c r="D199" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E199" s="178"/>
-      <c r="F199" s="178"/>
-      <c r="G199" s="178"/>
-      <c r="H199" s="178"/>
+      <c r="E199" s="179"/>
+      <c r="F199" s="179"/>
+      <c r="G199" s="179"/>
+      <c r="H199" s="179"/>
       <c r="I199" s="1">
         <f>220+(140+20)</f>
         <v>380</v>
@@ -6056,13 +6062,13 @@
       <c r="C200" s="104">
         <v>22.6</v>
       </c>
-      <c r="D200" s="178" t="s">
+      <c r="D200" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E200" s="178"/>
-      <c r="F200" s="178"/>
-      <c r="G200" s="178"/>
-      <c r="H200" s="178"/>
+      <c r="E200" s="179"/>
+      <c r="F200" s="179"/>
+      <c r="G200" s="179"/>
+      <c r="H200" s="179"/>
       <c r="I200" s="1">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -6079,13 +6085,13 @@
       <c r="C201" s="104">
         <v>23.6</v>
       </c>
-      <c r="D201" s="178" t="s">
+      <c r="D201" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E201" s="178"/>
-      <c r="F201" s="178"/>
-      <c r="G201" s="178"/>
-      <c r="H201" s="178"/>
+      <c r="E201" s="179"/>
+      <c r="F201" s="179"/>
+      <c r="G201" s="179"/>
+      <c r="H201" s="179"/>
       <c r="I201" s="1">
         <f>140</f>
         <v>140</v>
@@ -6102,13 +6108,13 @@
       <c r="C202" s="104">
         <v>24.6</v>
       </c>
-      <c r="D202" s="178" t="s">
+      <c r="D202" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E202" s="178"/>
-      <c r="F202" s="178"/>
-      <c r="G202" s="178"/>
-      <c r="H202" s="178"/>
+      <c r="E202" s="179"/>
+      <c r="F202" s="179"/>
+      <c r="G202" s="179"/>
+      <c r="H202" s="179"/>
       <c r="I202" s="1">
         <f>140</f>
         <v>140</v>
@@ -6125,13 +6131,13 @@
       <c r="C203" s="104">
         <v>25.6</v>
       </c>
-      <c r="D203" s="178" t="s">
+      <c r="D203" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E203" s="178"/>
-      <c r="F203" s="178"/>
-      <c r="G203" s="178"/>
-      <c r="H203" s="178"/>
+      <c r="E203" s="179"/>
+      <c r="F203" s="179"/>
+      <c r="G203" s="179"/>
+      <c r="H203" s="179"/>
       <c r="I203" s="1">
         <f>220*3+(140+20)+15900</f>
         <v>16720</v>
@@ -6148,13 +6154,13 @@
       <c r="C204" s="104">
         <v>26.6</v>
       </c>
-      <c r="D204" s="178" t="s">
+      <c r="D204" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E204" s="178"/>
-      <c r="F204" s="178"/>
-      <c r="G204" s="178"/>
-      <c r="H204" s="178"/>
+      <c r="E204" s="179"/>
+      <c r="F204" s="179"/>
+      <c r="G204" s="179"/>
+      <c r="H204" s="179"/>
       <c r="I204" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6171,13 +6177,13 @@
       <c r="C205" s="104">
         <v>27.6</v>
       </c>
-      <c r="D205" s="178" t="s">
+      <c r="D205" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="178"/>
-      <c r="F205" s="178"/>
-      <c r="G205" s="178"/>
-      <c r="H205" s="178"/>
+      <c r="E205" s="179"/>
+      <c r="F205" s="179"/>
+      <c r="G205" s="179"/>
+      <c r="H205" s="179"/>
       <c r="I205" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6194,13 +6200,13 @@
       <c r="C206" s="104">
         <v>28.6</v>
       </c>
-      <c r="D206" s="178" t="s">
+      <c r="D206" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="178"/>
-      <c r="F206" s="178"/>
-      <c r="G206" s="178"/>
-      <c r="H206" s="178"/>
+      <c r="E206" s="179"/>
+      <c r="F206" s="179"/>
+      <c r="G206" s="179"/>
+      <c r="H206" s="179"/>
       <c r="I206" s="1">
         <f t="shared" ref="I206" si="6">220+140</f>
         <v>360</v>
@@ -6210,13 +6216,13 @@
       <c r="A207" s="114"/>
       <c r="B207" s="115"/>
       <c r="C207" s="115"/>
-      <c r="D207" s="178" t="s">
+      <c r="D207" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E207" s="178"/>
-      <c r="F207" s="178"/>
-      <c r="G207" s="178"/>
-      <c r="H207" s="178"/>
+      <c r="E207" s="179"/>
+      <c r="F207" s="179"/>
+      <c r="G207" s="179"/>
+      <c r="H207" s="179"/>
       <c r="J207" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -6233,13 +6239,13 @@
       <c r="C208" s="104">
         <v>29.6</v>
       </c>
-      <c r="D208" s="178" t="s">
+      <c r="D208" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E208" s="178"/>
-      <c r="F208" s="178"/>
-      <c r="G208" s="178"/>
-      <c r="H208" s="178"/>
+      <c r="E208" s="179"/>
+      <c r="F208" s="179"/>
+      <c r="G208" s="179"/>
+      <c r="H208" s="179"/>
       <c r="I208" s="1">
         <f>140</f>
         <v>140</v>
@@ -6256,11 +6262,11 @@
       <c r="C209" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D209" s="178"/>
-      <c r="E209" s="178"/>
-      <c r="F209" s="178"/>
-      <c r="G209" s="178"/>
-      <c r="H209" s="178"/>
+      <c r="D209" s="179"/>
+      <c r="E209" s="179"/>
+      <c r="F209" s="179"/>
+      <c r="G209" s="179"/>
+      <c r="H209" s="179"/>
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="85">
@@ -6273,13 +6279,13 @@
       <c r="C210" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D210" s="178" t="s">
+      <c r="D210" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="178"/>
-      <c r="F210" s="178"/>
-      <c r="G210" s="178"/>
-      <c r="H210" s="178"/>
+      <c r="E210" s="179"/>
+      <c r="F210" s="179"/>
+      <c r="G210" s="179"/>
+      <c r="H210" s="179"/>
       <c r="I210" s="1">
         <f>140*2+(220*3+10)</f>
         <v>950</v>
@@ -6296,13 +6302,13 @@
       <c r="C211" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D211" s="178" t="s">
+      <c r="D211" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E211" s="178"/>
-      <c r="F211" s="178"/>
-      <c r="G211" s="178"/>
-      <c r="H211" s="178"/>
+      <c r="E211" s="179"/>
+      <c r="F211" s="179"/>
+      <c r="G211" s="179"/>
+      <c r="H211" s="179"/>
       <c r="I211" s="1">
         <f>(140+30)</f>
         <v>170</v>
@@ -6319,13 +6325,13 @@
       <c r="C212" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D212" s="178" t="s">
+      <c r="D212" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="E212" s="178"/>
-      <c r="F212" s="178"/>
-      <c r="G212" s="178"/>
-      <c r="H212" s="178"/>
+      <c r="E212" s="179"/>
+      <c r="F212" s="179"/>
+      <c r="G212" s="179"/>
+      <c r="H212" s="179"/>
       <c r="J212" s="1">
         <v>2000</v>
       </c>
@@ -6334,13 +6340,13 @@
       <c r="A213" s="117"/>
       <c r="B213" s="118"/>
       <c r="C213" s="118"/>
-      <c r="D213" s="178" t="s">
+      <c r="D213" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E213" s="178"/>
-      <c r="F213" s="178"/>
-      <c r="G213" s="178"/>
-      <c r="H213" s="178"/>
+      <c r="E213" s="179"/>
+      <c r="F213" s="179"/>
+      <c r="G213" s="179"/>
+      <c r="H213" s="179"/>
       <c r="J213" s="1">
         <v>5000</v>
       </c>
@@ -6349,13 +6355,13 @@
       <c r="A214" s="117"/>
       <c r="B214" s="118"/>
       <c r="C214" s="118"/>
-      <c r="D214" s="178" t="s">
+      <c r="D214" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E214" s="178"/>
-      <c r="F214" s="178"/>
-      <c r="G214" s="178"/>
-      <c r="H214" s="178"/>
+      <c r="E214" s="179"/>
+      <c r="F214" s="179"/>
+      <c r="G214" s="179"/>
+      <c r="H214" s="179"/>
       <c r="I214" s="1">
         <f>220*2+140+900</f>
         <v>1480</v>
@@ -6372,13 +6378,13 @@
       <c r="C215" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D215" s="178" t="s">
+      <c r="D215" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E215" s="178"/>
-      <c r="F215" s="178"/>
-      <c r="G215" s="178"/>
-      <c r="H215" s="178"/>
+      <c r="E215" s="179"/>
+      <c r="F215" s="179"/>
+      <c r="G215" s="179"/>
+      <c r="H215" s="179"/>
       <c r="I215" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -6395,13 +6401,13 @@
       <c r="C216" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D216" s="178" t="s">
+      <c r="D216" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E216" s="178"/>
-      <c r="F216" s="178"/>
-      <c r="G216" s="178"/>
-      <c r="H216" s="178"/>
+      <c r="E216" s="179"/>
+      <c r="F216" s="179"/>
+      <c r="G216" s="179"/>
+      <c r="H216" s="179"/>
       <c r="I216" s="1">
         <f t="shared" ref="I216:I219" si="7">140+220</f>
         <v>360</v>
@@ -6418,13 +6424,13 @@
       <c r="C217" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="D217" s="178" t="s">
+      <c r="D217" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E217" s="178"/>
-      <c r="F217" s="178"/>
-      <c r="G217" s="178"/>
-      <c r="H217" s="178"/>
+      <c r="E217" s="179"/>
+      <c r="F217" s="179"/>
+      <c r="G217" s="179"/>
+      <c r="H217" s="179"/>
       <c r="I217" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6441,13 +6447,13 @@
       <c r="C218" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D218" s="178" t="s">
+      <c r="D218" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E218" s="178"/>
-      <c r="F218" s="178"/>
-      <c r="G218" s="178"/>
-      <c r="H218" s="178"/>
+      <c r="E218" s="179"/>
+      <c r="F218" s="179"/>
+      <c r="G218" s="179"/>
+      <c r="H218" s="179"/>
       <c r="I218" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6464,13 +6470,13 @@
       <c r="C219" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D219" s="178" t="s">
+      <c r="D219" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E219" s="178"/>
-      <c r="F219" s="178"/>
-      <c r="G219" s="178"/>
-      <c r="H219" s="178"/>
+      <c r="E219" s="179"/>
+      <c r="F219" s="179"/>
+      <c r="G219" s="179"/>
+      <c r="H219" s="179"/>
       <c r="I219" s="1">
         <f t="shared" si="7"/>
         <v>360</v>
@@ -6487,13 +6493,13 @@
       <c r="C220" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D220" s="178" t="s">
+      <c r="D220" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="178"/>
-      <c r="F220" s="178"/>
-      <c r="G220" s="178"/>
-      <c r="H220" s="178"/>
+      <c r="E220" s="179"/>
+      <c r="F220" s="179"/>
+      <c r="G220" s="179"/>
+      <c r="H220" s="179"/>
       <c r="I220" s="1">
         <f>20+40</f>
         <v>60</v>
@@ -6503,13 +6509,13 @@
       <c r="A221" s="122"/>
       <c r="B221" s="123"/>
       <c r="C221" s="123"/>
-      <c r="D221" s="178" t="s">
+      <c r="D221" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="E221" s="178"/>
-      <c r="F221" s="178"/>
-      <c r="G221" s="178"/>
-      <c r="H221" s="178"/>
+      <c r="E221" s="179"/>
+      <c r="F221" s="179"/>
+      <c r="G221" s="179"/>
+      <c r="H221" s="179"/>
       <c r="J221" s="1">
         <f>(9800)+(4820)</f>
         <v>14620</v>
@@ -6526,13 +6532,13 @@
       <c r="C222" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D222" s="178" t="s">
+      <c r="D222" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E222" s="178"/>
-      <c r="F222" s="178"/>
-      <c r="G222" s="178"/>
-      <c r="H222" s="178"/>
+      <c r="E222" s="179"/>
+      <c r="F222" s="179"/>
+      <c r="G222" s="179"/>
+      <c r="H222" s="179"/>
       <c r="I222" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6549,13 +6555,13 @@
       <c r="C223" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D223" s="178" t="s">
+      <c r="D223" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="178"/>
-      <c r="F223" s="178"/>
-      <c r="G223" s="178"/>
-      <c r="H223" s="178"/>
+      <c r="E223" s="179"/>
+      <c r="F223" s="179"/>
+      <c r="G223" s="179"/>
+      <c r="H223" s="179"/>
       <c r="I223" s="1">
         <f t="shared" ref="I223:I225" si="8">220+140</f>
         <v>360</v>
@@ -6572,13 +6578,13 @@
       <c r="C224" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D224" s="178" t="s">
+      <c r="D224" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E224" s="178"/>
-      <c r="F224" s="178"/>
-      <c r="G224" s="178"/>
-      <c r="H224" s="178"/>
+      <c r="E224" s="179"/>
+      <c r="F224" s="179"/>
+      <c r="G224" s="179"/>
+      <c r="H224" s="179"/>
       <c r="I224" s="1">
         <f t="shared" si="8"/>
         <v>360</v>
@@ -6595,13 +6601,13 @@
       <c r="C225" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="D225" s="178" t="s">
+      <c r="D225" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E225" s="178"/>
-      <c r="F225" s="178"/>
-      <c r="G225" s="178"/>
-      <c r="H225" s="178"/>
+      <c r="E225" s="179"/>
+      <c r="F225" s="179"/>
+      <c r="G225" s="179"/>
+      <c r="H225" s="179"/>
       <c r="I225" s="1">
         <f t="shared" si="8"/>
         <v>360</v>
@@ -6618,13 +6624,13 @@
       <c r="C226" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D226" s="178" t="s">
+      <c r="D226" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E226" s="178"/>
-      <c r="F226" s="178"/>
-      <c r="G226" s="178"/>
-      <c r="H226" s="178"/>
+      <c r="E226" s="179"/>
+      <c r="F226" s="179"/>
+      <c r="G226" s="179"/>
+      <c r="H226" s="179"/>
       <c r="I226" s="1">
         <f>220</f>
         <v>220</v>
@@ -6641,13 +6647,13 @@
       <c r="C227" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D227" s="178" t="s">
+      <c r="D227" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E227" s="178"/>
-      <c r="F227" s="178"/>
-      <c r="G227" s="178"/>
-      <c r="H227" s="178"/>
+      <c r="E227" s="179"/>
+      <c r="F227" s="179"/>
+      <c r="G227" s="179"/>
+      <c r="H227" s="179"/>
       <c r="I227" s="1">
         <f>220</f>
         <v>220</v>
@@ -6664,13 +6670,13 @@
       <c r="C228" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="D228" s="178" t="s">
+      <c r="D228" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E228" s="178"/>
-      <c r="F228" s="178"/>
-      <c r="G228" s="178"/>
-      <c r="H228" s="178"/>
+      <c r="E228" s="179"/>
+      <c r="F228" s="179"/>
+      <c r="G228" s="179"/>
+      <c r="H228" s="179"/>
       <c r="I228" s="1">
         <f>220</f>
         <v>220</v>
@@ -6687,13 +6693,13 @@
       <c r="C229" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="D229" s="178" t="s">
+      <c r="D229" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E229" s="178"/>
-      <c r="F229" s="178"/>
-      <c r="G229" s="178"/>
-      <c r="H229" s="178"/>
+      <c r="E229" s="179"/>
+      <c r="F229" s="179"/>
+      <c r="G229" s="179"/>
+      <c r="H229" s="179"/>
       <c r="I229" s="1">
         <f>(220*2)+(140)</f>
         <v>580</v>
@@ -6710,13 +6716,13 @@
       <c r="C230" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="D230" s="178" t="s">
+      <c r="D230" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E230" s="178"/>
-      <c r="F230" s="178"/>
-      <c r="G230" s="178"/>
-      <c r="H230" s="178"/>
+      <c r="E230" s="179"/>
+      <c r="F230" s="179"/>
+      <c r="G230" s="179"/>
+      <c r="H230" s="179"/>
       <c r="I230" s="1">
         <f t="shared" ref="I230:I236" si="9">220+140</f>
         <v>360</v>
@@ -6733,13 +6739,13 @@
       <c r="C231" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D231" s="178" t="s">
+      <c r="D231" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E231" s="178"/>
-      <c r="F231" s="178"/>
-      <c r="G231" s="178"/>
-      <c r="H231" s="178"/>
+      <c r="E231" s="179"/>
+      <c r="F231" s="179"/>
+      <c r="G231" s="179"/>
+      <c r="H231" s="179"/>
       <c r="I231" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6756,13 +6762,13 @@
       <c r="C232" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="D232" s="178" t="s">
+      <c r="D232" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E232" s="178"/>
-      <c r="F232" s="178"/>
-      <c r="G232" s="178"/>
-      <c r="H232" s="178"/>
+      <c r="E232" s="179"/>
+      <c r="F232" s="179"/>
+      <c r="G232" s="179"/>
+      <c r="H232" s="179"/>
       <c r="I232" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6779,13 +6785,13 @@
       <c r="C233" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="D233" s="178" t="s">
+      <c r="D233" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E233" s="178"/>
-      <c r="F233" s="178"/>
-      <c r="G233" s="178"/>
-      <c r="H233" s="178"/>
+      <c r="E233" s="179"/>
+      <c r="F233" s="179"/>
+      <c r="G233" s="179"/>
+      <c r="H233" s="179"/>
       <c r="I233" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6802,13 +6808,13 @@
       <c r="C234" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D234" s="178" t="s">
+      <c r="D234" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E234" s="178"/>
-      <c r="F234" s="178"/>
-      <c r="G234" s="178"/>
-      <c r="H234" s="178"/>
+      <c r="E234" s="179"/>
+      <c r="F234" s="179"/>
+      <c r="G234" s="179"/>
+      <c r="H234" s="179"/>
       <c r="I234" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6825,13 +6831,13 @@
       <c r="C235" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D235" s="178" t="s">
+      <c r="D235" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E235" s="178"/>
-      <c r="F235" s="178"/>
-      <c r="G235" s="178"/>
-      <c r="H235" s="178"/>
+      <c r="E235" s="179"/>
+      <c r="F235" s="179"/>
+      <c r="G235" s="179"/>
+      <c r="H235" s="179"/>
       <c r="I235" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6848,13 +6854,13 @@
       <c r="C236" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D236" s="178" t="s">
+      <c r="D236" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E236" s="178"/>
-      <c r="F236" s="178"/>
-      <c r="G236" s="178"/>
-      <c r="H236" s="178"/>
+      <c r="E236" s="179"/>
+      <c r="F236" s="179"/>
+      <c r="G236" s="179"/>
+      <c r="H236" s="179"/>
       <c r="I236" s="1">
         <f t="shared" si="9"/>
         <v>360</v>
@@ -6871,13 +6877,13 @@
       <c r="C237" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D237" s="178" t="s">
+      <c r="D237" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E237" s="178"/>
-      <c r="F237" s="178"/>
-      <c r="G237" s="178"/>
-      <c r="H237" s="178"/>
+      <c r="E237" s="179"/>
+      <c r="F237" s="179"/>
+      <c r="G237" s="179"/>
+      <c r="H237" s="179"/>
       <c r="I237" s="1">
         <f>220+(140+60)</f>
         <v>420</v>
@@ -6894,13 +6900,13 @@
       <c r="C238" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="D238" s="178" t="s">
+      <c r="D238" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="178"/>
-      <c r="F238" s="178"/>
-      <c r="G238" s="178"/>
-      <c r="H238" s="178"/>
+      <c r="E238" s="179"/>
+      <c r="F238" s="179"/>
+      <c r="G238" s="179"/>
+      <c r="H238" s="179"/>
       <c r="I238" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6910,13 +6916,13 @@
       <c r="A239" s="124"/>
       <c r="B239" s="125"/>
       <c r="C239" s="125"/>
-      <c r="D239" s="178" t="s">
+      <c r="D239" s="179" t="s">
         <v>132</v>
       </c>
-      <c r="E239" s="178"/>
-      <c r="F239" s="178"/>
-      <c r="G239" s="178"/>
-      <c r="H239" s="178"/>
+      <c r="E239" s="179"/>
+      <c r="F239" s="179"/>
+      <c r="G239" s="179"/>
+      <c r="H239" s="179"/>
       <c r="I239" s="1">
         <v>20000</v>
       </c>
@@ -6929,13 +6935,13 @@
       <c r="A240" s="124"/>
       <c r="B240" s="125"/>
       <c r="C240" s="125"/>
-      <c r="D240" s="178" t="s">
+      <c r="D240" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="E240" s="178"/>
-      <c r="F240" s="178"/>
-      <c r="G240" s="178"/>
-      <c r="H240" s="178"/>
+      <c r="E240" s="179"/>
+      <c r="F240" s="179"/>
+      <c r="G240" s="179"/>
+      <c r="H240" s="179"/>
       <c r="J240" s="1">
         <v>30000</v>
       </c>
@@ -6951,13 +6957,13 @@
       <c r="C241" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D241" s="178" t="s">
+      <c r="D241" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="178"/>
-      <c r="F241" s="178"/>
-      <c r="G241" s="178"/>
-      <c r="H241" s="178"/>
+      <c r="E241" s="179"/>
+      <c r="F241" s="179"/>
+      <c r="G241" s="179"/>
+      <c r="H241" s="179"/>
       <c r="I241" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -6974,13 +6980,13 @@
       <c r="C242" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D242" s="178" t="s">
+      <c r="D242" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="178"/>
-      <c r="F242" s="178"/>
-      <c r="G242" s="178"/>
-      <c r="H242" s="178"/>
+      <c r="E242" s="179"/>
+      <c r="F242" s="179"/>
+      <c r="G242" s="179"/>
+      <c r="H242" s="179"/>
       <c r="I242" s="1">
         <f>220+(140+20)</f>
         <v>380</v>
@@ -6997,13 +7003,13 @@
       <c r="C243" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D243" s="178" t="s">
+      <c r="D243" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E243" s="178"/>
-      <c r="F243" s="178"/>
-      <c r="G243" s="178"/>
-      <c r="H243" s="178"/>
+      <c r="E243" s="179"/>
+      <c r="F243" s="179"/>
+      <c r="G243" s="179"/>
+      <c r="H243" s="179"/>
       <c r="I243" s="1">
         <f>220+(140+120)</f>
         <v>480</v>
@@ -7020,13 +7026,13 @@
       <c r="C244" s="5">
         <v>1.7</v>
       </c>
-      <c r="D244" s="178" t="s">
+      <c r="D244" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="E244" s="178"/>
-      <c r="F244" s="178"/>
-      <c r="G244" s="178"/>
-      <c r="H244" s="178"/>
+      <c r="E244" s="179"/>
+      <c r="F244" s="179"/>
+      <c r="G244" s="179"/>
+      <c r="H244" s="179"/>
       <c r="I244" s="1">
         <f>220+750</f>
         <v>970</v>
@@ -7043,13 +7049,13 @@
       <c r="C245" s="5">
         <v>2.7</v>
       </c>
-      <c r="D245" s="178" t="s">
+      <c r="D245" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E245" s="178"/>
-      <c r="F245" s="178"/>
-      <c r="G245" s="178"/>
-      <c r="H245" s="178"/>
+      <c r="E245" s="179"/>
+      <c r="F245" s="179"/>
+      <c r="G245" s="179"/>
+      <c r="H245" s="179"/>
       <c r="I245" s="1">
         <f>220</f>
         <v>220</v>
@@ -7066,13 +7072,13 @@
       <c r="C246" s="130">
         <v>3.7</v>
       </c>
-      <c r="D246" s="178" t="s">
+      <c r="D246" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E246" s="178"/>
-      <c r="F246" s="178"/>
-      <c r="G246" s="178"/>
-      <c r="H246" s="178"/>
+      <c r="E246" s="179"/>
+      <c r="F246" s="179"/>
+      <c r="G246" s="179"/>
+      <c r="H246" s="179"/>
       <c r="I246" s="1">
         <f>(140+80)</f>
         <v>220</v>
@@ -7089,13 +7095,13 @@
       <c r="C247" s="130">
         <v>4.7</v>
       </c>
-      <c r="D247" s="178" t="s">
+      <c r="D247" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="E247" s="178"/>
-      <c r="F247" s="178"/>
-      <c r="G247" s="178"/>
-      <c r="H247" s="178"/>
+      <c r="E247" s="179"/>
+      <c r="F247" s="179"/>
+      <c r="G247" s="179"/>
+      <c r="H247" s="179"/>
       <c r="J247" s="1">
         <v>5000</v>
       </c>
@@ -7104,13 +7110,13 @@
       <c r="A248" s="133"/>
       <c r="B248" s="134"/>
       <c r="C248" s="134"/>
-      <c r="D248" s="178" t="s">
+      <c r="D248" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E248" s="178"/>
-      <c r="F248" s="178"/>
-      <c r="G248" s="178"/>
-      <c r="H248" s="178"/>
+      <c r="E248" s="179"/>
+      <c r="F248" s="179"/>
+      <c r="G248" s="179"/>
+      <c r="H248" s="179"/>
       <c r="I248" s="1">
         <f>(220*2)+(140+50)+10800</f>
         <v>11430</v>
@@ -7127,13 +7133,13 @@
       <c r="C249" s="130">
         <v>5.7</v>
       </c>
-      <c r="D249" s="178" t="s">
+      <c r="D249" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E249" s="178"/>
-      <c r="F249" s="178"/>
-      <c r="G249" s="178"/>
-      <c r="H249" s="178"/>
+      <c r="E249" s="179"/>
+      <c r="F249" s="179"/>
+      <c r="G249" s="179"/>
+      <c r="H249" s="179"/>
       <c r="I249" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7150,11 +7156,11 @@
       <c r="C250" s="130">
         <v>6.7</v>
       </c>
-      <c r="D250" s="178"/>
-      <c r="E250" s="178"/>
-      <c r="F250" s="178"/>
-      <c r="G250" s="178"/>
-      <c r="H250" s="178"/>
+      <c r="D250" s="179"/>
+      <c r="E250" s="179"/>
+      <c r="F250" s="179"/>
+      <c r="G250" s="179"/>
+      <c r="H250" s="179"/>
     </row>
     <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="103">
@@ -7167,13 +7173,13 @@
       <c r="C251" s="130">
         <v>7.7</v>
       </c>
-      <c r="D251" s="178" t="s">
+      <c r="D251" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E251" s="178"/>
-      <c r="F251" s="178"/>
-      <c r="G251" s="178"/>
-      <c r="H251" s="178"/>
+      <c r="E251" s="179"/>
+      <c r="F251" s="179"/>
+      <c r="G251" s="179"/>
+      <c r="H251" s="179"/>
       <c r="I251" s="1">
         <f>(220+140)*2</f>
         <v>720</v>
@@ -7190,13 +7196,13 @@
       <c r="C252" s="130">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D252" s="178" t="s">
+      <c r="D252" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E252" s="178"/>
-      <c r="F252" s="178"/>
-      <c r="G252" s="178"/>
-      <c r="H252" s="178"/>
+      <c r="E252" s="179"/>
+      <c r="F252" s="179"/>
+      <c r="G252" s="179"/>
+      <c r="H252" s="179"/>
       <c r="I252" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7213,13 +7219,13 @@
       <c r="C253" s="130">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D253" s="178" t="s">
+      <c r="D253" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E253" s="178"/>
-      <c r="F253" s="178"/>
-      <c r="G253" s="178"/>
-      <c r="H253" s="178"/>
+      <c r="E253" s="179"/>
+      <c r="F253" s="179"/>
+      <c r="G253" s="179"/>
+      <c r="H253" s="179"/>
       <c r="I253" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7236,13 +7242,13 @@
       <c r="C254" s="130">
         <v>10.7</v>
       </c>
-      <c r="D254" s="178" t="s">
+      <c r="D254" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E254" s="178"/>
-      <c r="F254" s="178"/>
-      <c r="G254" s="178"/>
-      <c r="H254" s="178"/>
+      <c r="E254" s="179"/>
+      <c r="F254" s="179"/>
+      <c r="G254" s="179"/>
+      <c r="H254" s="179"/>
       <c r="I254" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7271,13 +7277,13 @@
       <c r="C256" s="130">
         <v>12.7</v>
       </c>
-      <c r="D256" s="178" t="s">
+      <c r="D256" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E256" s="178"/>
-      <c r="F256" s="178"/>
-      <c r="G256" s="178"/>
-      <c r="H256" s="178"/>
+      <c r="E256" s="179"/>
+      <c r="F256" s="179"/>
+      <c r="G256" s="179"/>
+      <c r="H256" s="179"/>
       <c r="I256" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7294,13 +7300,13 @@
       <c r="C257" s="130">
         <v>13.7</v>
       </c>
-      <c r="D257" s="178" t="s">
+      <c r="D257" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E257" s="178"/>
-      <c r="F257" s="178"/>
-      <c r="G257" s="178"/>
-      <c r="H257" s="178"/>
+      <c r="E257" s="179"/>
+      <c r="F257" s="179"/>
+      <c r="G257" s="179"/>
+      <c r="H257" s="179"/>
       <c r="I257" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -7317,13 +7323,13 @@
       <c r="C258" s="130">
         <v>14.7</v>
       </c>
-      <c r="D258" s="178" t="s">
+      <c r="D258" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E258" s="178"/>
-      <c r="F258" s="178"/>
-      <c r="G258" s="178"/>
-      <c r="H258" s="178"/>
+      <c r="E258" s="179"/>
+      <c r="F258" s="179"/>
+      <c r="G258" s="179"/>
+      <c r="H258" s="179"/>
       <c r="I258" s="1">
         <f>(220*2)+(140*2+150)</f>
         <v>870</v>
@@ -7340,13 +7346,13 @@
       <c r="C259" s="130">
         <v>15.7</v>
       </c>
-      <c r="D259" s="178" t="s">
+      <c r="D259" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="E259" s="178"/>
-      <c r="F259" s="178"/>
-      <c r="G259" s="178"/>
-      <c r="H259" s="178"/>
+      <c r="E259" s="179"/>
+      <c r="F259" s="179"/>
+      <c r="G259" s="179"/>
+      <c r="H259" s="179"/>
       <c r="I259" s="1">
         <v>10000</v>
       </c>
@@ -7362,13 +7368,13 @@
       <c r="C260" s="130">
         <v>16.7</v>
       </c>
-      <c r="D260" s="178" t="s">
+      <c r="D260" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E260" s="178"/>
-      <c r="F260" s="178"/>
-      <c r="G260" s="178"/>
-      <c r="H260" s="178"/>
+      <c r="E260" s="179"/>
+      <c r="F260" s="179"/>
+      <c r="G260" s="179"/>
+      <c r="H260" s="179"/>
       <c r="I260" s="1">
         <f>(220*2)</f>
         <v>440</v>
@@ -7385,13 +7391,13 @@
       <c r="C261" s="130">
         <v>17.7</v>
       </c>
-      <c r="D261" s="178" t="s">
+      <c r="D261" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E261" s="178"/>
-      <c r="F261" s="178"/>
-      <c r="G261" s="178"/>
-      <c r="H261" s="178"/>
+      <c r="E261" s="179"/>
+      <c r="F261" s="179"/>
+      <c r="G261" s="179"/>
+      <c r="H261" s="179"/>
       <c r="I261" s="1">
         <f>(200+10000)+(220)</f>
         <v>10420</v>
@@ -7408,13 +7414,13 @@
       <c r="C262" s="130">
         <v>18.7</v>
       </c>
-      <c r="D262" s="178" t="s">
+      <c r="D262" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E262" s="178"/>
-      <c r="F262" s="178"/>
-      <c r="G262" s="178"/>
-      <c r="H262" s="178"/>
+      <c r="E262" s="179"/>
+      <c r="F262" s="179"/>
+      <c r="G262" s="179"/>
+      <c r="H262" s="179"/>
       <c r="I262" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7431,13 +7437,13 @@
       <c r="C263" s="130">
         <v>19.7</v>
       </c>
-      <c r="D263" s="178" t="s">
+      <c r="D263" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E263" s="178"/>
-      <c r="F263" s="178"/>
-      <c r="G263" s="178"/>
-      <c r="H263" s="178"/>
+      <c r="E263" s="179"/>
+      <c r="F263" s="179"/>
+      <c r="G263" s="179"/>
+      <c r="H263" s="179"/>
       <c r="I263" s="1">
         <v>340</v>
       </c>
@@ -7465,13 +7471,13 @@
       <c r="C265" s="130">
         <v>21.7</v>
       </c>
-      <c r="D265" s="178" t="s">
+      <c r="D265" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E265" s="178"/>
-      <c r="F265" s="178"/>
-      <c r="G265" s="178"/>
-      <c r="H265" s="178"/>
+      <c r="E265" s="179"/>
+      <c r="F265" s="179"/>
+      <c r="G265" s="179"/>
+      <c r="H265" s="179"/>
       <c r="I265" s="1">
         <f>(200*2)+(140*2)</f>
         <v>680</v>
@@ -7488,13 +7494,13 @@
       <c r="C266" s="130">
         <v>22.7</v>
       </c>
-      <c r="D266" s="178" t="s">
+      <c r="D266" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E266" s="178"/>
-      <c r="F266" s="178"/>
-      <c r="G266" s="178"/>
-      <c r="H266" s="178"/>
+      <c r="E266" s="179"/>
+      <c r="F266" s="179"/>
+      <c r="G266" s="179"/>
+      <c r="H266" s="179"/>
       <c r="I266" s="1">
         <v>340</v>
       </c>
@@ -7510,13 +7516,13 @@
       <c r="C267" s="130">
         <v>23.7</v>
       </c>
-      <c r="D267" s="178" t="s">
+      <c r="D267" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E267" s="178"/>
-      <c r="F267" s="178"/>
-      <c r="G267" s="178"/>
-      <c r="H267" s="178"/>
+      <c r="E267" s="179"/>
+      <c r="F267" s="179"/>
+      <c r="G267" s="179"/>
+      <c r="H267" s="179"/>
       <c r="I267" s="1">
         <v>340</v>
       </c>
@@ -7532,13 +7538,13 @@
       <c r="C268" s="130">
         <v>24.7</v>
       </c>
-      <c r="D268" s="178" t="s">
+      <c r="D268" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E268" s="178"/>
-      <c r="F268" s="178"/>
-      <c r="G268" s="178"/>
-      <c r="H268" s="178"/>
+      <c r="E268" s="179"/>
+      <c r="F268" s="179"/>
+      <c r="G268" s="179"/>
+      <c r="H268" s="179"/>
       <c r="I268" s="1">
         <v>340</v>
       </c>
@@ -7554,13 +7560,13 @@
       <c r="C269" s="130">
         <v>25.7</v>
       </c>
-      <c r="D269" s="178" t="s">
+      <c r="D269" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E269" s="178"/>
-      <c r="F269" s="178"/>
-      <c r="G269" s="178"/>
-      <c r="H269" s="178"/>
+      <c r="E269" s="179"/>
+      <c r="F269" s="179"/>
+      <c r="G269" s="179"/>
+      <c r="H269" s="179"/>
       <c r="I269" s="1">
         <v>340</v>
       </c>
@@ -7576,13 +7582,13 @@
       <c r="C270" s="130">
         <v>26.7</v>
       </c>
-      <c r="D270" s="178" t="s">
+      <c r="D270" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E270" s="178"/>
-      <c r="F270" s="178"/>
-      <c r="G270" s="178"/>
-      <c r="H270" s="178"/>
+      <c r="E270" s="179"/>
+      <c r="F270" s="179"/>
+      <c r="G270" s="179"/>
+      <c r="H270" s="179"/>
       <c r="I270" s="1">
         <f>340+10900</f>
         <v>11240</v>
@@ -7599,13 +7605,13 @@
       <c r="C271" s="130">
         <v>27.7</v>
       </c>
-      <c r="D271" s="178" t="s">
+      <c r="D271" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="178"/>
-      <c r="F271" s="178"/>
-      <c r="G271" s="178"/>
-      <c r="H271" s="178"/>
+      <c r="E271" s="179"/>
+      <c r="F271" s="179"/>
+      <c r="G271" s="179"/>
+      <c r="H271" s="179"/>
       <c r="I271" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7622,13 +7628,13 @@
       <c r="C272" s="130">
         <v>28.7</v>
       </c>
-      <c r="D272" s="178" t="s">
+      <c r="D272" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="178"/>
-      <c r="F272" s="178"/>
-      <c r="G272" s="178"/>
-      <c r="H272" s="178"/>
+      <c r="E272" s="179"/>
+      <c r="F272" s="179"/>
+      <c r="G272" s="179"/>
+      <c r="H272" s="179"/>
       <c r="I272" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7638,13 +7644,13 @@
       <c r="A273" s="140"/>
       <c r="B273" s="141"/>
       <c r="C273" s="141"/>
-      <c r="D273" s="178" t="s">
+      <c r="D273" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="E273" s="178"/>
-      <c r="F273" s="178"/>
-      <c r="G273" s="178"/>
-      <c r="H273" s="178"/>
+      <c r="E273" s="179"/>
+      <c r="F273" s="179"/>
+      <c r="G273" s="179"/>
+      <c r="H273" s="179"/>
       <c r="J273" s="1">
         <f>(15000)+(30000)</f>
         <v>45000</v>
@@ -7661,13 +7667,13 @@
       <c r="C274" s="130">
         <v>29.7</v>
       </c>
-      <c r="D274" s="178" t="s">
+      <c r="D274" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="178"/>
-      <c r="F274" s="178"/>
-      <c r="G274" s="178"/>
-      <c r="H274" s="178"/>
+      <c r="E274" s="179"/>
+      <c r="F274" s="179"/>
+      <c r="G274" s="179"/>
+      <c r="H274" s="179"/>
       <c r="I274" s="1">
         <f>(200)+(140)</f>
         <v>340</v>
@@ -7677,13 +7683,13 @@
       <c r="A275" s="146"/>
       <c r="B275" s="147"/>
       <c r="C275" s="147"/>
-      <c r="D275" s="178" t="s">
+      <c r="D275" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="E275" s="178"/>
-      <c r="F275" s="178"/>
-      <c r="G275" s="178"/>
-      <c r="H275" s="178"/>
+      <c r="E275" s="179"/>
+      <c r="F275" s="179"/>
+      <c r="G275" s="179"/>
+      <c r="H275" s="179"/>
       <c r="J275" s="1">
         <v>5000</v>
       </c>
@@ -7699,13 +7705,13 @@
       <c r="C276" s="5">
         <v>1.8</v>
       </c>
-      <c r="D276" s="178" t="s">
+      <c r="D276" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E276" s="178"/>
-      <c r="F276" s="178"/>
-      <c r="G276" s="178"/>
-      <c r="H276" s="178"/>
+      <c r="E276" s="179"/>
+      <c r="F276" s="179"/>
+      <c r="G276" s="179"/>
+      <c r="H276" s="179"/>
       <c r="I276" s="1">
         <f>200</f>
         <v>200</v>
@@ -7734,13 +7740,13 @@
       <c r="C278" s="130">
         <v>3.8</v>
       </c>
-      <c r="D278" s="178" t="s">
+      <c r="D278" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E278" s="178"/>
-      <c r="F278" s="178"/>
-      <c r="G278" s="178"/>
-      <c r="H278" s="178"/>
+      <c r="E278" s="179"/>
+      <c r="F278" s="179"/>
+      <c r="G278" s="179"/>
+      <c r="H278" s="179"/>
       <c r="I278" s="1">
         <f>(200*2)+(140*2+50)</f>
         <v>730</v>
@@ -7757,13 +7763,13 @@
       <c r="C279" s="130">
         <v>4.8</v>
       </c>
-      <c r="D279" s="178" t="s">
+      <c r="D279" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E279" s="178"/>
-      <c r="F279" s="178"/>
-      <c r="G279" s="178"/>
-      <c r="H279" s="178"/>
+      <c r="E279" s="179"/>
+      <c r="F279" s="179"/>
+      <c r="G279" s="179"/>
+      <c r="H279" s="179"/>
       <c r="I279" s="1">
         <f>140</f>
         <v>140</v>
@@ -7780,13 +7786,13 @@
       <c r="C280" s="130">
         <v>5.8</v>
       </c>
-      <c r="D280" s="178" t="s">
+      <c r="D280" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E280" s="178"/>
-      <c r="F280" s="178"/>
-      <c r="G280" s="178"/>
-      <c r="H280" s="178"/>
+      <c r="E280" s="179"/>
+      <c r="F280" s="179"/>
+      <c r="G280" s="179"/>
+      <c r="H280" s="179"/>
       <c r="I280" s="1">
         <f>(200*2)+140</f>
         <v>540</v>
@@ -7803,13 +7809,13 @@
       <c r="C281" s="130">
         <v>6.8</v>
       </c>
-      <c r="D281" s="178" t="s">
+      <c r="D281" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E281" s="178"/>
-      <c r="F281" s="178"/>
-      <c r="G281" s="178"/>
-      <c r="H281" s="178"/>
+      <c r="E281" s="179"/>
+      <c r="F281" s="179"/>
+      <c r="G281" s="179"/>
+      <c r="H281" s="179"/>
       <c r="I281" s="1">
         <f>140</f>
         <v>140</v>
@@ -7826,13 +7832,13 @@
       <c r="C282" s="130">
         <v>7.8</v>
       </c>
-      <c r="D282" s="178" t="s">
+      <c r="D282" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E282" s="178"/>
-      <c r="F282" s="178"/>
-      <c r="G282" s="178"/>
-      <c r="H282" s="178"/>
+      <c r="E282" s="179"/>
+      <c r="F282" s="179"/>
+      <c r="G282" s="179"/>
+      <c r="H282" s="179"/>
       <c r="I282" s="1">
         <f>(200*2)+140</f>
         <v>540</v>
@@ -7849,13 +7855,13 @@
       <c r="C283" s="130">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D283" s="178" t="s">
+      <c r="D283" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E283" s="178"/>
-      <c r="F283" s="178"/>
-      <c r="G283" s="178"/>
-      <c r="H283" s="178"/>
+      <c r="E283" s="179"/>
+      <c r="F283" s="179"/>
+      <c r="G283" s="179"/>
+      <c r="H283" s="179"/>
       <c r="I283" s="1">
         <f>140</f>
         <v>140</v>
@@ -7884,13 +7890,13 @@
       <c r="C285" s="130">
         <v>10.8</v>
       </c>
-      <c r="D285" s="178" t="s">
+      <c r="D285" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E285" s="178"/>
-      <c r="F285" s="178"/>
-      <c r="G285" s="178"/>
-      <c r="H285" s="178"/>
+      <c r="E285" s="179"/>
+      <c r="F285" s="179"/>
+      <c r="G285" s="179"/>
+      <c r="H285" s="179"/>
       <c r="I285" s="1">
         <f>(200*3)+(140*2+40)</f>
         <v>920</v>
@@ -7919,13 +7925,13 @@
       <c r="C287" s="130">
         <v>12.8</v>
       </c>
-      <c r="D287" s="178" t="s">
+      <c r="D287" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E287" s="178"/>
-      <c r="F287" s="178"/>
-      <c r="G287" s="178"/>
-      <c r="H287" s="178"/>
+      <c r="E287" s="179"/>
+      <c r="F287" s="179"/>
+      <c r="G287" s="179"/>
+      <c r="H287" s="179"/>
       <c r="I287" s="1">
         <f>(200*2)+(140*2)</f>
         <v>680</v>
@@ -7942,13 +7948,13 @@
       <c r="C288" s="130">
         <v>13.8</v>
       </c>
-      <c r="D288" s="178" t="s">
+      <c r="D288" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E288" s="178"/>
-      <c r="F288" s="178"/>
-      <c r="G288" s="178"/>
-      <c r="H288" s="178"/>
+      <c r="E288" s="179"/>
+      <c r="F288" s="179"/>
+      <c r="G288" s="179"/>
+      <c r="H288" s="179"/>
       <c r="I288" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -7958,13 +7964,13 @@
       <c r="A289" s="150"/>
       <c r="B289" s="132"/>
       <c r="C289" s="151"/>
-      <c r="D289" s="178" t="s">
+      <c r="D289" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E289" s="178"/>
-      <c r="F289" s="178"/>
-      <c r="G289" s="178"/>
-      <c r="H289" s="178"/>
+      <c r="E289" s="179"/>
+      <c r="F289" s="179"/>
+      <c r="G289" s="179"/>
+      <c r="H289" s="179"/>
       <c r="J289" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -7981,13 +7987,13 @@
       <c r="C290" s="130">
         <v>14.8</v>
       </c>
-      <c r="D290" s="178" t="s">
+      <c r="D290" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E290" s="178"/>
-      <c r="F290" s="178"/>
-      <c r="G290" s="178"/>
-      <c r="H290" s="178"/>
+      <c r="E290" s="179"/>
+      <c r="F290" s="179"/>
+      <c r="G290" s="179"/>
+      <c r="H290" s="179"/>
       <c r="I290" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8004,13 +8010,13 @@
       <c r="C291" s="130">
         <v>15.8</v>
       </c>
-      <c r="D291" s="178" t="s">
+      <c r="D291" s="179" t="s">
         <v>83</v>
       </c>
-      <c r="E291" s="178"/>
-      <c r="F291" s="178"/>
-      <c r="G291" s="178"/>
-      <c r="H291" s="178"/>
+      <c r="E291" s="179"/>
+      <c r="F291" s="179"/>
+      <c r="G291" s="179"/>
+      <c r="H291" s="179"/>
       <c r="I291" s="1">
         <f>200+15000</f>
         <v>15200</v>
@@ -8027,13 +8033,13 @@
       <c r="C292" s="130">
         <v>16.8</v>
       </c>
-      <c r="D292" s="178" t="s">
+      <c r="D292" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="178"/>
-      <c r="F292" s="178"/>
-      <c r="G292" s="178"/>
-      <c r="H292" s="178"/>
+      <c r="E292" s="179"/>
+      <c r="F292" s="179"/>
+      <c r="G292" s="179"/>
+      <c r="H292" s="179"/>
       <c r="I292" s="1">
         <f>200+(140*2)</f>
         <v>480</v>
@@ -8050,13 +8056,13 @@
       <c r="C293" s="130">
         <v>17.8</v>
       </c>
-      <c r="D293" s="178" t="s">
+      <c r="D293" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="E293" s="178"/>
-      <c r="F293" s="178"/>
-      <c r="G293" s="178"/>
-      <c r="H293" s="178"/>
+      <c r="E293" s="179"/>
+      <c r="F293" s="179"/>
+      <c r="G293" s="179"/>
+      <c r="H293" s="179"/>
       <c r="J293" s="1">
         <f>5210</f>
         <v>5210</v>
@@ -8073,13 +8079,13 @@
       <c r="C294" s="130">
         <v>18.8</v>
       </c>
-      <c r="D294" s="178" t="s">
+      <c r="D294" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E294" s="178"/>
-      <c r="F294" s="178"/>
-      <c r="G294" s="178"/>
-      <c r="H294" s="178"/>
+      <c r="E294" s="179"/>
+      <c r="F294" s="179"/>
+      <c r="G294" s="179"/>
+      <c r="H294" s="179"/>
       <c r="I294" s="1">
         <f>140</f>
         <v>140</v>
@@ -8108,13 +8114,13 @@
       <c r="C296" s="130">
         <v>20.8</v>
       </c>
-      <c r="D296" s="178" t="s">
+      <c r="D296" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E296" s="178"/>
-      <c r="F296" s="178"/>
-      <c r="G296" s="178"/>
-      <c r="H296" s="178"/>
+      <c r="E296" s="179"/>
+      <c r="F296" s="179"/>
+      <c r="G296" s="179"/>
+      <c r="H296" s="179"/>
       <c r="I296" s="1">
         <f>140*2</f>
         <v>280</v>
@@ -8131,13 +8137,13 @@
       <c r="C297" s="130">
         <v>21.8</v>
       </c>
-      <c r="D297" s="178" t="s">
+      <c r="D297" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="178"/>
-      <c r="F297" s="178"/>
-      <c r="G297" s="178"/>
-      <c r="H297" s="178"/>
+      <c r="E297" s="179"/>
+      <c r="F297" s="179"/>
+      <c r="G297" s="179"/>
+      <c r="H297" s="179"/>
       <c r="I297" s="1">
         <f>(200*5)+140</f>
         <v>1140</v>
@@ -8154,13 +8160,13 @@
       <c r="C298" s="130">
         <v>22.8</v>
       </c>
-      <c r="D298" s="178" t="s">
+      <c r="D298" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E298" s="178"/>
-      <c r="F298" s="178"/>
-      <c r="G298" s="178"/>
-      <c r="H298" s="178"/>
+      <c r="E298" s="179"/>
+      <c r="F298" s="179"/>
+      <c r="G298" s="179"/>
+      <c r="H298" s="179"/>
       <c r="I298" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8177,13 +8183,13 @@
       <c r="C299" s="130">
         <v>23.8</v>
       </c>
-      <c r="D299" s="178" t="s">
+      <c r="D299" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E299" s="178"/>
-      <c r="F299" s="178"/>
-      <c r="G299" s="178"/>
-      <c r="H299" s="178"/>
+      <c r="E299" s="179"/>
+      <c r="F299" s="179"/>
+      <c r="G299" s="179"/>
+      <c r="H299" s="179"/>
       <c r="I299" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8193,13 +8199,13 @@
       <c r="A300" s="155"/>
       <c r="B300" s="132"/>
       <c r="C300" s="156"/>
-      <c r="D300" s="178" t="s">
+      <c r="D300" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="E300" s="178"/>
-      <c r="F300" s="178"/>
-      <c r="G300" s="178"/>
-      <c r="H300" s="178"/>
+      <c r="E300" s="179"/>
+      <c r="F300" s="179"/>
+      <c r="G300" s="179"/>
+      <c r="H300" s="179"/>
       <c r="J300" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -8216,13 +8222,13 @@
       <c r="C301" s="130">
         <v>24.8</v>
       </c>
-      <c r="D301" s="178" t="s">
+      <c r="D301" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E301" s="178"/>
-      <c r="F301" s="178"/>
-      <c r="G301" s="178"/>
-      <c r="H301" s="178"/>
+      <c r="E301" s="179"/>
+      <c r="F301" s="179"/>
+      <c r="G301" s="179"/>
+      <c r="H301" s="179"/>
       <c r="I301" s="1">
         <v>340</v>
       </c>
@@ -8238,13 +8244,13 @@
       <c r="C302" s="130">
         <v>25.8</v>
       </c>
-      <c r="D302" s="178" t="s">
+      <c r="D302" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="178"/>
-      <c r="F302" s="178"/>
-      <c r="G302" s="178"/>
-      <c r="H302" s="178"/>
+      <c r="E302" s="179"/>
+      <c r="F302" s="179"/>
+      <c r="G302" s="179"/>
+      <c r="H302" s="179"/>
       <c r="I302" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8261,13 +8267,13 @@
       <c r="C303" s="130">
         <v>26.8</v>
       </c>
-      <c r="D303" s="178" t="s">
+      <c r="D303" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="178"/>
-      <c r="F303" s="178"/>
-      <c r="G303" s="178"/>
-      <c r="H303" s="178"/>
+      <c r="E303" s="179"/>
+      <c r="F303" s="179"/>
+      <c r="G303" s="179"/>
+      <c r="H303" s="179"/>
       <c r="I303" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8284,13 +8290,13 @@
       <c r="C304" s="130">
         <v>27.8</v>
       </c>
-      <c r="D304" s="178" t="s">
+      <c r="D304" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="178"/>
-      <c r="F304" s="178"/>
-      <c r="G304" s="178"/>
-      <c r="H304" s="178"/>
+      <c r="E304" s="179"/>
+      <c r="F304" s="179"/>
+      <c r="G304" s="179"/>
+      <c r="H304" s="179"/>
       <c r="I304" s="1">
         <f t="shared" ref="I304:I305" si="11">200+140</f>
         <v>340</v>
@@ -8307,13 +8313,13 @@
       <c r="C305" s="130">
         <v>28.8</v>
       </c>
-      <c r="D305" s="178" t="s">
+      <c r="D305" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="178"/>
-      <c r="F305" s="178"/>
-      <c r="G305" s="178"/>
-      <c r="H305" s="178"/>
+      <c r="E305" s="179"/>
+      <c r="F305" s="179"/>
+      <c r="G305" s="179"/>
+      <c r="H305" s="179"/>
       <c r="I305" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
@@ -8330,13 +8336,13 @@
       <c r="C306" s="130">
         <v>29.8</v>
       </c>
-      <c r="D306" s="178" t="s">
+      <c r="D306" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E306" s="178"/>
-      <c r="F306" s="178"/>
-      <c r="G306" s="178"/>
-      <c r="H306" s="178"/>
+      <c r="E306" s="179"/>
+      <c r="F306" s="179"/>
+      <c r="G306" s="179"/>
+      <c r="H306" s="179"/>
       <c r="I306" s="1">
         <v>200</v>
       </c>
@@ -8352,13 +8358,13 @@
       <c r="C307" s="130">
         <v>30.8</v>
       </c>
-      <c r="D307" s="178" t="s">
+      <c r="D307" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="E307" s="178"/>
-      <c r="F307" s="178"/>
-      <c r="G307" s="178"/>
-      <c r="H307" s="178"/>
+      <c r="E307" s="179"/>
+      <c r="F307" s="179"/>
+      <c r="G307" s="179"/>
+      <c r="H307" s="179"/>
       <c r="I307" s="1">
         <f>480+17700</f>
         <v>18180</v>
@@ -8368,13 +8374,13 @@
       <c r="A308" s="161"/>
       <c r="B308" s="132"/>
       <c r="C308" s="162"/>
-      <c r="D308" s="178" t="s">
+      <c r="D308" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E308" s="178"/>
-      <c r="F308" s="178"/>
-      <c r="G308" s="178"/>
-      <c r="H308" s="178"/>
+      <c r="E308" s="179"/>
+      <c r="F308" s="179"/>
+      <c r="G308" s="179"/>
+      <c r="H308" s="179"/>
       <c r="J308" s="1">
         <v>8000</v>
       </c>
@@ -8393,13 +8399,13 @@
       <c r="C309" s="5">
         <v>1.9</v>
       </c>
-      <c r="D309" s="178" t="s">
+      <c r="D309" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E309" s="178"/>
-      <c r="F309" s="178"/>
-      <c r="G309" s="178"/>
-      <c r="H309" s="178"/>
+      <c r="E309" s="179"/>
+      <c r="F309" s="179"/>
+      <c r="G309" s="179"/>
+      <c r="H309" s="179"/>
       <c r="I309" s="1">
         <v>200</v>
       </c>
@@ -8415,13 +8421,13 @@
       <c r="C310" s="5">
         <v>2.9</v>
       </c>
-      <c r="D310" s="178" t="s">
+      <c r="D310" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E310" s="178"/>
-      <c r="F310" s="178"/>
-      <c r="G310" s="178"/>
-      <c r="H310" s="178"/>
+      <c r="E310" s="179"/>
+      <c r="F310" s="179"/>
+      <c r="G310" s="179"/>
+      <c r="H310" s="179"/>
       <c r="I310" s="1">
         <v>200</v>
       </c>
@@ -8449,13 +8455,13 @@
       <c r="C312" s="165">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D312" s="178" t="s">
+      <c r="D312" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E312" s="178"/>
-      <c r="F312" s="178"/>
-      <c r="G312" s="178"/>
-      <c r="H312" s="178"/>
+      <c r="E312" s="179"/>
+      <c r="F312" s="179"/>
+      <c r="G312" s="179"/>
+      <c r="H312" s="179"/>
       <c r="I312" s="1">
         <f>140*4-200</f>
         <v>360</v>
@@ -8472,13 +8478,13 @@
       <c r="C313" s="165">
         <v>5.9</v>
       </c>
-      <c r="D313" s="178" t="s">
+      <c r="D313" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="178"/>
-      <c r="F313" s="178"/>
-      <c r="G313" s="178"/>
-      <c r="H313" s="178"/>
+      <c r="E313" s="179"/>
+      <c r="F313" s="179"/>
+      <c r="G313" s="179"/>
+      <c r="H313" s="179"/>
       <c r="I313" s="1">
         <f>600+140</f>
         <v>740</v>
@@ -8495,13 +8501,13 @@
       <c r="C314" s="165">
         <v>6.9</v>
       </c>
-      <c r="D314" s="178" t="s">
+      <c r="D314" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="178"/>
-      <c r="F314" s="178"/>
-      <c r="G314" s="178"/>
-      <c r="H314" s="178"/>
+      <c r="E314" s="179"/>
+      <c r="F314" s="179"/>
+      <c r="G314" s="179"/>
+      <c r="H314" s="179"/>
       <c r="I314" s="1">
         <f>140+200</f>
         <v>340</v>
@@ -8511,13 +8517,13 @@
       <c r="A315" s="167"/>
       <c r="B315" s="132"/>
       <c r="C315" s="168"/>
-      <c r="D315" s="178" t="s">
+      <c r="D315" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="E315" s="178"/>
-      <c r="F315" s="178"/>
-      <c r="G315" s="178"/>
-      <c r="H315" s="178"/>
+      <c r="E315" s="179"/>
+      <c r="F315" s="179"/>
+      <c r="G315" s="179"/>
+      <c r="H315" s="179"/>
       <c r="J315" s="1">
         <v>14000</v>
       </c>
@@ -8533,13 +8539,13 @@
       <c r="C316" s="165">
         <v>7.9</v>
       </c>
-      <c r="D316" s="178" t="s">
+      <c r="D316" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="178"/>
-      <c r="F316" s="178"/>
-      <c r="G316" s="178"/>
-      <c r="H316" s="178"/>
+      <c r="E316" s="179"/>
+      <c r="F316" s="179"/>
+      <c r="G316" s="179"/>
+      <c r="H316" s="179"/>
       <c r="I316" s="1">
         <v>340</v>
       </c>
@@ -8555,13 +8561,13 @@
       <c r="C317" s="165">
         <v>8.9</v>
       </c>
-      <c r="D317" s="178" t="s">
+      <c r="D317" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="178"/>
-      <c r="F317" s="178"/>
-      <c r="G317" s="178"/>
-      <c r="H317" s="178"/>
+      <c r="E317" s="179"/>
+      <c r="F317" s="179"/>
+      <c r="G317" s="179"/>
+      <c r="H317" s="179"/>
       <c r="I317" s="1">
         <v>340</v>
       </c>
@@ -8577,11 +8583,11 @@
       <c r="C318" s="165">
         <v>9.9</v>
       </c>
-      <c r="D318" s="178"/>
-      <c r="E318" s="178"/>
-      <c r="F318" s="178"/>
-      <c r="G318" s="178"/>
-      <c r="H318" s="178"/>
+      <c r="D318" s="179"/>
+      <c r="E318" s="179"/>
+      <c r="F318" s="179"/>
+      <c r="G318" s="179"/>
+      <c r="H318" s="179"/>
       <c r="I318" s="1">
         <f>1150</f>
         <v>1150</v>
@@ -8598,13 +8604,13 @@
       <c r="C319" s="165">
         <v>10.9</v>
       </c>
-      <c r="D319" s="178" t="s">
+      <c r="D319" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="178"/>
-      <c r="F319" s="178"/>
-      <c r="G319" s="178"/>
-      <c r="H319" s="178"/>
+      <c r="E319" s="179"/>
+      <c r="F319" s="179"/>
+      <c r="G319" s="179"/>
+      <c r="H319" s="179"/>
       <c r="I319" s="1">
         <f>400+200</f>
         <v>600</v>
@@ -8621,13 +8627,13 @@
       <c r="C320" s="165">
         <v>11.9</v>
       </c>
-      <c r="D320" s="178" t="s">
+      <c r="D320" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E320" s="178"/>
-      <c r="F320" s="178"/>
-      <c r="G320" s="178"/>
-      <c r="H320" s="178"/>
+      <c r="E320" s="179"/>
+      <c r="F320" s="179"/>
+      <c r="G320" s="179"/>
+      <c r="H320" s="179"/>
       <c r="J320" s="1">
         <v>10000</v>
       </c>
@@ -8639,13 +8645,13 @@
       <c r="A321" s="171"/>
       <c r="B321" s="132"/>
       <c r="C321" s="172"/>
-      <c r="D321" s="178" t="s">
+      <c r="D321" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E321" s="178"/>
-      <c r="F321" s="178"/>
-      <c r="G321" s="178"/>
-      <c r="H321" s="178"/>
+      <c r="E321" s="179"/>
+      <c r="F321" s="179"/>
+      <c r="G321" s="179"/>
+      <c r="H321" s="179"/>
       <c r="I321" s="1">
         <f>220</f>
         <v>220</v>
@@ -8662,13 +8668,13 @@
       <c r="C322" s="165">
         <v>12.9</v>
       </c>
-      <c r="D322" s="178" t="s">
+      <c r="D322" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="178"/>
-      <c r="F322" s="178"/>
-      <c r="G322" s="178"/>
-      <c r="H322" s="178"/>
+      <c r="E322" s="179"/>
+      <c r="F322" s="179"/>
+      <c r="G322" s="179"/>
+      <c r="H322" s="179"/>
       <c r="I322" s="1">
         <f>400+140</f>
         <v>540</v>
@@ -8685,13 +8691,13 @@
       <c r="C323" s="165">
         <v>13.9</v>
       </c>
-      <c r="D323" s="178" t="s">
+      <c r="D323" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="178"/>
-      <c r="F323" s="178"/>
-      <c r="G323" s="178"/>
-      <c r="H323" s="178"/>
+      <c r="E323" s="179"/>
+      <c r="F323" s="179"/>
+      <c r="G323" s="179"/>
+      <c r="H323" s="179"/>
       <c r="I323" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8708,13 +8714,13 @@
       <c r="C324" s="165">
         <v>14.9</v>
       </c>
-      <c r="D324" s="178" t="s">
+      <c r="D324" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="178"/>
-      <c r="F324" s="178"/>
-      <c r="G324" s="178"/>
-      <c r="H324" s="178"/>
+      <c r="E324" s="179"/>
+      <c r="F324" s="179"/>
+      <c r="G324" s="179"/>
+      <c r="H324" s="179"/>
       <c r="I324" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8731,13 +8737,13 @@
       <c r="C325" s="165">
         <v>15.9</v>
       </c>
-      <c r="D325" s="178" t="s">
+      <c r="D325" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="E325" s="178"/>
-      <c r="F325" s="178"/>
-      <c r="G325" s="178"/>
-      <c r="H325" s="178"/>
+      <c r="E325" s="179"/>
+      <c r="F325" s="179"/>
+      <c r="G325" s="179"/>
+      <c r="H325" s="179"/>
       <c r="I325" s="1">
         <v>200</v>
       </c>
@@ -8765,13 +8771,13 @@
       <c r="C327" s="165">
         <v>17.899999999999999</v>
       </c>
-      <c r="D327" s="178" t="s">
+      <c r="D327" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="178"/>
-      <c r="F327" s="178"/>
-      <c r="G327" s="178"/>
-      <c r="H327" s="178"/>
+      <c r="E327" s="179"/>
+      <c r="F327" s="179"/>
+      <c r="G327" s="179"/>
+      <c r="H327" s="179"/>
       <c r="I327" s="1">
         <f>(200*2)+(140*3)</f>
         <v>820</v>
@@ -8788,13 +8794,13 @@
       <c r="C328" s="165">
         <v>18.899999999999999</v>
       </c>
-      <c r="D328" s="178" t="s">
+      <c r="D328" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="178"/>
-      <c r="F328" s="178"/>
-      <c r="G328" s="178"/>
-      <c r="H328" s="178"/>
+      <c r="E328" s="179"/>
+      <c r="F328" s="179"/>
+      <c r="G328" s="179"/>
+      <c r="H328" s="179"/>
       <c r="I328" s="1">
         <f>200+(140+50)</f>
         <v>390</v>
@@ -8811,13 +8817,13 @@
       <c r="C329" s="165">
         <v>19.899999999999999</v>
       </c>
-      <c r="D329" s="178" t="s">
+      <c r="D329" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="178"/>
-      <c r="F329" s="178"/>
-      <c r="G329" s="178"/>
-      <c r="H329" s="178"/>
+      <c r="E329" s="179"/>
+      <c r="F329" s="179"/>
+      <c r="G329" s="179"/>
+      <c r="H329" s="179"/>
       <c r="I329" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -8834,13 +8840,13 @@
       <c r="C330" s="165">
         <v>20.9</v>
       </c>
-      <c r="D330" s="178" t="s">
+      <c r="D330" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E330" s="178"/>
-      <c r="F330" s="178"/>
-      <c r="G330" s="178"/>
-      <c r="H330" s="178"/>
+      <c r="E330" s="179"/>
+      <c r="F330" s="179"/>
+      <c r="G330" s="179"/>
+      <c r="H330" s="179"/>
       <c r="I330" s="1">
         <v>140</v>
       </c>
@@ -8856,13 +8862,13 @@
       <c r="C331" s="165">
         <v>21.9</v>
       </c>
-      <c r="D331" s="178" t="s">
+      <c r="D331" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="178"/>
-      <c r="F331" s="178"/>
-      <c r="G331" s="178"/>
-      <c r="H331" s="178"/>
+      <c r="E331" s="179"/>
+      <c r="F331" s="179"/>
+      <c r="G331" s="179"/>
+      <c r="H331" s="179"/>
       <c r="I331" s="1">
         <f>200*2+140+20</f>
         <v>560</v>
@@ -8879,13 +8885,13 @@
       <c r="C332" s="165">
         <v>22.9</v>
       </c>
-      <c r="D332" s="178" t="s">
+      <c r="D332" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E332" s="178"/>
-      <c r="F332" s="178"/>
-      <c r="G332" s="178"/>
-      <c r="H332" s="178"/>
+      <c r="E332" s="179"/>
+      <c r="F332" s="179"/>
+      <c r="G332" s="179"/>
+      <c r="H332" s="179"/>
       <c r="I332" s="1">
         <f>140</f>
         <v>140</v>
@@ -8902,13 +8908,13 @@
       <c r="C333" s="165">
         <v>23.9</v>
       </c>
-      <c r="D333" s="178" t="s">
+      <c r="D333" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E333" s="178"/>
-      <c r="F333" s="178"/>
-      <c r="G333" s="178"/>
-      <c r="H333" s="178"/>
+      <c r="E333" s="179"/>
+      <c r="F333" s="179"/>
+      <c r="G333" s="179"/>
+      <c r="H333" s="179"/>
       <c r="I333" s="1">
         <f>140</f>
         <v>140</v>
@@ -8925,13 +8931,13 @@
       <c r="C334" s="165">
         <v>24.9</v>
       </c>
-      <c r="D334" s="178" t="s">
+      <c r="D334" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="E334" s="178"/>
-      <c r="F334" s="178"/>
-      <c r="G334" s="178"/>
-      <c r="H334" s="178"/>
+      <c r="E334" s="179"/>
+      <c r="F334" s="179"/>
+      <c r="G334" s="179"/>
+      <c r="H334" s="179"/>
       <c r="I334" s="1">
         <f>140</f>
         <v>140</v>
@@ -8948,13 +8954,13 @@
       <c r="C335" s="165">
         <v>25.9</v>
       </c>
-      <c r="D335" s="178" t="s">
+      <c r="D335" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="178"/>
-      <c r="F335" s="178"/>
-      <c r="G335" s="178"/>
-      <c r="H335" s="178"/>
+      <c r="E335" s="179"/>
+      <c r="F335" s="179"/>
+      <c r="G335" s="179"/>
+      <c r="H335" s="179"/>
       <c r="I335" s="1">
         <f>200*4+140</f>
         <v>940</v>
@@ -8971,13 +8977,13 @@
       <c r="C336" s="165">
         <v>26.9</v>
       </c>
-      <c r="D336" s="178" t="s">
+      <c r="D336" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="E336" s="178"/>
-      <c r="F336" s="178"/>
-      <c r="G336" s="178"/>
-      <c r="H336" s="178"/>
+      <c r="E336" s="179"/>
+      <c r="F336" s="179"/>
+      <c r="G336" s="179"/>
+      <c r="H336" s="179"/>
       <c r="J336" s="1">
         <v>3000</v>
       </c>
@@ -8993,13 +8999,13 @@
       <c r="C337" s="165">
         <v>27.9</v>
       </c>
-      <c r="D337" s="178" t="s">
+      <c r="D337" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="178"/>
-      <c r="F337" s="178"/>
-      <c r="G337" s="178"/>
-      <c r="H337" s="178"/>
+      <c r="E337" s="179"/>
+      <c r="F337" s="179"/>
+      <c r="G337" s="179"/>
+      <c r="H337" s="179"/>
       <c r="I337" s="1">
         <f>200*2+140*2</f>
         <v>680</v>
@@ -9016,13 +9022,13 @@
       <c r="C338" s="165">
         <v>28.9</v>
       </c>
-      <c r="D338" s="178" t="s">
+      <c r="D338" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="178"/>
-      <c r="F338" s="178"/>
-      <c r="G338" s="178"/>
-      <c r="H338" s="178"/>
+      <c r="E338" s="179"/>
+      <c r="F338" s="179"/>
+      <c r="G338" s="179"/>
+      <c r="H338" s="179"/>
       <c r="I338" s="1">
         <f>200+140</f>
         <v>340</v>
@@ -9039,13 +9045,13 @@
       <c r="C339" s="165">
         <v>29.9</v>
       </c>
-      <c r="D339" s="178" t="s">
+      <c r="D339" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="178"/>
-      <c r="F339" s="178"/>
-      <c r="G339" s="178"/>
-      <c r="H339" s="178"/>
+      <c r="E339" s="179"/>
+      <c r="F339" s="179"/>
+      <c r="G339" s="179"/>
+      <c r="H339" s="179"/>
       <c r="I339" s="1">
         <f>200+140+50</f>
         <v>390</v>
@@ -9062,13 +9068,13 @@
       <c r="C340" s="166">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D340" s="178" t="s">
+      <c r="D340" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="E340" s="178"/>
-      <c r="F340" s="178"/>
-      <c r="G340" s="178"/>
-      <c r="H340" s="178"/>
+      <c r="E340" s="179"/>
+      <c r="F340" s="179"/>
+      <c r="G340" s="179"/>
+      <c r="H340" s="179"/>
       <c r="J340" s="1">
         <f>5000</f>
         <v>5000</v>
@@ -9078,13 +9084,13 @@
       <c r="A341" s="175"/>
       <c r="B341" s="176"/>
       <c r="C341" s="166"/>
-      <c r="D341" s="178" t="s">
+      <c r="D341" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="E341" s="178"/>
-      <c r="F341" s="178"/>
-      <c r="G341" s="178"/>
-      <c r="H341" s="178"/>
+      <c r="E341" s="179"/>
+      <c r="F341" s="179"/>
+      <c r="G341" s="179"/>
+      <c r="H341" s="179"/>
       <c r="I341" s="1">
         <f>2000+400</f>
         <v>2400</v>
@@ -9113,13 +9119,13 @@
       <c r="C343" s="166">
         <v>3.1</v>
       </c>
-      <c r="D343" s="178" t="s">
+      <c r="D343" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="E343" s="178"/>
-      <c r="F343" s="178"/>
-      <c r="G343" s="178"/>
-      <c r="H343" s="178"/>
+      <c r="E343" s="179"/>
+      <c r="F343" s="179"/>
+      <c r="G343" s="179"/>
+      <c r="H343" s="179"/>
       <c r="I343" s="1">
         <f>200+230</f>
         <v>430</v>
@@ -9136,6 +9142,16 @@
       <c r="C344" s="166">
         <v>4.0999999999999996</v>
       </c>
+      <c r="D344" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E344" s="179"/>
+      <c r="F344" s="179"/>
+      <c r="G344" s="179"/>
+      <c r="H344" s="179"/>
+      <c r="I344" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="129">
@@ -9148,6 +9164,17 @@
       <c r="C345" s="166">
         <v>5.0999999999999996</v>
       </c>
+      <c r="D345" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="179"/>
+      <c r="F345" s="179"/>
+      <c r="G345" s="179"/>
+      <c r="H345" s="179"/>
+      <c r="I345" s="1">
+        <f>(210*2)+(280)</f>
+        <v>700</v>
+      </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="129">
@@ -9160,6 +9187,17 @@
       <c r="C346" s="166">
         <v>6.1</v>
       </c>
+      <c r="D346" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E346" s="179"/>
+      <c r="F346" s="179"/>
+      <c r="G346" s="179"/>
+      <c r="H346" s="179"/>
+      <c r="I346" s="1">
+        <f>210+140</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="129">
@@ -9172,6 +9210,17 @@
       <c r="C347" s="166">
         <v>7.1</v>
       </c>
+      <c r="D347" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="179"/>
+      <c r="F347" s="179"/>
+      <c r="G347" s="179"/>
+      <c r="H347" s="179"/>
+      <c r="I347" s="1">
+        <f>210+140</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="129">
@@ -9184,6 +9233,17 @@
       <c r="C348" s="166">
         <v>8.1</v>
       </c>
+      <c r="D348" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348" s="179"/>
+      <c r="F348" s="179"/>
+      <c r="G348" s="179"/>
+      <c r="H348" s="179"/>
+      <c r="I348" s="1">
+        <f>210+170</f>
+        <v>380</v>
+      </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="129">
@@ -9196,6 +9256,17 @@
       <c r="C349" s="166">
         <v>9.1</v>
       </c>
+      <c r="D349" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="179"/>
+      <c r="F349" s="179"/>
+      <c r="G349" s="179"/>
+      <c r="H349" s="179"/>
+      <c r="I349" s="1">
+        <f>210+160</f>
+        <v>370</v>
+      </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="129">
@@ -9208,6 +9279,17 @@
       <c r="C350" s="166">
         <v>10.1</v>
       </c>
+      <c r="D350" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E350" s="179"/>
+      <c r="F350" s="179"/>
+      <c r="G350" s="179"/>
+      <c r="H350" s="179"/>
+      <c r="I350" s="1">
+        <f>210+140</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="129">
@@ -9220,6 +9302,16 @@
       <c r="C351" s="166">
         <v>11.1</v>
       </c>
+      <c r="D351" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E351" s="179"/>
+      <c r="F351" s="179"/>
+      <c r="G351" s="179"/>
+      <c r="H351" s="179"/>
+      <c r="I351" s="1">
+        <v>140</v>
+      </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="129">
@@ -9232,8 +9324,18 @@
       <c r="C352" s="166">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E352" s="179"/>
+      <c r="F352" s="179"/>
+      <c r="G352" s="179"/>
+      <c r="H352" s="179"/>
+      <c r="I352" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="129">
         <f t="shared" si="12"/>
         <v>305</v>
@@ -9244,8 +9346,19 @@
       <c r="C353" s="166">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="E353" s="179"/>
+      <c r="F353" s="179"/>
+      <c r="G353" s="179"/>
+      <c r="H353" s="179"/>
+      <c r="I353" s="1">
+        <f>630+140</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="129">
         <f t="shared" si="12"/>
         <v>306</v>
@@ -9256,8 +9369,19 @@
       <c r="C354" s="166">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="E354" s="179"/>
+      <c r="F354" s="179"/>
+      <c r="G354" s="179"/>
+      <c r="H354" s="179"/>
+      <c r="I354" s="1">
+        <f>210+140+1500</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="129">
         <f t="shared" si="12"/>
         <v>307</v>
@@ -9269,7 +9393,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="129">
         <f t="shared" si="12"/>
         <v>308</v>
@@ -9281,7 +9405,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="129">
         <f t="shared" si="12"/>
         <v>309</v>
@@ -9293,7 +9417,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="129">
         <f t="shared" si="12"/>
         <v>310</v>
@@ -9305,7 +9429,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="129">
         <f t="shared" si="12"/>
         <v>311</v>
@@ -9317,7 +9441,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="129">
         <f t="shared" si="12"/>
         <v>312</v>
@@ -9329,7 +9453,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="129">
         <f t="shared" si="12"/>
         <v>313</v>
@@ -9341,7 +9465,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="129">
         <f t="shared" si="12"/>
         <v>314</v>
@@ -9353,7 +9477,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="129">
         <f t="shared" si="12"/>
         <v>315</v>
@@ -9365,7 +9489,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="129">
         <f t="shared" si="12"/>
         <v>316</v>
@@ -9377,7 +9501,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="129">
         <f t="shared" si="12"/>
         <v>317</v>
@@ -9389,7 +9513,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="129">
         <f t="shared" si="12"/>
         <v>318</v>
@@ -9401,7 +9525,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="129">
         <f t="shared" si="12"/>
         <v>319</v>
@@ -9413,7 +9537,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="129">
         <f t="shared" si="12"/>
         <v>320</v>
@@ -10185,60 +10309,267 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="333">
-    <mergeCell ref="D280:H280"/>
-    <mergeCell ref="D281:H281"/>
-    <mergeCell ref="D288:H288"/>
-    <mergeCell ref="D289:H289"/>
-    <mergeCell ref="D287:H287"/>
-    <mergeCell ref="D285:H285"/>
-    <mergeCell ref="D343:H343"/>
-    <mergeCell ref="D290:H290"/>
-    <mergeCell ref="D282:H282"/>
-    <mergeCell ref="D313:H313"/>
-    <mergeCell ref="D327:H327"/>
-    <mergeCell ref="D328:H328"/>
-    <mergeCell ref="D322:H322"/>
-    <mergeCell ref="D323:H323"/>
-    <mergeCell ref="D324:H324"/>
-    <mergeCell ref="D291:H291"/>
-    <mergeCell ref="D283:H283"/>
-    <mergeCell ref="D279:H279"/>
-    <mergeCell ref="D259:H259"/>
-    <mergeCell ref="D274:H274"/>
-    <mergeCell ref="D256:H256"/>
-    <mergeCell ref="D258:H258"/>
-    <mergeCell ref="D262:H262"/>
-    <mergeCell ref="D254:H254"/>
-    <mergeCell ref="D276:H276"/>
-    <mergeCell ref="D260:H260"/>
-    <mergeCell ref="D263:H263"/>
-    <mergeCell ref="D275:H275"/>
-    <mergeCell ref="D272:H272"/>
-    <mergeCell ref="D273:H273"/>
-    <mergeCell ref="D265:H265"/>
-    <mergeCell ref="D257:H257"/>
-    <mergeCell ref="D269:H269"/>
-    <mergeCell ref="D271:H271"/>
-    <mergeCell ref="D261:H261"/>
-    <mergeCell ref="D270:H270"/>
-    <mergeCell ref="D266:H266"/>
-    <mergeCell ref="D267:H267"/>
-    <mergeCell ref="D268:H268"/>
-    <mergeCell ref="D278:H278"/>
-    <mergeCell ref="D239:H239"/>
-    <mergeCell ref="D247:H247"/>
-    <mergeCell ref="D251:H251"/>
-    <mergeCell ref="D246:H246"/>
-    <mergeCell ref="D243:H243"/>
-    <mergeCell ref="D244:H244"/>
-    <mergeCell ref="D248:H248"/>
-    <mergeCell ref="D249:H249"/>
-    <mergeCell ref="D241:H241"/>
-    <mergeCell ref="D242:H242"/>
-    <mergeCell ref="D250:H250"/>
-    <mergeCell ref="D245:H245"/>
-    <mergeCell ref="D240:H240"/>
+  <mergeCells count="344">
+    <mergeCell ref="D354:H354"/>
+    <mergeCell ref="D351:H351"/>
+    <mergeCell ref="D352:H352"/>
+    <mergeCell ref="D347:H347"/>
+    <mergeCell ref="D348:H348"/>
+    <mergeCell ref="D345:H345"/>
+    <mergeCell ref="D344:H344"/>
+    <mergeCell ref="D341:H341"/>
+    <mergeCell ref="D339:H339"/>
+    <mergeCell ref="D353:H353"/>
+    <mergeCell ref="D338:H338"/>
+    <mergeCell ref="D349:H349"/>
+    <mergeCell ref="D350:H350"/>
+    <mergeCell ref="D346:H346"/>
+    <mergeCell ref="D303:H303"/>
+    <mergeCell ref="D300:H300"/>
+    <mergeCell ref="D298:H298"/>
+    <mergeCell ref="D340:H340"/>
+    <mergeCell ref="D337:H337"/>
+    <mergeCell ref="D335:H335"/>
+    <mergeCell ref="D331:H331"/>
+    <mergeCell ref="D332:H332"/>
+    <mergeCell ref="D336:H336"/>
+    <mergeCell ref="D333:H333"/>
+    <mergeCell ref="D334:H334"/>
+    <mergeCell ref="D314:H314"/>
+    <mergeCell ref="D315:H315"/>
+    <mergeCell ref="D316:H316"/>
+    <mergeCell ref="D317:H317"/>
+    <mergeCell ref="D325:H325"/>
+    <mergeCell ref="D330:H330"/>
+    <mergeCell ref="D329:H329"/>
+    <mergeCell ref="D302:H302"/>
+    <mergeCell ref="D312:H312"/>
+    <mergeCell ref="D297:H297"/>
+    <mergeCell ref="D294:H294"/>
+    <mergeCell ref="D296:H296"/>
+    <mergeCell ref="D321:H321"/>
+    <mergeCell ref="D318:H318"/>
+    <mergeCell ref="D319:H319"/>
+    <mergeCell ref="D320:H320"/>
+    <mergeCell ref="D306:H306"/>
+    <mergeCell ref="D310:H310"/>
+    <mergeCell ref="D304:H304"/>
+    <mergeCell ref="D305:H305"/>
+    <mergeCell ref="D238:H238"/>
+    <mergeCell ref="D218:H218"/>
+    <mergeCell ref="D219:H219"/>
+    <mergeCell ref="D221:H221"/>
+    <mergeCell ref="D223:H223"/>
+    <mergeCell ref="D235:H235"/>
+    <mergeCell ref="D236:H236"/>
+    <mergeCell ref="D237:H237"/>
+    <mergeCell ref="D220:H220"/>
+    <mergeCell ref="D222:H222"/>
+    <mergeCell ref="D224:H224"/>
+    <mergeCell ref="D225:H225"/>
+    <mergeCell ref="D226:H226"/>
+    <mergeCell ref="D227:H227"/>
+    <mergeCell ref="D228:H228"/>
+    <mergeCell ref="D229:H229"/>
+    <mergeCell ref="D230:H230"/>
+    <mergeCell ref="D231:H231"/>
+    <mergeCell ref="D232:H232"/>
+    <mergeCell ref="D233:H233"/>
+    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D204:H204"/>
+    <mergeCell ref="D205:H205"/>
+    <mergeCell ref="D206:H206"/>
+    <mergeCell ref="D208:H208"/>
+    <mergeCell ref="D211:H211"/>
+    <mergeCell ref="D212:H212"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D217:H217"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="D210:H210"/>
+    <mergeCell ref="D213:H213"/>
+    <mergeCell ref="D214:H214"/>
+    <mergeCell ref="D207:H207"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D202:H202"/>
+    <mergeCell ref="D203:H203"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="D190:H190"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D201:H201"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="D252:H252"/>
     <mergeCell ref="D253:H253"/>
     <mergeCell ref="G5:H5"/>
@@ -10263,262 +10594,66 @@
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D194:H194"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D202:H202"/>
-    <mergeCell ref="D203:H203"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="D190:H190"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D201:H201"/>
-    <mergeCell ref="D195:H195"/>
-    <mergeCell ref="D204:H204"/>
-    <mergeCell ref="D205:H205"/>
-    <mergeCell ref="D206:H206"/>
-    <mergeCell ref="D208:H208"/>
-    <mergeCell ref="D211:H211"/>
-    <mergeCell ref="D212:H212"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D217:H217"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="D210:H210"/>
-    <mergeCell ref="D213:H213"/>
-    <mergeCell ref="D214:H214"/>
-    <mergeCell ref="D207:H207"/>
-    <mergeCell ref="D238:H238"/>
-    <mergeCell ref="D218:H218"/>
-    <mergeCell ref="D219:H219"/>
-    <mergeCell ref="D221:H221"/>
-    <mergeCell ref="D223:H223"/>
-    <mergeCell ref="D235:H235"/>
-    <mergeCell ref="D236:H236"/>
-    <mergeCell ref="D237:H237"/>
-    <mergeCell ref="D220:H220"/>
-    <mergeCell ref="D222:H222"/>
-    <mergeCell ref="D224:H224"/>
-    <mergeCell ref="D225:H225"/>
-    <mergeCell ref="D226:H226"/>
-    <mergeCell ref="D227:H227"/>
-    <mergeCell ref="D228:H228"/>
-    <mergeCell ref="D229:H229"/>
-    <mergeCell ref="D230:H230"/>
-    <mergeCell ref="D231:H231"/>
-    <mergeCell ref="D232:H232"/>
-    <mergeCell ref="D233:H233"/>
-    <mergeCell ref="D234:H234"/>
+    <mergeCell ref="D239:H239"/>
+    <mergeCell ref="D247:H247"/>
+    <mergeCell ref="D251:H251"/>
+    <mergeCell ref="D246:H246"/>
+    <mergeCell ref="D243:H243"/>
+    <mergeCell ref="D244:H244"/>
+    <mergeCell ref="D248:H248"/>
+    <mergeCell ref="D249:H249"/>
+    <mergeCell ref="D241:H241"/>
+    <mergeCell ref="D242:H242"/>
+    <mergeCell ref="D250:H250"/>
+    <mergeCell ref="D245:H245"/>
+    <mergeCell ref="D240:H240"/>
+    <mergeCell ref="D279:H279"/>
+    <mergeCell ref="D259:H259"/>
+    <mergeCell ref="D274:H274"/>
+    <mergeCell ref="D256:H256"/>
+    <mergeCell ref="D258:H258"/>
+    <mergeCell ref="D262:H262"/>
+    <mergeCell ref="D254:H254"/>
+    <mergeCell ref="D276:H276"/>
+    <mergeCell ref="D260:H260"/>
+    <mergeCell ref="D263:H263"/>
+    <mergeCell ref="D275:H275"/>
+    <mergeCell ref="D272:H272"/>
+    <mergeCell ref="D273:H273"/>
+    <mergeCell ref="D265:H265"/>
+    <mergeCell ref="D257:H257"/>
+    <mergeCell ref="D269:H269"/>
+    <mergeCell ref="D271:H271"/>
+    <mergeCell ref="D261:H261"/>
+    <mergeCell ref="D270:H270"/>
+    <mergeCell ref="D266:H266"/>
+    <mergeCell ref="D267:H267"/>
+    <mergeCell ref="D268:H268"/>
+    <mergeCell ref="D278:H278"/>
+    <mergeCell ref="D280:H280"/>
+    <mergeCell ref="D281:H281"/>
+    <mergeCell ref="D288:H288"/>
+    <mergeCell ref="D289:H289"/>
+    <mergeCell ref="D287:H287"/>
+    <mergeCell ref="D285:H285"/>
+    <mergeCell ref="D343:H343"/>
+    <mergeCell ref="D290:H290"/>
+    <mergeCell ref="D282:H282"/>
+    <mergeCell ref="D313:H313"/>
+    <mergeCell ref="D327:H327"/>
+    <mergeCell ref="D328:H328"/>
+    <mergeCell ref="D322:H322"/>
+    <mergeCell ref="D323:H323"/>
+    <mergeCell ref="D324:H324"/>
+    <mergeCell ref="D291:H291"/>
+    <mergeCell ref="D283:H283"/>
     <mergeCell ref="D292:H292"/>
     <mergeCell ref="D293:H293"/>
     <mergeCell ref="D308:H308"/>
     <mergeCell ref="D309:H309"/>
     <mergeCell ref="D299:H299"/>
-    <mergeCell ref="D306:H306"/>
+    <mergeCell ref="D301:H301"/>
     <mergeCell ref="D307:H307"/>
-    <mergeCell ref="D302:H302"/>
-    <mergeCell ref="D312:H312"/>
-    <mergeCell ref="D301:H301"/>
-    <mergeCell ref="D297:H297"/>
-    <mergeCell ref="D294:H294"/>
-    <mergeCell ref="D296:H296"/>
-    <mergeCell ref="D321:H321"/>
-    <mergeCell ref="D318:H318"/>
-    <mergeCell ref="D319:H319"/>
-    <mergeCell ref="D320:H320"/>
-    <mergeCell ref="D337:H337"/>
-    <mergeCell ref="D335:H335"/>
-    <mergeCell ref="D331:H331"/>
-    <mergeCell ref="D332:H332"/>
-    <mergeCell ref="D336:H336"/>
-    <mergeCell ref="D333:H333"/>
-    <mergeCell ref="D334:H334"/>
-    <mergeCell ref="D314:H314"/>
-    <mergeCell ref="D315:H315"/>
-    <mergeCell ref="D316:H316"/>
-    <mergeCell ref="D317:H317"/>
-    <mergeCell ref="D325:H325"/>
-    <mergeCell ref="D330:H330"/>
-    <mergeCell ref="D329:H329"/>
-    <mergeCell ref="D341:H341"/>
-    <mergeCell ref="D339:H339"/>
-    <mergeCell ref="D338:H338"/>
-    <mergeCell ref="D310:H310"/>
-    <mergeCell ref="D304:H304"/>
-    <mergeCell ref="D305:H305"/>
-    <mergeCell ref="D303:H303"/>
-    <mergeCell ref="D300:H300"/>
-    <mergeCell ref="D298:H298"/>
-    <mergeCell ref="D340:H340"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10610,10 +10745,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -12001,8 +12136,8 @@
         <f>Sheet1!C93</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="182"/>
-      <c r="E67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="184"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -12025,8 +12160,8 @@
         <f>Sheet1!C94</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="182"/>
-      <c r="E68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="184"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -12049,14 +12184,14 @@
         <f>Sheet1!C95</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="182"/>
-      <c r="E69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="184"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="186"/>
-      <c r="P69" s="186"/>
+      <c r="O69" s="187"/>
+      <c r="P69" s="187"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -12072,8 +12207,8 @@
         <f>Sheet1!C96</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="184"/>
-      <c r="E70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="186"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -12131,10 +12266,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="187" t="s">
+      <c r="B73" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="187"/>
+      <c r="C73" s="188"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -12197,8 +12332,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="186"/>
-      <c r="P75" s="186"/>
+      <c r="O75" s="187"/>
+      <c r="P75" s="187"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -13710,8 +13845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1122"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13829,10 +13964,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -13850,15 +13985,15 @@
       <c r="J4" s="42"/>
       <c r="K4" s="50">
         <f>SUM(L4:M4)</f>
-        <v>72870</v>
+        <v>75180</v>
       </c>
       <c r="L4" s="51">
         <f>SUM(L7:AD7)</f>
-        <v>58000</v>
+        <v>60200</v>
       </c>
       <c r="M4" s="52">
         <f>SUM(L9:AD9)</f>
-        <v>14870</v>
+        <v>14980</v>
       </c>
       <c r="O4" s="48"/>
       <c r="P4" s="48"/>
@@ -13975,7 +14110,7 @@
       </c>
       <c r="O7" s="56">
         <f>SUM($D$274:$D$500)</f>
-        <v>5400</v>
+        <v>7600</v>
       </c>
       <c r="P7" s="56"/>
     </row>
@@ -14008,7 +14143,7 @@
       </c>
       <c r="O8" s="56">
         <f>O7/200</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
@@ -14044,7 +14179,7 @@
       </c>
       <c r="O9" s="56">
         <f>SUM($F$274:$F$500)</f>
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="P9" s="56"/>
       <c r="Q9" s="56"/>
@@ -14088,7 +14223,7 @@
       </c>
       <c r="O10" s="56">
         <f>(O7/100)*(10000/120)</f>
-        <v>4500</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
@@ -14132,7 +14267,7 @@
       </c>
       <c r="O11" s="61">
         <f>O7-O10+O9</f>
-        <v>930</v>
+        <v>1406.666666666667</v>
       </c>
       <c r="P11" s="56"/>
       <c r="Q11" s="56"/>
@@ -19782,6 +19917,12 @@
         <f>Sheet1!C345</f>
         <v>5.0999999999999996</v>
       </c>
+      <c r="D302" s="54">
+        <v>400</v>
+      </c>
+      <c r="F302" s="54">
+        <v>20</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="58" t="s">
@@ -19795,6 +19936,12 @@
         <f>Sheet1!C346</f>
         <v>6.1</v>
       </c>
+      <c r="D303" s="54">
+        <v>200</v>
+      </c>
+      <c r="F303" s="54">
+        <v>10</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="58" t="s">
@@ -19808,8 +19955,14 @@
         <f>Sheet1!C347</f>
         <v>7.1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="54">
+        <v>200</v>
+      </c>
+      <c r="F304" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="58" t="s">
         <v>31</v>
       </c>
@@ -19821,8 +19974,14 @@
         <f>Sheet1!C348</f>
         <v>8.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="54">
+        <v>200</v>
+      </c>
+      <c r="F305" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="58" t="s">
         <v>32</v>
       </c>
@@ -19834,8 +19993,14 @@
         <f>Sheet1!C349</f>
         <v>9.1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="54">
+        <v>200</v>
+      </c>
+      <c r="F306" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="58" t="s">
         <v>26</v>
       </c>
@@ -19847,8 +20012,14 @@
         <f>Sheet1!C350</f>
         <v>10.1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="54">
+        <v>200</v>
+      </c>
+      <c r="F307" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="58" t="s">
         <v>27</v>
       </c>
@@ -19861,7 +20032,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="58" t="s">
         <v>28</v>
       </c>
@@ -19874,7 +20045,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="58" t="s">
         <v>29</v>
       </c>
@@ -19886,8 +20057,14 @@
         <f>Sheet1!C353</f>
         <v>13.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="54">
+        <v>600</v>
+      </c>
+      <c r="F310" s="54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="58" t="s">
         <v>30</v>
       </c>
@@ -19899,8 +20076,14 @@
         <f>Sheet1!C354</f>
         <v>14.1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="54">
+        <v>200</v>
+      </c>
+      <c r="F311" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="58" t="s">
         <v>31</v>
       </c>
@@ -19913,7 +20096,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="58" t="s">
         <v>32</v>
       </c>
@@ -19926,7 +20109,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="58" t="s">
         <v>26</v>
       </c>
@@ -19939,7 +20122,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="58" t="s">
         <v>27</v>
       </c>
@@ -19952,7 +20135,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="58" t="s">
         <v>28</v>
       </c>
@@ -19965,7 +20148,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="58" t="s">
         <v>29</v>
       </c>
@@ -19978,7 +20161,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="58" t="s">
         <v>30</v>
       </c>
@@ -19991,7 +20174,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="58" t="s">
         <v>31</v>
       </c>
@@ -20004,7 +20187,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="58" t="s">
         <v>32</v>
       </c>
@@ -29015,8 +29198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="D310" sqref="D310:F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29081,15 +29264,15 @@
       <c r="H3" s="89"/>
       <c r="I3" s="50">
         <f>SUM(J3:K3)</f>
-        <v>38030</v>
+        <v>39820</v>
       </c>
       <c r="J3" s="51">
         <f>SUM(J6:AC6)</f>
-        <v>27770</v>
+        <v>29120</v>
       </c>
       <c r="K3" s="52">
         <f>SUM(J8:AC8)</f>
-        <v>10260</v>
+        <v>10700</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
@@ -29105,10 +29288,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="88" t="s">
         <v>34</v>
       </c>
@@ -29207,7 +29390,11 @@
       </c>
       <c r="M6" s="56">
         <f>SUM($D$256:$D$326)</f>
-        <v>4220</v>
+        <v>5570</v>
+      </c>
+      <c r="P6" s="178">
+        <f>140*4-220-200-140</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -29238,7 +29425,7 @@
       </c>
       <c r="M7" s="56">
         <f>M6/100</f>
-        <v>42.2</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -29269,7 +29456,7 @@
       </c>
       <c r="M8" s="56">
         <f>SUM($E$256:$E$326)+SUM($F$256:$F$326)</f>
-        <v>1800</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -29300,7 +29487,7 @@
       </c>
       <c r="M9" s="56">
         <f>(M6/100)*(10000/120)</f>
-        <v>3516.6666666666665</v>
+        <v>4641.666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -29339,7 +29526,7 @@
       </c>
       <c r="M10" s="56">
         <f>M6-M9+M8</f>
-        <v>2503.3333333333335</v>
+        <v>3168.333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -35825,6 +36012,15 @@
         <f>Sheet1!C344</f>
         <v>4.0999999999999996</v>
       </c>
+      <c r="D301" s="1">
+        <v>160</v>
+      </c>
+      <c r="E301" s="1">
+        <v>10</v>
+      </c>
+      <c r="F301" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="58" t="s">
@@ -35838,6 +36034,15 @@
         <f>Sheet1!C345</f>
         <v>5.0999999999999996</v>
       </c>
+      <c r="D302" s="1">
+        <v>240</v>
+      </c>
+      <c r="E302" s="1">
+        <v>10</v>
+      </c>
+      <c r="F302" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="58" t="s">
@@ -35851,6 +36056,15 @@
         <f>Sheet1!C346</f>
         <v>6.1</v>
       </c>
+      <c r="D303" s="1">
+        <v>100</v>
+      </c>
+      <c r="E303" s="1">
+        <v>10</v>
+      </c>
+      <c r="F303" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="58" t="s">
@@ -35864,8 +36078,17 @@
         <f>Sheet1!C347</f>
         <v>7.1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D304" s="1">
+        <v>100</v>
+      </c>
+      <c r="E304" s="1">
+        <v>10</v>
+      </c>
+      <c r="F304" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="58" t="s">
         <v>31</v>
       </c>
@@ -35877,8 +36100,17 @@
         <f>Sheet1!C348</f>
         <v>8.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D305" s="1">
+        <v>130</v>
+      </c>
+      <c r="E305" s="1">
+        <v>10</v>
+      </c>
+      <c r="F305" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="58" t="s">
         <v>32</v>
       </c>
@@ -35890,8 +36122,17 @@
         <f>Sheet1!C349</f>
         <v>9.1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D306" s="1">
+        <v>120</v>
+      </c>
+      <c r="E306" s="1">
+        <v>10</v>
+      </c>
+      <c r="F306" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="58" t="s">
         <v>26</v>
       </c>
@@ -35903,8 +36144,17 @@
         <f>Sheet1!C350</f>
         <v>10.1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D307" s="1">
+        <v>100</v>
+      </c>
+      <c r="E307" s="1">
+        <v>10</v>
+      </c>
+      <c r="F307" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="58" t="s">
         <v>27</v>
       </c>
@@ -35916,8 +36166,17 @@
         <f>Sheet1!C351</f>
         <v>11.1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D308" s="1">
+        <v>100</v>
+      </c>
+      <c r="E308" s="1">
+        <v>10</v>
+      </c>
+      <c r="F308" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="58" t="s">
         <v>28</v>
       </c>
@@ -35929,8 +36188,17 @@
         <f>Sheet1!C352</f>
         <v>12.1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D309" s="1">
+        <v>100</v>
+      </c>
+      <c r="E309" s="1">
+        <v>10</v>
+      </c>
+      <c r="F309" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="58" t="s">
         <v>29</v>
       </c>
@@ -35942,8 +36210,17 @@
         <f>Sheet1!C353</f>
         <v>13.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D310" s="1">
+        <v>100</v>
+      </c>
+      <c r="E310" s="1">
+        <v>10</v>
+      </c>
+      <c r="F310" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="58" t="s">
         <v>30</v>
       </c>
@@ -35955,8 +36232,17 @@
         <f>Sheet1!C354</f>
         <v>14.1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D311" s="1">
+        <v>100</v>
+      </c>
+      <c r="E311" s="1">
+        <v>10</v>
+      </c>
+      <c r="F311" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="58" t="s">
         <v>31</v>
       </c>
@@ -35969,7 +36255,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="58" t="s">
         <v>32</v>
       </c>
@@ -35982,7 +36268,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="58" t="s">
         <v>26</v>
       </c>
@@ -35995,7 +36281,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="58" t="s">
         <v>27</v>
       </c>
@@ -36008,7 +36294,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="58" t="s">
         <v>28</v>
       </c>
@@ -36021,7 +36307,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="58" t="s">
         <v>29</v>
       </c>
@@ -36034,7 +36320,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="58" t="s">
         <v>30</v>
       </c>
@@ -36047,7 +36333,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="58" t="s">
         <v>31</v>
       </c>
@@ -36060,7 +36346,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="58" t="s">
         <v>32</v>
       </c>
@@ -44396,10 +44682,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44421,10 +44707,6 @@
         <f>SUM(B6:Z6)</f>
         <v>1650</v>
       </c>
-      <c r="E1">
-        <f>D1*2.4/3</f>
-        <v>1320</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="142"/>
@@ -44614,6 +44896,32 @@
       </c>
       <c r="F10">
         <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="153">
+        <v>43071</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>450</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
